--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_25_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_25_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2201461.193437759</v>
+        <v>2184398.189598097</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11851204.46551454</v>
+        <v>11776123.76278322</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6382343.808826885</v>
+        <v>6588766.486972923</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6060790.568584052</v>
+        <v>6011290.417787685</v>
       </c>
     </row>
     <row r="11">
@@ -8690,28 +8692,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>177.6670729669849</v>
+        <v>167.710687619257</v>
       </c>
       <c r="L11" t="n">
-        <v>179.9411148582959</v>
+        <v>170.7854310579181</v>
       </c>
       <c r="M11" t="n">
-        <v>171.7860993382337</v>
+        <v>158.0423681299224</v>
       </c>
       <c r="N11" t="n">
-        <v>169.9053655184922</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>173.9067795661881</v>
+        <v>3.073888831947158</v>
       </c>
       <c r="P11" t="n">
-        <v>183.2749087013237</v>
+        <v>172.0194177391078</v>
       </c>
       <c r="Q11" t="n">
-        <v>28.64608330507667</v>
+        <v>20.19367833887517</v>
       </c>
       <c r="R11" t="n">
-        <v>36.99107627962076</v>
+        <v>32.07437538755418</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,10 +8771,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>102.2648533942562</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>90.7172700440731</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>90.17689908866218</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8851,16 +8853,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>107.4237051862024</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>30.02313482540607</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>99.42025606834319</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>112.3489697478182</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8927,28 +8929,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>10.06560716385606</v>
       </c>
       <c r="L14" t="n">
-        <v>183.1372074855908</v>
+        <v>170.7854310579181</v>
       </c>
       <c r="M14" t="n">
-        <v>171.7860993382337</v>
+        <v>0.3972876745214506</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>155.9392463706018</v>
       </c>
       <c r="O14" t="n">
-        <v>145.6769994162032</v>
+        <v>160.7189692873481</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>172.0194177391078</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>20.19367833887517</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>32.07437538755418</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9015,16 +9017,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>3.44451625751212</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>90.17689908866218</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>91.90326139519466</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>111.8583271261032</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -9088,16 +9090,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>107.4237051862024</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>109.972040240151</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>112.3489697478182</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -9164,22 +9166,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>177.6670729669849</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>65.31410754408415</v>
+        <v>33.19297815391239</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>155.9392463706018</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>160.7189692873481</v>
       </c>
       <c r="P17" t="n">
-        <v>183.2749087013237</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9334,7 +9336,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>112.3489697478182</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -9401,22 +9403,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>69.07440094488098</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>23.37753409259007</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>155.9392463706018</v>
       </c>
       <c r="O20" t="n">
-        <v>173.9067795661881</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>183.2749087013237</v>
+        <v>172.0194177391078</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9562,7 +9564,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>107.4237051862024</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -9641,19 +9643,19 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>170.7854310579181</v>
       </c>
       <c r="M23" t="n">
-        <v>171.7860993382337</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>155.9392463706018</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>118.7241209616389</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9717,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>46.20464749039657</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9799,16 +9801,16 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>112.643567290963</v>
+        <v>107.4237051862024</v>
       </c>
       <c r="M25" t="n">
-        <v>115.4756529509488</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>104.7930051700574</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>117.3115731478927</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>7.319242393343348</v>
+        <v>146.0971233641498</v>
       </c>
       <c r="K26" t="n">
-        <v>177.6670729669849</v>
+        <v>167.710687619257</v>
       </c>
       <c r="L26" t="n">
-        <v>110.1243792822739</v>
+        <v>25.36438303498683</v>
       </c>
       <c r="M26" t="n">
-        <v>171.7860993382337</v>
+        <v>36.87249542875153</v>
       </c>
       <c r="N26" t="n">
-        <v>169.9053655184922</v>
+        <v>155.9392463706018</v>
       </c>
       <c r="O26" t="n">
-        <v>173.9067795661881</v>
+        <v>160.7189692873481</v>
       </c>
       <c r="P26" t="n">
-        <v>183.2749087013237</v>
+        <v>26.59836971617661</v>
       </c>
       <c r="Q26" t="n">
-        <v>40.87011573754637</v>
+        <v>177.8387587942761</v>
       </c>
       <c r="R26" t="n">
-        <v>49.21510871209045</v>
+        <v>44.29840782002388</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9963,13 +9965,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>74.04057542595996</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>91.90326139519466</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10033,25 +10035,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>112.643567290963</v>
+        <v>107.4237051862024</v>
       </c>
       <c r="M28" t="n">
-        <v>115.4756529509488</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>104.7930051700574</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>117.3115731478927</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>119.6348333259837</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.6760753412185281</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>127.0303805596143</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>25.36438303498683</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>158.0423681299224</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>155.9392463706018</v>
       </c>
       <c r="O29" t="n">
-        <v>104.9118900502746</v>
+        <v>160.7189692873481</v>
       </c>
       <c r="P29" t="n">
-        <v>183.2749087013237</v>
+        <v>172.0194177391078</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>32.41771077134487</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>44.29840782002388</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>91.90326139519466</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>111.8583271261032</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10273,19 +10275,19 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>112.643567290963</v>
+        <v>107.4237051862024</v>
       </c>
       <c r="M31" t="n">
-        <v>115.4756529509488</v>
+        <v>109.972040240151</v>
       </c>
       <c r="N31" t="n">
-        <v>104.7930051700574</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>112.3489697478182</v>
       </c>
       <c r="P31" t="n">
-        <v>119.6348333259837</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10358,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>50.88916160309618</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10510,22 +10512,22 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>107.4237051862024</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>40.01621320307457</v>
+        <v>99.42025606834319</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>119.6348333259837</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>113.2541750466773</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10747,10 +10749,10 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>44.17539357810467</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>115.4756529509488</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -10762,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10829,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>113.2541750466771</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10984,7 +10986,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>42.33947338116509</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -10993,13 +10995,13 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>117.3115731478927</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>24.41406772826527</v>
+        <v>146.0971233641498</v>
       </c>
       <c r="K41" t="n">
-        <v>177.6670729669849</v>
+        <v>57.60305503084123</v>
       </c>
       <c r="L41" t="n">
-        <v>183.1372074855908</v>
+        <v>170.7854310579181</v>
       </c>
       <c r="M41" t="n">
-        <v>171.7860993382337</v>
+        <v>158.0423681299224</v>
       </c>
       <c r="N41" t="n">
-        <v>169.9053655184922</v>
+        <v>45.831613782186</v>
       </c>
       <c r="O41" t="n">
-        <v>173.9067795661881</v>
+        <v>50.61133669893232</v>
       </c>
       <c r="P41" t="n">
-        <v>183.2749087013237</v>
+        <v>172.0194177391078</v>
       </c>
       <c r="Q41" t="n">
-        <v>57.96494107246829</v>
+        <v>67.73112620586033</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,31 +11138,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>106.0223720293797</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>88.33866169793632</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>34.69661078059768</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>90.17689908866218</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>91.90326139519466</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>111.8583271261032</v>
       </c>
       <c r="R42" t="n">
-        <v>6.274372953458617</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11215,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>3.828967021085871</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>112.643567290963</v>
+        <v>107.4237051862024</v>
       </c>
       <c r="M43" t="n">
-        <v>115.4756529509488</v>
+        <v>109.972040240151</v>
       </c>
       <c r="N43" t="n">
-        <v>104.7930051700574</v>
+        <v>99.42025606834319</v>
       </c>
       <c r="O43" t="n">
-        <v>117.3115731478927</v>
+        <v>112.3489697478182</v>
       </c>
       <c r="P43" t="n">
-        <v>119.6348333259837</v>
+        <v>115.3884688009908</v>
       </c>
       <c r="Q43" t="n">
-        <v>10.65200537476012</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>152.7402904162746</v>
+        <v>146.0971233641498</v>
       </c>
       <c r="K44" t="n">
-        <v>177.6670729669849</v>
+        <v>167.710687619257</v>
       </c>
       <c r="L44" t="n">
-        <v>183.1372074855908</v>
+        <v>170.7854310579181</v>
       </c>
       <c r="M44" t="n">
-        <v>171.7860993382337</v>
+        <v>47.93473554150661</v>
       </c>
       <c r="N44" t="n">
-        <v>169.9053655184922</v>
+        <v>155.9392463706018</v>
       </c>
       <c r="O44" t="n">
-        <v>173.9067795661881</v>
+        <v>50.61133669893232</v>
       </c>
       <c r="P44" t="n">
-        <v>173.5466730080109</v>
+        <v>167.93680903978</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.2911637604776</v>
+        <v>67.73112620586033</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11370,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>85.78001052825977</v>
+        <v>106.0223720293797</v>
       </c>
       <c r="K45" t="n">
-        <v>84.82836906833064</v>
+        <v>102.2648533942562</v>
       </c>
       <c r="L45" t="n">
-        <v>75.61130218835351</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>72.72252052338904</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>60.73355762613546</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>75.94193604865166</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>75.70128220768761</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>93.00512830343281</v>
+        <v>111.8583271261032</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>21.89280612112942</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11455,25 +11457,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>87.43373055434367</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>112.643567290963</v>
+        <v>107.4237051862024</v>
       </c>
       <c r="M46" t="n">
-        <v>115.4756529509488</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>104.7930051700574</v>
+        <v>99.42025606834319</v>
       </c>
       <c r="O46" t="n">
-        <v>117.3115731478927</v>
+        <v>112.3489697478182</v>
       </c>
       <c r="P46" t="n">
-        <v>95.43584703886857</v>
+        <v>115.3884688009908</v>
       </c>
       <c r="Q46" t="n">
-        <v>65.34295837775146</v>
+        <v>25.93063278345544</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>249.2309652863105</v>
       </c>
       <c r="G11" t="n">
-        <v>257.324154485494</v>
+        <v>257.2458833233016</v>
       </c>
       <c r="H11" t="n">
-        <v>178.4142384219297</v>
+        <v>177.612643882127</v>
       </c>
       <c r="I11" t="n">
-        <v>39.97345112161307</v>
+        <v>36.95590214119164</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>43.77529922034785</v>
+        <v>41.99169511188919</v>
       </c>
       <c r="T11" t="n">
-        <v>63.99086158999432</v>
+        <v>63.6482295774972</v>
       </c>
       <c r="U11" t="n">
-        <v>93.67389224649634</v>
+        <v>93.66763055352095</v>
       </c>
       <c r="V11" t="n">
         <v>170.107178014734</v>
@@ -23385,13 +23387,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>10.72365318405636</v>
+        <v>9.945773514185447</v>
       </c>
       <c r="T12" t="n">
-        <v>41.80041139650078</v>
+        <v>41.63161058974484</v>
       </c>
       <c r="U12" t="n">
-        <v>68.2845621776481</v>
+        <v>68.28180699581856</v>
       </c>
       <c r="V12" t="n">
         <v>75.15550669402433</v>
@@ -23428,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>10.19630112948985</v>
+        <v>10.16119138071136</v>
       </c>
       <c r="H13" t="n">
-        <v>3.252031847043583</v>
+        <v>2.939874262449223</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>12.92185103024954</v>
+        <v>11.34318905335425</v>
       </c>
       <c r="S13" t="n">
-        <v>63.76443638220982</v>
+        <v>63.15256921486079</v>
       </c>
       <c r="T13" t="n">
-        <v>69.66131848581747</v>
+        <v>69.51130410467297</v>
       </c>
       <c r="U13" t="n">
-        <v>128.6657890225317</v>
+        <v>128.6638739453256</v>
       </c>
       <c r="V13" t="n">
         <v>94.49256286842706</v>
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>181.3134619877317</v>
+        <v>225.0887612080796</v>
       </c>
       <c r="C14" t="n">
-        <v>163.8525120952587</v>
+        <v>207.6278113156066</v>
       </c>
       <c r="D14" t="n">
-        <v>153.2626619449341</v>
+        <v>197.037961165282</v>
       </c>
       <c r="E14" t="n">
-        <v>180.5099903965129</v>
+        <v>224.2852896168608</v>
       </c>
       <c r="F14" t="n">
-        <v>205.4556660659626</v>
+        <v>249.2309652863105</v>
       </c>
       <c r="G14" t="n">
-        <v>213.548855265146</v>
+        <v>257.2458833233016</v>
       </c>
       <c r="H14" t="n">
-        <v>134.6389392015817</v>
+        <v>177.612643882127</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>36.95590214119164</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>41.99169511188919</v>
       </c>
       <c r="T14" t="n">
-        <v>20.21556236964639</v>
+        <v>63.6482295774972</v>
       </c>
       <c r="U14" t="n">
-        <v>49.8985930261484</v>
+        <v>93.66763055352095</v>
       </c>
       <c r="V14" t="n">
-        <v>126.331878794386</v>
+        <v>170.107178014734</v>
       </c>
       <c r="W14" t="n">
-        <v>147.8205890416641</v>
+        <v>191.5958882620121</v>
       </c>
       <c r="X14" t="n">
-        <v>168.3107210027202</v>
+        <v>212.0860202230681</v>
       </c>
       <c r="Y14" t="n">
-        <v>184.8175589803047</v>
+        <v>228.5928582006526</v>
       </c>
     </row>
     <row r="15">
@@ -23571,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>8.888103194466396</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>15.0634185329148</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23622,25 +23624,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>9.945773514185447</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>41.63161058974484</v>
       </c>
       <c r="U15" t="n">
-        <v>24.50926295730017</v>
+        <v>68.28180699581856</v>
       </c>
       <c r="V15" t="n">
-        <v>31.38020747367639</v>
+        <v>75.15550669402433</v>
       </c>
       <c r="W15" t="n">
-        <v>50.27460348517073</v>
+        <v>94.04990270551866</v>
       </c>
       <c r="X15" t="n">
-        <v>4.352605527728599</v>
+        <v>48.12790474807653</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.262316101555484</v>
+        <v>48.03761532190342</v>
       </c>
     </row>
     <row r="16">
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>22.18689972653635</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>9.60174064322689</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>10.16119138071136</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2.939874262449223</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>11.34318905335425</v>
       </c>
       <c r="S16" t="n">
-        <v>19.98913716186189</v>
+        <v>63.15256921486079</v>
       </c>
       <c r="T16" t="n">
-        <v>25.88601926546954</v>
+        <v>69.51130410467297</v>
       </c>
       <c r="U16" t="n">
-        <v>84.89048980218374</v>
+        <v>128.6638739453256</v>
       </c>
       <c r="V16" t="n">
-        <v>50.71726364807913</v>
+        <v>94.49256286842706</v>
       </c>
       <c r="W16" t="n">
-        <v>85.10261866084213</v>
+        <v>128.8779178811901</v>
       </c>
       <c r="X16" t="n">
-        <v>24.28927571328828</v>
+        <v>68.06457493363621</v>
       </c>
       <c r="Y16" t="n">
-        <v>17.16427367634591</v>
+        <v>60.93957289669385</v>
       </c>
     </row>
     <row r="17">
@@ -23729,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>177.0511458861762</v>
+        <v>183.0970660961904</v>
       </c>
       <c r="C17" t="n">
-        <v>159.5901959937032</v>
+        <v>165.6361162037174</v>
       </c>
       <c r="D17" t="n">
-        <v>149.0003458433786</v>
+        <v>155.0462660533928</v>
       </c>
       <c r="E17" t="n">
-        <v>176.2476742949574</v>
+        <v>182.2935945049717</v>
       </c>
       <c r="F17" t="n">
-        <v>201.1933499644071</v>
+        <v>207.2392701744213</v>
       </c>
       <c r="G17" t="n">
-        <v>209.2865391635906</v>
+        <v>215.2541882114124</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3766231000263</v>
+        <v>135.6209487702378</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23783,22 +23785,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>15.95324626809091</v>
+        <v>21.65653446560802</v>
       </c>
       <c r="U17" t="n">
-        <v>45.63627692459292</v>
+        <v>51.67593544163176</v>
       </c>
       <c r="V17" t="n">
-        <v>122.0695626928305</v>
+        <v>128.1154829028448</v>
       </c>
       <c r="W17" t="n">
-        <v>143.5582729401087</v>
+        <v>149.6041931501229</v>
       </c>
       <c r="X17" t="n">
-        <v>164.0484049011647</v>
+        <v>170.0943251111789</v>
       </c>
       <c r="Y17" t="n">
-        <v>180.5552428787492</v>
+        <v>186.6011630887635</v>
       </c>
     </row>
     <row r="18">
@@ -23865,19 +23867,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>20.24694685574468</v>
+        <v>26.29011188392937</v>
       </c>
       <c r="V18" t="n">
-        <v>27.11789137212091</v>
+        <v>33.16381158213514</v>
       </c>
       <c r="W18" t="n">
-        <v>46.01228738361525</v>
+        <v>52.05820759362948</v>
       </c>
       <c r="X18" t="n">
-        <v>0.09028942617311486</v>
+        <v>6.136209636187345</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>6.045920210014231</v>
       </c>
     </row>
     <row r="19">
@@ -23938,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>15.72682106030641</v>
+        <v>21.1608741029716</v>
       </c>
       <c r="T19" t="n">
-        <v>21.62370316391406</v>
+        <v>27.51960899278379</v>
       </c>
       <c r="U19" t="n">
-        <v>80.62817370062825</v>
+        <v>86.67217883343639</v>
       </c>
       <c r="V19" t="n">
-        <v>46.45494754652364</v>
+        <v>52.50086775653787</v>
       </c>
       <c r="W19" t="n">
-        <v>80.84030255928664</v>
+        <v>86.88622276930087</v>
       </c>
       <c r="X19" t="n">
-        <v>20.02695961173279</v>
+        <v>26.07287982174702</v>
       </c>
       <c r="Y19" t="n">
-        <v>12.90195757479043</v>
+        <v>18.94787778480466</v>
       </c>
     </row>
     <row r="20">
@@ -23966,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>177.0511458861762</v>
+        <v>183.0970660961904</v>
       </c>
       <c r="C20" t="n">
-        <v>159.5901959937032</v>
+        <v>165.6361162037174</v>
       </c>
       <c r="D20" t="n">
-        <v>149.0003458433786</v>
+        <v>155.0462660533928</v>
       </c>
       <c r="E20" t="n">
-        <v>176.2476742949574</v>
+        <v>182.2935945049717</v>
       </c>
       <c r="F20" t="n">
-        <v>201.1933499644071</v>
+        <v>207.2392701744213</v>
       </c>
       <c r="G20" t="n">
-        <v>209.2865391635906</v>
+        <v>215.2541882114124</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3766231000263</v>
+        <v>135.6209487702378</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24020,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>15.95324626809091</v>
+        <v>21.65653446560802</v>
       </c>
       <c r="U20" t="n">
-        <v>45.63627692459292</v>
+        <v>51.67593544163176</v>
       </c>
       <c r="V20" t="n">
-        <v>122.0695626928305</v>
+        <v>128.1154829028448</v>
       </c>
       <c r="W20" t="n">
-        <v>143.5582729401087</v>
+        <v>149.6041931501229</v>
       </c>
       <c r="X20" t="n">
-        <v>164.0484049011647</v>
+        <v>170.0943251111789</v>
       </c>
       <c r="Y20" t="n">
-        <v>180.5552428787492</v>
+        <v>186.6011630887635</v>
       </c>
     </row>
     <row r="21">
@@ -24102,19 +24104,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>20.24694685574468</v>
+        <v>26.29011188392937</v>
       </c>
       <c r="V21" t="n">
-        <v>27.11789137212091</v>
+        <v>33.16381158213514</v>
       </c>
       <c r="W21" t="n">
-        <v>46.01228738361525</v>
+        <v>52.05820759362948</v>
       </c>
       <c r="X21" t="n">
-        <v>0.09028942617311486</v>
+        <v>6.136209636187345</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>6.045920210014231</v>
       </c>
     </row>
     <row r="22">
@@ -24175,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>15.72682106030641</v>
+        <v>21.1608741029716</v>
       </c>
       <c r="T22" t="n">
-        <v>21.62370316391406</v>
+        <v>27.51960899278379</v>
       </c>
       <c r="U22" t="n">
-        <v>80.62817370062825</v>
+        <v>86.67217883343639</v>
       </c>
       <c r="V22" t="n">
-        <v>46.45494754652364</v>
+        <v>52.50086775653787</v>
       </c>
       <c r="W22" t="n">
-        <v>80.84030255928664</v>
+        <v>86.88622276930087</v>
       </c>
       <c r="X22" t="n">
-        <v>20.02695961173279</v>
+        <v>26.07287982174702</v>
       </c>
       <c r="Y22" t="n">
-        <v>12.90195757479043</v>
+        <v>18.94787778480466</v>
       </c>
     </row>
     <row r="23">
@@ -24203,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>177.0511458861762</v>
+        <v>183.0970660961904</v>
       </c>
       <c r="C23" t="n">
-        <v>159.5901959937032</v>
+        <v>165.6361162037174</v>
       </c>
       <c r="D23" t="n">
-        <v>149.0003458433786</v>
+        <v>155.0462660533928</v>
       </c>
       <c r="E23" t="n">
-        <v>176.2476742949574</v>
+        <v>182.2935945049717</v>
       </c>
       <c r="F23" t="n">
-        <v>201.1933499644071</v>
+        <v>207.2392701744213</v>
       </c>
       <c r="G23" t="n">
-        <v>209.2865391635906</v>
+        <v>215.2541882114124</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3766231000263</v>
+        <v>135.6209487702378</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24257,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>15.95324626809091</v>
+        <v>21.65653446560802</v>
       </c>
       <c r="U23" t="n">
-        <v>45.63627692459292</v>
+        <v>51.67593544163176</v>
       </c>
       <c r="V23" t="n">
-        <v>122.0695626928305</v>
+        <v>128.1154829028448</v>
       </c>
       <c r="W23" t="n">
-        <v>143.5582729401087</v>
+        <v>149.6041931501229</v>
       </c>
       <c r="X23" t="n">
-        <v>164.0484049011647</v>
+        <v>170.0943251111789</v>
       </c>
       <c r="Y23" t="n">
-        <v>180.5552428787492</v>
+        <v>186.6011630887635</v>
       </c>
     </row>
     <row r="24">
@@ -24339,19 +24341,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>20.24694685574468</v>
+        <v>26.29011188392937</v>
       </c>
       <c r="V24" t="n">
-        <v>27.11789137212091</v>
+        <v>33.16381158213514</v>
       </c>
       <c r="W24" t="n">
-        <v>46.01228738361525</v>
+        <v>52.05820759362948</v>
       </c>
       <c r="X24" t="n">
-        <v>0.09028942617311486</v>
+        <v>6.136209636187345</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>6.045920210014231</v>
       </c>
     </row>
     <row r="25">
@@ -24412,25 +24414,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>15.72682106030641</v>
+        <v>21.1608741029716</v>
       </c>
       <c r="T25" t="n">
-        <v>21.62370316391406</v>
+        <v>27.51960899278379</v>
       </c>
       <c r="U25" t="n">
-        <v>80.62817370062825</v>
+        <v>86.67217883343639</v>
       </c>
       <c r="V25" t="n">
-        <v>46.45494754652364</v>
+        <v>52.50086775653787</v>
       </c>
       <c r="W25" t="n">
-        <v>80.84030255928664</v>
+        <v>86.88622276930087</v>
       </c>
       <c r="X25" t="n">
-        <v>20.02695961173279</v>
+        <v>26.07287982174702</v>
       </c>
       <c r="Y25" t="n">
-        <v>12.90195757479043</v>
+        <v>18.94787778480466</v>
       </c>
     </row>
     <row r="26">
@@ -24455,13 +24457,13 @@
         <v>261.4549977187802</v>
       </c>
       <c r="G26" t="n">
-        <v>269.5481869179637</v>
+        <v>269.4699157557713</v>
       </c>
       <c r="H26" t="n">
-        <v>190.6382708543994</v>
+        <v>189.8366763145967</v>
       </c>
       <c r="I26" t="n">
-        <v>52.19748355408277</v>
+        <v>49.17993457366134</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>55.99933165281755</v>
+        <v>54.21572754435888</v>
       </c>
       <c r="T26" t="n">
-        <v>76.21489402246402</v>
+        <v>75.8722620099669</v>
       </c>
       <c r="U26" t="n">
-        <v>105.897924678966</v>
+        <v>105.8916629859906</v>
       </c>
       <c r="V26" t="n">
         <v>182.3312104472037</v>
@@ -24570,13 +24572,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>22.94768561652606</v>
+        <v>22.16980594665515</v>
       </c>
       <c r="T27" t="n">
-        <v>54.02444382897048</v>
+        <v>53.85564302221454</v>
       </c>
       <c r="U27" t="n">
-        <v>80.5085946101178</v>
+        <v>80.50583942828825</v>
       </c>
       <c r="V27" t="n">
         <v>87.37953912649402</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>22.42033356195955</v>
+        <v>22.38522381318106</v>
       </c>
       <c r="H28" t="n">
-        <v>15.47606427951328</v>
+        <v>15.16390669491892</v>
       </c>
       <c r="I28" t="n">
-        <v>5.530613859210803</v>
+        <v>4.474767959580873</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>25.14588346271924</v>
+        <v>23.56722148582395</v>
       </c>
       <c r="S28" t="n">
-        <v>75.98846881467952</v>
+        <v>75.37660164733049</v>
       </c>
       <c r="T28" t="n">
-        <v>81.88535091828717</v>
+        <v>81.73533653714267</v>
       </c>
       <c r="U28" t="n">
-        <v>140.8898214550014</v>
+        <v>140.8879063777953</v>
       </c>
       <c r="V28" t="n">
         <v>106.7165953008968</v>
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>176.9608564600031</v>
+        <v>237.3127936405493</v>
       </c>
       <c r="C29" t="n">
-        <v>159.4999065675301</v>
+        <v>219.8518437480763</v>
       </c>
       <c r="D29" t="n">
-        <v>148.9100564172055</v>
+        <v>209.2619935977517</v>
       </c>
       <c r="E29" t="n">
-        <v>176.1573848687843</v>
+        <v>236.5093220493305</v>
       </c>
       <c r="F29" t="n">
-        <v>201.103060538234</v>
+        <v>261.4549977187802</v>
       </c>
       <c r="G29" t="n">
-        <v>209.1962497374174</v>
+        <v>269.4699157557713</v>
       </c>
       <c r="H29" t="n">
-        <v>130.2863336738531</v>
+        <v>189.8366763145967</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>49.17993457366134</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>54.21572754435888</v>
       </c>
       <c r="T29" t="n">
-        <v>15.86295684191779</v>
+        <v>75.8722620099669</v>
       </c>
       <c r="U29" t="n">
-        <v>45.54598749841981</v>
+        <v>105.8916629859906</v>
       </c>
       <c r="V29" t="n">
-        <v>121.9792732666574</v>
+        <v>182.3312104472037</v>
       </c>
       <c r="W29" t="n">
-        <v>143.4679835139355</v>
+        <v>203.8199206944818</v>
       </c>
       <c r="X29" t="n">
-        <v>163.9581154749916</v>
+        <v>224.3100526555378</v>
       </c>
       <c r="Y29" t="n">
-        <v>180.4649534525761</v>
+        <v>240.8168906331223</v>
       </c>
     </row>
     <row r="30">
@@ -24756,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>21.11213562693609</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>27.28745096538449</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>2.024017541707508</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>12.2240324324697</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -24807,25 +24809,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>22.16980594665515</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>53.85564302221454</v>
       </c>
       <c r="U30" t="n">
-        <v>20.15665742957157</v>
+        <v>80.50583942828825</v>
       </c>
       <c r="V30" t="n">
-        <v>27.02760194594779</v>
+        <v>87.37953912649402</v>
       </c>
       <c r="W30" t="n">
-        <v>45.92199795744213</v>
+        <v>106.2739351379884</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>60.35193718054623</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>60.26164775437312</v>
       </c>
     </row>
     <row r="31">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>34.41093215900605</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>21.82577307569659</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>3.194424995281111</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1.012914623637926</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>22.38522381318106</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>15.16390669491892</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>4.474767959580873</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>23.56722148582395</v>
       </c>
       <c r="S31" t="n">
-        <v>15.63653163413329</v>
+        <v>75.37660164733049</v>
       </c>
       <c r="T31" t="n">
-        <v>21.53341373774094</v>
+        <v>81.73533653714267</v>
       </c>
       <c r="U31" t="n">
-        <v>80.53788427445514</v>
+        <v>140.8879063777953</v>
       </c>
       <c r="V31" t="n">
-        <v>46.36465812035053</v>
+        <v>106.7165953008968</v>
       </c>
       <c r="W31" t="n">
-        <v>80.75001313311353</v>
+        <v>141.1019503136598</v>
       </c>
       <c r="X31" t="n">
-        <v>19.93667018555968</v>
+        <v>80.28860736610591</v>
       </c>
       <c r="Y31" t="n">
-        <v>12.81166814861731</v>
+        <v>73.16360532916354</v>
       </c>
     </row>
     <row r="32">
@@ -24914,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>157.0241862744434</v>
+        <v>169.1968561640227</v>
       </c>
       <c r="C32" t="n">
-        <v>139.5632363819704</v>
+        <v>151.7359062715497</v>
       </c>
       <c r="D32" t="n">
-        <v>128.9733862316458</v>
+        <v>141.1460561212251</v>
       </c>
       <c r="E32" t="n">
-        <v>156.2207146832246</v>
+        <v>168.3933845728039</v>
       </c>
       <c r="F32" t="n">
-        <v>181.1663903526743</v>
+        <v>193.3390602422536</v>
       </c>
       <c r="G32" t="n">
-        <v>189.2595795518578</v>
+        <v>201.3539782792447</v>
       </c>
       <c r="H32" t="n">
-        <v>110.3496634882935</v>
+        <v>121.7207388380701</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24968,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>7.756324533440306</v>
       </c>
       <c r="U32" t="n">
-        <v>25.60931731286014</v>
+        <v>37.77572550946405</v>
       </c>
       <c r="V32" t="n">
-        <v>102.0426030810978</v>
+        <v>114.2152729706771</v>
       </c>
       <c r="W32" t="n">
-        <v>123.5313133283759</v>
+        <v>135.7039832179552</v>
       </c>
       <c r="X32" t="n">
-        <v>144.0214452894319</v>
+        <v>156.1941151790112</v>
       </c>
       <c r="Y32" t="n">
-        <v>160.5282832670164</v>
+        <v>172.7009531565957</v>
       </c>
     </row>
     <row r="33">
@@ -25050,13 +25052,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0.2199872440118794</v>
+        <v>12.38990195176166</v>
       </c>
       <c r="V33" t="n">
-        <v>7.090931760388116</v>
+        <v>19.26360164996743</v>
       </c>
       <c r="W33" t="n">
-        <v>25.98532777188245</v>
+        <v>38.15799766146176</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25123,25 +25125,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>7.260664170803892</v>
       </c>
       <c r="T34" t="n">
-        <v>1.596743552181275</v>
+        <v>13.61939906061608</v>
       </c>
       <c r="U34" t="n">
-        <v>60.60121408889548</v>
+        <v>72.77196890126868</v>
       </c>
       <c r="V34" t="n">
-        <v>26.42798793479085</v>
+        <v>38.60065782437016</v>
       </c>
       <c r="W34" t="n">
-        <v>60.81334294755385</v>
+        <v>72.98601283713316</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>12.17266988957931</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>5.047667852636948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>157.0241862744434</v>
+        <v>169.1968561640227</v>
       </c>
       <c r="C35" t="n">
-        <v>139.5632363819704</v>
+        <v>151.7359062715497</v>
       </c>
       <c r="D35" t="n">
-        <v>128.9733862316458</v>
+        <v>141.1460561212251</v>
       </c>
       <c r="E35" t="n">
-        <v>156.2207146832246</v>
+        <v>168.3933845728039</v>
       </c>
       <c r="F35" t="n">
-        <v>181.1663903526743</v>
+        <v>193.3390602422536</v>
       </c>
       <c r="G35" t="n">
-        <v>189.2595795518578</v>
+        <v>201.3539782792447</v>
       </c>
       <c r="H35" t="n">
-        <v>110.3496634882935</v>
+        <v>121.7207388380701</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25205,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>7.756324533440306</v>
       </c>
       <c r="U35" t="n">
-        <v>25.60931731286014</v>
+        <v>37.77572550946405</v>
       </c>
       <c r="V35" t="n">
-        <v>102.0426030810978</v>
+        <v>114.2152729706771</v>
       </c>
       <c r="W35" t="n">
-        <v>123.5313133283759</v>
+        <v>135.7039832179552</v>
       </c>
       <c r="X35" t="n">
-        <v>144.0214452894319</v>
+        <v>156.1941151790112</v>
       </c>
       <c r="Y35" t="n">
-        <v>160.5282832670164</v>
+        <v>172.7009531565957</v>
       </c>
     </row>
     <row r="36">
@@ -25287,13 +25289,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0.2199872440118794</v>
+        <v>12.38990195176166</v>
       </c>
       <c r="V36" t="n">
-        <v>7.090931760388116</v>
+        <v>19.26360164996743</v>
       </c>
       <c r="W36" t="n">
-        <v>25.98532777188245</v>
+        <v>38.15799766146176</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25360,25 +25362,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>7.260664170803892</v>
       </c>
       <c r="T37" t="n">
-        <v>1.596743552181275</v>
+        <v>13.61939906061608</v>
       </c>
       <c r="U37" t="n">
-        <v>60.60121408889548</v>
+        <v>72.77196890126868</v>
       </c>
       <c r="V37" t="n">
-        <v>26.42798793479085</v>
+        <v>38.60065782437016</v>
       </c>
       <c r="W37" t="n">
-        <v>60.81334294755385</v>
+        <v>72.98601283713316</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>12.17266988957931</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>5.047667852636948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>157.0241862744434</v>
+        <v>169.1968561640227</v>
       </c>
       <c r="C38" t="n">
-        <v>139.5632363819704</v>
+        <v>151.7359062715497</v>
       </c>
       <c r="D38" t="n">
-        <v>128.9733862316458</v>
+        <v>141.1460561212251</v>
       </c>
       <c r="E38" t="n">
-        <v>156.2207146832246</v>
+        <v>168.3933845728039</v>
       </c>
       <c r="F38" t="n">
-        <v>181.1663903526743</v>
+        <v>193.3390602422536</v>
       </c>
       <c r="G38" t="n">
-        <v>189.2595795518578</v>
+        <v>201.3539782792447</v>
       </c>
       <c r="H38" t="n">
-        <v>110.3496634882935</v>
+        <v>121.7207388380701</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25442,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>7.756324533440306</v>
       </c>
       <c r="U38" t="n">
-        <v>25.60931731286014</v>
+        <v>37.77572550946405</v>
       </c>
       <c r="V38" t="n">
-        <v>102.0426030810978</v>
+        <v>114.2152729706771</v>
       </c>
       <c r="W38" t="n">
-        <v>123.5313133283759</v>
+        <v>135.7039832179552</v>
       </c>
       <c r="X38" t="n">
-        <v>144.0214452894319</v>
+        <v>156.1941151790112</v>
       </c>
       <c r="Y38" t="n">
-        <v>160.5282832670164</v>
+        <v>172.7009531565957</v>
       </c>
     </row>
     <row r="39">
@@ -25524,13 +25526,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0.2199872440118794</v>
+        <v>12.38990195176166</v>
       </c>
       <c r="V39" t="n">
-        <v>7.090931760388116</v>
+        <v>19.26360164996743</v>
       </c>
       <c r="W39" t="n">
-        <v>25.98532777188245</v>
+        <v>38.15799766146176</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>7.260664170803892</v>
       </c>
       <c r="T40" t="n">
-        <v>1.596743552181275</v>
+        <v>13.61939906061608</v>
       </c>
       <c r="U40" t="n">
-        <v>60.60121408889548</v>
+        <v>72.77196890126868</v>
       </c>
       <c r="V40" t="n">
-        <v>26.42798793479085</v>
+        <v>38.60065782437016</v>
       </c>
       <c r="W40" t="n">
-        <v>60.81334294755385</v>
+        <v>72.98601283713316</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>12.17266988957931</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>5.047667852636948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>254.4076189754713</v>
+        <v>272.6262090750648</v>
       </c>
       <c r="C41" t="n">
-        <v>236.9466690829982</v>
+        <v>255.1652591825918</v>
       </c>
       <c r="D41" t="n">
-        <v>226.3568189326736</v>
+        <v>244.5754090322672</v>
       </c>
       <c r="E41" t="n">
-        <v>253.6041473842525</v>
+        <v>271.822737483846</v>
       </c>
       <c r="F41" t="n">
-        <v>278.5498230537021</v>
+        <v>296.7684131532957</v>
       </c>
       <c r="G41" t="n">
-        <v>286.6430122528856</v>
+        <v>304.7833311902867</v>
       </c>
       <c r="H41" t="n">
-        <v>207.7330961893213</v>
+        <v>225.1500917491122</v>
       </c>
       <c r="I41" t="n">
-        <v>69.29230888900469</v>
+        <v>84.4933500081768</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0.5935141740299343</v>
+        <v>13.89540338155689</v>
       </c>
       <c r="S41" t="n">
-        <v>73.09415698773947</v>
+        <v>89.52914297887435</v>
       </c>
       <c r="T41" t="n">
-        <v>93.30971935738594</v>
+        <v>111.1856774444824</v>
       </c>
       <c r="U41" t="n">
-        <v>122.992750013888</v>
+        <v>141.2050784205061</v>
       </c>
       <c r="V41" t="n">
-        <v>199.4260357821256</v>
+        <v>217.6446258817191</v>
       </c>
       <c r="W41" t="n">
-        <v>220.9147460294037</v>
+        <v>239.1333361289972</v>
       </c>
       <c r="X41" t="n">
-        <v>241.4048779904597</v>
+        <v>259.6234680900533</v>
       </c>
       <c r="Y41" t="n">
-        <v>257.9117159680443</v>
+        <v>276.1303060676378</v>
       </c>
     </row>
     <row r="42">
@@ -25704,22 +25706,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>38.20696096185802</v>
+        <v>56.42555106145156</v>
       </c>
       <c r="C42" t="n">
-        <v>44.38227630030642</v>
+        <v>62.60086639989996</v>
       </c>
       <c r="D42" t="n">
-        <v>19.11884287662943</v>
+        <v>37.33743297622297</v>
       </c>
       <c r="E42" t="n">
-        <v>29.31885776739162</v>
+        <v>47.53744786698516</v>
       </c>
       <c r="F42" t="n">
-        <v>16.74298970537455</v>
+        <v>34.9615798049681</v>
       </c>
       <c r="G42" t="n">
-        <v>8.838854866729349</v>
+        <v>27.01556620251401</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25755,25 +25757,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>40.04251095144798</v>
+        <v>57.48322138117061</v>
       </c>
       <c r="T42" t="n">
-        <v>71.1192691638924</v>
+        <v>89.16905845673</v>
       </c>
       <c r="U42" t="n">
-        <v>97.60341994503972</v>
+        <v>115.8192548628037</v>
       </c>
       <c r="V42" t="n">
-        <v>104.4743644614159</v>
+        <v>122.6929545610095</v>
       </c>
       <c r="W42" t="n">
-        <v>123.3687604729103</v>
+        <v>141.5873505725038</v>
       </c>
       <c r="X42" t="n">
-        <v>77.44676251546815</v>
+        <v>95.66535261506169</v>
       </c>
       <c r="Y42" t="n">
-        <v>77.35647308929504</v>
+        <v>95.57506318888858</v>
       </c>
     </row>
     <row r="43">
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>51.50575749392797</v>
+        <v>69.72434759352151</v>
       </c>
       <c r="C43" t="n">
-        <v>38.92059841061851</v>
+        <v>57.13918851021205</v>
       </c>
       <c r="D43" t="n">
-        <v>20.28925033020303</v>
+        <v>38.50784042979657</v>
       </c>
       <c r="E43" t="n">
-        <v>18.10773995855985</v>
+        <v>36.32633005815339</v>
       </c>
       <c r="F43" t="n">
-        <v>17.09482533492192</v>
+        <v>35.31341543451546</v>
       </c>
       <c r="G43" t="n">
-        <v>39.51515889688147</v>
+        <v>57.69863924769652</v>
       </c>
       <c r="H43" t="n">
-        <v>32.5708896144352</v>
+        <v>50.47732212943438</v>
       </c>
       <c r="I43" t="n">
-        <v>22.62543919413272</v>
+        <v>39.78818339409634</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.24070879764116</v>
+        <v>58.88063692033941</v>
       </c>
       <c r="S43" t="n">
-        <v>93.08329414960144</v>
+        <v>110.690017081846</v>
       </c>
       <c r="T43" t="n">
-        <v>98.98017625320909</v>
+        <v>117.0487519716581</v>
       </c>
       <c r="U43" t="n">
-        <v>157.9846467899233</v>
+        <v>176.2013218123107</v>
       </c>
       <c r="V43" t="n">
-        <v>123.8114206358187</v>
+        <v>142.0300107354122</v>
       </c>
       <c r="W43" t="n">
-        <v>158.1967756485817</v>
+        <v>176.4153657481752</v>
       </c>
       <c r="X43" t="n">
-        <v>97.38343270102783</v>
+        <v>115.6020228006214</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.25843066408547</v>
+        <v>108.477020763679</v>
       </c>
     </row>
     <row r="44">
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>358.5348553763654</v>
+        <v>272.6262090750648</v>
       </c>
       <c r="C44" t="n">
-        <v>341.0739054838924</v>
+        <v>255.1652591825918</v>
       </c>
       <c r="D44" t="n">
-        <v>330.4840553335678</v>
+        <v>244.5754090322672</v>
       </c>
       <c r="E44" t="n">
-        <v>357.7313837851466</v>
+        <v>271.822737483846</v>
       </c>
       <c r="F44" t="n">
-        <v>382.6770594545963</v>
+        <v>296.7684131532957</v>
       </c>
       <c r="G44" t="n">
-        <v>390.7702486537798</v>
+        <v>304.7833311902867</v>
       </c>
       <c r="H44" t="n">
-        <v>311.8603325902155</v>
+        <v>225.1500917491122</v>
       </c>
       <c r="I44" t="n">
-        <v>173.4195452898989</v>
+        <v>84.4933500081768</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>104.7207505749241</v>
+        <v>13.89540338155689</v>
       </c>
       <c r="S44" t="n">
-        <v>177.2213933886337</v>
+        <v>89.52914297887435</v>
       </c>
       <c r="T44" t="n">
-        <v>197.4369557582801</v>
+        <v>111.1856774444824</v>
       </c>
       <c r="U44" t="n">
-        <v>227.1199864147821</v>
+        <v>141.2050784205061</v>
       </c>
       <c r="V44" t="n">
-        <v>303.5532721830198</v>
+        <v>217.6446258817191</v>
       </c>
       <c r="W44" t="n">
-        <v>325.0419824302979</v>
+        <v>239.1333361289972</v>
       </c>
       <c r="X44" t="n">
-        <v>345.5321143913539</v>
+        <v>259.6234680900533</v>
       </c>
       <c r="Y44" t="n">
-        <v>362.0389523689385</v>
+        <v>276.1303060676378</v>
       </c>
     </row>
     <row r="45">
@@ -25941,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>142.3341973627522</v>
+        <v>56.42555106145156</v>
       </c>
       <c r="C45" t="n">
-        <v>148.5095127012006</v>
+        <v>62.60086639989996</v>
       </c>
       <c r="D45" t="n">
-        <v>123.2460792775236</v>
+        <v>37.33743297622297</v>
       </c>
       <c r="E45" t="n">
-        <v>133.4460941682858</v>
+        <v>47.53744786698516</v>
       </c>
       <c r="F45" t="n">
-        <v>120.8702261062687</v>
+        <v>34.9615798049681</v>
       </c>
       <c r="G45" t="n">
-        <v>112.9660912676235</v>
+        <v>27.01556620251401</v>
       </c>
       <c r="H45" t="n">
-        <v>86.31310699387581</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>59.05400214980477</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>64.87993954303198</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>144.1697473523422</v>
+        <v>57.48322138117061</v>
       </c>
       <c r="T45" t="n">
-        <v>175.2465055647866</v>
+        <v>89.16905845673</v>
       </c>
       <c r="U45" t="n">
-        <v>201.7306563459339</v>
+        <v>115.8192548628037</v>
       </c>
       <c r="V45" t="n">
-        <v>208.6016008623101</v>
+        <v>122.6929545610095</v>
       </c>
       <c r="W45" t="n">
-        <v>227.4959968738045</v>
+        <v>141.5873505725038</v>
       </c>
       <c r="X45" t="n">
-        <v>181.5739989163623</v>
+        <v>95.66535261506169</v>
       </c>
       <c r="Y45" t="n">
-        <v>181.4837094901892</v>
+        <v>95.57506318888858</v>
       </c>
     </row>
     <row r="46">
@@ -26020,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.6329938948222</v>
+        <v>69.72434759352151</v>
       </c>
       <c r="C46" t="n">
-        <v>143.0478348115127</v>
+        <v>57.13918851021205</v>
       </c>
       <c r="D46" t="n">
-        <v>124.4164867310972</v>
+        <v>38.50784042979657</v>
       </c>
       <c r="E46" t="n">
-        <v>122.234976359454</v>
+        <v>36.32633005815339</v>
       </c>
       <c r="F46" t="n">
-        <v>121.2220617358161</v>
+        <v>35.31341543451546</v>
       </c>
       <c r="G46" t="n">
-        <v>143.6423952977757</v>
+        <v>57.69863924769652</v>
       </c>
       <c r="H46" t="n">
-        <v>136.6981260153294</v>
+        <v>50.47732212943438</v>
       </c>
       <c r="I46" t="n">
-        <v>126.7526755950269</v>
+        <v>39.78818339409634</v>
       </c>
       <c r="J46" t="n">
-        <v>58.58363123830345</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,31 +26067,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>49.43628339790286</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>146.3679451985354</v>
+        <v>58.88063692033941</v>
       </c>
       <c r="S46" t="n">
-        <v>197.2105305504956</v>
+        <v>110.690017081846</v>
       </c>
       <c r="T46" t="n">
-        <v>203.1074126541033</v>
+        <v>117.0487519716581</v>
       </c>
       <c r="U46" t="n">
-        <v>262.1118831908175</v>
+        <v>176.2013218123107</v>
       </c>
       <c r="V46" t="n">
-        <v>227.9386570367129</v>
+        <v>142.0300107354122</v>
       </c>
       <c r="W46" t="n">
-        <v>262.3240120494759</v>
+        <v>176.4153657481752</v>
       </c>
       <c r="X46" t="n">
-        <v>201.510669101922</v>
+        <v>115.6020228006214</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3856670649797</v>
+        <v>108.477020763679</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>492263.868143975</v>
+        <v>485633.0381170511</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>516271.8908593358</v>
+        <v>485633.0381170511</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>517096.0096775716</v>
+        <v>508651.9676334368</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>517096.0096775716</v>
+        <v>508651.9676334369</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>517096.0096775717</v>
+        <v>508651.9676334368</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>481204.8872808073</v>
+        <v>474608.900168571</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>517108.2032645763</v>
+        <v>474608.9001685709</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>517815.4451364405</v>
+        <v>510429.0269157644</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>517815.4451364405</v>
+        <v>510429.0269157644</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>517815.4451364405</v>
+        <v>510429.0269157644</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>461544.2308449569</v>
+        <v>432076.1080402995</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>311908.2592247375</v>
+        <v>432076.1080402994</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>819276.3387170379</v>
       </c>
       <c r="C2" t="n">
+        <v>819276.3387170383</v>
+      </c>
+      <c r="D2" t="n">
         <v>819276.338717038</v>
       </c>
-      <c r="D2" t="n">
-        <v>819276.3387170383</v>
-      </c>
       <c r="E2" t="n">
-        <v>581917.9636565307</v>
+        <v>582502.7541856213</v>
       </c>
       <c r="F2" t="n">
-        <v>655156.034165193</v>
+        <v>582502.7541856215</v>
       </c>
       <c r="G2" t="n">
-        <v>661186.3589856735</v>
+        <v>652748.8482601047</v>
       </c>
       <c r="H2" t="n">
-        <v>661186.3589856735</v>
+        <v>652748.848260105</v>
       </c>
       <c r="I2" t="n">
-        <v>661186.3589856735</v>
+        <v>652748.8482601048</v>
       </c>
       <c r="J2" t="n">
-        <v>558299.4286129994</v>
+        <v>558909.5594436815</v>
       </c>
       <c r="K2" t="n">
-        <v>661310.2721941533</v>
+        <v>558909.5594436816</v>
       </c>
       <c r="L2" t="n">
-        <v>687227.5725846727</v>
+        <v>671752.6497753677</v>
       </c>
       <c r="M2" t="n">
-        <v>687227.5725846729</v>
+        <v>671752.6497753676</v>
       </c>
       <c r="N2" t="n">
-        <v>687227.5725846731</v>
+        <v>671752.6497753676</v>
       </c>
       <c r="O2" t="n">
-        <v>522218.8537601752</v>
+        <v>482980.9078294691</v>
       </c>
       <c r="P2" t="n">
-        <v>280715.6611822939</v>
+        <v>482980.9078294689</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>192765.3853165626</v>
+        <v>208407.6028381236</v>
       </c>
       <c r="F3" t="n">
-        <v>35020.23937627835</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3409.852881244387</v>
+        <v>33593.35608951135</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>77906.74616082227</v>
+        <v>82743.48232883365</v>
       </c>
       <c r="K3" t="n">
-        <v>83301.78912071536</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19359.18902969213</v>
+        <v>88086.10607073263</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="C4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>308053.4673284066</v>
+        <v>300984.0444046641</v>
       </c>
       <c r="F4" t="n">
-        <v>347172.2894114651</v>
+        <v>300984.0444046642</v>
       </c>
       <c r="G4" t="n">
-        <v>350293.2606913784</v>
+        <v>338504.0349397003</v>
       </c>
       <c r="H4" t="n">
-        <v>350293.2606913784</v>
+        <v>338504.0349397003</v>
       </c>
       <c r="I4" t="n">
-        <v>350293.2606913785</v>
+        <v>338504.0349397003</v>
       </c>
       <c r="J4" t="n">
-        <v>295150.2504263411</v>
+        <v>288096.6651910931</v>
       </c>
       <c r="K4" t="n">
-        <v>350356.9801304131</v>
+        <v>288096.6651910931</v>
       </c>
       <c r="L4" t="n">
-        <v>363524.405960652</v>
+        <v>348268.2212722821</v>
       </c>
       <c r="M4" t="n">
-        <v>363524.405960652</v>
+        <v>348268.2212722821</v>
       </c>
       <c r="N4" t="n">
-        <v>363524.405960652</v>
+        <v>348268.2212722821</v>
       </c>
       <c r="O4" t="n">
-        <v>275198.7445084907</v>
+        <v>246009.8058254709</v>
       </c>
       <c r="P4" t="n">
-        <v>140089.2686663194</v>
+        <v>246009.8058254709</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>15061.56535326567</v>
+        <v>15486.01029804435</v>
       </c>
       <c r="F5" t="n">
-        <v>18741.7109834211</v>
+        <v>15486.01029804435</v>
       </c>
       <c r="G5" t="n">
-        <v>19100.03963576277</v>
+        <v>19016.21011440576</v>
       </c>
       <c r="H5" t="n">
-        <v>19100.03963576277</v>
+        <v>19016.21011440576</v>
       </c>
       <c r="I5" t="n">
-        <v>19100.03963576277</v>
+        <v>19016.21011440576</v>
       </c>
       <c r="J5" t="n">
-        <v>14033.90317070037</v>
+        <v>14458.34811547906</v>
       </c>
       <c r="K5" t="n">
-        <v>19107.63017753172</v>
+        <v>14458.34811547906</v>
       </c>
       <c r="L5" t="n">
-        <v>20783.68610336153</v>
+        <v>20184.78686319317</v>
       </c>
       <c r="M5" t="n">
-        <v>20783.68610336153</v>
+        <v>20184.78686319317</v>
       </c>
       <c r="N5" t="n">
-        <v>20783.68610336153</v>
+        <v>20184.78686319317</v>
       </c>
       <c r="O5" t="n">
-        <v>12596.75829961882</v>
+        <v>11489.58459331478</v>
       </c>
       <c r="P5" t="n">
-        <v>3842.885662632048</v>
+        <v>11489.58459331478</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>318032.7787853067</v>
       </c>
       <c r="C6" t="n">
+        <v>318032.7787853071</v>
+      </c>
+      <c r="D6" t="n">
         <v>318032.7787853068</v>
       </c>
-      <c r="D6" t="n">
-        <v>318032.778785307</v>
-      </c>
       <c r="E6" t="n">
-        <v>66037.5456582958</v>
+        <v>57625.09664478922</v>
       </c>
       <c r="F6" t="n">
-        <v>254221.7943940285</v>
+        <v>266032.699482913</v>
       </c>
       <c r="G6" t="n">
-        <v>288383.205777288</v>
+        <v>261635.2471164873</v>
       </c>
       <c r="H6" t="n">
-        <v>291793.0586585324</v>
+        <v>295228.6032059989</v>
       </c>
       <c r="I6" t="n">
-        <v>291793.0586585323</v>
+        <v>295228.6032059987</v>
       </c>
       <c r="J6" t="n">
-        <v>171208.5288551357</v>
+        <v>173611.0638082757</v>
       </c>
       <c r="K6" t="n">
-        <v>208543.8727654931</v>
+        <v>256354.5461371095</v>
       </c>
       <c r="L6" t="n">
-        <v>283560.2914909671</v>
+        <v>215213.5355691599</v>
       </c>
       <c r="M6" t="n">
-        <v>302919.4805206594</v>
+        <v>303299.6416398924</v>
       </c>
       <c r="N6" t="n">
-        <v>302919.4805206595</v>
+        <v>303299.6416398923</v>
       </c>
       <c r="O6" t="n">
-        <v>234423.3509520656</v>
+        <v>225481.5174106835</v>
       </c>
       <c r="P6" t="n">
-        <v>136783.5068533424</v>
+        <v>225481.5174106832</v>
       </c>
     </row>
   </sheetData>
@@ -26695,37 +26697,37 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F2" t="n">
-        <v>201.4203796757489</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="G2" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="H2" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="I2" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="J2" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="K2" t="n">
-        <v>205.7729852034775</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="L2" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="M2" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="N2" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="O2" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="P2" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>82.95876534222781</v>
+        <v>102.4287169375803</v>
       </c>
       <c r="F3" t="n">
-        <v>82.95876534222781</v>
+        <v>102.4287169375803</v>
       </c>
       <c r="G3" t="n">
-        <v>82.95876534222781</v>
+        <v>102.4287169375803</v>
       </c>
       <c r="H3" t="n">
-        <v>82.95876534222781</v>
+        <v>102.4287169375803</v>
       </c>
       <c r="I3" t="n">
-        <v>82.95876534222781</v>
+        <v>102.4287169375803</v>
       </c>
       <c r="J3" t="n">
-        <v>82.95876534222781</v>
+        <v>102.4287169375803</v>
       </c>
       <c r="K3" t="n">
-        <v>82.95876534222781</v>
+        <v>102.4287169375803</v>
       </c>
       <c r="L3" t="n">
-        <v>82.95876534222781</v>
+        <v>102.4287169375803</v>
       </c>
       <c r="M3" t="n">
-        <v>82.95876534222781</v>
+        <v>102.4287169375803</v>
       </c>
       <c r="N3" t="n">
-        <v>82.95876534222781</v>
+        <v>102.4287169375803</v>
       </c>
       <c r="O3" t="n">
-        <v>82.95876534222781</v>
+        <v>102.4287169375803</v>
       </c>
       <c r="P3" t="n">
-        <v>82.95876534222781</v>
+        <v>102.4287169375803</v>
       </c>
     </row>
     <row r="4">
@@ -26917,10 +26919,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F2" t="n">
-        <v>43.77529922034793</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.262316101555484</v>
+        <v>41.99169511188919</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>97.38343270102783</v>
+        <v>103.4293529110421</v>
       </c>
       <c r="K2" t="n">
-        <v>104.1272364008942</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.19898628711516</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>82.95876534222781</v>
+        <v>102.4287169375803</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27154,10 +27156,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="K2" t="n">
-        <v>43.77529922034793</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.262316101555484</v>
+        <v>41.99169511188919</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>97.38343270102783</v>
+        <v>103.4293529110421</v>
       </c>
       <c r="P2" t="n">
-        <v>104.1272364008942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28111,22 +28113,22 @@
         <v>157.6450804554009</v>
       </c>
       <c r="J11" t="n">
-        <v>152.7402904162746</v>
+        <v>146.0971233641498</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>3.196092627294947</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>155.9392463706018</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -28181,40 +28183,40 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.1650775547387</v>
+        <v>137.1231987909298</v>
       </c>
       <c r="H12" t="n">
-        <v>110.5120932809909</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="I12" t="n">
-        <v>93.37873558550483</v>
+        <v>91.93685709471693</v>
       </c>
       <c r="J12" t="n">
-        <v>109.9789968153749</v>
+        <v>106.0223720293797</v>
       </c>
       <c r="K12" t="n">
-        <v>109.0273553554458</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>99.81028847546864</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>96.92150681050417</v>
+        <v>86.31038319103706</v>
       </c>
       <c r="N12" t="n">
-        <v>84.9325439132506</v>
+        <v>74.04057542595996</v>
       </c>
       <c r="O12" t="n">
-        <v>100.1409223357668</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>99.90026849480275</v>
+        <v>91.90326139519466</v>
       </c>
       <c r="Q12" t="n">
-        <v>117.2041145905479</v>
+        <v>111.8583271261032</v>
       </c>
       <c r="R12" t="n">
-        <v>134.6005956414679</v>
+        <v>132.0004387095452</v>
       </c>
       <c r="S12" t="n">
         <v>157.6450804554009</v>
@@ -28266,31 +28268,31 @@
         <v>157.6450804554009</v>
       </c>
       <c r="I13" t="n">
-        <v>150.951661882142</v>
+        <v>149.8958159825121</v>
       </c>
       <c r="J13" t="n">
-        <v>116.4188588481419</v>
+        <v>113.9365996095017</v>
       </c>
       <c r="K13" t="n">
-        <v>111.6327168414588</v>
+        <v>107.5536023924653</v>
       </c>
       <c r="L13" t="n">
-        <v>112.643567290963</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>115.4756529509488</v>
+        <v>79.94890541474494</v>
       </c>
       <c r="N13" t="n">
-        <v>104.7930051700574</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>117.3115731478927</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>119.6348333259837</v>
+        <v>115.3884688009908</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.9782280627694</v>
+        <v>136.0382653718712</v>
       </c>
       <c r="R13" t="n">
         <v>157.6450804554009</v>
@@ -28324,76 +28326,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>201.4203796757489</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="C14" t="n">
-        <v>201.4203796757489</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="D14" t="n">
-        <v>201.4203796757489</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="E14" t="n">
-        <v>201.4203796757489</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F14" t="n">
-        <v>201.4203796757489</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="G14" t="n">
-        <v>201.4203796757489</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="H14" t="n">
-        <v>201.4203796757489</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="I14" t="n">
-        <v>197.618531577014</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="J14" t="n">
-        <v>152.7402904162746</v>
+        <v>146.0971233641498</v>
       </c>
       <c r="K14" t="n">
-        <v>177.6670729669849</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="N14" t="n">
-        <v>169.9053655184922</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>28.22978014998487</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>183.2749087013237</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.2911637604776</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="R14" t="n">
-        <v>194.6361567350217</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="S14" t="n">
-        <v>201.4203796757489</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="T14" t="n">
-        <v>201.4203796757489</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="U14" t="n">
-        <v>201.4203796757489</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="V14" t="n">
-        <v>201.4203796757489</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="W14" t="n">
-        <v>201.4203796757489</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="X14" t="n">
-        <v>201.4203796757489</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="Y14" t="n">
-        <v>201.4203796757489</v>
+        <v>157.6450804554009</v>
       </c>
     </row>
     <row r="15">
@@ -28403,10 +28405,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -28418,61 +28420,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.1650775547387</v>
+        <v>137.1231987909298</v>
       </c>
       <c r="H15" t="n">
-        <v>110.5120932809909</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="I15" t="n">
-        <v>93.37873558550483</v>
+        <v>91.93685709471693</v>
       </c>
       <c r="J15" t="n">
-        <v>109.9789968153749</v>
+        <v>106.0223720293797</v>
       </c>
       <c r="K15" t="n">
-        <v>109.0273553554458</v>
+        <v>102.2648533942562</v>
       </c>
       <c r="L15" t="n">
-        <v>99.81028847546864</v>
+        <v>90.7172700440731</v>
       </c>
       <c r="M15" t="n">
-        <v>96.92150681050417</v>
+        <v>86.31038319103706</v>
       </c>
       <c r="N15" t="n">
-        <v>84.9325439132506</v>
+        <v>70.59605916844784</v>
       </c>
       <c r="O15" t="n">
-        <v>100.1409223357668</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>99.90026849480275</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>117.2041145905479</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>134.6005956414679</v>
+        <v>132.0004387095452</v>
       </c>
       <c r="S15" t="n">
-        <v>168.3687336394573</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="T15" t="n">
-        <v>199.4454918519017</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="U15" t="n">
-        <v>201.4203796757489</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="V15" t="n">
-        <v>201.4203796757489</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="W15" t="n">
-        <v>201.4203796757489</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="X15" t="n">
-        <v>201.4203796757489</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="Y15" t="n">
-        <v>201.4203796757489</v>
+        <v>157.6450804554009</v>
       </c>
     </row>
     <row r="16">
@@ -28482,10 +28484,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -28497,61 +28499,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.8413815848908</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="H16" t="n">
-        <v>160.8971123024445</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="I16" t="n">
-        <v>150.951661882142</v>
+        <v>149.8958159825121</v>
       </c>
       <c r="J16" t="n">
-        <v>116.4188588481419</v>
+        <v>113.9365996095017</v>
       </c>
       <c r="K16" t="n">
-        <v>111.6327168414588</v>
+        <v>107.5536023924653</v>
       </c>
       <c r="L16" t="n">
-        <v>112.643567290963</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>115.4756529509488</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>104.7930051700574</v>
+        <v>99.42025606834319</v>
       </c>
       <c r="O16" t="n">
-        <v>117.3115731478927</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>119.6348333259837</v>
+        <v>115.3884688009908</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.9782280627694</v>
+        <v>136.0382653718712</v>
       </c>
       <c r="R16" t="n">
-        <v>170.5669314856505</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="S16" t="n">
-        <v>201.4203796757489</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="T16" t="n">
-        <v>201.4203796757489</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="U16" t="n">
-        <v>201.4203796757489</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="V16" t="n">
-        <v>201.4203796757489</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="W16" t="n">
-        <v>201.4203796757489</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="X16" t="n">
-        <v>201.4203796757489</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="Y16" t="n">
-        <v>201.4203796757489</v>
+        <v>157.6450804554009</v>
       </c>
     </row>
     <row r="17">
@@ -28561,76 +28563,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="C17" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="D17" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="E17" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="F17" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="G17" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="H17" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="I17" t="n">
-        <v>197.618531577014</v>
+        <v>194.6009825965926</v>
       </c>
       <c r="J17" t="n">
-        <v>152.7402904162746</v>
+        <v>146.0971233641498</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>167.710687619257</v>
       </c>
       <c r="L17" t="n">
-        <v>183.1372074855908</v>
+        <v>170.7854310579181</v>
       </c>
       <c r="M17" t="n">
-        <v>106.4719917941496</v>
+        <v>124.84938997601</v>
       </c>
       <c r="N17" t="n">
-        <v>169.9053655184922</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>173.9067795661881</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>172.0194177391078</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.2911637604776</v>
+        <v>177.8387587942761</v>
       </c>
       <c r="R17" t="n">
-        <v>194.6361567350217</v>
+        <v>189.7194558429551</v>
       </c>
       <c r="S17" t="n">
-        <v>201.4203796757488</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="T17" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="U17" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="V17" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="W17" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="X17" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="Y17" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
     </row>
     <row r="18">
@@ -28655,61 +28657,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.1650775547387</v>
+        <v>137.1231987909298</v>
       </c>
       <c r="H18" t="n">
-        <v>110.5120932809909</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="I18" t="n">
-        <v>93.37873558550483</v>
+        <v>91.93685709471693</v>
       </c>
       <c r="J18" t="n">
-        <v>109.9789968153749</v>
+        <v>106.0223720293797</v>
       </c>
       <c r="K18" t="n">
-        <v>109.0273553554458</v>
+        <v>102.2648533942562</v>
       </c>
       <c r="L18" t="n">
-        <v>99.81028847546864</v>
+        <v>90.7172700440731</v>
       </c>
       <c r="M18" t="n">
-        <v>96.92150681050417</v>
+        <v>86.31038319103706</v>
       </c>
       <c r="N18" t="n">
-        <v>84.9325439132506</v>
+        <v>74.04057542595996</v>
       </c>
       <c r="O18" t="n">
-        <v>100.1409223357668</v>
+        <v>90.17689908866218</v>
       </c>
       <c r="P18" t="n">
-        <v>99.90026849480275</v>
+        <v>91.90326139519466</v>
       </c>
       <c r="Q18" t="n">
-        <v>117.2041145905479</v>
+        <v>111.8583271261032</v>
       </c>
       <c r="R18" t="n">
-        <v>134.6005956414679</v>
+        <v>132.0004387095452</v>
       </c>
       <c r="S18" t="n">
-        <v>168.3687336394573</v>
+        <v>167.5908539695864</v>
       </c>
       <c r="T18" t="n">
-        <v>199.4454918519017</v>
+        <v>199.2766910451458</v>
       </c>
       <c r="U18" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="V18" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="W18" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="X18" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
     </row>
     <row r="19">
@@ -28734,61 +28736,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.8413815848908</v>
+        <v>167.8062718361123</v>
       </c>
       <c r="H19" t="n">
-        <v>160.8971123024445</v>
+        <v>160.5849547178502</v>
       </c>
       <c r="I19" t="n">
-        <v>150.951661882142</v>
+        <v>149.8958159825121</v>
       </c>
       <c r="J19" t="n">
-        <v>116.4188588481419</v>
+        <v>113.9365996095017</v>
       </c>
       <c r="K19" t="n">
-        <v>111.6327168414588</v>
+        <v>107.5536023924653</v>
       </c>
       <c r="L19" t="n">
-        <v>112.643567290963</v>
+        <v>107.4237051862024</v>
       </c>
       <c r="M19" t="n">
-        <v>115.4756529509488</v>
+        <v>109.972040240151</v>
       </c>
       <c r="N19" t="n">
-        <v>104.7930051700574</v>
+        <v>99.42025606834319</v>
       </c>
       <c r="O19" t="n">
-        <v>117.3115731478927</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>119.6348333259837</v>
+        <v>115.3884688009908</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.9782280627694</v>
+        <v>136.0382653718712</v>
       </c>
       <c r="R19" t="n">
-        <v>170.5669314856505</v>
+        <v>168.9882695087552</v>
       </c>
       <c r="S19" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="T19" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="U19" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="V19" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="W19" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="X19" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="Y19" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
     </row>
     <row r="20">
@@ -28798,76 +28800,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="C20" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="D20" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="E20" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="F20" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="G20" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="H20" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="I20" t="n">
-        <v>197.618531577014</v>
+        <v>194.6009825965926</v>
       </c>
       <c r="J20" t="n">
-        <v>152.7402904162746</v>
+        <v>146.0971233641498</v>
       </c>
       <c r="K20" t="n">
-        <v>108.5926720221039</v>
+        <v>167.710687619257</v>
       </c>
       <c r="L20" t="n">
-        <v>183.1372074855908</v>
+        <v>147.407896965328</v>
       </c>
       <c r="M20" t="n">
-        <v>171.7860993382337</v>
+        <v>158.0423681299224</v>
       </c>
       <c r="N20" t="n">
-        <v>169.9053655184922</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>160.7189692873481</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.2911637604776</v>
+        <v>177.8387587942761</v>
       </c>
       <c r="R20" t="n">
-        <v>194.6361567350217</v>
+        <v>189.7194558429551</v>
       </c>
       <c r="S20" t="n">
-        <v>201.4203796757488</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="T20" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="U20" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="V20" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="W20" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="X20" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="Y20" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
     </row>
     <row r="21">
@@ -28892,61 +28894,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.1650775547387</v>
+        <v>137.1231987909298</v>
       </c>
       <c r="H21" t="n">
-        <v>110.5120932809909</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="I21" t="n">
-        <v>93.37873558550483</v>
+        <v>91.93685709471693</v>
       </c>
       <c r="J21" t="n">
-        <v>109.9789968153749</v>
+        <v>106.0223720293797</v>
       </c>
       <c r="K21" t="n">
-        <v>109.0273553554458</v>
+        <v>102.2648533942562</v>
       </c>
       <c r="L21" t="n">
-        <v>99.81028847546864</v>
+        <v>90.7172700440731</v>
       </c>
       <c r="M21" t="n">
-        <v>96.92150681050417</v>
+        <v>86.31038319103706</v>
       </c>
       <c r="N21" t="n">
-        <v>84.9325439132506</v>
+        <v>74.04057542595996</v>
       </c>
       <c r="O21" t="n">
-        <v>100.1409223357668</v>
+        <v>90.17689908866218</v>
       </c>
       <c r="P21" t="n">
-        <v>99.90026849480275</v>
+        <v>91.90326139519466</v>
       </c>
       <c r="Q21" t="n">
-        <v>117.2041145905479</v>
+        <v>111.8583271261032</v>
       </c>
       <c r="R21" t="n">
-        <v>134.6005956414679</v>
+        <v>132.0004387095452</v>
       </c>
       <c r="S21" t="n">
-        <v>168.3687336394573</v>
+        <v>167.5908539695864</v>
       </c>
       <c r="T21" t="n">
-        <v>199.4454918519017</v>
+        <v>199.2766910451458</v>
       </c>
       <c r="U21" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="V21" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="W21" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="X21" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
     </row>
     <row r="22">
@@ -28971,61 +28973,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.8413815848908</v>
+        <v>167.8062718361123</v>
       </c>
       <c r="H22" t="n">
-        <v>160.8971123024445</v>
+        <v>160.5849547178502</v>
       </c>
       <c r="I22" t="n">
-        <v>150.951661882142</v>
+        <v>149.8958159825121</v>
       </c>
       <c r="J22" t="n">
-        <v>116.4188588481419</v>
+        <v>113.9365996095017</v>
       </c>
       <c r="K22" t="n">
-        <v>111.6327168414588</v>
+        <v>107.5536023924653</v>
       </c>
       <c r="L22" t="n">
-        <v>112.643567290963</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>115.4756529509488</v>
+        <v>109.972040240151</v>
       </c>
       <c r="N22" t="n">
-        <v>104.7930051700574</v>
+        <v>99.42025606834319</v>
       </c>
       <c r="O22" t="n">
-        <v>117.3115731478927</v>
+        <v>112.3489697478182</v>
       </c>
       <c r="P22" t="n">
-        <v>119.6348333259837</v>
+        <v>115.3884688009908</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.9782280627694</v>
+        <v>136.0382653718712</v>
       </c>
       <c r="R22" t="n">
-        <v>170.5669314856505</v>
+        <v>168.9882695087552</v>
       </c>
       <c r="S22" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="T22" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="U22" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="V22" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="W22" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="X22" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="Y22" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
     </row>
     <row r="23">
@@ -29035,76 +29037,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="C23" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="D23" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="E23" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="F23" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="G23" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="H23" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="I23" t="n">
-        <v>197.618531577014</v>
+        <v>194.6009825965926</v>
       </c>
       <c r="J23" t="n">
-        <v>152.7402904162746</v>
+        <v>146.0971233641498</v>
       </c>
       <c r="K23" t="n">
-        <v>177.6670729669849</v>
+        <v>167.710687619257</v>
       </c>
       <c r="L23" t="n">
-        <v>183.1372074855908</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>158.0423681299224</v>
       </c>
       <c r="N23" t="n">
-        <v>169.9053655184922</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>173.9067795661881</v>
+        <v>160.7189692873481</v>
       </c>
       <c r="P23" t="n">
-        <v>64.55078773968481</v>
+        <v>172.0194177391078</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.2911637604776</v>
+        <v>177.8387587942761</v>
       </c>
       <c r="R23" t="n">
-        <v>194.6361567350217</v>
+        <v>189.7194558429551</v>
       </c>
       <c r="S23" t="n">
-        <v>201.4203796757488</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="T23" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="U23" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="V23" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="W23" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="X23" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="Y23" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
     </row>
     <row r="24">
@@ -29129,61 +29131,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.1650775547387</v>
+        <v>137.1231987909298</v>
       </c>
       <c r="H24" t="n">
-        <v>110.5120932809909</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="I24" t="n">
-        <v>93.37873558550483</v>
+        <v>91.93685709471693</v>
       </c>
       <c r="J24" t="n">
-        <v>109.9789968153749</v>
+        <v>106.0223720293797</v>
       </c>
       <c r="K24" t="n">
-        <v>109.0273553554458</v>
+        <v>56.06020590385964</v>
       </c>
       <c r="L24" t="n">
-        <v>99.81028847546864</v>
+        <v>90.7172700440731</v>
       </c>
       <c r="M24" t="n">
-        <v>96.92150681050417</v>
+        <v>86.31038319103706</v>
       </c>
       <c r="N24" t="n">
-        <v>84.9325439132506</v>
+        <v>74.04057542595996</v>
       </c>
       <c r="O24" t="n">
-        <v>100.1409223357668</v>
+        <v>90.17689908866218</v>
       </c>
       <c r="P24" t="n">
-        <v>99.90026849480275</v>
+        <v>91.90326139519466</v>
       </c>
       <c r="Q24" t="n">
-        <v>117.2041145905479</v>
+        <v>111.8583271261032</v>
       </c>
       <c r="R24" t="n">
-        <v>134.6005956414679</v>
+        <v>132.0004387095452</v>
       </c>
       <c r="S24" t="n">
-        <v>168.3687336394573</v>
+        <v>167.5908539695864</v>
       </c>
       <c r="T24" t="n">
-        <v>199.4454918519017</v>
+        <v>199.2766910451458</v>
       </c>
       <c r="U24" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="V24" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="W24" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="X24" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
     </row>
     <row r="25">
@@ -29208,61 +29210,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.8413815848908</v>
+        <v>167.8062718361123</v>
       </c>
       <c r="H25" t="n">
-        <v>160.8971123024445</v>
+        <v>160.5849547178502</v>
       </c>
       <c r="I25" t="n">
-        <v>150.951661882142</v>
+        <v>149.8958159825121</v>
       </c>
       <c r="J25" t="n">
-        <v>116.4188588481419</v>
+        <v>113.9365996095017</v>
       </c>
       <c r="K25" t="n">
-        <v>111.6327168414588</v>
+        <v>107.5536023924653</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>109.972040240151</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>99.42025606834319</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>112.3489697478182</v>
       </c>
       <c r="P25" t="n">
-        <v>119.6348333259837</v>
+        <v>115.3884688009908</v>
       </c>
       <c r="Q25" t="n">
-        <v>138.9782280627694</v>
+        <v>136.0382653718712</v>
       </c>
       <c r="R25" t="n">
-        <v>170.5669314856505</v>
+        <v>168.9882695087552</v>
       </c>
       <c r="S25" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="T25" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="U25" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="V25" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="W25" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="X25" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="Y25" t="n">
-        <v>205.6826957773044</v>
+        <v>199.6367755672901</v>
       </c>
     </row>
     <row r="26">
@@ -29296,16 +29298,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>145.4210480229312</v>
       </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>73.0128282033169</v>
-      </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>121.1698727011709</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -29314,10 +29316,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="Q26" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>145.4210480229312</v>
@@ -29366,40 +29368,40 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.1650775547387</v>
+        <v>137.1231987909298</v>
       </c>
       <c r="H27" t="n">
-        <v>110.5120932809909</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="I27" t="n">
-        <v>93.37873558550483</v>
+        <v>91.93685709471693</v>
       </c>
       <c r="J27" t="n">
-        <v>109.9789968153749</v>
+        <v>106.0223720293797</v>
       </c>
       <c r="K27" t="n">
-        <v>109.0273553554458</v>
+        <v>102.2648533942562</v>
       </c>
       <c r="L27" t="n">
-        <v>99.81028847546864</v>
+        <v>90.7172700440731</v>
       </c>
       <c r="M27" t="n">
-        <v>96.92150681050417</v>
+        <v>86.31038319103706</v>
       </c>
       <c r="N27" t="n">
-        <v>84.9325439132506</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>100.1409223357668</v>
+        <v>90.17689908866218</v>
       </c>
       <c r="P27" t="n">
-        <v>99.90026849480275</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>117.2041145905479</v>
+        <v>111.8583271261032</v>
       </c>
       <c r="R27" t="n">
-        <v>134.6005956414679</v>
+        <v>132.0004387095452</v>
       </c>
       <c r="S27" t="n">
         <v>145.4210480229312</v>
@@ -29454,28 +29456,28 @@
         <v>145.4210480229312</v>
       </c>
       <c r="J28" t="n">
-        <v>116.4188588481419</v>
+        <v>113.9365996095017</v>
       </c>
       <c r="K28" t="n">
-        <v>111.6327168414588</v>
+        <v>0.8098360478127553</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>109.972040240151</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>99.42025606834319</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>112.3489697478182</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>115.3884688009908</v>
       </c>
       <c r="Q28" t="n">
-        <v>138.9782280627694</v>
+        <v>70.69530699411976</v>
       </c>
       <c r="R28" t="n">
         <v>145.4210480229312</v>
@@ -29509,76 +29511,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>205.7729852034775</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="C29" t="n">
-        <v>205.7729852034775</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="D29" t="n">
-        <v>205.7729852034775</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="E29" t="n">
-        <v>205.7729852034775</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="F29" t="n">
-        <v>205.7729852034775</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G29" t="n">
-        <v>205.7729852034775</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="H29" t="n">
-        <v>205.7729852034775</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="I29" t="n">
-        <v>197.618531577014</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="J29" t="n">
-        <v>152.7402904162746</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="K29" t="n">
-        <v>177.6670729669849</v>
+        <v>40.68030705964274</v>
       </c>
       <c r="L29" t="n">
-        <v>183.1372074855908</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="M29" t="n">
-        <v>171.7860993382337</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>169.9053655184922</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>68.99488951591347</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.2911637604776</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="R29" t="n">
-        <v>194.6361567350217</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="S29" t="n">
-        <v>201.4203796757488</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="T29" t="n">
-        <v>205.7729852034775</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="U29" t="n">
-        <v>205.7729852034775</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="V29" t="n">
-        <v>205.7729852034775</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="W29" t="n">
-        <v>205.7729852034775</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="X29" t="n">
-        <v>205.7729852034775</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="Y29" t="n">
-        <v>205.7729852034775</v>
+        <v>145.4210480229312</v>
       </c>
     </row>
     <row r="30">
@@ -29588,76 +29590,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.1650775547387</v>
+        <v>137.1231987909298</v>
       </c>
       <c r="H30" t="n">
-        <v>110.5120932809909</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="I30" t="n">
-        <v>93.37873558550483</v>
+        <v>81.81110994613201</v>
       </c>
       <c r="J30" t="n">
-        <v>109.9789968153749</v>
+        <v>106.0223720293797</v>
       </c>
       <c r="K30" t="n">
-        <v>109.0273553554458</v>
+        <v>102.2648533942562</v>
       </c>
       <c r="L30" t="n">
-        <v>99.81028847546864</v>
+        <v>90.7172700440731</v>
       </c>
       <c r="M30" t="n">
-        <v>96.92150681050417</v>
+        <v>86.31038319103706</v>
       </c>
       <c r="N30" t="n">
-        <v>84.9325439132506</v>
+        <v>74.04057542595996</v>
       </c>
       <c r="O30" t="n">
-        <v>100.1409223357668</v>
+        <v>90.17689908866218</v>
       </c>
       <c r="P30" t="n">
-        <v>99.90026849480275</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>117.2041145905479</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>134.6005956414679</v>
+        <v>86.47876889822439</v>
       </c>
       <c r="S30" t="n">
-        <v>168.3687336394573</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="T30" t="n">
-        <v>199.4454918519017</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="U30" t="n">
-        <v>205.7729852034775</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="V30" t="n">
-        <v>205.7729852034775</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="W30" t="n">
-        <v>205.7729852034775</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>145.4210480229312</v>
       </c>
     </row>
     <row r="31">
@@ -29667,34 +29669,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.8413815848908</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="H31" t="n">
-        <v>160.8971123024445</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="I31" t="n">
-        <v>150.951661882142</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="J31" t="n">
-        <v>116.4188588481419</v>
+        <v>113.9365996095017</v>
       </c>
       <c r="K31" t="n">
-        <v>111.6327168414588</v>
+        <v>107.5536023924653</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -29703,40 +29705,40 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>99.42025606834319</v>
       </c>
       <c r="O31" t="n">
-        <v>117.3115731478927</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>115.3884688009908</v>
       </c>
       <c r="Q31" t="n">
-        <v>138.9782280627694</v>
+        <v>136.0382653718712</v>
       </c>
       <c r="R31" t="n">
-        <v>170.5669314856505</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="S31" t="n">
-        <v>205.7729852034775</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="T31" t="n">
-        <v>205.7729852034775</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="U31" t="n">
-        <v>205.7729852034775</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="V31" t="n">
-        <v>205.7729852034775</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="W31" t="n">
-        <v>205.7729852034775</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="X31" t="n">
-        <v>205.7729852034775</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="Y31" t="n">
-        <v>205.7729852034775</v>
+        <v>145.4210480229312</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29748,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="C32" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="D32" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="E32" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="F32" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="G32" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="H32" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="I32" t="n">
-        <v>197.618531577014</v>
+        <v>194.6009825965926</v>
       </c>
       <c r="J32" t="n">
-        <v>152.7402904162746</v>
+        <v>146.0971233641498</v>
       </c>
       <c r="K32" t="n">
-        <v>177.6670729669849</v>
+        <v>167.710687619257</v>
       </c>
       <c r="L32" t="n">
-        <v>183.1372074855908</v>
+        <v>170.7854310579181</v>
       </c>
       <c r="M32" t="n">
-        <v>171.7860993382337</v>
+        <v>158.0423681299224</v>
       </c>
       <c r="N32" t="n">
-        <v>169.9053655184922</v>
+        <v>105.0500847675056</v>
       </c>
       <c r="O32" t="n">
-        <v>173.9067795661881</v>
+        <v>160.7189692873481</v>
       </c>
       <c r="P32" t="n">
-        <v>183.2749087013237</v>
+        <v>172.0194177391078</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.2911637604776</v>
+        <v>177.8387587942761</v>
       </c>
       <c r="R32" t="n">
-        <v>194.6361567350217</v>
+        <v>189.7194558429551</v>
       </c>
       <c r="S32" t="n">
-        <v>201.4203796757488</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="T32" t="n">
-        <v>221.6359420453953</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="U32" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="V32" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="W32" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="X32" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="Y32" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
     </row>
     <row r="33">
@@ -29840,55 +29842,55 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.1650775547387</v>
+        <v>137.1231987909298</v>
       </c>
       <c r="H33" t="n">
-        <v>110.5120932809909</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="I33" t="n">
-        <v>93.37873558550483</v>
+        <v>91.93685709471693</v>
       </c>
       <c r="J33" t="n">
-        <v>109.9789968153749</v>
+        <v>106.0223720293797</v>
       </c>
       <c r="K33" t="n">
-        <v>109.0273553554458</v>
+        <v>102.2648533942562</v>
       </c>
       <c r="L33" t="n">
-        <v>99.81028847546864</v>
+        <v>90.7172700440731</v>
       </c>
       <c r="M33" t="n">
-        <v>96.92150681050417</v>
+        <v>86.31038319103706</v>
       </c>
       <c r="N33" t="n">
-        <v>84.9325439132506</v>
+        <v>74.04057542595996</v>
       </c>
       <c r="O33" t="n">
-        <v>100.1409223357668</v>
+        <v>90.17689908866218</v>
       </c>
       <c r="P33" t="n">
-        <v>99.90026849480275</v>
+        <v>91.90326139519466</v>
       </c>
       <c r="Q33" t="n">
-        <v>117.2041145905479</v>
+        <v>111.8583271261032</v>
       </c>
       <c r="R33" t="n">
-        <v>134.6005956414679</v>
+        <v>132.0004387095452</v>
       </c>
       <c r="S33" t="n">
-        <v>168.3687336394573</v>
+        <v>167.5908539695864</v>
       </c>
       <c r="T33" t="n">
-        <v>199.4454918519017</v>
+        <v>199.2766910451458</v>
       </c>
       <c r="U33" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="V33" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="W33" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -29919,61 +29921,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.8413815848908</v>
+        <v>167.8062718361123</v>
       </c>
       <c r="H34" t="n">
-        <v>160.8971123024445</v>
+        <v>160.5849547178502</v>
       </c>
       <c r="I34" t="n">
-        <v>150.951661882142</v>
+        <v>149.8958159825121</v>
       </c>
       <c r="J34" t="n">
-        <v>116.4188588481419</v>
+        <v>113.9365996095017</v>
       </c>
       <c r="K34" t="n">
-        <v>111.6327168414588</v>
+        <v>107.5536023924653</v>
       </c>
       <c r="L34" t="n">
-        <v>112.643567290963</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>115.4756529509488</v>
+        <v>109.972040240151</v>
       </c>
       <c r="N34" t="n">
-        <v>64.77679196698286</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>117.3115731478927</v>
+        <v>112.3489697478182</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>115.3884688009908</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.9782280627694</v>
+        <v>70.69530699411976</v>
       </c>
       <c r="R34" t="n">
-        <v>170.5669314856505</v>
+        <v>168.9882695087552</v>
       </c>
       <c r="S34" t="n">
-        <v>221.4095168376108</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="T34" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="U34" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="V34" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="W34" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>213.5369854994578</v>
       </c>
     </row>
     <row r="35">
@@ -29983,76 +29985,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="C35" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="D35" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="E35" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="F35" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="G35" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="H35" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="I35" t="n">
-        <v>197.618531577014</v>
+        <v>194.6009825965926</v>
       </c>
       <c r="J35" t="n">
-        <v>152.7402904162746</v>
+        <v>32.84294831747247</v>
       </c>
       <c r="K35" t="n">
-        <v>177.6670729669849</v>
+        <v>167.710687619257</v>
       </c>
       <c r="L35" t="n">
-        <v>183.1372074855908</v>
+        <v>170.7854310579181</v>
       </c>
       <c r="M35" t="n">
-        <v>171.7860993382337</v>
+        <v>158.0423681299224</v>
       </c>
       <c r="N35" t="n">
-        <v>169.9053655184922</v>
+        <v>155.9392463706018</v>
       </c>
       <c r="O35" t="n">
-        <v>173.9067795661881</v>
+        <v>160.7189692873481</v>
       </c>
       <c r="P35" t="n">
-        <v>183.2749087013237</v>
+        <v>172.0194177391078</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.2911637604776</v>
+        <v>177.8387587942761</v>
       </c>
       <c r="R35" t="n">
-        <v>194.6361567350217</v>
+        <v>189.7194558429551</v>
       </c>
       <c r="S35" t="n">
-        <v>201.4203796757488</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="T35" t="n">
-        <v>221.6359420453953</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="U35" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="V35" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="W35" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="X35" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="Y35" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
     </row>
     <row r="36">
@@ -30077,55 +30079,55 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.1650775547387</v>
+        <v>137.1231987909298</v>
       </c>
       <c r="H36" t="n">
-        <v>110.5120932809909</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="I36" t="n">
-        <v>93.37873558550483</v>
+        <v>91.93685709471693</v>
       </c>
       <c r="J36" t="n">
-        <v>109.9789968153749</v>
+        <v>106.0223720293797</v>
       </c>
       <c r="K36" t="n">
-        <v>109.0273553554458</v>
+        <v>102.2648533942562</v>
       </c>
       <c r="L36" t="n">
-        <v>99.81028847546864</v>
+        <v>90.7172700440731</v>
       </c>
       <c r="M36" t="n">
-        <v>96.92150681050417</v>
+        <v>86.31038319103706</v>
       </c>
       <c r="N36" t="n">
-        <v>84.9325439132506</v>
+        <v>74.04057542595996</v>
       </c>
       <c r="O36" t="n">
-        <v>100.1409223357668</v>
+        <v>90.17689908866218</v>
       </c>
       <c r="P36" t="n">
-        <v>99.90026849480275</v>
+        <v>91.90326139519466</v>
       </c>
       <c r="Q36" t="n">
-        <v>117.2041145905479</v>
+        <v>111.8583271261032</v>
       </c>
       <c r="R36" t="n">
-        <v>134.6005956414679</v>
+        <v>132.0004387095452</v>
       </c>
       <c r="S36" t="n">
-        <v>168.3687336394573</v>
+        <v>167.5908539695864</v>
       </c>
       <c r="T36" t="n">
-        <v>199.4454918519017</v>
+        <v>199.2766910451458</v>
       </c>
       <c r="U36" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="V36" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="W36" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -30156,61 +30158,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.8413815848908</v>
+        <v>167.8062718361123</v>
       </c>
       <c r="H37" t="n">
-        <v>160.8971123024445</v>
+        <v>160.5849547178502</v>
       </c>
       <c r="I37" t="n">
-        <v>150.951661882142</v>
+        <v>149.8958159825121</v>
       </c>
       <c r="J37" t="n">
-        <v>116.4188588481419</v>
+        <v>113.9365996095017</v>
       </c>
       <c r="K37" t="n">
-        <v>111.6327168414588</v>
+        <v>107.5536023924653</v>
       </c>
       <c r="L37" t="n">
-        <v>68.4681737128583</v>
+        <v>107.4237051862024</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>109.972040240151</v>
       </c>
       <c r="N37" t="n">
-        <v>104.7930051700574</v>
+        <v>99.42025606834319</v>
       </c>
       <c r="O37" t="n">
-        <v>117.3115731478927</v>
+        <v>112.3489697478182</v>
       </c>
       <c r="P37" t="n">
-        <v>119.6348333259837</v>
+        <v>115.3884688009908</v>
       </c>
       <c r="Q37" t="n">
-        <v>138.9782280627694</v>
+        <v>70.69530699411976</v>
       </c>
       <c r="R37" t="n">
-        <v>170.5669314856505</v>
+        <v>168.9882695087552</v>
       </c>
       <c r="S37" t="n">
-        <v>221.4095168376108</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="T37" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="U37" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="V37" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="W37" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>213.5369854994578</v>
       </c>
     </row>
     <row r="38">
@@ -30220,76 +30222,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="C38" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="D38" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="E38" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="F38" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="G38" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="H38" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="I38" t="n">
-        <v>197.618531577014</v>
+        <v>194.6009825965926</v>
       </c>
       <c r="J38" t="n">
-        <v>152.7402904162746</v>
+        <v>146.0971233641498</v>
       </c>
       <c r="K38" t="n">
-        <v>177.6670729669849</v>
+        <v>167.710687619257</v>
       </c>
       <c r="L38" t="n">
-        <v>183.1372074855908</v>
+        <v>170.7854310579181</v>
       </c>
       <c r="M38" t="n">
-        <v>171.7860993382337</v>
+        <v>44.78819308324528</v>
       </c>
       <c r="N38" t="n">
-        <v>169.9053655184922</v>
+        <v>155.9392463706018</v>
       </c>
       <c r="O38" t="n">
-        <v>173.9067795661881</v>
+        <v>160.7189692873481</v>
       </c>
       <c r="P38" t="n">
-        <v>183.2749087013237</v>
+        <v>172.0194177391078</v>
       </c>
       <c r="Q38" t="n">
-        <v>186.2911637604776</v>
+        <v>177.8387587942761</v>
       </c>
       <c r="R38" t="n">
-        <v>194.6361567350217</v>
+        <v>189.7194558429551</v>
       </c>
       <c r="S38" t="n">
-        <v>201.4203796757488</v>
+        <v>199.6367755672901</v>
       </c>
       <c r="T38" t="n">
-        <v>221.6359420453953</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="U38" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="V38" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="W38" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="X38" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="Y38" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
     </row>
     <row r="39">
@@ -30314,55 +30316,55 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.1650775547387</v>
+        <v>137.1231987909298</v>
       </c>
       <c r="H39" t="n">
-        <v>110.5120932809909</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="I39" t="n">
-        <v>93.37873558550483</v>
+        <v>91.93685709471693</v>
       </c>
       <c r="J39" t="n">
-        <v>109.9789968153749</v>
+        <v>106.0223720293797</v>
       </c>
       <c r="K39" t="n">
-        <v>109.0273553554458</v>
+        <v>102.2648533942562</v>
       </c>
       <c r="L39" t="n">
-        <v>99.81028847546864</v>
+        <v>90.7172700440731</v>
       </c>
       <c r="M39" t="n">
-        <v>96.92150681050417</v>
+        <v>86.31038319103706</v>
       </c>
       <c r="N39" t="n">
-        <v>84.9325439132506</v>
+        <v>74.04057542595996</v>
       </c>
       <c r="O39" t="n">
-        <v>100.1409223357668</v>
+        <v>90.17689908866218</v>
       </c>
       <c r="P39" t="n">
-        <v>99.90026849480275</v>
+        <v>91.90326139519466</v>
       </c>
       <c r="Q39" t="n">
-        <v>117.2041145905479</v>
+        <v>111.8583271261032</v>
       </c>
       <c r="R39" t="n">
-        <v>134.6005956414679</v>
+        <v>132.0004387095452</v>
       </c>
       <c r="S39" t="n">
-        <v>168.3687336394573</v>
+        <v>167.5908539695864</v>
       </c>
       <c r="T39" t="n">
-        <v>199.4454918519017</v>
+        <v>199.2766910451458</v>
       </c>
       <c r="U39" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="V39" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="W39" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -30393,61 +30395,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.8413815848908</v>
+        <v>167.8062718361123</v>
       </c>
       <c r="H40" t="n">
-        <v>160.8971123024445</v>
+        <v>160.5849547178502</v>
       </c>
       <c r="I40" t="n">
-        <v>150.951661882142</v>
+        <v>149.8958159825121</v>
       </c>
       <c r="J40" t="n">
-        <v>116.4188588481419</v>
+        <v>113.9365996095017</v>
       </c>
       <c r="K40" t="n">
-        <v>111.6327168414588</v>
+        <v>107.5536023924653</v>
       </c>
       <c r="L40" t="n">
-        <v>70.30409390979788</v>
+        <v>107.4237051862024</v>
       </c>
       <c r="M40" t="n">
-        <v>115.4756529509488</v>
+        <v>109.972040240151</v>
       </c>
       <c r="N40" t="n">
-        <v>104.7930051700574</v>
+        <v>99.42025606834319</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>112.3489697478182</v>
       </c>
       <c r="P40" t="n">
-        <v>119.6348333259837</v>
+        <v>115.3884688009908</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.9782280627694</v>
+        <v>70.69530699411976</v>
       </c>
       <c r="R40" t="n">
-        <v>170.5669314856505</v>
+        <v>168.9882695087552</v>
       </c>
       <c r="S40" t="n">
-        <v>221.4095168376108</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="T40" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="U40" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="V40" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="W40" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>213.5369854994578</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>213.5369854994578</v>
       </c>
     </row>
     <row r="41">
@@ -30457,34 +30459,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="C41" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="D41" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="E41" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="F41" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="G41" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="H41" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="I41" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="J41" t="n">
-        <v>128.3262226880093</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -30493,40 +30495,40 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="R41" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="S41" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="T41" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="U41" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="V41" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="W41" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="X41" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="Y41" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
     </row>
     <row r="42">
@@ -30536,76 +30538,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="C42" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="D42" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="E42" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="F42" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="G42" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="H42" t="n">
-        <v>110.5120932809909</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="I42" t="n">
-        <v>93.37873558550483</v>
+        <v>91.93685709471693</v>
       </c>
       <c r="J42" t="n">
-        <v>109.9789968153749</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>109.0273553554458</v>
+        <v>102.2648533942562</v>
       </c>
       <c r="L42" t="n">
-        <v>99.81028847546864</v>
+        <v>2.378608346136784</v>
       </c>
       <c r="M42" t="n">
-        <v>96.92150681050417</v>
+        <v>86.31038319103706</v>
       </c>
       <c r="N42" t="n">
-        <v>50.23593313265292</v>
+        <v>74.04057542595996</v>
       </c>
       <c r="O42" t="n">
-        <v>100.1409223357668</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>99.90026849480275</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>117.2041145905479</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>128.3262226880093</v>
+        <v>86.47876889822439</v>
       </c>
       <c r="S42" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="T42" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="U42" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="V42" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="W42" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="X42" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="Y42" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
     </row>
     <row r="43">
@@ -30615,34 +30617,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="C43" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="D43" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="E43" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="F43" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="G43" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="H43" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="I43" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="J43" t="n">
-        <v>116.4188588481419</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="K43" t="n">
-        <v>111.6327168414588</v>
+        <v>107.5536023924653</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30660,31 +30662,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>128.3262226880093</v>
+        <v>70.69530699411976</v>
       </c>
       <c r="R43" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="S43" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="T43" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="U43" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="V43" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="W43" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="X43" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="Y43" t="n">
-        <v>128.3262226880093</v>
+        <v>110.1076325884158</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="C44" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="D44" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="E44" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="F44" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="G44" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="H44" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="I44" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30727,43 +30729,43 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="P44" t="n">
-        <v>9.72823569331276</v>
+        <v>4.082608699327849</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="R44" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="S44" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="T44" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="U44" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="V44" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="W44" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="X44" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="Y44" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
     </row>
     <row r="45">
@@ -30773,76 +30775,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="C45" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="D45" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="E45" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="F45" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="G45" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="H45" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="I45" t="n">
-        <v>24.19898628711513</v>
+        <v>91.93685709471693</v>
       </c>
       <c r="J45" t="n">
-        <v>24.19898628711513</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>24.19898628711513</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>24.19898628711513</v>
+        <v>90.7172700440731</v>
       </c>
       <c r="M45" t="n">
-        <v>24.19898628711513</v>
+        <v>86.31038319103706</v>
       </c>
       <c r="N45" t="n">
-        <v>24.19898628711513</v>
+        <v>74.04057542595996</v>
       </c>
       <c r="O45" t="n">
-        <v>24.19898628711513</v>
+        <v>90.17689908866218</v>
       </c>
       <c r="P45" t="n">
-        <v>24.19898628711513</v>
+        <v>91.90326139519466</v>
       </c>
       <c r="Q45" t="n">
-        <v>24.19898628711513</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="S45" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="T45" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="U45" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="V45" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="W45" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="X45" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="Y45" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
     </row>
     <row r="46">
@@ -30852,40 +30854,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="C46" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="D46" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="E46" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="F46" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="G46" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="H46" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="I46" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="J46" t="n">
-        <v>24.19898628711513</v>
+        <v>80.30035828677832</v>
       </c>
       <c r="K46" t="n">
-        <v>24.19898628711513</v>
+        <v>0.8098360478127553</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>109.972040240151</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30894,34 +30896,34 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>24.19898628711513</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="R46" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="S46" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="T46" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="U46" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="V46" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="W46" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="X46" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.19898628711513</v>
+        <v>110.1076325884158</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3335025742401115</v>
+        <v>0.4117737364324833</v>
       </c>
       <c r="H11" t="n">
-        <v>3.415483238436543</v>
+        <v>4.217077778239171</v>
       </c>
       <c r="I11" t="n">
-        <v>12.85735799339191</v>
+        <v>15.87490697381333</v>
       </c>
       <c r="J11" t="n">
-        <v>28.30561411041169</v>
+        <v>34.94878116253651</v>
       </c>
       <c r="K11" t="n">
-        <v>42.42277807799562</v>
+        <v>52.37916342572354</v>
       </c>
       <c r="L11" t="n">
-        <v>52.62920748439645</v>
+        <v>64.98098391206916</v>
       </c>
       <c r="M11" t="n">
-        <v>58.56013388903903</v>
+        <v>72.30386509735034</v>
       </c>
       <c r="N11" t="n">
-        <v>59.50769807809875</v>
+        <v>73.47381722598914</v>
       </c>
       <c r="O11" t="n">
-        <v>56.19143185549864</v>
+        <v>69.37924213433863</v>
       </c>
       <c r="P11" t="n">
-        <v>47.95808705394587</v>
+        <v>59.21357801616169</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.01452611397187</v>
+        <v>44.46693108017337</v>
       </c>
       <c r="R11" t="n">
-        <v>20.94938107911042</v>
+        <v>25.866081971177</v>
       </c>
       <c r="S11" t="n">
-        <v>7.599689910496549</v>
+        <v>9.383294018955223</v>
       </c>
       <c r="T11" t="n">
-        <v>1.459907518736089</v>
+        <v>1.802539531233197</v>
       </c>
       <c r="U11" t="n">
-        <v>0.02668020593920892</v>
+        <v>0.03294189891459866</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1784396084719617</v>
+        <v>0.2203183722808331</v>
       </c>
       <c r="H12" t="n">
-        <v>1.723350955505525</v>
+        <v>2.127811648080678</v>
       </c>
       <c r="I12" t="n">
-        <v>6.143644414495173</v>
+        <v>7.585522905283071</v>
       </c>
       <c r="J12" t="n">
-        <v>16.85862985129179</v>
+        <v>20.81525463728696</v>
       </c>
       <c r="K12" t="n">
-        <v>28.81408361891322</v>
+        <v>35.57658558010278</v>
       </c>
       <c r="L12" t="n">
-        <v>38.74409130440555</v>
+        <v>47.83710973580107</v>
       </c>
       <c r="M12" t="n">
-        <v>45.21252711151415</v>
+        <v>55.82365073098126</v>
       </c>
       <c r="N12" t="n">
-        <v>46.40916817008271</v>
+        <v>57.30113665737335</v>
       </c>
       <c r="O12" t="n">
-        <v>42.45532210867766</v>
+        <v>52.41934535578226</v>
       </c>
       <c r="P12" t="n">
-        <v>34.0741389195275</v>
+        <v>42.07114601913558</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.77765949547357</v>
+        <v>28.12344695991828</v>
       </c>
       <c r="R12" t="n">
-        <v>11.07890832249601</v>
+        <v>13.67906525441875</v>
       </c>
       <c r="S12" t="n">
-        <v>3.314437464380514</v>
+        <v>4.092317134251437</v>
       </c>
       <c r="T12" t="n">
-        <v>0.7192368429198804</v>
+        <v>0.8880376496758139</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01173944792578696</v>
+        <v>0.01449462975531797</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1495977735679518</v>
+        <v>0.1847075223464563</v>
       </c>
       <c r="H13" t="n">
-        <v>1.330060204995063</v>
+        <v>1.642217789589403</v>
       </c>
       <c r="I13" t="n">
-        <v>4.498813045116224</v>
+        <v>5.554658944746159</v>
       </c>
       <c r="J13" t="n">
-        <v>10.57656259125419</v>
+        <v>13.05882182989446</v>
       </c>
       <c r="K13" t="n">
-        <v>17.38054132907657</v>
+        <v>21.4596557780701</v>
       </c>
       <c r="L13" t="n">
-        <v>22.2411089902753</v>
+        <v>27.46097109503588</v>
       </c>
       <c r="M13" t="n">
-        <v>23.45013099665629</v>
+        <v>28.95374370745404</v>
       </c>
       <c r="N13" t="n">
-        <v>22.89253929517576</v>
+        <v>28.26528839689</v>
       </c>
       <c r="O13" t="n">
-        <v>21.14496530395014</v>
+        <v>26.10756870402457</v>
       </c>
       <c r="P13" t="n">
-        <v>18.0931707231639</v>
+        <v>22.33953524815685</v>
       </c>
       <c r="Q13" t="n">
-        <v>12.5267735666764</v>
+        <v>15.46673625757463</v>
       </c>
       <c r="R13" t="n">
-        <v>6.726459891518993</v>
+        <v>8.305121868414295</v>
       </c>
       <c r="S13" t="n">
-        <v>2.607081199361486</v>
+        <v>3.218948366710514</v>
       </c>
       <c r="T13" t="n">
-        <v>0.6391904870630665</v>
+        <v>0.7892048682075856</v>
       </c>
       <c r="U13" t="n">
-        <v>0.008159878558251924</v>
+        <v>0.01007495576435217</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3335025742401115</v>
+        <v>0.4117737364324833</v>
       </c>
       <c r="H14" t="n">
-        <v>3.415483238436543</v>
+        <v>4.217077778239171</v>
       </c>
       <c r="I14" t="n">
-        <v>12.85735799339191</v>
+        <v>15.87490697381333</v>
       </c>
       <c r="J14" t="n">
-        <v>28.30561411041169</v>
+        <v>34.94878116253651</v>
       </c>
       <c r="K14" t="n">
-        <v>42.42277807799562</v>
+        <v>52.37916342572354</v>
       </c>
       <c r="L14" t="n">
-        <v>52.62920748439645</v>
+        <v>64.98098391206916</v>
       </c>
       <c r="M14" t="n">
-        <v>58.56013388903903</v>
+        <v>72.30386509735034</v>
       </c>
       <c r="N14" t="n">
-        <v>59.50769807809875</v>
+        <v>73.47381722598914</v>
       </c>
       <c r="O14" t="n">
-        <v>56.19143185549864</v>
+        <v>69.37924213433863</v>
       </c>
       <c r="P14" t="n">
-        <v>47.95808705394587</v>
+        <v>59.21357801616169</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.01452611397187</v>
+        <v>44.46693108017337</v>
       </c>
       <c r="R14" t="n">
-        <v>20.94938107911042</v>
+        <v>25.866081971177</v>
       </c>
       <c r="S14" t="n">
-        <v>7.599689910496549</v>
+        <v>9.383294018955223</v>
       </c>
       <c r="T14" t="n">
-        <v>1.459907518736089</v>
+        <v>1.802539531233197</v>
       </c>
       <c r="U14" t="n">
-        <v>0.02668020593920892</v>
+        <v>0.03294189891459866</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1784396084719617</v>
+        <v>0.2203183722808331</v>
       </c>
       <c r="H15" t="n">
-        <v>1.723350955505525</v>
+        <v>2.127811648080678</v>
       </c>
       <c r="I15" t="n">
-        <v>6.143644414495173</v>
+        <v>7.585522905283071</v>
       </c>
       <c r="J15" t="n">
-        <v>16.85862985129179</v>
+        <v>20.81525463728696</v>
       </c>
       <c r="K15" t="n">
-        <v>28.81408361891322</v>
+        <v>35.57658558010278</v>
       </c>
       <c r="L15" t="n">
-        <v>38.74409130440555</v>
+        <v>47.83710973580107</v>
       </c>
       <c r="M15" t="n">
-        <v>45.21252711151415</v>
+        <v>55.82365073098126</v>
       </c>
       <c r="N15" t="n">
-        <v>46.40916817008271</v>
+        <v>57.30113665737335</v>
       </c>
       <c r="O15" t="n">
-        <v>42.45532210867766</v>
+        <v>52.41934535578226</v>
       </c>
       <c r="P15" t="n">
-        <v>34.0741389195275</v>
+        <v>42.07114601913558</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.77765949547357</v>
+        <v>28.12344695991828</v>
       </c>
       <c r="R15" t="n">
-        <v>11.07890832249601</v>
+        <v>13.67906525441875</v>
       </c>
       <c r="S15" t="n">
-        <v>3.314437464380514</v>
+        <v>4.092317134251437</v>
       </c>
       <c r="T15" t="n">
-        <v>0.7192368429198804</v>
+        <v>0.8880376496758139</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01173944792578696</v>
+        <v>0.01449462975531797</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1495977735679518</v>
+        <v>0.1847075223464563</v>
       </c>
       <c r="H16" t="n">
-        <v>1.330060204995063</v>
+        <v>1.642217789589403</v>
       </c>
       <c r="I16" t="n">
-        <v>4.498813045116224</v>
+        <v>5.554658944746159</v>
       </c>
       <c r="J16" t="n">
-        <v>10.57656259125419</v>
+        <v>13.05882182989446</v>
       </c>
       <c r="K16" t="n">
-        <v>17.38054132907657</v>
+        <v>21.4596557780701</v>
       </c>
       <c r="L16" t="n">
-        <v>22.2411089902753</v>
+        <v>27.46097109503588</v>
       </c>
       <c r="M16" t="n">
-        <v>23.45013099665629</v>
+        <v>28.95374370745404</v>
       </c>
       <c r="N16" t="n">
-        <v>22.89253929517576</v>
+        <v>28.26528839689</v>
       </c>
       <c r="O16" t="n">
-        <v>21.14496530395014</v>
+        <v>26.10756870402457</v>
       </c>
       <c r="P16" t="n">
-        <v>18.0931707231639</v>
+        <v>22.33953524815685</v>
       </c>
       <c r="Q16" t="n">
-        <v>12.5267735666764</v>
+        <v>15.46673625757463</v>
       </c>
       <c r="R16" t="n">
-        <v>6.726459891518993</v>
+        <v>8.305121868414295</v>
       </c>
       <c r="S16" t="n">
-        <v>2.607081199361486</v>
+        <v>3.218948366710514</v>
       </c>
       <c r="T16" t="n">
-        <v>0.6391904870630665</v>
+        <v>0.7892048682075856</v>
       </c>
       <c r="U16" t="n">
-        <v>0.008159878558251924</v>
+        <v>0.01007495576435217</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3335025742401115</v>
+        <v>0.4117737364324833</v>
       </c>
       <c r="H17" t="n">
-        <v>3.415483238436543</v>
+        <v>4.217077778239171</v>
       </c>
       <c r="I17" t="n">
-        <v>12.85735799339191</v>
+        <v>15.87490697381333</v>
       </c>
       <c r="J17" t="n">
-        <v>28.30561411041169</v>
+        <v>34.94878116253651</v>
       </c>
       <c r="K17" t="n">
-        <v>42.42277807799562</v>
+        <v>52.37916342572354</v>
       </c>
       <c r="L17" t="n">
-        <v>52.62920748439645</v>
+        <v>64.98098391206916</v>
       </c>
       <c r="M17" t="n">
-        <v>58.56013388903903</v>
+        <v>72.30386509735034</v>
       </c>
       <c r="N17" t="n">
-        <v>59.50769807809875</v>
+        <v>73.47381722598914</v>
       </c>
       <c r="O17" t="n">
-        <v>56.19143185549864</v>
+        <v>69.37924213433863</v>
       </c>
       <c r="P17" t="n">
-        <v>47.95808705394587</v>
+        <v>59.21357801616169</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.01452611397187</v>
+        <v>44.46693108017337</v>
       </c>
       <c r="R17" t="n">
-        <v>20.94938107911042</v>
+        <v>25.866081971177</v>
       </c>
       <c r="S17" t="n">
-        <v>7.599689910496549</v>
+        <v>9.383294018955223</v>
       </c>
       <c r="T17" t="n">
-        <v>1.459907518736089</v>
+        <v>1.802539531233197</v>
       </c>
       <c r="U17" t="n">
-        <v>0.02668020593920892</v>
+        <v>0.03294189891459866</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1784396084719617</v>
+        <v>0.2203183722808331</v>
       </c>
       <c r="H18" t="n">
-        <v>1.723350955505525</v>
+        <v>2.127811648080678</v>
       </c>
       <c r="I18" t="n">
-        <v>6.143644414495173</v>
+        <v>7.585522905283071</v>
       </c>
       <c r="J18" t="n">
-        <v>16.85862985129179</v>
+        <v>20.81525463728696</v>
       </c>
       <c r="K18" t="n">
-        <v>28.81408361891322</v>
+        <v>35.57658558010278</v>
       </c>
       <c r="L18" t="n">
-        <v>38.74409130440555</v>
+        <v>47.83710973580107</v>
       </c>
       <c r="M18" t="n">
-        <v>45.21252711151415</v>
+        <v>55.82365073098126</v>
       </c>
       <c r="N18" t="n">
-        <v>46.40916817008271</v>
+        <v>57.30113665737335</v>
       </c>
       <c r="O18" t="n">
-        <v>42.45532210867766</v>
+        <v>52.41934535578226</v>
       </c>
       <c r="P18" t="n">
-        <v>34.0741389195275</v>
+        <v>42.07114601913558</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.77765949547357</v>
+        <v>28.12344695991828</v>
       </c>
       <c r="R18" t="n">
-        <v>11.07890832249601</v>
+        <v>13.67906525441875</v>
       </c>
       <c r="S18" t="n">
-        <v>3.314437464380514</v>
+        <v>4.092317134251437</v>
       </c>
       <c r="T18" t="n">
-        <v>0.7192368429198804</v>
+        <v>0.8880376496758139</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01173944792578696</v>
+        <v>0.01449462975531797</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1495977735679518</v>
+        <v>0.1847075223464563</v>
       </c>
       <c r="H19" t="n">
-        <v>1.330060204995063</v>
+        <v>1.642217789589403</v>
       </c>
       <c r="I19" t="n">
-        <v>4.498813045116224</v>
+        <v>5.554658944746159</v>
       </c>
       <c r="J19" t="n">
-        <v>10.57656259125419</v>
+        <v>13.05882182989446</v>
       </c>
       <c r="K19" t="n">
-        <v>17.38054132907657</v>
+        <v>21.4596557780701</v>
       </c>
       <c r="L19" t="n">
-        <v>22.2411089902753</v>
+        <v>27.46097109503588</v>
       </c>
       <c r="M19" t="n">
-        <v>23.45013099665629</v>
+        <v>28.95374370745404</v>
       </c>
       <c r="N19" t="n">
-        <v>22.89253929517576</v>
+        <v>28.26528839689</v>
       </c>
       <c r="O19" t="n">
-        <v>21.14496530395014</v>
+        <v>26.10756870402457</v>
       </c>
       <c r="P19" t="n">
-        <v>18.0931707231639</v>
+        <v>22.33953524815685</v>
       </c>
       <c r="Q19" t="n">
-        <v>12.5267735666764</v>
+        <v>15.46673625757463</v>
       </c>
       <c r="R19" t="n">
-        <v>6.726459891518993</v>
+        <v>8.305121868414295</v>
       </c>
       <c r="S19" t="n">
-        <v>2.607081199361486</v>
+        <v>3.218948366710514</v>
       </c>
       <c r="T19" t="n">
-        <v>0.6391904870630665</v>
+        <v>0.7892048682075856</v>
       </c>
       <c r="U19" t="n">
-        <v>0.008159878558251924</v>
+        <v>0.01007495576435217</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3335025742401115</v>
+        <v>0.4117737364324833</v>
       </c>
       <c r="H20" t="n">
-        <v>3.415483238436543</v>
+        <v>4.217077778239171</v>
       </c>
       <c r="I20" t="n">
-        <v>12.85735799339191</v>
+        <v>15.87490697381333</v>
       </c>
       <c r="J20" t="n">
-        <v>28.30561411041169</v>
+        <v>34.94878116253651</v>
       </c>
       <c r="K20" t="n">
-        <v>42.42277807799562</v>
+        <v>52.37916342572354</v>
       </c>
       <c r="L20" t="n">
-        <v>52.62920748439645</v>
+        <v>64.98098391206916</v>
       </c>
       <c r="M20" t="n">
-        <v>58.56013388903903</v>
+        <v>72.30386509735034</v>
       </c>
       <c r="N20" t="n">
-        <v>59.50769807809875</v>
+        <v>73.47381722598914</v>
       </c>
       <c r="O20" t="n">
-        <v>56.19143185549864</v>
+        <v>69.37924213433863</v>
       </c>
       <c r="P20" t="n">
-        <v>47.95808705394587</v>
+        <v>59.21357801616169</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.01452611397187</v>
+        <v>44.46693108017337</v>
       </c>
       <c r="R20" t="n">
-        <v>20.94938107911042</v>
+        <v>25.866081971177</v>
       </c>
       <c r="S20" t="n">
-        <v>7.599689910496549</v>
+        <v>9.383294018955223</v>
       </c>
       <c r="T20" t="n">
-        <v>1.459907518736089</v>
+        <v>1.802539531233197</v>
       </c>
       <c r="U20" t="n">
-        <v>0.02668020593920892</v>
+        <v>0.03294189891459866</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1784396084719617</v>
+        <v>0.2203183722808331</v>
       </c>
       <c r="H21" t="n">
-        <v>1.723350955505525</v>
+        <v>2.127811648080678</v>
       </c>
       <c r="I21" t="n">
-        <v>6.143644414495173</v>
+        <v>7.585522905283071</v>
       </c>
       <c r="J21" t="n">
-        <v>16.85862985129179</v>
+        <v>20.81525463728696</v>
       </c>
       <c r="K21" t="n">
-        <v>28.81408361891322</v>
+        <v>35.57658558010278</v>
       </c>
       <c r="L21" t="n">
-        <v>38.74409130440555</v>
+        <v>47.83710973580107</v>
       </c>
       <c r="M21" t="n">
-        <v>45.21252711151415</v>
+        <v>55.82365073098126</v>
       </c>
       <c r="N21" t="n">
-        <v>46.40916817008271</v>
+        <v>57.30113665737335</v>
       </c>
       <c r="O21" t="n">
-        <v>42.45532210867766</v>
+        <v>52.41934535578226</v>
       </c>
       <c r="P21" t="n">
-        <v>34.0741389195275</v>
+        <v>42.07114601913558</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.77765949547357</v>
+        <v>28.12344695991828</v>
       </c>
       <c r="R21" t="n">
-        <v>11.07890832249601</v>
+        <v>13.67906525441875</v>
       </c>
       <c r="S21" t="n">
-        <v>3.314437464380514</v>
+        <v>4.092317134251437</v>
       </c>
       <c r="T21" t="n">
-        <v>0.7192368429198804</v>
+        <v>0.8880376496758139</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01173944792578696</v>
+        <v>0.01449462975531797</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1495977735679518</v>
+        <v>0.1847075223464563</v>
       </c>
       <c r="H22" t="n">
-        <v>1.330060204995063</v>
+        <v>1.642217789589403</v>
       </c>
       <c r="I22" t="n">
-        <v>4.498813045116224</v>
+        <v>5.554658944746159</v>
       </c>
       <c r="J22" t="n">
-        <v>10.57656259125419</v>
+        <v>13.05882182989446</v>
       </c>
       <c r="K22" t="n">
-        <v>17.38054132907657</v>
+        <v>21.4596557780701</v>
       </c>
       <c r="L22" t="n">
-        <v>22.2411089902753</v>
+        <v>27.46097109503588</v>
       </c>
       <c r="M22" t="n">
-        <v>23.45013099665629</v>
+        <v>28.95374370745404</v>
       </c>
       <c r="N22" t="n">
-        <v>22.89253929517576</v>
+        <v>28.26528839689</v>
       </c>
       <c r="O22" t="n">
-        <v>21.14496530395014</v>
+        <v>26.10756870402457</v>
       </c>
       <c r="P22" t="n">
-        <v>18.0931707231639</v>
+        <v>22.33953524815685</v>
       </c>
       <c r="Q22" t="n">
-        <v>12.5267735666764</v>
+        <v>15.46673625757463</v>
       </c>
       <c r="R22" t="n">
-        <v>6.726459891518993</v>
+        <v>8.305121868414295</v>
       </c>
       <c r="S22" t="n">
-        <v>2.607081199361486</v>
+        <v>3.218948366710514</v>
       </c>
       <c r="T22" t="n">
-        <v>0.6391904870630665</v>
+        <v>0.7892048682075856</v>
       </c>
       <c r="U22" t="n">
-        <v>0.008159878558251924</v>
+        <v>0.01007495576435217</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3335025742401115</v>
+        <v>0.4117737364324833</v>
       </c>
       <c r="H23" t="n">
-        <v>3.415483238436543</v>
+        <v>4.217077778239171</v>
       </c>
       <c r="I23" t="n">
-        <v>12.85735799339191</v>
+        <v>15.87490697381333</v>
       </c>
       <c r="J23" t="n">
-        <v>28.30561411041169</v>
+        <v>34.94878116253651</v>
       </c>
       <c r="K23" t="n">
-        <v>42.42277807799562</v>
+        <v>52.37916342572354</v>
       </c>
       <c r="L23" t="n">
-        <v>52.62920748439645</v>
+        <v>64.98098391206916</v>
       </c>
       <c r="M23" t="n">
-        <v>58.56013388903903</v>
+        <v>72.30386509735034</v>
       </c>
       <c r="N23" t="n">
-        <v>59.50769807809875</v>
+        <v>73.47381722598914</v>
       </c>
       <c r="O23" t="n">
-        <v>56.19143185549864</v>
+        <v>69.37924213433863</v>
       </c>
       <c r="P23" t="n">
-        <v>47.95808705394587</v>
+        <v>59.21357801616169</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.01452611397187</v>
+        <v>44.46693108017337</v>
       </c>
       <c r="R23" t="n">
-        <v>20.94938107911042</v>
+        <v>25.866081971177</v>
       </c>
       <c r="S23" t="n">
-        <v>7.599689910496549</v>
+        <v>9.383294018955223</v>
       </c>
       <c r="T23" t="n">
-        <v>1.459907518736089</v>
+        <v>1.802539531233197</v>
       </c>
       <c r="U23" t="n">
-        <v>0.02668020593920892</v>
+        <v>0.03294189891459866</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1784396084719617</v>
+        <v>0.2203183722808331</v>
       </c>
       <c r="H24" t="n">
-        <v>1.723350955505525</v>
+        <v>2.127811648080678</v>
       </c>
       <c r="I24" t="n">
-        <v>6.143644414495173</v>
+        <v>7.585522905283071</v>
       </c>
       <c r="J24" t="n">
-        <v>16.85862985129179</v>
+        <v>20.81525463728696</v>
       </c>
       <c r="K24" t="n">
-        <v>28.81408361891322</v>
+        <v>35.57658558010278</v>
       </c>
       <c r="L24" t="n">
-        <v>38.74409130440555</v>
+        <v>47.83710973580107</v>
       </c>
       <c r="M24" t="n">
-        <v>45.21252711151415</v>
+        <v>55.82365073098126</v>
       </c>
       <c r="N24" t="n">
-        <v>46.40916817008271</v>
+        <v>57.30113665737335</v>
       </c>
       <c r="O24" t="n">
-        <v>42.45532210867766</v>
+        <v>52.41934535578226</v>
       </c>
       <c r="P24" t="n">
-        <v>34.0741389195275</v>
+        <v>42.07114601913558</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.77765949547357</v>
+        <v>28.12344695991828</v>
       </c>
       <c r="R24" t="n">
-        <v>11.07890832249601</v>
+        <v>13.67906525441875</v>
       </c>
       <c r="S24" t="n">
-        <v>3.314437464380514</v>
+        <v>4.092317134251437</v>
       </c>
       <c r="T24" t="n">
-        <v>0.7192368429198804</v>
+        <v>0.8880376496758139</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01173944792578696</v>
+        <v>0.01449462975531797</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1495977735679518</v>
+        <v>0.1847075223464563</v>
       </c>
       <c r="H25" t="n">
-        <v>1.330060204995063</v>
+        <v>1.642217789589403</v>
       </c>
       <c r="I25" t="n">
-        <v>4.498813045116224</v>
+        <v>5.554658944746159</v>
       </c>
       <c r="J25" t="n">
-        <v>10.57656259125419</v>
+        <v>13.05882182989446</v>
       </c>
       <c r="K25" t="n">
-        <v>17.38054132907657</v>
+        <v>21.4596557780701</v>
       </c>
       <c r="L25" t="n">
-        <v>22.2411089902753</v>
+        <v>27.46097109503588</v>
       </c>
       <c r="M25" t="n">
-        <v>23.45013099665629</v>
+        <v>28.95374370745404</v>
       </c>
       <c r="N25" t="n">
-        <v>22.89253929517576</v>
+        <v>28.26528839689</v>
       </c>
       <c r="O25" t="n">
-        <v>21.14496530395014</v>
+        <v>26.10756870402457</v>
       </c>
       <c r="P25" t="n">
-        <v>18.0931707231639</v>
+        <v>22.33953524815685</v>
       </c>
       <c r="Q25" t="n">
-        <v>12.5267735666764</v>
+        <v>15.46673625757463</v>
       </c>
       <c r="R25" t="n">
-        <v>6.726459891518993</v>
+        <v>8.305121868414295</v>
       </c>
       <c r="S25" t="n">
-        <v>2.607081199361486</v>
+        <v>3.218948366710514</v>
       </c>
       <c r="T25" t="n">
-        <v>0.6391904870630665</v>
+        <v>0.7892048682075856</v>
       </c>
       <c r="U25" t="n">
-        <v>0.008159878558251924</v>
+        <v>0.01007495576435217</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3335025742401115</v>
+        <v>0.4117737364324833</v>
       </c>
       <c r="H26" t="n">
-        <v>3.415483238436543</v>
+        <v>4.217077778239171</v>
       </c>
       <c r="I26" t="n">
-        <v>12.85735799339191</v>
+        <v>15.87490697381333</v>
       </c>
       <c r="J26" t="n">
-        <v>28.30561411041169</v>
+        <v>34.94878116253651</v>
       </c>
       <c r="K26" t="n">
-        <v>42.42277807799562</v>
+        <v>52.37916342572354</v>
       </c>
       <c r="L26" t="n">
-        <v>52.62920748439645</v>
+        <v>64.98098391206916</v>
       </c>
       <c r="M26" t="n">
-        <v>58.56013388903903</v>
+        <v>72.30386509735034</v>
       </c>
       <c r="N26" t="n">
-        <v>59.50769807809875</v>
+        <v>73.47381722598914</v>
       </c>
       <c r="O26" t="n">
-        <v>56.19143185549864</v>
+        <v>69.37924213433863</v>
       </c>
       <c r="P26" t="n">
-        <v>47.95808705394587</v>
+        <v>59.21357801616169</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.01452611397187</v>
+        <v>44.46693108017337</v>
       </c>
       <c r="R26" t="n">
-        <v>20.94938107911042</v>
+        <v>25.866081971177</v>
       </c>
       <c r="S26" t="n">
-        <v>7.599689910496549</v>
+        <v>9.383294018955223</v>
       </c>
       <c r="T26" t="n">
-        <v>1.459907518736089</v>
+        <v>1.802539531233197</v>
       </c>
       <c r="U26" t="n">
-        <v>0.02668020593920892</v>
+        <v>0.03294189891459866</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1784396084719617</v>
+        <v>0.2203183722808331</v>
       </c>
       <c r="H27" t="n">
-        <v>1.723350955505525</v>
+        <v>2.127811648080678</v>
       </c>
       <c r="I27" t="n">
-        <v>6.143644414495173</v>
+        <v>7.585522905283071</v>
       </c>
       <c r="J27" t="n">
-        <v>16.85862985129179</v>
+        <v>20.81525463728696</v>
       </c>
       <c r="K27" t="n">
-        <v>28.81408361891322</v>
+        <v>35.57658558010278</v>
       </c>
       <c r="L27" t="n">
-        <v>38.74409130440555</v>
+        <v>47.83710973580107</v>
       </c>
       <c r="M27" t="n">
-        <v>45.21252711151415</v>
+        <v>55.82365073098126</v>
       </c>
       <c r="N27" t="n">
-        <v>46.40916817008271</v>
+        <v>57.30113665737335</v>
       </c>
       <c r="O27" t="n">
-        <v>42.45532210867766</v>
+        <v>52.41934535578226</v>
       </c>
       <c r="P27" t="n">
-        <v>34.0741389195275</v>
+        <v>42.07114601913558</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.77765949547357</v>
+        <v>28.12344695991828</v>
       </c>
       <c r="R27" t="n">
-        <v>11.07890832249601</v>
+        <v>13.67906525441875</v>
       </c>
       <c r="S27" t="n">
-        <v>3.314437464380514</v>
+        <v>4.092317134251437</v>
       </c>
       <c r="T27" t="n">
-        <v>0.7192368429198804</v>
+        <v>0.8880376496758139</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01173944792578696</v>
+        <v>0.01449462975531797</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1495977735679518</v>
+        <v>0.1847075223464563</v>
       </c>
       <c r="H28" t="n">
-        <v>1.330060204995063</v>
+        <v>1.642217789589403</v>
       </c>
       <c r="I28" t="n">
-        <v>4.498813045116224</v>
+        <v>5.554658944746159</v>
       </c>
       <c r="J28" t="n">
-        <v>10.57656259125419</v>
+        <v>13.05882182989446</v>
       </c>
       <c r="K28" t="n">
-        <v>17.38054132907657</v>
+        <v>21.4596557780701</v>
       </c>
       <c r="L28" t="n">
-        <v>22.2411089902753</v>
+        <v>27.46097109503588</v>
       </c>
       <c r="M28" t="n">
-        <v>23.45013099665629</v>
+        <v>28.95374370745404</v>
       </c>
       <c r="N28" t="n">
-        <v>22.89253929517576</v>
+        <v>28.26528839689</v>
       </c>
       <c r="O28" t="n">
-        <v>21.14496530395014</v>
+        <v>26.10756870402457</v>
       </c>
       <c r="P28" t="n">
-        <v>18.0931707231639</v>
+        <v>22.33953524815685</v>
       </c>
       <c r="Q28" t="n">
-        <v>12.5267735666764</v>
+        <v>15.46673625757463</v>
       </c>
       <c r="R28" t="n">
-        <v>6.726459891518993</v>
+        <v>8.305121868414295</v>
       </c>
       <c r="S28" t="n">
-        <v>2.607081199361486</v>
+        <v>3.218948366710514</v>
       </c>
       <c r="T28" t="n">
-        <v>0.6391904870630665</v>
+        <v>0.7892048682075856</v>
       </c>
       <c r="U28" t="n">
-        <v>0.008159878558251924</v>
+        <v>0.01007495576435217</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3335025742401115</v>
+        <v>0.4117737364324833</v>
       </c>
       <c r="H29" t="n">
-        <v>3.415483238436543</v>
+        <v>4.217077778239171</v>
       </c>
       <c r="I29" t="n">
-        <v>12.85735799339191</v>
+        <v>15.87490697381333</v>
       </c>
       <c r="J29" t="n">
-        <v>28.30561411041169</v>
+        <v>34.94878116253651</v>
       </c>
       <c r="K29" t="n">
-        <v>42.42277807799562</v>
+        <v>52.37916342572354</v>
       </c>
       <c r="L29" t="n">
-        <v>52.62920748439645</v>
+        <v>64.98098391206916</v>
       </c>
       <c r="M29" t="n">
-        <v>58.56013388903903</v>
+        <v>72.30386509735034</v>
       </c>
       <c r="N29" t="n">
-        <v>59.50769807809875</v>
+        <v>73.47381722598914</v>
       </c>
       <c r="O29" t="n">
-        <v>56.19143185549864</v>
+        <v>69.37924213433863</v>
       </c>
       <c r="P29" t="n">
-        <v>47.95808705394587</v>
+        <v>59.21357801616169</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.01452611397187</v>
+        <v>44.46693108017337</v>
       </c>
       <c r="R29" t="n">
-        <v>20.94938107911042</v>
+        <v>25.866081971177</v>
       </c>
       <c r="S29" t="n">
-        <v>7.599689910496549</v>
+        <v>9.383294018955223</v>
       </c>
       <c r="T29" t="n">
-        <v>1.459907518736089</v>
+        <v>1.802539531233197</v>
       </c>
       <c r="U29" t="n">
-        <v>0.02668020593920892</v>
+        <v>0.03294189891459866</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1784396084719617</v>
+        <v>0.2203183722808331</v>
       </c>
       <c r="H30" t="n">
-        <v>1.723350955505525</v>
+        <v>2.127811648080678</v>
       </c>
       <c r="I30" t="n">
-        <v>6.143644414495173</v>
+        <v>7.585522905283071</v>
       </c>
       <c r="J30" t="n">
-        <v>16.85862985129179</v>
+        <v>20.81525463728696</v>
       </c>
       <c r="K30" t="n">
-        <v>28.81408361891322</v>
+        <v>35.57658558010278</v>
       </c>
       <c r="L30" t="n">
-        <v>38.74409130440555</v>
+        <v>47.83710973580107</v>
       </c>
       <c r="M30" t="n">
-        <v>45.21252711151415</v>
+        <v>55.82365073098126</v>
       </c>
       <c r="N30" t="n">
-        <v>46.40916817008271</v>
+        <v>57.30113665737335</v>
       </c>
       <c r="O30" t="n">
-        <v>42.45532210867766</v>
+        <v>52.41934535578226</v>
       </c>
       <c r="P30" t="n">
-        <v>34.0741389195275</v>
+        <v>42.07114601913558</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.77765949547357</v>
+        <v>28.12344695991828</v>
       </c>
       <c r="R30" t="n">
-        <v>11.07890832249601</v>
+        <v>13.67906525441875</v>
       </c>
       <c r="S30" t="n">
-        <v>3.314437464380514</v>
+        <v>4.092317134251437</v>
       </c>
       <c r="T30" t="n">
-        <v>0.7192368429198804</v>
+        <v>0.8880376496758139</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01173944792578696</v>
+        <v>0.01449462975531797</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1495977735679518</v>
+        <v>0.1847075223464563</v>
       </c>
       <c r="H31" t="n">
-        <v>1.330060204995063</v>
+        <v>1.642217789589403</v>
       </c>
       <c r="I31" t="n">
-        <v>4.498813045116224</v>
+        <v>5.554658944746159</v>
       </c>
       <c r="J31" t="n">
-        <v>10.57656259125419</v>
+        <v>13.05882182989446</v>
       </c>
       <c r="K31" t="n">
-        <v>17.38054132907657</v>
+        <v>21.4596557780701</v>
       </c>
       <c r="L31" t="n">
-        <v>22.2411089902753</v>
+        <v>27.46097109503588</v>
       </c>
       <c r="M31" t="n">
-        <v>23.45013099665629</v>
+        <v>28.95374370745404</v>
       </c>
       <c r="N31" t="n">
-        <v>22.89253929517576</v>
+        <v>28.26528839689</v>
       </c>
       <c r="O31" t="n">
-        <v>21.14496530395014</v>
+        <v>26.10756870402457</v>
       </c>
       <c r="P31" t="n">
-        <v>18.0931707231639</v>
+        <v>22.33953524815685</v>
       </c>
       <c r="Q31" t="n">
-        <v>12.5267735666764</v>
+        <v>15.46673625757463</v>
       </c>
       <c r="R31" t="n">
-        <v>6.726459891518993</v>
+        <v>8.305121868414295</v>
       </c>
       <c r="S31" t="n">
-        <v>2.607081199361486</v>
+        <v>3.218948366710514</v>
       </c>
       <c r="T31" t="n">
-        <v>0.6391904870630665</v>
+        <v>0.7892048682075856</v>
       </c>
       <c r="U31" t="n">
-        <v>0.008159878558251924</v>
+        <v>0.01007495576435217</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.3335025742401115</v>
+        <v>0.4117737364324833</v>
       </c>
       <c r="H32" t="n">
-        <v>3.415483238436543</v>
+        <v>4.217077778239171</v>
       </c>
       <c r="I32" t="n">
-        <v>12.85735799339191</v>
+        <v>15.87490697381333</v>
       </c>
       <c r="J32" t="n">
-        <v>28.30561411041169</v>
+        <v>34.94878116253651</v>
       </c>
       <c r="K32" t="n">
-        <v>42.42277807799562</v>
+        <v>52.37916342572354</v>
       </c>
       <c r="L32" t="n">
-        <v>52.62920748439645</v>
+        <v>64.98098391206916</v>
       </c>
       <c r="M32" t="n">
-        <v>58.56013388903903</v>
+        <v>72.30386509735034</v>
       </c>
       <c r="N32" t="n">
-        <v>59.50769807809875</v>
+        <v>73.47381722598914</v>
       </c>
       <c r="O32" t="n">
-        <v>56.19143185549864</v>
+        <v>69.37924213433863</v>
       </c>
       <c r="P32" t="n">
-        <v>47.95808705394587</v>
+        <v>59.21357801616169</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.01452611397187</v>
+        <v>44.46693108017337</v>
       </c>
       <c r="R32" t="n">
-        <v>20.94938107911042</v>
+        <v>25.866081971177</v>
       </c>
       <c r="S32" t="n">
-        <v>7.599689910496549</v>
+        <v>9.383294018955223</v>
       </c>
       <c r="T32" t="n">
-        <v>1.459907518736089</v>
+        <v>1.802539531233197</v>
       </c>
       <c r="U32" t="n">
-        <v>0.02668020593920892</v>
+        <v>0.03294189891459866</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1784396084719617</v>
+        <v>0.2203183722808331</v>
       </c>
       <c r="H33" t="n">
-        <v>1.723350955505525</v>
+        <v>2.127811648080678</v>
       </c>
       <c r="I33" t="n">
-        <v>6.143644414495173</v>
+        <v>7.585522905283071</v>
       </c>
       <c r="J33" t="n">
-        <v>16.85862985129179</v>
+        <v>20.81525463728696</v>
       </c>
       <c r="K33" t="n">
-        <v>28.81408361891322</v>
+        <v>35.57658558010278</v>
       </c>
       <c r="L33" t="n">
-        <v>38.74409130440555</v>
+        <v>47.83710973580107</v>
       </c>
       <c r="M33" t="n">
-        <v>45.21252711151415</v>
+        <v>55.82365073098126</v>
       </c>
       <c r="N33" t="n">
-        <v>46.40916817008271</v>
+        <v>57.30113665737335</v>
       </c>
       <c r="O33" t="n">
-        <v>42.45532210867766</v>
+        <v>52.41934535578226</v>
       </c>
       <c r="P33" t="n">
-        <v>34.0741389195275</v>
+        <v>42.07114601913558</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.77765949547357</v>
+        <v>28.12344695991828</v>
       </c>
       <c r="R33" t="n">
-        <v>11.07890832249601</v>
+        <v>13.67906525441875</v>
       </c>
       <c r="S33" t="n">
-        <v>3.314437464380514</v>
+        <v>4.092317134251437</v>
       </c>
       <c r="T33" t="n">
-        <v>0.7192368429198804</v>
+        <v>0.8880376496758139</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01173944792578696</v>
+        <v>0.01449462975531797</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1495977735679518</v>
+        <v>0.1847075223464563</v>
       </c>
       <c r="H34" t="n">
-        <v>1.330060204995063</v>
+        <v>1.642217789589403</v>
       </c>
       <c r="I34" t="n">
-        <v>4.498813045116224</v>
+        <v>5.554658944746159</v>
       </c>
       <c r="J34" t="n">
-        <v>10.57656259125419</v>
+        <v>13.05882182989446</v>
       </c>
       <c r="K34" t="n">
-        <v>17.38054132907657</v>
+        <v>21.4596557780701</v>
       </c>
       <c r="L34" t="n">
-        <v>22.2411089902753</v>
+        <v>27.46097109503588</v>
       </c>
       <c r="M34" t="n">
-        <v>23.45013099665629</v>
+        <v>28.95374370745404</v>
       </c>
       <c r="N34" t="n">
-        <v>22.89253929517576</v>
+        <v>28.26528839689</v>
       </c>
       <c r="O34" t="n">
-        <v>21.14496530395014</v>
+        <v>26.10756870402457</v>
       </c>
       <c r="P34" t="n">
-        <v>18.0931707231639</v>
+        <v>22.33953524815685</v>
       </c>
       <c r="Q34" t="n">
-        <v>12.5267735666764</v>
+        <v>15.46673625757463</v>
       </c>
       <c r="R34" t="n">
-        <v>6.726459891518993</v>
+        <v>8.305121868414295</v>
       </c>
       <c r="S34" t="n">
-        <v>2.607081199361486</v>
+        <v>3.218948366710514</v>
       </c>
       <c r="T34" t="n">
-        <v>0.6391904870630665</v>
+        <v>0.7892048682075856</v>
       </c>
       <c r="U34" t="n">
-        <v>0.008159878558251924</v>
+        <v>0.01007495576435217</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.3335025742401115</v>
+        <v>0.4117737364324833</v>
       </c>
       <c r="H35" t="n">
-        <v>3.415483238436543</v>
+        <v>4.217077778239171</v>
       </c>
       <c r="I35" t="n">
-        <v>12.85735799339191</v>
+        <v>15.87490697381333</v>
       </c>
       <c r="J35" t="n">
-        <v>28.30561411041169</v>
+        <v>34.94878116253651</v>
       </c>
       <c r="K35" t="n">
-        <v>42.42277807799562</v>
+        <v>52.37916342572354</v>
       </c>
       <c r="L35" t="n">
-        <v>52.62920748439645</v>
+        <v>64.98098391206916</v>
       </c>
       <c r="M35" t="n">
-        <v>58.56013388903903</v>
+        <v>72.30386509735034</v>
       </c>
       <c r="N35" t="n">
-        <v>59.50769807809875</v>
+        <v>73.47381722598914</v>
       </c>
       <c r="O35" t="n">
-        <v>56.19143185549864</v>
+        <v>69.37924213433863</v>
       </c>
       <c r="P35" t="n">
-        <v>47.95808705394587</v>
+        <v>59.21357801616169</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.01452611397187</v>
+        <v>44.46693108017337</v>
       </c>
       <c r="R35" t="n">
-        <v>20.94938107911042</v>
+        <v>25.866081971177</v>
       </c>
       <c r="S35" t="n">
-        <v>7.599689910496549</v>
+        <v>9.383294018955223</v>
       </c>
       <c r="T35" t="n">
-        <v>1.459907518736089</v>
+        <v>1.802539531233197</v>
       </c>
       <c r="U35" t="n">
-        <v>0.02668020593920892</v>
+        <v>0.03294189891459866</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1784396084719617</v>
+        <v>0.2203183722808331</v>
       </c>
       <c r="H36" t="n">
-        <v>1.723350955505525</v>
+        <v>2.127811648080678</v>
       </c>
       <c r="I36" t="n">
-        <v>6.143644414495173</v>
+        <v>7.585522905283071</v>
       </c>
       <c r="J36" t="n">
-        <v>16.85862985129179</v>
+        <v>20.81525463728696</v>
       </c>
       <c r="K36" t="n">
-        <v>28.81408361891322</v>
+        <v>35.57658558010278</v>
       </c>
       <c r="L36" t="n">
-        <v>38.74409130440555</v>
+        <v>47.83710973580107</v>
       </c>
       <c r="M36" t="n">
-        <v>45.21252711151415</v>
+        <v>55.82365073098126</v>
       </c>
       <c r="N36" t="n">
-        <v>46.40916817008271</v>
+        <v>57.30113665737335</v>
       </c>
       <c r="O36" t="n">
-        <v>42.45532210867766</v>
+        <v>52.41934535578226</v>
       </c>
       <c r="P36" t="n">
-        <v>34.0741389195275</v>
+        <v>42.07114601913558</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.77765949547357</v>
+        <v>28.12344695991828</v>
       </c>
       <c r="R36" t="n">
-        <v>11.07890832249601</v>
+        <v>13.67906525441875</v>
       </c>
       <c r="S36" t="n">
-        <v>3.314437464380514</v>
+        <v>4.092317134251437</v>
       </c>
       <c r="T36" t="n">
-        <v>0.7192368429198804</v>
+        <v>0.8880376496758139</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01173944792578696</v>
+        <v>0.01449462975531797</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1495977735679518</v>
+        <v>0.1847075223464563</v>
       </c>
       <c r="H37" t="n">
-        <v>1.330060204995063</v>
+        <v>1.642217789589403</v>
       </c>
       <c r="I37" t="n">
-        <v>4.498813045116224</v>
+        <v>5.554658944746159</v>
       </c>
       <c r="J37" t="n">
-        <v>10.57656259125419</v>
+        <v>13.05882182989446</v>
       </c>
       <c r="K37" t="n">
-        <v>17.38054132907657</v>
+        <v>21.4596557780701</v>
       </c>
       <c r="L37" t="n">
-        <v>22.2411089902753</v>
+        <v>27.46097109503588</v>
       </c>
       <c r="M37" t="n">
-        <v>23.45013099665629</v>
+        <v>28.95374370745404</v>
       </c>
       <c r="N37" t="n">
-        <v>22.89253929517576</v>
+        <v>28.26528839689</v>
       </c>
       <c r="O37" t="n">
-        <v>21.14496530395014</v>
+        <v>26.10756870402457</v>
       </c>
       <c r="P37" t="n">
-        <v>18.0931707231639</v>
+        <v>22.33953524815685</v>
       </c>
       <c r="Q37" t="n">
-        <v>12.5267735666764</v>
+        <v>15.46673625757463</v>
       </c>
       <c r="R37" t="n">
-        <v>6.726459891518993</v>
+        <v>8.305121868414295</v>
       </c>
       <c r="S37" t="n">
-        <v>2.607081199361486</v>
+        <v>3.218948366710514</v>
       </c>
       <c r="T37" t="n">
-        <v>0.6391904870630665</v>
+        <v>0.7892048682075856</v>
       </c>
       <c r="U37" t="n">
-        <v>0.008159878558251924</v>
+        <v>0.01007495576435217</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3335025742401115</v>
+        <v>0.4117737364324833</v>
       </c>
       <c r="H38" t="n">
-        <v>3.415483238436543</v>
+        <v>4.217077778239171</v>
       </c>
       <c r="I38" t="n">
-        <v>12.85735799339191</v>
+        <v>15.87490697381333</v>
       </c>
       <c r="J38" t="n">
-        <v>28.30561411041169</v>
+        <v>34.94878116253651</v>
       </c>
       <c r="K38" t="n">
-        <v>42.42277807799562</v>
+        <v>52.37916342572354</v>
       </c>
       <c r="L38" t="n">
-        <v>52.62920748439645</v>
+        <v>64.98098391206916</v>
       </c>
       <c r="M38" t="n">
-        <v>58.56013388903903</v>
+        <v>72.30386509735034</v>
       </c>
       <c r="N38" t="n">
-        <v>59.50769807809875</v>
+        <v>73.47381722598914</v>
       </c>
       <c r="O38" t="n">
-        <v>56.19143185549864</v>
+        <v>69.37924213433863</v>
       </c>
       <c r="P38" t="n">
-        <v>47.95808705394587</v>
+        <v>59.21357801616169</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.01452611397187</v>
+        <v>44.46693108017337</v>
       </c>
       <c r="R38" t="n">
-        <v>20.94938107911042</v>
+        <v>25.866081971177</v>
       </c>
       <c r="S38" t="n">
-        <v>7.599689910496549</v>
+        <v>9.383294018955223</v>
       </c>
       <c r="T38" t="n">
-        <v>1.459907518736089</v>
+        <v>1.802539531233197</v>
       </c>
       <c r="U38" t="n">
-        <v>0.02668020593920892</v>
+        <v>0.03294189891459866</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1784396084719617</v>
+        <v>0.2203183722808331</v>
       </c>
       <c r="H39" t="n">
-        <v>1.723350955505525</v>
+        <v>2.127811648080678</v>
       </c>
       <c r="I39" t="n">
-        <v>6.143644414495173</v>
+        <v>7.585522905283071</v>
       </c>
       <c r="J39" t="n">
-        <v>16.85862985129179</v>
+        <v>20.81525463728696</v>
       </c>
       <c r="K39" t="n">
-        <v>28.81408361891322</v>
+        <v>35.57658558010278</v>
       </c>
       <c r="L39" t="n">
-        <v>38.74409130440555</v>
+        <v>47.83710973580107</v>
       </c>
       <c r="M39" t="n">
-        <v>45.21252711151415</v>
+        <v>55.82365073098126</v>
       </c>
       <c r="N39" t="n">
-        <v>46.40916817008271</v>
+        <v>57.30113665737335</v>
       </c>
       <c r="O39" t="n">
-        <v>42.45532210867766</v>
+        <v>52.41934535578226</v>
       </c>
       <c r="P39" t="n">
-        <v>34.0741389195275</v>
+        <v>42.07114601913558</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.77765949547357</v>
+        <v>28.12344695991828</v>
       </c>
       <c r="R39" t="n">
-        <v>11.07890832249601</v>
+        <v>13.67906525441875</v>
       </c>
       <c r="S39" t="n">
-        <v>3.314437464380514</v>
+        <v>4.092317134251437</v>
       </c>
       <c r="T39" t="n">
-        <v>0.7192368429198804</v>
+        <v>0.8880376496758139</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01173944792578696</v>
+        <v>0.01449462975531797</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1495977735679518</v>
+        <v>0.1847075223464563</v>
       </c>
       <c r="H40" t="n">
-        <v>1.330060204995063</v>
+        <v>1.642217789589403</v>
       </c>
       <c r="I40" t="n">
-        <v>4.498813045116224</v>
+        <v>5.554658944746159</v>
       </c>
       <c r="J40" t="n">
-        <v>10.57656259125419</v>
+        <v>13.05882182989446</v>
       </c>
       <c r="K40" t="n">
-        <v>17.38054132907657</v>
+        <v>21.4596557780701</v>
       </c>
       <c r="L40" t="n">
-        <v>22.2411089902753</v>
+        <v>27.46097109503588</v>
       </c>
       <c r="M40" t="n">
-        <v>23.45013099665629</v>
+        <v>28.95374370745404</v>
       </c>
       <c r="N40" t="n">
-        <v>22.89253929517576</v>
+        <v>28.26528839689</v>
       </c>
       <c r="O40" t="n">
-        <v>21.14496530395014</v>
+        <v>26.10756870402457</v>
       </c>
       <c r="P40" t="n">
-        <v>18.0931707231639</v>
+        <v>22.33953524815685</v>
       </c>
       <c r="Q40" t="n">
-        <v>12.5267735666764</v>
+        <v>15.46673625757463</v>
       </c>
       <c r="R40" t="n">
-        <v>6.726459891518993</v>
+        <v>8.305121868414295</v>
       </c>
       <c r="S40" t="n">
-        <v>2.607081199361486</v>
+        <v>3.218948366710514</v>
       </c>
       <c r="T40" t="n">
-        <v>0.6391904870630665</v>
+        <v>0.7892048682075856</v>
       </c>
       <c r="U40" t="n">
-        <v>0.008159878558251924</v>
+        <v>0.01007495576435217</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.3335025742401115</v>
+        <v>0.4117737364324833</v>
       </c>
       <c r="H41" t="n">
-        <v>3.415483238436543</v>
+        <v>4.217077778239171</v>
       </c>
       <c r="I41" t="n">
-        <v>12.85735799339191</v>
+        <v>15.87490697381333</v>
       </c>
       <c r="J41" t="n">
-        <v>28.30561411041169</v>
+        <v>34.94878116253651</v>
       </c>
       <c r="K41" t="n">
-        <v>42.42277807799562</v>
+        <v>52.37916342572354</v>
       </c>
       <c r="L41" t="n">
-        <v>52.62920748439645</v>
+        <v>64.98098391206916</v>
       </c>
       <c r="M41" t="n">
-        <v>58.56013388903903</v>
+        <v>72.30386509735034</v>
       </c>
       <c r="N41" t="n">
-        <v>59.50769807809875</v>
+        <v>73.47381722598914</v>
       </c>
       <c r="O41" t="n">
-        <v>56.19143185549864</v>
+        <v>69.37924213433863</v>
       </c>
       <c r="P41" t="n">
-        <v>47.95808705394587</v>
+        <v>59.21357801616169</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.01452611397187</v>
+        <v>44.46693108017337</v>
       </c>
       <c r="R41" t="n">
-        <v>20.94938107911042</v>
+        <v>25.866081971177</v>
       </c>
       <c r="S41" t="n">
-        <v>7.599689910496549</v>
+        <v>9.383294018955223</v>
       </c>
       <c r="T41" t="n">
-        <v>1.459907518736089</v>
+        <v>1.802539531233197</v>
       </c>
       <c r="U41" t="n">
-        <v>0.02668020593920892</v>
+        <v>0.03294189891459866</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1784396084719617</v>
+        <v>0.2203183722808331</v>
       </c>
       <c r="H42" t="n">
-        <v>1.723350955505525</v>
+        <v>2.127811648080678</v>
       </c>
       <c r="I42" t="n">
-        <v>6.143644414495173</v>
+        <v>7.585522905283071</v>
       </c>
       <c r="J42" t="n">
-        <v>16.85862985129179</v>
+        <v>20.81525463728696</v>
       </c>
       <c r="K42" t="n">
-        <v>28.81408361891322</v>
+        <v>35.57658558010278</v>
       </c>
       <c r="L42" t="n">
-        <v>38.74409130440555</v>
+        <v>47.83710973580107</v>
       </c>
       <c r="M42" t="n">
-        <v>45.21252711151415</v>
+        <v>55.82365073098126</v>
       </c>
       <c r="N42" t="n">
-        <v>46.40916817008271</v>
+        <v>57.30113665737335</v>
       </c>
       <c r="O42" t="n">
-        <v>42.45532210867766</v>
+        <v>52.41934535578226</v>
       </c>
       <c r="P42" t="n">
-        <v>34.0741389195275</v>
+        <v>42.07114601913558</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.77765949547357</v>
+        <v>28.12344695991828</v>
       </c>
       <c r="R42" t="n">
-        <v>11.07890832249601</v>
+        <v>13.67906525441875</v>
       </c>
       <c r="S42" t="n">
-        <v>3.314437464380514</v>
+        <v>4.092317134251437</v>
       </c>
       <c r="T42" t="n">
-        <v>0.7192368429198804</v>
+        <v>0.8880376496758139</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01173944792578696</v>
+        <v>0.01449462975531797</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1495977735679518</v>
+        <v>0.1847075223464563</v>
       </c>
       <c r="H43" t="n">
-        <v>1.330060204995063</v>
+        <v>1.642217789589403</v>
       </c>
       <c r="I43" t="n">
-        <v>4.498813045116224</v>
+        <v>5.554658944746159</v>
       </c>
       <c r="J43" t="n">
-        <v>10.57656259125419</v>
+        <v>13.05882182989446</v>
       </c>
       <c r="K43" t="n">
-        <v>17.38054132907657</v>
+        <v>21.4596557780701</v>
       </c>
       <c r="L43" t="n">
-        <v>22.2411089902753</v>
+        <v>27.46097109503588</v>
       </c>
       <c r="M43" t="n">
-        <v>23.45013099665629</v>
+        <v>28.95374370745404</v>
       </c>
       <c r="N43" t="n">
-        <v>22.89253929517576</v>
+        <v>28.26528839689</v>
       </c>
       <c r="O43" t="n">
-        <v>21.14496530395014</v>
+        <v>26.10756870402457</v>
       </c>
       <c r="P43" t="n">
-        <v>18.0931707231639</v>
+        <v>22.33953524815685</v>
       </c>
       <c r="Q43" t="n">
-        <v>12.5267735666764</v>
+        <v>15.46673625757463</v>
       </c>
       <c r="R43" t="n">
-        <v>6.726459891518993</v>
+        <v>8.305121868414295</v>
       </c>
       <c r="S43" t="n">
-        <v>2.607081199361486</v>
+        <v>3.218948366710514</v>
       </c>
       <c r="T43" t="n">
-        <v>0.6391904870630665</v>
+        <v>0.7892048682075856</v>
       </c>
       <c r="U43" t="n">
-        <v>0.008159878558251924</v>
+        <v>0.01007495576435217</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3335025742401115</v>
+        <v>0.4117737364324833</v>
       </c>
       <c r="H44" t="n">
-        <v>3.415483238436543</v>
+        <v>4.217077778239171</v>
       </c>
       <c r="I44" t="n">
-        <v>12.85735799339191</v>
+        <v>15.87490697381333</v>
       </c>
       <c r="J44" t="n">
-        <v>28.30561411041169</v>
+        <v>34.94878116253651</v>
       </c>
       <c r="K44" t="n">
-        <v>42.42277807799562</v>
+        <v>52.37916342572354</v>
       </c>
       <c r="L44" t="n">
-        <v>52.62920748439645</v>
+        <v>64.98098391206916</v>
       </c>
       <c r="M44" t="n">
-        <v>58.56013388903903</v>
+        <v>72.30386509735034</v>
       </c>
       <c r="N44" t="n">
-        <v>59.50769807809875</v>
+        <v>73.47381722598914</v>
       </c>
       <c r="O44" t="n">
-        <v>56.19143185549864</v>
+        <v>69.37924213433863</v>
       </c>
       <c r="P44" t="n">
-        <v>47.95808705394587</v>
+        <v>59.21357801616169</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.01452611397187</v>
+        <v>44.46693108017337</v>
       </c>
       <c r="R44" t="n">
-        <v>20.94938107911042</v>
+        <v>25.866081971177</v>
       </c>
       <c r="S44" t="n">
-        <v>7.599689910496549</v>
+        <v>9.383294018955223</v>
       </c>
       <c r="T44" t="n">
-        <v>1.459907518736089</v>
+        <v>1.802539531233197</v>
       </c>
       <c r="U44" t="n">
-        <v>0.02668020593920892</v>
+        <v>0.03294189891459866</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1784396084719617</v>
+        <v>0.2203183722808331</v>
       </c>
       <c r="H45" t="n">
-        <v>1.723350955505525</v>
+        <v>2.127811648080678</v>
       </c>
       <c r="I45" t="n">
-        <v>6.143644414495173</v>
+        <v>7.585522905283071</v>
       </c>
       <c r="J45" t="n">
-        <v>16.85862985129179</v>
+        <v>20.81525463728696</v>
       </c>
       <c r="K45" t="n">
-        <v>28.81408361891322</v>
+        <v>35.57658558010278</v>
       </c>
       <c r="L45" t="n">
-        <v>38.74409130440555</v>
+        <v>47.83710973580107</v>
       </c>
       <c r="M45" t="n">
-        <v>45.21252711151415</v>
+        <v>55.82365073098126</v>
       </c>
       <c r="N45" t="n">
-        <v>46.40916817008271</v>
+        <v>57.30113665737335</v>
       </c>
       <c r="O45" t="n">
-        <v>42.45532210867766</v>
+        <v>52.41934535578226</v>
       </c>
       <c r="P45" t="n">
-        <v>34.0741389195275</v>
+        <v>42.07114601913558</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.77765949547357</v>
+        <v>28.12344695991828</v>
       </c>
       <c r="R45" t="n">
-        <v>11.07890832249601</v>
+        <v>13.67906525441875</v>
       </c>
       <c r="S45" t="n">
-        <v>3.314437464380514</v>
+        <v>4.092317134251437</v>
       </c>
       <c r="T45" t="n">
-        <v>0.7192368429198804</v>
+        <v>0.8880376496758139</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01173944792578696</v>
+        <v>0.01449462975531797</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1495977735679518</v>
+        <v>0.1847075223464563</v>
       </c>
       <c r="H46" t="n">
-        <v>1.330060204995063</v>
+        <v>1.642217789589403</v>
       </c>
       <c r="I46" t="n">
-        <v>4.498813045116224</v>
+        <v>5.554658944746159</v>
       </c>
       <c r="J46" t="n">
-        <v>10.57656259125419</v>
+        <v>13.05882182989446</v>
       </c>
       <c r="K46" t="n">
-        <v>17.38054132907657</v>
+        <v>21.4596557780701</v>
       </c>
       <c r="L46" t="n">
-        <v>22.2411089902753</v>
+        <v>27.46097109503588</v>
       </c>
       <c r="M46" t="n">
-        <v>23.45013099665629</v>
+        <v>28.95374370745404</v>
       </c>
       <c r="N46" t="n">
-        <v>22.89253929517576</v>
+        <v>28.26528839689</v>
       </c>
       <c r="O46" t="n">
-        <v>21.14496530395014</v>
+        <v>26.10756870402457</v>
       </c>
       <c r="P46" t="n">
-        <v>18.0931707231639</v>
+        <v>22.33953524815685</v>
       </c>
       <c r="Q46" t="n">
-        <v>12.5267735666764</v>
+        <v>15.46673625757463</v>
       </c>
       <c r="R46" t="n">
-        <v>6.726459891518993</v>
+        <v>8.305121868414295</v>
       </c>
       <c r="S46" t="n">
-        <v>2.607081199361486</v>
+        <v>3.218948366710514</v>
       </c>
       <c r="T46" t="n">
-        <v>0.6391904870630665</v>
+        <v>0.7892048682075856</v>
       </c>
       <c r="U46" t="n">
-        <v>0.008159878558251924</v>
+        <v>0.01007495576435217</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_25_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_25_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2184398.189598097</v>
+        <v>2155110.610794324</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11776123.76278322</v>
+        <v>11833217.78583944</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6588766.486972923</v>
+        <v>5968786.176029423</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6011290.417787685</v>
+        <v>6131343.701225479</v>
       </c>
     </row>
     <row r="11">
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>153.7922791635428</v>
       </c>
       <c r="K11" t="n">
-        <v>167.710687619257</v>
+        <v>12.7105477493221</v>
       </c>
       <c r="L11" t="n">
-        <v>170.7854310579181</v>
+        <v>18.56000803854856</v>
       </c>
       <c r="M11" t="n">
-        <v>158.0423681299224</v>
+        <v>7.429324991817175</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>172.1169913998387</v>
       </c>
       <c r="O11" t="n">
-        <v>3.073888831947158</v>
+        <v>9.461971521749824</v>
       </c>
       <c r="P11" t="n">
-        <v>172.0194177391078</v>
+        <v>185.0572889642801</v>
       </c>
       <c r="Q11" t="n">
-        <v>20.19367833887517</v>
+        <v>187.6296571089105</v>
       </c>
       <c r="R11" t="n">
-        <v>32.07437538755418</v>
+        <v>28.88156467732021</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,25 +8771,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>102.2648533942562</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>90.7172700440731</v>
+        <v>101.2502271362721</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>86.65735802590561</v>
       </c>
       <c r="O12" t="n">
-        <v>90.17689908866218</v>
+        <v>101.7187902790575</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>101.1666466265887</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>101.7909243526756</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8853,16 +8853,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>107.4237051862024</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>30.02313482540607</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>99.42025606834319</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>112.3489697478182</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>153.7922791635428</v>
       </c>
       <c r="K14" t="n">
-        <v>10.06560716385606</v>
+        <v>12.7105477493221</v>
       </c>
       <c r="L14" t="n">
-        <v>170.7854310579181</v>
+        <v>18.56000803854856</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3972876745214506</v>
+        <v>7.429324991817175</v>
       </c>
       <c r="N14" t="n">
-        <v>155.9392463706018</v>
+        <v>172.1169913998387</v>
       </c>
       <c r="O14" t="n">
-        <v>160.7189692873481</v>
+        <v>175.9951551716172</v>
       </c>
       <c r="P14" t="n">
-        <v>172.0194177391078</v>
+        <v>18.5241053144128</v>
       </c>
       <c r="Q14" t="n">
-        <v>20.19367833887517</v>
+        <v>21.0964734590432</v>
       </c>
       <c r="R14" t="n">
-        <v>32.07437538755418</v>
+        <v>28.88156467732021</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9017,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>3.44451625751212</v>
+        <v>86.65735802590561</v>
       </c>
       <c r="O15" t="n">
-        <v>90.17689908866218</v>
+        <v>101.7187902790575</v>
       </c>
       <c r="P15" t="n">
-        <v>91.90326139519466</v>
+        <v>12.00125798960946</v>
       </c>
       <c r="Q15" t="n">
-        <v>111.8583271261032</v>
+        <v>118.050654834645</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
-        <v>107.4237051862024</v>
+        <v>113.4701664346265</v>
       </c>
       <c r="M16" t="n">
-        <v>109.972040240151</v>
+        <v>116.3471858501899</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>105.6438149649264</v>
       </c>
       <c r="O16" t="n">
-        <v>112.3489697478182</v>
+        <v>118.0974337010099</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>120.3072727907813</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,22 +9163,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>153.7922791635428</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>57.16283391807548</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>33.19297815391239</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>155.9392463706018</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>160.7189692873481</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9336,7 +9336,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>112.3489697478182</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -9406,19 +9406,19 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>23.37753409259007</v>
+        <v>8.343185893396523</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>155.9392463706018</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>172.0194177391078</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>86.65735802590561</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9564,22 +9564,22 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>107.4237051862024</v>
+        <v>113.4701664346265</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>116.3471858501899</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>105.6438149649264</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>118.0974337010099</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9640,16 +9640,16 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>21.34627969545377</v>
       </c>
       <c r="L23" t="n">
-        <v>170.7854310579181</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>155.9392463706018</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9719,10 +9719,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>46.20464749039657</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>101.2502271362721</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,7 +9731,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>101.7187902790575</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9795,16 +9795,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>107.4237051862024</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>116.3471858501899</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -9813,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>120.3072727907813</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.0971233641498</v>
+        <v>5.729482526483036</v>
       </c>
       <c r="K26" t="n">
-        <v>167.710687619257</v>
+        <v>31.18093476212968</v>
       </c>
       <c r="L26" t="n">
-        <v>25.36438303498683</v>
+        <v>185.0931916884159</v>
       </c>
       <c r="M26" t="n">
-        <v>36.87249542875153</v>
+        <v>173.9625086416845</v>
       </c>
       <c r="N26" t="n">
-        <v>155.9392463706018</v>
+        <v>172.1169913998387</v>
       </c>
       <c r="O26" t="n">
-        <v>160.7189692873481</v>
+        <v>175.9951551716172</v>
       </c>
       <c r="P26" t="n">
-        <v>26.59836971617661</v>
+        <v>185.0572889642801</v>
       </c>
       <c r="Q26" t="n">
-        <v>177.8387587942761</v>
+        <v>187.6296571089105</v>
       </c>
       <c r="R26" t="n">
-        <v>44.29840782002388</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>28.42872056929017</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,13 +9965,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>74.04057542595996</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>91.90326139519466</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10035,10 +10035,10 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>107.4237051862024</v>
+        <v>113.4701664346265</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.6760753412185281</v>
+        <v>25.69071929794391</v>
       </c>
       <c r="K29" t="n">
-        <v>127.0303805596143</v>
+        <v>179.2437313991894</v>
       </c>
       <c r="L29" t="n">
-        <v>25.36438303498683</v>
+        <v>185.0931916884159</v>
       </c>
       <c r="M29" t="n">
-        <v>158.0423681299224</v>
+        <v>173.9625086416845</v>
       </c>
       <c r="N29" t="n">
-        <v>155.9392463706018</v>
+        <v>172.1169913998387</v>
       </c>
       <c r="O29" t="n">
-        <v>160.7189692873481</v>
+        <v>175.9951551716172</v>
       </c>
       <c r="P29" t="n">
-        <v>172.0194177391078</v>
+        <v>185.0572889642801</v>
       </c>
       <c r="Q29" t="n">
-        <v>32.41771077134487</v>
+        <v>39.56686047185104</v>
       </c>
       <c r="R29" t="n">
-        <v>44.29840782002388</v>
+        <v>47.35195169012805</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>91.90326139519466</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>111.8583271261032</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10275,16 +10275,16 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>107.4237051862024</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>109.972040240151</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>105.6438149649264</v>
       </c>
       <c r="O31" t="n">
-        <v>112.3489697478182</v>
+        <v>118.0974337010099</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>71.65386202685161</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>50.88916160309618</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10512,13 +10512,13 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>107.4237051862024</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>99.42025606834319</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -10527,7 +10527,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>113.2541750466773</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10746,10 +10746,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>113.4701664346265</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -10761,10 +10761,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>17.43804294311219</v>
       </c>
       <c r="Q37" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>113.2541750466771</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10989,19 +10989,19 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>116.3471858501899</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>3.207356171188945</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>118.0974337010099</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>146.0971233641498</v>
+        <v>153.7922791635428</v>
       </c>
       <c r="K41" t="n">
-        <v>57.60305503084123</v>
+        <v>179.2437313991894</v>
       </c>
       <c r="L41" t="n">
-        <v>170.7854310579181</v>
+        <v>185.0931916884159</v>
       </c>
       <c r="M41" t="n">
-        <v>158.0423681299224</v>
+        <v>173.9625086416845</v>
       </c>
       <c r="N41" t="n">
-        <v>45.831613782186</v>
+        <v>172.1169913998387</v>
       </c>
       <c r="O41" t="n">
-        <v>50.61133669893232</v>
+        <v>175.9951551716172</v>
       </c>
       <c r="P41" t="n">
-        <v>172.0194177391078</v>
+        <v>55.3589605100753</v>
       </c>
       <c r="Q41" t="n">
-        <v>67.73112620586033</v>
+        <v>57.9313286547057</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,13 +11138,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>106.0223720293797</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>88.33866169793632</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>90.17689908866218</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>91.90326139519466</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>111.8583271261032</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>39.18973509414832</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>3.828967021085871</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>107.4237051862024</v>
+        <v>113.4701664346265</v>
       </c>
       <c r="M43" t="n">
-        <v>109.972040240151</v>
+        <v>116.3471858501899</v>
       </c>
       <c r="N43" t="n">
-        <v>99.42025606834319</v>
+        <v>105.6438149649264</v>
       </c>
       <c r="O43" t="n">
-        <v>112.3489697478182</v>
+        <v>118.0974337010099</v>
       </c>
       <c r="P43" t="n">
-        <v>115.3884688009908</v>
+        <v>120.3072727907813</v>
       </c>
       <c r="Q43" t="n">
-        <v>65.34295837775146</v>
+        <v>9.74546183873975</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>146.0971233641498</v>
+        <v>153.7922791635428</v>
       </c>
       <c r="K44" t="n">
-        <v>167.710687619257</v>
+        <v>179.2437313991894</v>
       </c>
       <c r="L44" t="n">
-        <v>170.7854310579181</v>
+        <v>55.3948632342108</v>
       </c>
       <c r="M44" t="n">
-        <v>47.93473554150661</v>
+        <v>173.9625086416845</v>
       </c>
       <c r="N44" t="n">
-        <v>155.9392463706018</v>
+        <v>172.1169913998387</v>
       </c>
       <c r="O44" t="n">
-        <v>50.61133669893232</v>
+        <v>175.9951551716172</v>
       </c>
       <c r="P44" t="n">
-        <v>167.93680903978</v>
+        <v>185.0572889642801</v>
       </c>
       <c r="Q44" t="n">
-        <v>67.73112620586033</v>
+        <v>57.93132865470545</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,10 +11375,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>106.0223720293797</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>102.2648533942562</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>111.8583271261032</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>21.89280612112942</v>
+        <v>5.314018963494219</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>106.7437663446525</v>
+        <v>59.84709849749656</v>
       </c>
       <c r="L46" t="n">
-        <v>107.4237051862024</v>
+        <v>113.4701664346265</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>116.3471858501899</v>
       </c>
       <c r="N46" t="n">
-        <v>99.42025606834319</v>
+        <v>105.6438149649264</v>
       </c>
       <c r="O46" t="n">
-        <v>112.3489697478182</v>
+        <v>118.0974337010099</v>
       </c>
       <c r="P46" t="n">
-        <v>115.3884688009908</v>
+        <v>120.3072727907813</v>
       </c>
       <c r="Q46" t="n">
-        <v>25.93063278345544</v>
+        <v>9.745461838739494</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>225.0887612080796</v>
+        <v>216.2006580136132</v>
       </c>
       <c r="C11" t="n">
-        <v>207.6278113156066</v>
+        <v>198.7397081211402</v>
       </c>
       <c r="D11" t="n">
-        <v>197.037961165282</v>
+        <v>188.1498579708156</v>
       </c>
       <c r="E11" t="n">
-        <v>224.2852896168608</v>
+        <v>215.3971864223944</v>
       </c>
       <c r="F11" t="n">
-        <v>249.2309652863105</v>
+        <v>240.3428620918441</v>
       </c>
       <c r="G11" t="n">
-        <v>257.2458833233016</v>
+        <v>248.4484460390771</v>
       </c>
       <c r="H11" t="n">
-        <v>177.612643882127</v>
+        <v>169.6530729409254</v>
       </c>
       <c r="I11" t="n">
-        <v>36.95590214119164</v>
+        <v>31.56319645132589</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>41.99169511188919</v>
+        <v>35.16964134705995</v>
       </c>
       <c r="T11" t="n">
-        <v>63.6482295774972</v>
+        <v>55.15701640511472</v>
       </c>
       <c r="U11" t="n">
-        <v>93.66763055352095</v>
+        <v>84.78678063187391</v>
       </c>
       <c r="V11" t="n">
-        <v>170.107178014734</v>
+        <v>161.2190748202676</v>
       </c>
       <c r="W11" t="n">
-        <v>191.5958882620121</v>
+        <v>182.7077850675457</v>
       </c>
       <c r="X11" t="n">
-        <v>212.0860202230681</v>
+        <v>203.1979170286017</v>
       </c>
       <c r="Y11" t="n">
-        <v>228.5928582006526</v>
+        <v>219.7047550061862</v>
       </c>
     </row>
     <row r="12">
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.888103194466396</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>15.0634185329148</v>
+        <v>6.175315338448399</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23387,25 +23387,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>9.945773514185447</v>
+        <v>1.95873229902341</v>
       </c>
       <c r="T12" t="n">
-        <v>41.63161058974484</v>
+        <v>32.93903890861509</v>
       </c>
       <c r="U12" t="n">
-        <v>68.28180699581856</v>
+        <v>59.39689528415963</v>
       </c>
       <c r="V12" t="n">
-        <v>75.15550669402433</v>
+        <v>66.26740349955793</v>
       </c>
       <c r="W12" t="n">
-        <v>94.04990270551866</v>
+        <v>85.16179951105227</v>
       </c>
       <c r="X12" t="n">
-        <v>48.12790474807653</v>
+        <v>39.23980155361014</v>
       </c>
       <c r="Y12" t="n">
-        <v>48.03761532190342</v>
+        <v>39.14951212743702</v>
       </c>
     </row>
     <row r="13">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22.18689972653635</v>
+        <v>13.29879653206996</v>
       </c>
       <c r="C13" t="n">
-        <v>9.60174064322689</v>
+        <v>0.713637448760494</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>10.16119138071136</v>
+        <v>1.313757792294041</v>
       </c>
       <c r="H13" t="n">
-        <v>2.939874262449223</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>11.34318905335425</v>
+        <v>4.283739236331002</v>
       </c>
       <c r="S13" t="n">
-        <v>63.15256921486079</v>
+        <v>54.97322633672246</v>
       </c>
       <c r="T13" t="n">
-        <v>69.51130410467297</v>
+        <v>60.79697104514355</v>
       </c>
       <c r="U13" t="n">
-        <v>128.6638739453256</v>
+        <v>119.7779890930073</v>
       </c>
       <c r="V13" t="n">
-        <v>94.49256286842706</v>
+        <v>85.60445967396066</v>
       </c>
       <c r="W13" t="n">
-        <v>128.8779178811901</v>
+        <v>119.9898146867237</v>
       </c>
       <c r="X13" t="n">
-        <v>68.06457493363621</v>
+        <v>59.17647173916981</v>
       </c>
       <c r="Y13" t="n">
-        <v>60.93957289669385</v>
+        <v>52.05146970222745</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>225.0887612080796</v>
+        <v>216.2006580136132</v>
       </c>
       <c r="C14" t="n">
-        <v>207.6278113156066</v>
+        <v>198.7397081211402</v>
       </c>
       <c r="D14" t="n">
-        <v>197.037961165282</v>
+        <v>188.1498579708156</v>
       </c>
       <c r="E14" t="n">
-        <v>224.2852896168608</v>
+        <v>215.3971864223944</v>
       </c>
       <c r="F14" t="n">
-        <v>249.2309652863105</v>
+        <v>240.3428620918441</v>
       </c>
       <c r="G14" t="n">
-        <v>257.2458833233016</v>
+        <v>248.4484460390771</v>
       </c>
       <c r="H14" t="n">
-        <v>177.612643882127</v>
+        <v>169.6530729409254</v>
       </c>
       <c r="I14" t="n">
-        <v>36.95590214119164</v>
+        <v>31.56319645132589</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>41.99169511188919</v>
+        <v>35.16964134705995</v>
       </c>
       <c r="T14" t="n">
-        <v>63.6482295774972</v>
+        <v>55.15701640511472</v>
       </c>
       <c r="U14" t="n">
-        <v>93.66763055352095</v>
+        <v>84.78678063187391</v>
       </c>
       <c r="V14" t="n">
-        <v>170.107178014734</v>
+        <v>161.2190748202676</v>
       </c>
       <c r="W14" t="n">
-        <v>191.5958882620121</v>
+        <v>182.7077850675457</v>
       </c>
       <c r="X14" t="n">
-        <v>212.0860202230681</v>
+        <v>203.1979170286017</v>
       </c>
       <c r="Y14" t="n">
-        <v>228.5928582006526</v>
+        <v>219.7047550061862</v>
       </c>
     </row>
     <row r="15">
@@ -23573,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.888103194466396</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>15.0634185329148</v>
+        <v>6.175315338448399</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23624,25 +23624,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>9.945773514185447</v>
+        <v>1.95873229902341</v>
       </c>
       <c r="T15" t="n">
-        <v>41.63161058974484</v>
+        <v>32.93903890861509</v>
       </c>
       <c r="U15" t="n">
-        <v>68.28180699581856</v>
+        <v>59.39689528415963</v>
       </c>
       <c r="V15" t="n">
-        <v>75.15550669402433</v>
+        <v>66.26740349955793</v>
       </c>
       <c r="W15" t="n">
-        <v>94.04990270551866</v>
+        <v>85.16179951105227</v>
       </c>
       <c r="X15" t="n">
-        <v>48.12790474807653</v>
+        <v>39.23980155361014</v>
       </c>
       <c r="Y15" t="n">
-        <v>48.03761532190342</v>
+        <v>39.14951212743702</v>
       </c>
     </row>
     <row r="16">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22.18689972653635</v>
+        <v>13.29879653206996</v>
       </c>
       <c r="C16" t="n">
-        <v>9.60174064322689</v>
+        <v>0.713637448760494</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>10.16119138071136</v>
+        <v>1.313757792294041</v>
       </c>
       <c r="H16" t="n">
-        <v>2.939874262449223</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>11.34318905335425</v>
+        <v>4.283739236331002</v>
       </c>
       <c r="S16" t="n">
-        <v>63.15256921486079</v>
+        <v>54.97322633672246</v>
       </c>
       <c r="T16" t="n">
-        <v>69.51130410467297</v>
+        <v>60.79697104514355</v>
       </c>
       <c r="U16" t="n">
-        <v>128.6638739453256</v>
+        <v>119.7779890930073</v>
       </c>
       <c r="V16" t="n">
-        <v>94.49256286842706</v>
+        <v>85.60445967396066</v>
       </c>
       <c r="W16" t="n">
-        <v>128.8779178811901</v>
+        <v>119.9898146867237</v>
       </c>
       <c r="X16" t="n">
-        <v>68.06457493363621</v>
+        <v>59.17647173916981</v>
       </c>
       <c r="Y16" t="n">
-        <v>60.93957289669385</v>
+        <v>52.05146970222745</v>
       </c>
     </row>
     <row r="17">
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>183.0970660961904</v>
+        <v>164.1491883113858</v>
       </c>
       <c r="C17" t="n">
-        <v>165.6361162037174</v>
+        <v>146.6882384189128</v>
       </c>
       <c r="D17" t="n">
-        <v>155.0462660533928</v>
+        <v>136.0983882685882</v>
       </c>
       <c r="E17" t="n">
-        <v>182.2935945049717</v>
+        <v>163.345716720167</v>
       </c>
       <c r="F17" t="n">
-        <v>207.2392701744213</v>
+        <v>188.2913923896166</v>
       </c>
       <c r="G17" t="n">
-        <v>215.2541882114124</v>
+        <v>196.3969763368497</v>
       </c>
       <c r="H17" t="n">
-        <v>135.6209487702378</v>
+        <v>117.601603238698</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>21.65653446560802</v>
+        <v>3.105546702887267</v>
       </c>
       <c r="U17" t="n">
-        <v>51.67593544163176</v>
+        <v>32.73531092964646</v>
       </c>
       <c r="V17" t="n">
-        <v>128.1154829028448</v>
+        <v>109.1676051180401</v>
       </c>
       <c r="W17" t="n">
-        <v>149.6041931501229</v>
+        <v>130.6563153653182</v>
       </c>
       <c r="X17" t="n">
-        <v>170.0943251111789</v>
+        <v>151.1464473263742</v>
       </c>
       <c r="Y17" t="n">
-        <v>186.6011630887635</v>
+        <v>167.6532853039588</v>
       </c>
     </row>
     <row r="18">
@@ -23867,19 +23867,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>26.29011188392937</v>
+        <v>7.345425581932176</v>
       </c>
       <c r="V18" t="n">
-        <v>33.16381158213514</v>
+        <v>14.21593379733048</v>
       </c>
       <c r="W18" t="n">
-        <v>52.05820759362948</v>
+        <v>33.11032980882482</v>
       </c>
       <c r="X18" t="n">
-        <v>6.136209636187345</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>6.045920210014231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23940,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>21.1608741029716</v>
+        <v>2.921756634495011</v>
       </c>
       <c r="T19" t="n">
-        <v>27.51960899278379</v>
+        <v>8.7455013429161</v>
       </c>
       <c r="U19" t="n">
-        <v>86.67217883343639</v>
+        <v>67.72651939077986</v>
       </c>
       <c r="V19" t="n">
-        <v>52.50086775653787</v>
+        <v>33.55298997173321</v>
       </c>
       <c r="W19" t="n">
-        <v>86.88622276930087</v>
+        <v>67.93834498449621</v>
       </c>
       <c r="X19" t="n">
-        <v>26.07287982174702</v>
+        <v>7.125002036942362</v>
       </c>
       <c r="Y19" t="n">
-        <v>18.94787778480466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>183.0970660961904</v>
+        <v>164.1491883113858</v>
       </c>
       <c r="C20" t="n">
-        <v>165.6361162037174</v>
+        <v>146.6882384189128</v>
       </c>
       <c r="D20" t="n">
-        <v>155.0462660533928</v>
+        <v>136.0983882685882</v>
       </c>
       <c r="E20" t="n">
-        <v>182.2935945049717</v>
+        <v>163.345716720167</v>
       </c>
       <c r="F20" t="n">
-        <v>207.2392701744213</v>
+        <v>188.2913923896166</v>
       </c>
       <c r="G20" t="n">
-        <v>215.2541882114124</v>
+        <v>196.3969763368497</v>
       </c>
       <c r="H20" t="n">
-        <v>135.6209487702378</v>
+        <v>117.601603238698</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>21.65653446560802</v>
+        <v>3.105546702887267</v>
       </c>
       <c r="U20" t="n">
-        <v>51.67593544163176</v>
+        <v>32.73531092964646</v>
       </c>
       <c r="V20" t="n">
-        <v>128.1154829028448</v>
+        <v>109.1676051180401</v>
       </c>
       <c r="W20" t="n">
-        <v>149.6041931501229</v>
+        <v>130.6563153653182</v>
       </c>
       <c r="X20" t="n">
-        <v>170.0943251111789</v>
+        <v>151.1464473263742</v>
       </c>
       <c r="Y20" t="n">
-        <v>186.6011630887635</v>
+        <v>167.6532853039588</v>
       </c>
     </row>
     <row r="21">
@@ -24104,19 +24104,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>26.29011188392937</v>
+        <v>7.345425581932176</v>
       </c>
       <c r="V21" t="n">
-        <v>33.16381158213514</v>
+        <v>14.21593379733048</v>
       </c>
       <c r="W21" t="n">
-        <v>52.05820759362948</v>
+        <v>33.11032980882482</v>
       </c>
       <c r="X21" t="n">
-        <v>6.136209636187345</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>6.045920210014231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24177,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>21.1608741029716</v>
+        <v>2.921756634495011</v>
       </c>
       <c r="T22" t="n">
-        <v>27.51960899278379</v>
+        <v>8.7455013429161</v>
       </c>
       <c r="U22" t="n">
-        <v>86.67217883343639</v>
+        <v>67.72651939077986</v>
       </c>
       <c r="V22" t="n">
-        <v>52.50086775653787</v>
+        <v>33.55298997173321</v>
       </c>
       <c r="W22" t="n">
-        <v>86.88622276930087</v>
+        <v>67.93834498449621</v>
       </c>
       <c r="X22" t="n">
-        <v>26.07287982174702</v>
+        <v>7.125002036942362</v>
       </c>
       <c r="Y22" t="n">
-        <v>18.94787778480466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>183.0970660961904</v>
+        <v>164.1491883113858</v>
       </c>
       <c r="C23" t="n">
-        <v>165.6361162037174</v>
+        <v>146.6882384189128</v>
       </c>
       <c r="D23" t="n">
-        <v>155.0462660533928</v>
+        <v>136.0983882685882</v>
       </c>
       <c r="E23" t="n">
-        <v>182.2935945049717</v>
+        <v>163.345716720167</v>
       </c>
       <c r="F23" t="n">
-        <v>207.2392701744213</v>
+        <v>188.2913923896166</v>
       </c>
       <c r="G23" t="n">
-        <v>215.2541882114124</v>
+        <v>196.3969763368497</v>
       </c>
       <c r="H23" t="n">
-        <v>135.6209487702378</v>
+        <v>117.601603238698</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>21.65653446560802</v>
+        <v>3.105546702887267</v>
       </c>
       <c r="U23" t="n">
-        <v>51.67593544163176</v>
+        <v>32.73531092964646</v>
       </c>
       <c r="V23" t="n">
-        <v>128.1154829028448</v>
+        <v>109.1676051180401</v>
       </c>
       <c r="W23" t="n">
-        <v>149.6041931501229</v>
+        <v>130.6563153653182</v>
       </c>
       <c r="X23" t="n">
-        <v>170.0943251111789</v>
+        <v>151.1464473263742</v>
       </c>
       <c r="Y23" t="n">
-        <v>186.6011630887635</v>
+        <v>167.6532853039588</v>
       </c>
     </row>
     <row r="24">
@@ -24341,19 +24341,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>26.29011188392937</v>
+        <v>7.345425581932176</v>
       </c>
       <c r="V24" t="n">
-        <v>33.16381158213514</v>
+        <v>14.21593379733048</v>
       </c>
       <c r="W24" t="n">
-        <v>52.05820759362948</v>
+        <v>33.11032980882482</v>
       </c>
       <c r="X24" t="n">
-        <v>6.136209636187345</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>6.045920210014231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24414,25 +24414,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>21.1608741029716</v>
+        <v>2.921756634495011</v>
       </c>
       <c r="T25" t="n">
-        <v>27.51960899278379</v>
+        <v>8.7455013429161</v>
       </c>
       <c r="U25" t="n">
-        <v>86.67217883343639</v>
+        <v>67.72651939077986</v>
       </c>
       <c r="V25" t="n">
-        <v>52.50086775653787</v>
+        <v>33.55298997173321</v>
       </c>
       <c r="W25" t="n">
-        <v>86.88622276930087</v>
+        <v>67.93834498449621</v>
       </c>
       <c r="X25" t="n">
-        <v>26.07287982174702</v>
+        <v>7.125002036942362</v>
       </c>
       <c r="Y25" t="n">
-        <v>18.94787778480466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>237.3127936405493</v>
+        <v>234.6710450264208</v>
       </c>
       <c r="C26" t="n">
-        <v>219.8518437480763</v>
+        <v>217.2100951339478</v>
       </c>
       <c r="D26" t="n">
-        <v>209.2619935977517</v>
+        <v>206.6202449836232</v>
       </c>
       <c r="E26" t="n">
-        <v>236.5093220493305</v>
+        <v>233.867573435202</v>
       </c>
       <c r="F26" t="n">
-        <v>261.4549977187802</v>
+        <v>258.8132491046517</v>
       </c>
       <c r="G26" t="n">
-        <v>269.4699157557713</v>
+        <v>266.9188330518847</v>
       </c>
       <c r="H26" t="n">
-        <v>189.8366763145967</v>
+        <v>188.123459953733</v>
       </c>
       <c r="I26" t="n">
-        <v>49.17993457366134</v>
+        <v>50.03358346413347</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>54.21572754435888</v>
+        <v>53.64002835986753</v>
       </c>
       <c r="T26" t="n">
-        <v>75.8722620099669</v>
+        <v>73.6274034179223</v>
       </c>
       <c r="U26" t="n">
-        <v>105.8916629859906</v>
+        <v>103.2571676446815</v>
       </c>
       <c r="V26" t="n">
-        <v>182.3312104472037</v>
+        <v>179.6894618330751</v>
       </c>
       <c r="W26" t="n">
-        <v>203.8199206944818</v>
+        <v>201.1781720803532</v>
       </c>
       <c r="X26" t="n">
-        <v>224.3100526555378</v>
+        <v>221.6683040414093</v>
       </c>
       <c r="Y26" t="n">
-        <v>240.8168906331223</v>
+        <v>238.1751420189938</v>
       </c>
     </row>
     <row r="27">
@@ -24521,16 +24521,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>21.11213562693609</v>
+        <v>18.47038701280758</v>
       </c>
       <c r="C27" t="n">
-        <v>27.28745096538449</v>
+        <v>24.64570235125598</v>
       </c>
       <c r="D27" t="n">
-        <v>2.024017541707508</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>12.2240324324697</v>
+        <v>9.582283818341182</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -24572,25 +24572,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>22.16980594665515</v>
+        <v>20.42911931183099</v>
       </c>
       <c r="T27" t="n">
-        <v>53.85564302221454</v>
+        <v>51.40942592142267</v>
       </c>
       <c r="U27" t="n">
-        <v>80.50583942828825</v>
+        <v>77.8672822969672</v>
       </c>
       <c r="V27" t="n">
-        <v>87.37953912649402</v>
+        <v>84.73779051236551</v>
       </c>
       <c r="W27" t="n">
-        <v>106.2739351379884</v>
+        <v>103.6321865238598</v>
       </c>
       <c r="X27" t="n">
-        <v>60.35193718054623</v>
+        <v>57.71018856641771</v>
       </c>
       <c r="Y27" t="n">
-        <v>60.26164775437312</v>
+        <v>57.6198991402446</v>
       </c>
     </row>
     <row r="28">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>34.41093215900605</v>
+        <v>31.76918354487754</v>
       </c>
       <c r="C28" t="n">
-        <v>21.82577307569659</v>
+        <v>19.18402446156807</v>
       </c>
       <c r="D28" t="n">
-        <v>3.194424995281111</v>
+        <v>0.5526763811525939</v>
       </c>
       <c r="E28" t="n">
-        <v>1.012914623637926</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>22.38522381318106</v>
+        <v>19.78414480510162</v>
       </c>
       <c r="H28" t="n">
-        <v>15.16390669491892</v>
+        <v>12.88374785093586</v>
       </c>
       <c r="I28" t="n">
-        <v>4.474767959580873</v>
+        <v>3.056065316455602</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>23.56722148582395</v>
+        <v>22.75412624913858</v>
       </c>
       <c r="S28" t="n">
-        <v>75.37660164733049</v>
+        <v>73.44361334953004</v>
       </c>
       <c r="T28" t="n">
-        <v>81.73533653714267</v>
+        <v>79.26735805795113</v>
       </c>
       <c r="U28" t="n">
-        <v>140.8879063777953</v>
+        <v>138.2483761058149</v>
       </c>
       <c r="V28" t="n">
-        <v>106.7165953008968</v>
+        <v>104.0748466867682</v>
       </c>
       <c r="W28" t="n">
-        <v>141.1019503136598</v>
+        <v>138.4602016995312</v>
       </c>
       <c r="X28" t="n">
-        <v>80.28860736610591</v>
+        <v>77.64685875197739</v>
       </c>
       <c r="Y28" t="n">
-        <v>73.16360532916354</v>
+        <v>70.52185671503503</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>237.3127936405493</v>
+        <v>234.6710450264211</v>
       </c>
       <c r="C29" t="n">
-        <v>219.8518437480763</v>
+        <v>217.210095133948</v>
       </c>
       <c r="D29" t="n">
-        <v>209.2619935977517</v>
+        <v>206.6202449836235</v>
       </c>
       <c r="E29" t="n">
-        <v>236.5093220493305</v>
+        <v>233.8675734352023</v>
       </c>
       <c r="F29" t="n">
-        <v>261.4549977187802</v>
+        <v>258.813249104652</v>
       </c>
       <c r="G29" t="n">
-        <v>269.4699157557713</v>
+        <v>266.9188330518849</v>
       </c>
       <c r="H29" t="n">
-        <v>189.8366763145967</v>
+        <v>188.1234599537333</v>
       </c>
       <c r="I29" t="n">
-        <v>49.17993457366134</v>
+        <v>50.03358346413373</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>54.21572754435888</v>
+        <v>53.64002835986778</v>
       </c>
       <c r="T29" t="n">
-        <v>75.8722620099669</v>
+        <v>73.62740341792255</v>
       </c>
       <c r="U29" t="n">
-        <v>105.8916629859906</v>
+        <v>103.2571676446817</v>
       </c>
       <c r="V29" t="n">
-        <v>182.3312104472037</v>
+        <v>179.6894618330754</v>
       </c>
       <c r="W29" t="n">
-        <v>203.8199206944818</v>
+        <v>201.1781720803535</v>
       </c>
       <c r="X29" t="n">
-        <v>224.3100526555378</v>
+        <v>221.6683040414095</v>
       </c>
       <c r="Y29" t="n">
-        <v>240.8168906331223</v>
+        <v>238.1751420189941</v>
       </c>
     </row>
     <row r="30">
@@ -24758,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>21.11213562693609</v>
+        <v>18.47038701280783</v>
       </c>
       <c r="C30" t="n">
-        <v>27.28745096538449</v>
+        <v>24.64570235125623</v>
       </c>
       <c r="D30" t="n">
-        <v>2.024017541707508</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>12.2240324324697</v>
+        <v>9.582283818341438</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -24809,25 +24809,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>22.16980594665515</v>
+        <v>20.42911931183124</v>
       </c>
       <c r="T30" t="n">
-        <v>53.85564302221454</v>
+        <v>51.40942592142292</v>
       </c>
       <c r="U30" t="n">
-        <v>80.50583942828825</v>
+        <v>77.86728229696746</v>
       </c>
       <c r="V30" t="n">
-        <v>87.37953912649402</v>
+        <v>84.73779051236576</v>
       </c>
       <c r="W30" t="n">
-        <v>106.2739351379884</v>
+        <v>103.6321865238601</v>
       </c>
       <c r="X30" t="n">
-        <v>60.35193718054623</v>
+        <v>57.71018856641797</v>
       </c>
       <c r="Y30" t="n">
-        <v>60.26164775437312</v>
+        <v>57.61989914024485</v>
       </c>
     </row>
     <row r="31">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34.41093215900605</v>
+        <v>31.76918354487779</v>
       </c>
       <c r="C31" t="n">
-        <v>21.82577307569659</v>
+        <v>19.18402446156833</v>
       </c>
       <c r="D31" t="n">
-        <v>3.194424995281111</v>
+        <v>0.5526763811528497</v>
       </c>
       <c r="E31" t="n">
-        <v>1.012914623637926</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>22.38522381318106</v>
+        <v>19.78414480510187</v>
       </c>
       <c r="H31" t="n">
-        <v>15.16390669491892</v>
+        <v>12.88374785093612</v>
       </c>
       <c r="I31" t="n">
-        <v>4.474767959580873</v>
+        <v>3.056065316455857</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>23.56722148582395</v>
+        <v>22.75412624913884</v>
       </c>
       <c r="S31" t="n">
-        <v>75.37660164733049</v>
+        <v>73.4436133495303</v>
       </c>
       <c r="T31" t="n">
-        <v>81.73533653714267</v>
+        <v>79.26735805795138</v>
       </c>
       <c r="U31" t="n">
-        <v>140.8879063777953</v>
+        <v>138.2483761058151</v>
       </c>
       <c r="V31" t="n">
-        <v>106.7165953008968</v>
+        <v>104.0748466867685</v>
       </c>
       <c r="W31" t="n">
-        <v>141.1019503136598</v>
+        <v>138.4602016995315</v>
       </c>
       <c r="X31" t="n">
-        <v>80.28860736610591</v>
+        <v>77.64685875197765</v>
       </c>
       <c r="Y31" t="n">
-        <v>73.16360532916354</v>
+        <v>70.52185671503528</v>
       </c>
     </row>
     <row r="32">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>169.1968561640227</v>
+        <v>157.0241862744434</v>
       </c>
       <c r="C32" t="n">
-        <v>151.7359062715497</v>
+        <v>139.5632363819704</v>
       </c>
       <c r="D32" t="n">
-        <v>141.1460561212251</v>
+        <v>128.9733862316458</v>
       </c>
       <c r="E32" t="n">
-        <v>168.3933845728039</v>
+        <v>156.2207146832246</v>
       </c>
       <c r="F32" t="n">
-        <v>193.3390602422536</v>
+        <v>181.1663903526743</v>
       </c>
       <c r="G32" t="n">
-        <v>201.3539782792447</v>
+        <v>189.2719742999073</v>
       </c>
       <c r="H32" t="n">
-        <v>121.7207388380701</v>
+        <v>110.4766012017556</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>7.756324533440306</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>37.77572550946405</v>
+        <v>25.6103088927041</v>
       </c>
       <c r="V32" t="n">
-        <v>114.2152729706771</v>
+        <v>102.0426030810978</v>
       </c>
       <c r="W32" t="n">
-        <v>135.7039832179552</v>
+        <v>123.5313133283759</v>
       </c>
       <c r="X32" t="n">
-        <v>156.1941151790112</v>
+        <v>144.0214452894319</v>
       </c>
       <c r="Y32" t="n">
-        <v>172.7009531565957</v>
+        <v>160.5282832670164</v>
       </c>
     </row>
     <row r="33">
@@ -25052,13 +25052,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>12.38990195176166</v>
+        <v>0.2204235449898135</v>
       </c>
       <c r="V33" t="n">
-        <v>19.26360164996743</v>
+        <v>7.090931760388116</v>
       </c>
       <c r="W33" t="n">
-        <v>38.15799766146176</v>
+        <v>25.98532777188245</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>7.260664170803892</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>13.61939906061608</v>
+        <v>1.620499305973738</v>
       </c>
       <c r="U34" t="n">
-        <v>72.77196890126868</v>
+        <v>60.60151735383749</v>
       </c>
       <c r="V34" t="n">
-        <v>38.60065782437016</v>
+        <v>26.42798793479085</v>
       </c>
       <c r="W34" t="n">
-        <v>72.98601283713316</v>
+        <v>60.81334294755385</v>
       </c>
       <c r="X34" t="n">
-        <v>12.17266988957931</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>5.047667852636948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>169.1968561640227</v>
+        <v>157.0241862744434</v>
       </c>
       <c r="C35" t="n">
-        <v>151.7359062715497</v>
+        <v>139.5632363819704</v>
       </c>
       <c r="D35" t="n">
-        <v>141.1460561212251</v>
+        <v>128.9733862316458</v>
       </c>
       <c r="E35" t="n">
-        <v>168.3933845728039</v>
+        <v>156.2207146832246</v>
       </c>
       <c r="F35" t="n">
-        <v>193.3390602422536</v>
+        <v>181.1663903526743</v>
       </c>
       <c r="G35" t="n">
-        <v>201.3539782792447</v>
+        <v>189.2719742999073</v>
       </c>
       <c r="H35" t="n">
-        <v>121.7207388380701</v>
+        <v>110.4766012017556</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>7.756324533440306</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>37.77572550946405</v>
+        <v>25.6103088927041</v>
       </c>
       <c r="V35" t="n">
-        <v>114.2152729706771</v>
+        <v>102.0426030810978</v>
       </c>
       <c r="W35" t="n">
-        <v>135.7039832179552</v>
+        <v>123.5313133283759</v>
       </c>
       <c r="X35" t="n">
-        <v>156.1941151790112</v>
+        <v>144.0214452894319</v>
       </c>
       <c r="Y35" t="n">
-        <v>172.7009531565957</v>
+        <v>160.5282832670164</v>
       </c>
     </row>
     <row r="36">
@@ -25289,13 +25289,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>12.38990195176166</v>
+        <v>0.2204235449898135</v>
       </c>
       <c r="V36" t="n">
-        <v>19.26360164996743</v>
+        <v>7.090931760388116</v>
       </c>
       <c r="W36" t="n">
-        <v>38.15799766146176</v>
+        <v>25.98532777188245</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>7.260664170803892</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>13.61939906061608</v>
+        <v>1.620499305973738</v>
       </c>
       <c r="U37" t="n">
-        <v>72.77196890126868</v>
+        <v>60.60151735383749</v>
       </c>
       <c r="V37" t="n">
-        <v>38.60065782437016</v>
+        <v>26.42798793479085</v>
       </c>
       <c r="W37" t="n">
-        <v>72.98601283713316</v>
+        <v>60.81334294755385</v>
       </c>
       <c r="X37" t="n">
-        <v>12.17266988957931</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>5.047667852636948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>169.1968561640227</v>
+        <v>157.0241862744434</v>
       </c>
       <c r="C38" t="n">
-        <v>151.7359062715497</v>
+        <v>139.5632363819704</v>
       </c>
       <c r="D38" t="n">
-        <v>141.1460561212251</v>
+        <v>128.9733862316458</v>
       </c>
       <c r="E38" t="n">
-        <v>168.3933845728039</v>
+        <v>156.2207146832246</v>
       </c>
       <c r="F38" t="n">
-        <v>193.3390602422536</v>
+        <v>181.1663903526743</v>
       </c>
       <c r="G38" t="n">
-        <v>201.3539782792447</v>
+        <v>189.2719742999073</v>
       </c>
       <c r="H38" t="n">
-        <v>121.7207388380701</v>
+        <v>110.4766012017556</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>7.756324533440306</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>37.77572550946405</v>
+        <v>25.6103088927041</v>
       </c>
       <c r="V38" t="n">
-        <v>114.2152729706771</v>
+        <v>102.0426030810978</v>
       </c>
       <c r="W38" t="n">
-        <v>135.7039832179552</v>
+        <v>123.5313133283759</v>
       </c>
       <c r="X38" t="n">
-        <v>156.1941151790112</v>
+        <v>144.0214452894319</v>
       </c>
       <c r="Y38" t="n">
-        <v>172.7009531565957</v>
+        <v>160.5282832670164</v>
       </c>
     </row>
     <row r="39">
@@ -25526,13 +25526,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>12.38990195176166</v>
+        <v>0.2204235449898135</v>
       </c>
       <c r="V39" t="n">
-        <v>19.26360164996743</v>
+        <v>7.090931760388116</v>
       </c>
       <c r="W39" t="n">
-        <v>38.15799766146176</v>
+        <v>25.98532777188245</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>7.260664170803892</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>13.61939906061608</v>
+        <v>1.620499305973738</v>
       </c>
       <c r="U40" t="n">
-        <v>72.77196890126868</v>
+        <v>60.60151735383749</v>
       </c>
       <c r="V40" t="n">
-        <v>38.60065782437016</v>
+        <v>26.42798793479085</v>
       </c>
       <c r="W40" t="n">
-        <v>72.98601283713316</v>
+        <v>60.81334294755385</v>
       </c>
       <c r="X40" t="n">
-        <v>12.17266988957931</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>5.047667852636948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>272.6262090750648</v>
+        <v>253.0355132092757</v>
       </c>
       <c r="C41" t="n">
-        <v>255.1652591825918</v>
+        <v>235.5745633168027</v>
       </c>
       <c r="D41" t="n">
-        <v>244.5754090322672</v>
+        <v>224.9847131664781</v>
       </c>
       <c r="E41" t="n">
-        <v>271.822737483846</v>
+        <v>252.2320416180569</v>
       </c>
       <c r="F41" t="n">
-        <v>296.7684131532957</v>
+        <v>277.1777172875066</v>
       </c>
       <c r="G41" t="n">
-        <v>304.7833311902867</v>
+        <v>285.2833012347396</v>
       </c>
       <c r="H41" t="n">
-        <v>225.1500917491122</v>
+        <v>206.4879281365879</v>
       </c>
       <c r="I41" t="n">
-        <v>84.4933500081768</v>
+        <v>68.39805164698839</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>13.89540338155689</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>89.52914297887435</v>
+        <v>72.00449654272245</v>
       </c>
       <c r="T41" t="n">
-        <v>111.1856774444824</v>
+        <v>91.99187160077722</v>
       </c>
       <c r="U41" t="n">
-        <v>141.2050784205061</v>
+        <v>121.6216358275364</v>
       </c>
       <c r="V41" t="n">
-        <v>217.6446258817191</v>
+        <v>198.0539300159301</v>
       </c>
       <c r="W41" t="n">
-        <v>239.1333361289972</v>
+        <v>219.5426402632082</v>
       </c>
       <c r="X41" t="n">
-        <v>259.6234680900533</v>
+        <v>240.0327722242642</v>
       </c>
       <c r="Y41" t="n">
-        <v>276.1303060676378</v>
+        <v>256.5396102018487</v>
       </c>
     </row>
     <row r="42">
@@ -25706,22 +25706,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>56.42555106145156</v>
+        <v>36.8348551956625</v>
       </c>
       <c r="C42" t="n">
-        <v>62.60086639989996</v>
+        <v>43.0101705341109</v>
       </c>
       <c r="D42" t="n">
-        <v>37.33743297622297</v>
+        <v>17.74673711043391</v>
       </c>
       <c r="E42" t="n">
-        <v>47.53744786698516</v>
+        <v>27.9467520011961</v>
       </c>
       <c r="F42" t="n">
-        <v>34.9615798049681</v>
+        <v>15.37088393917904</v>
       </c>
       <c r="G42" t="n">
-        <v>27.01556620251401</v>
+        <v>7.473380875398249</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25757,25 +25757,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>57.48322138117061</v>
+        <v>38.79358749468591</v>
       </c>
       <c r="T42" t="n">
-        <v>89.16905845673</v>
+        <v>69.77389410427759</v>
       </c>
       <c r="U42" t="n">
-        <v>115.8192548628037</v>
+        <v>96.23175047982213</v>
       </c>
       <c r="V42" t="n">
-        <v>122.6929545610095</v>
+        <v>103.1022586952204</v>
       </c>
       <c r="W42" t="n">
-        <v>141.5873505725038</v>
+        <v>121.9966547067148</v>
       </c>
       <c r="X42" t="n">
-        <v>95.66535261506169</v>
+        <v>76.07465674927263</v>
       </c>
       <c r="Y42" t="n">
-        <v>95.57506318888858</v>
+        <v>75.98436732309952</v>
       </c>
     </row>
     <row r="43">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>69.72434759352151</v>
+        <v>50.13365172773246</v>
       </c>
       <c r="C43" t="n">
-        <v>57.13918851021205</v>
+        <v>37.54849264442299</v>
       </c>
       <c r="D43" t="n">
-        <v>38.50784042979657</v>
+        <v>18.91714456400751</v>
       </c>
       <c r="E43" t="n">
-        <v>36.32633005815339</v>
+        <v>16.73563419236433</v>
       </c>
       <c r="F43" t="n">
-        <v>35.31341543451546</v>
+        <v>15.7227195687264</v>
       </c>
       <c r="G43" t="n">
-        <v>57.69863924769652</v>
+        <v>38.14861298795654</v>
       </c>
       <c r="H43" t="n">
-        <v>50.47732212943438</v>
+        <v>31.24821603379078</v>
       </c>
       <c r="I43" t="n">
-        <v>39.78818339409634</v>
+        <v>21.42053349931052</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>58.88063692033941</v>
+        <v>41.1185944319935</v>
       </c>
       <c r="S43" t="n">
-        <v>110.690017081846</v>
+        <v>91.80808153238496</v>
       </c>
       <c r="T43" t="n">
-        <v>117.0487519716581</v>
+        <v>97.63182624080605</v>
       </c>
       <c r="U43" t="n">
-        <v>176.2013218123107</v>
+        <v>156.6128442886698</v>
       </c>
       <c r="V43" t="n">
-        <v>142.0300107354122</v>
+        <v>122.4393148696232</v>
       </c>
       <c r="W43" t="n">
-        <v>176.4153657481752</v>
+        <v>156.8246698823862</v>
       </c>
       <c r="X43" t="n">
-        <v>115.6020228006214</v>
+        <v>96.01132693483231</v>
       </c>
       <c r="Y43" t="n">
-        <v>108.477020763679</v>
+        <v>88.88632489788995</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>272.6262090750648</v>
+        <v>253.0355132092755</v>
       </c>
       <c r="C44" t="n">
-        <v>255.1652591825918</v>
+        <v>235.5745633168025</v>
       </c>
       <c r="D44" t="n">
-        <v>244.5754090322672</v>
+        <v>224.9847131664779</v>
       </c>
       <c r="E44" t="n">
-        <v>271.822737483846</v>
+        <v>252.2320416180567</v>
       </c>
       <c r="F44" t="n">
-        <v>296.7684131532957</v>
+        <v>277.1777172875063</v>
       </c>
       <c r="G44" t="n">
-        <v>304.7833311902867</v>
+        <v>285.2833012347394</v>
       </c>
       <c r="H44" t="n">
-        <v>225.1500917491122</v>
+        <v>206.4879281365877</v>
       </c>
       <c r="I44" t="n">
-        <v>84.4933500081768</v>
+        <v>68.39805164698814</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>13.89540338155689</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>89.52914297887435</v>
+        <v>72.00449654272219</v>
       </c>
       <c r="T44" t="n">
-        <v>111.1856774444824</v>
+        <v>91.99187160077696</v>
       </c>
       <c r="U44" t="n">
-        <v>141.2050784205061</v>
+        <v>121.6216358275362</v>
       </c>
       <c r="V44" t="n">
-        <v>217.6446258817191</v>
+        <v>198.0539300159298</v>
       </c>
       <c r="W44" t="n">
-        <v>239.1333361289972</v>
+        <v>219.5426402632079</v>
       </c>
       <c r="X44" t="n">
-        <v>259.6234680900533</v>
+        <v>240.0327722242639</v>
       </c>
       <c r="Y44" t="n">
-        <v>276.1303060676378</v>
+        <v>256.5396102018485</v>
       </c>
     </row>
     <row r="45">
@@ -25943,22 +25943,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>56.42555106145156</v>
+        <v>36.83485519566224</v>
       </c>
       <c r="C45" t="n">
-        <v>62.60086639989996</v>
+        <v>43.01017053411064</v>
       </c>
       <c r="D45" t="n">
-        <v>37.33743297622297</v>
+        <v>17.74673711043366</v>
       </c>
       <c r="E45" t="n">
-        <v>47.53744786698516</v>
+        <v>27.94675200119585</v>
       </c>
       <c r="F45" t="n">
-        <v>34.9615798049681</v>
+        <v>15.37088393917878</v>
       </c>
       <c r="G45" t="n">
-        <v>27.01556620251401</v>
+        <v>7.473380875397993</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -25994,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>57.48322138117061</v>
+        <v>38.79358749468565</v>
       </c>
       <c r="T45" t="n">
-        <v>89.16905845673</v>
+        <v>69.77389410427733</v>
       </c>
       <c r="U45" t="n">
-        <v>115.8192548628037</v>
+        <v>96.23175047982187</v>
       </c>
       <c r="V45" t="n">
-        <v>122.6929545610095</v>
+        <v>103.1022586952202</v>
       </c>
       <c r="W45" t="n">
-        <v>141.5873505725038</v>
+        <v>121.9966547067145</v>
       </c>
       <c r="X45" t="n">
-        <v>95.66535261506169</v>
+        <v>76.07465674927238</v>
       </c>
       <c r="Y45" t="n">
-        <v>95.57506318888858</v>
+        <v>75.98436732309926</v>
       </c>
     </row>
     <row r="46">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>69.72434759352151</v>
+        <v>50.1336517277322</v>
       </c>
       <c r="C46" t="n">
-        <v>57.13918851021205</v>
+        <v>37.54849264442274</v>
       </c>
       <c r="D46" t="n">
-        <v>38.50784042979657</v>
+        <v>18.91714456400726</v>
       </c>
       <c r="E46" t="n">
-        <v>36.32633005815339</v>
+        <v>16.73563419236407</v>
       </c>
       <c r="F46" t="n">
-        <v>35.31341543451546</v>
+        <v>15.72271956872615</v>
       </c>
       <c r="G46" t="n">
-        <v>57.69863924769652</v>
+        <v>38.14861298795628</v>
       </c>
       <c r="H46" t="n">
-        <v>50.47732212943438</v>
+        <v>31.24821603379053</v>
       </c>
       <c r="I46" t="n">
-        <v>39.78818339409634</v>
+        <v>21.42053349931027</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>58.88063692033941</v>
+        <v>41.11859443199324</v>
       </c>
       <c r="S46" t="n">
-        <v>110.690017081846</v>
+        <v>91.8080815323847</v>
       </c>
       <c r="T46" t="n">
-        <v>117.0487519716581</v>
+        <v>97.63182624080579</v>
       </c>
       <c r="U46" t="n">
-        <v>176.2013218123107</v>
+        <v>156.6128442886695</v>
       </c>
       <c r="V46" t="n">
-        <v>142.0300107354122</v>
+        <v>122.4393148696229</v>
       </c>
       <c r="W46" t="n">
-        <v>176.4153657481752</v>
+        <v>156.8246698823859</v>
       </c>
       <c r="X46" t="n">
-        <v>115.6020228006214</v>
+        <v>96.01132693483206</v>
       </c>
       <c r="Y46" t="n">
-        <v>108.477020763679</v>
+        <v>88.88632489788969</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>485633.0381170511</v>
+        <v>500332.9073846068</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>485633.0381170511</v>
+        <v>500332.9073846068</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>508651.9676334368</v>
+        <v>519243.5524378399</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>508651.9676334369</v>
+        <v>519243.5524378399</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>508651.9676334368</v>
+        <v>519243.5524378399</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>474608.900168571</v>
+        <v>484870.2056997883</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>474608.9001685709</v>
+        <v>484870.2056997883</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>510429.0269157644</v>
+        <v>518976.6347923632</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>510429.0269157644</v>
+        <v>518976.6347923632</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>510429.0269157644</v>
+        <v>518976.6347923632</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>432076.1080402995</v>
+        <v>464266.4379795204</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>432076.1080402994</v>
+        <v>464266.4379795209</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>819276.3387170379</v>
+        <v>819276.3387170382</v>
       </c>
       <c r="C2" t="n">
-        <v>819276.3387170383</v>
+        <v>819276.3387170384</v>
       </c>
       <c r="D2" t="n">
-        <v>819276.338717038</v>
+        <v>819276.3387170384</v>
       </c>
       <c r="E2" t="n">
-        <v>582502.7541856213</v>
+        <v>598255.1480428008</v>
       </c>
       <c r="F2" t="n">
-        <v>582502.7541856215</v>
+        <v>598255.1480428007</v>
       </c>
       <c r="G2" t="n">
-        <v>652748.8482601047</v>
+        <v>678331.3807493724</v>
       </c>
       <c r="H2" t="n">
-        <v>652748.848260105</v>
+        <v>678331.3807493728</v>
       </c>
       <c r="I2" t="n">
-        <v>652748.8482601048</v>
+        <v>678331.3807493724</v>
       </c>
       <c r="J2" t="n">
-        <v>558909.5594436815</v>
+        <v>563474.9155109781</v>
       </c>
       <c r="K2" t="n">
-        <v>558909.5594436816</v>
+        <v>563474.9155109774</v>
       </c>
       <c r="L2" t="n">
-        <v>671752.6497753677</v>
+        <v>687215.8068753701</v>
       </c>
       <c r="M2" t="n">
-        <v>671752.6497753676</v>
+        <v>687215.8068753702</v>
       </c>
       <c r="N2" t="n">
-        <v>671752.6497753676</v>
+        <v>687215.8068753701</v>
       </c>
       <c r="O2" t="n">
-        <v>482980.9078294691</v>
+        <v>525090.6857097923</v>
       </c>
       <c r="P2" t="n">
-        <v>482980.9078294689</v>
+        <v>525090.6857097927</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>208407.6028381236</v>
+        <v>197398.820902537</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>33593.35608951135</v>
+        <v>41641.17576178196</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>82743.48232883365</v>
+        <v>76809.06154786584</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>88086.10607073263</v>
+        <v>103758.6627633641</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>300984.0444046641</v>
+        <v>318090.3546661024</v>
       </c>
       <c r="F4" t="n">
-        <v>300984.0444046642</v>
+        <v>318090.3546661024</v>
       </c>
       <c r="G4" t="n">
-        <v>338504.0349397003</v>
+        <v>360224.8372325635</v>
       </c>
       <c r="H4" t="n">
-        <v>338504.0349397003</v>
+        <v>360224.8372325635</v>
       </c>
       <c r="I4" t="n">
-        <v>338504.0349397003</v>
+        <v>360224.8372325635</v>
       </c>
       <c r="J4" t="n">
-        <v>288096.6651910931</v>
+        <v>299160.6834723003</v>
       </c>
       <c r="K4" t="n">
-        <v>288096.6651910931</v>
+        <v>299160.6834723</v>
       </c>
       <c r="L4" t="n">
-        <v>348268.2212722821</v>
+        <v>364694.4198985522</v>
       </c>
       <c r="M4" t="n">
-        <v>348268.2212722821</v>
+        <v>364694.4198985523</v>
       </c>
       <c r="N4" t="n">
-        <v>348268.2212722821</v>
+        <v>364694.4198985523</v>
       </c>
       <c r="O4" t="n">
-        <v>246009.8058254709</v>
+        <v>277962.4115973038</v>
       </c>
       <c r="P4" t="n">
-        <v>246009.8058254709</v>
+        <v>277962.4115973042</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>15486.01029804435</v>
+        <v>15741.56568073571</v>
       </c>
       <c r="F5" t="n">
-        <v>15486.01029804435</v>
+        <v>15741.56568073571</v>
       </c>
       <c r="G5" t="n">
-        <v>19016.21011440576</v>
+        <v>20117.48068713227</v>
       </c>
       <c r="H5" t="n">
-        <v>19016.21011440576</v>
+        <v>20117.48068713227</v>
       </c>
       <c r="I5" t="n">
-        <v>19016.21011440576</v>
+        <v>20117.48068713227</v>
       </c>
       <c r="J5" t="n">
-        <v>14458.34811547906</v>
+        <v>14188.77871495599</v>
       </c>
       <c r="K5" t="n">
-        <v>14458.34811547906</v>
+        <v>14188.77871495597</v>
       </c>
       <c r="L5" t="n">
-        <v>20184.78686319317</v>
+        <v>20716.47248337598</v>
       </c>
       <c r="M5" t="n">
-        <v>20184.78686319317</v>
+        <v>20716.47248337598</v>
       </c>
       <c r="N5" t="n">
-        <v>20184.78686319317</v>
+        <v>20716.47248337598</v>
       </c>
       <c r="O5" t="n">
-        <v>11489.58459331478</v>
+        <v>12644.89623929156</v>
       </c>
       <c r="P5" t="n">
-        <v>11489.58459331478</v>
+        <v>12644.89623929158</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>318032.7787853067</v>
+        <v>317988.6430066258</v>
       </c>
       <c r="C6" t="n">
-        <v>318032.7787853071</v>
+        <v>317988.6430066261</v>
       </c>
       <c r="D6" t="n">
-        <v>318032.7787853068</v>
+        <v>317988.6430066261</v>
       </c>
       <c r="E6" t="n">
-        <v>57625.09664478922</v>
+        <v>61454.74124788859</v>
       </c>
       <c r="F6" t="n">
-        <v>266032.699482913</v>
+        <v>258853.5621504255</v>
       </c>
       <c r="G6" t="n">
-        <v>261635.2471164873</v>
+        <v>252780.1273400219</v>
       </c>
       <c r="H6" t="n">
-        <v>295228.6032059989</v>
+        <v>294421.3031018042</v>
       </c>
       <c r="I6" t="n">
-        <v>295228.6032059987</v>
+        <v>294421.3031018038</v>
       </c>
       <c r="J6" t="n">
-        <v>173611.0638082757</v>
+        <v>166877.2204170233</v>
       </c>
       <c r="K6" t="n">
-        <v>256354.5461371095</v>
+        <v>243686.281964889</v>
       </c>
       <c r="L6" t="n">
-        <v>215213.5355691599</v>
+        <v>194700.602655355</v>
       </c>
       <c r="M6" t="n">
-        <v>303299.6416398924</v>
+        <v>298459.2654187191</v>
       </c>
       <c r="N6" t="n">
-        <v>303299.6416398923</v>
+        <v>298459.265418719</v>
       </c>
       <c r="O6" t="n">
-        <v>225481.5174106835</v>
+        <v>227084.6007693346</v>
       </c>
       <c r="P6" t="n">
-        <v>225481.5174106832</v>
+        <v>227084.6007693346</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="F2" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="G2" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="H2" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="I2" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="J2" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370598</v>
       </c>
       <c r="K2" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370595</v>
       </c>
       <c r="L2" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="M2" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="N2" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="O2" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
       <c r="P2" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
     </row>
     <row r="3">
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>102.4287169375803</v>
+        <v>79.87557176490895</v>
       </c>
       <c r="F3" t="n">
-        <v>102.4287169375803</v>
+        <v>79.87557176490895</v>
       </c>
       <c r="G3" t="n">
-        <v>102.4287169375803</v>
+        <v>79.87557176490895</v>
       </c>
       <c r="H3" t="n">
-        <v>102.4287169375803</v>
+        <v>79.87557176490895</v>
       </c>
       <c r="I3" t="n">
-        <v>102.4287169375803</v>
+        <v>79.87557176490895</v>
       </c>
       <c r="J3" t="n">
-        <v>102.4287169375803</v>
+        <v>79.87557176490895</v>
       </c>
       <c r="K3" t="n">
-        <v>102.4287169375803</v>
+        <v>79.87557176490895</v>
       </c>
       <c r="L3" t="n">
-        <v>102.4287169375803</v>
+        <v>79.87557176490895</v>
       </c>
       <c r="M3" t="n">
-        <v>102.4287169375803</v>
+        <v>79.87557176490895</v>
       </c>
       <c r="N3" t="n">
-        <v>102.4287169375803</v>
+        <v>79.87557176490895</v>
       </c>
       <c r="O3" t="n">
-        <v>102.4287169375803</v>
+        <v>79.87557176490895</v>
       </c>
       <c r="P3" t="n">
-        <v>102.4287169375803</v>
+        <v>79.87557176490895</v>
       </c>
     </row>
     <row r="4">
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>41.99169511188919</v>
+        <v>52.05146970222745</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>103.4293529110421</v>
+        <v>96.01132693483231</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>102.4287169375803</v>
+        <v>79.87557176490895</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>41.99169511188919</v>
+        <v>52.05146970222745</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>103.4293529110421</v>
+        <v>96.01132693483231</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28089,76 +28089,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C11" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="D11" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="E11" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="F11" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="G11" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="H11" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="I11" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="J11" t="n">
-        <v>146.0971233641498</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="N11" t="n">
-        <v>155.9392463706018</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="S11" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="T11" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="U11" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="V11" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="W11" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="X11" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="Y11" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
     </row>
     <row r="12">
@@ -28168,10 +28168,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -28183,61 +28183,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.1231987909298</v>
+        <v>137.1717093296031</v>
       </c>
       <c r="H12" t="n">
-        <v>110.1076325884158</v>
+        <v>110.57614226455</v>
       </c>
       <c r="I12" t="n">
-        <v>91.93685709471693</v>
+        <v>93.60706643061759</v>
       </c>
       <c r="J12" t="n">
-        <v>106.0223720293797</v>
+        <v>110.6055541064034</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>110.0982415623906</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>86.31038319103706</v>
+        <v>98.60184731014294</v>
       </c>
       <c r="N12" t="n">
-        <v>74.04057542595996</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>91.90326139519466</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>111.8583271261032</v>
+        <v>16.25973048196939</v>
       </c>
       <c r="R12" t="n">
-        <v>132.0004387095452</v>
+        <v>135.0123474176993</v>
       </c>
       <c r="S12" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="T12" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="U12" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="V12" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="W12" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="X12" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="Y12" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
     </row>
     <row r="13">
@@ -28247,10 +28247,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C13" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -28262,61 +28262,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="H13" t="n">
-        <v>157.6450804554009</v>
+        <v>160.9465444879956</v>
       </c>
       <c r="I13" t="n">
-        <v>149.8958159825121</v>
+        <v>151.1188619535154</v>
       </c>
       <c r="J13" t="n">
-        <v>113.9365996095017</v>
+        <v>116.8119407571716</v>
       </c>
       <c r="K13" t="n">
-        <v>107.5536023924653</v>
+        <v>112.2786711679856</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>113.4701664346265</v>
       </c>
       <c r="M13" t="n">
-        <v>79.94890541474494</v>
+        <v>116.3471858501899</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>105.6438149649264</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>118.0974337010099</v>
       </c>
       <c r="P13" t="n">
-        <v>115.3884688009908</v>
+        <v>120.3072727907813</v>
       </c>
       <c r="Q13" t="n">
-        <v>136.0382653718712</v>
+        <v>139.4437902929446</v>
       </c>
       <c r="R13" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="T13" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="U13" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="V13" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="W13" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="X13" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="Y13" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
     </row>
     <row r="14">
@@ -28326,40 +28326,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C14" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="D14" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="E14" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="F14" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="G14" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="H14" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="I14" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="J14" t="n">
-        <v>146.0971233641498</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="M14" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -28368,34 +28368,34 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="Q14" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="R14" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="S14" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="T14" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="U14" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="V14" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="W14" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="X14" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="Y14" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
     </row>
     <row r="15">
@@ -28405,10 +28405,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -28420,61 +28420,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.1231987909298</v>
+        <v>137.1717093296031</v>
       </c>
       <c r="H15" t="n">
-        <v>110.1076325884158</v>
+        <v>110.57614226455</v>
       </c>
       <c r="I15" t="n">
-        <v>91.93685709471693</v>
+        <v>93.60706643061759</v>
       </c>
       <c r="J15" t="n">
-        <v>106.0223720293797</v>
+        <v>110.6055541064034</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2648533942562</v>
+        <v>110.0982415623906</v>
       </c>
       <c r="L15" t="n">
-        <v>90.7172700440731</v>
+        <v>101.2502271362721</v>
       </c>
       <c r="M15" t="n">
-        <v>86.31038319103706</v>
+        <v>98.60184731014294</v>
       </c>
       <c r="N15" t="n">
-        <v>70.59605916844784</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>89.16538863697922</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>132.0004387095452</v>
+        <v>89.4906776063785</v>
       </c>
       <c r="S15" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="T15" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="U15" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="V15" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="W15" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="X15" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="Y15" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
     </row>
     <row r="16">
@@ -28484,10 +28484,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C16" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -28499,19 +28499,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="H16" t="n">
-        <v>157.6450804554009</v>
+        <v>160.9465444879956</v>
       </c>
       <c r="I16" t="n">
-        <v>149.8958159825121</v>
+        <v>151.1188619535154</v>
       </c>
       <c r="J16" t="n">
-        <v>113.9365996095017</v>
+        <v>83.17569943444823</v>
       </c>
       <c r="K16" t="n">
-        <v>107.5536023924653</v>
+        <v>5.534904823333079</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28520,40 +28520,40 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>99.42025606834319</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>115.3884688009908</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>136.0382653718712</v>
+        <v>74.10083191519314</v>
       </c>
       <c r="R16" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="T16" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="U16" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="V16" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="W16" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="X16" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="Y16" t="n">
-        <v>157.6450804554009</v>
+        <v>166.5331836498673</v>
       </c>
     </row>
     <row r="17">
@@ -28563,76 +28563,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="C17" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="D17" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="E17" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="F17" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="G17" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="H17" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="I17" t="n">
-        <v>194.6009825965926</v>
+        <v>198.0963801011932</v>
       </c>
       <c r="J17" t="n">
-        <v>146.0971233641498</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>167.710687619257</v>
+        <v>122.080897481114</v>
       </c>
       <c r="L17" t="n">
-        <v>170.7854310579181</v>
+        <v>185.0931916884159</v>
       </c>
       <c r="M17" t="n">
-        <v>124.84938997601</v>
+        <v>173.9625086416845</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>172.1169913998387</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>175.9951551716172</v>
       </c>
       <c r="P17" t="n">
-        <v>172.0194177391078</v>
+        <v>185.0572889642801</v>
       </c>
       <c r="Q17" t="n">
-        <v>177.8387587942761</v>
+        <v>187.6296571089105</v>
       </c>
       <c r="R17" t="n">
-        <v>189.7194558429551</v>
+        <v>195.4147483271875</v>
       </c>
       <c r="S17" t="n">
-        <v>199.6367755672901</v>
+        <v>201.7028249969273</v>
       </c>
       <c r="T17" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="U17" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="V17" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="W17" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="X17" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="Y17" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="18">
@@ -28657,61 +28657,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.1231987909298</v>
+        <v>137.1717093296031</v>
       </c>
       <c r="H18" t="n">
-        <v>110.1076325884158</v>
+        <v>110.57614226455</v>
       </c>
       <c r="I18" t="n">
-        <v>91.93685709471693</v>
+        <v>93.60706643061759</v>
       </c>
       <c r="J18" t="n">
-        <v>106.0223720293797</v>
+        <v>110.6055541064034</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2648533942562</v>
+        <v>110.0982415623906</v>
       </c>
       <c r="L18" t="n">
-        <v>90.7172700440731</v>
+        <v>101.2502271362721</v>
       </c>
       <c r="M18" t="n">
-        <v>86.31038319103706</v>
+        <v>98.60184731014294</v>
       </c>
       <c r="N18" t="n">
-        <v>74.04057542595996</v>
+        <v>86.65735802590561</v>
       </c>
       <c r="O18" t="n">
-        <v>90.17689908866218</v>
+        <v>101.7187902790575</v>
       </c>
       <c r="P18" t="n">
-        <v>91.90326139519466</v>
+        <v>101.1666466265887</v>
       </c>
       <c r="Q18" t="n">
-        <v>111.8583271261032</v>
+        <v>118.050654834645</v>
       </c>
       <c r="R18" t="n">
-        <v>132.0004387095452</v>
+        <v>135.0123474176993</v>
       </c>
       <c r="S18" t="n">
-        <v>167.5908539695864</v>
+        <v>168.4919159488907</v>
       </c>
       <c r="T18" t="n">
-        <v>199.2766910451458</v>
+        <v>199.4722225584824</v>
       </c>
       <c r="U18" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="V18" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="W18" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="X18" t="n">
-        <v>199.6367755672901</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>199.6367755672901</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -28736,61 +28736,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.8062718361123</v>
+        <v>167.8469414421614</v>
       </c>
       <c r="H19" t="n">
-        <v>160.5849547178502</v>
+        <v>160.9465444879956</v>
       </c>
       <c r="I19" t="n">
-        <v>149.8958159825121</v>
+        <v>151.1188619535154</v>
       </c>
       <c r="J19" t="n">
-        <v>113.9365996095017</v>
+        <v>116.8119407571716</v>
       </c>
       <c r="K19" t="n">
-        <v>107.5536023924653</v>
+        <v>112.2786711679856</v>
       </c>
       <c r="L19" t="n">
-        <v>107.4237051862024</v>
+        <v>113.4701664346265</v>
       </c>
       <c r="M19" t="n">
-        <v>109.972040240151</v>
+        <v>116.3471858501899</v>
       </c>
       <c r="N19" t="n">
-        <v>99.42025606834319</v>
+        <v>105.6438149649264</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>118.0974337010099</v>
       </c>
       <c r="P19" t="n">
-        <v>115.3884688009908</v>
+        <v>120.3072727907813</v>
       </c>
       <c r="Q19" t="n">
-        <v>136.0382653718712</v>
+        <v>139.4437902929446</v>
       </c>
       <c r="R19" t="n">
-        <v>168.9882695087552</v>
+        <v>170.8169228861983</v>
       </c>
       <c r="S19" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="T19" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="U19" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="V19" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="W19" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="X19" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="Y19" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -28800,76 +28800,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="C20" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="D20" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="E20" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="F20" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="G20" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="H20" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="I20" t="n">
-        <v>194.6009825965926</v>
+        <v>198.0963801011932</v>
       </c>
       <c r="J20" t="n">
-        <v>146.0971233641498</v>
+        <v>153.7922791635428</v>
       </c>
       <c r="K20" t="n">
-        <v>167.710687619257</v>
+        <v>179.2437313991894</v>
       </c>
       <c r="L20" t="n">
-        <v>147.407896965328</v>
+        <v>176.7500057950194</v>
       </c>
       <c r="M20" t="n">
-        <v>158.0423681299224</v>
+        <v>173.9625086416845</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>172.1169913998387</v>
       </c>
       <c r="O20" t="n">
-        <v>160.7189692873481</v>
+        <v>175.9951551716172</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>185.0572889642801</v>
       </c>
       <c r="Q20" t="n">
-        <v>177.8387587942761</v>
+        <v>187.6296571089105</v>
       </c>
       <c r="R20" t="n">
-        <v>189.7194558429551</v>
+        <v>195.4147483271875</v>
       </c>
       <c r="S20" t="n">
-        <v>199.6367755672901</v>
+        <v>201.7028249969273</v>
       </c>
       <c r="T20" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="U20" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="V20" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="W20" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="X20" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="Y20" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="21">
@@ -28894,61 +28894,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.1231987909298</v>
+        <v>137.1717093296031</v>
       </c>
       <c r="H21" t="n">
-        <v>110.1076325884158</v>
+        <v>110.57614226455</v>
       </c>
       <c r="I21" t="n">
-        <v>91.93685709471693</v>
+        <v>93.60706643061759</v>
       </c>
       <c r="J21" t="n">
-        <v>106.0223720293797</v>
+        <v>110.6055541064034</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2648533942562</v>
+        <v>110.0982415623906</v>
       </c>
       <c r="L21" t="n">
-        <v>90.7172700440731</v>
+        <v>101.2502271362721</v>
       </c>
       <c r="M21" t="n">
-        <v>86.31038319103706</v>
+        <v>98.60184731014294</v>
       </c>
       <c r="N21" t="n">
-        <v>74.04057542595996</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>90.17689908866218</v>
+        <v>101.7187902790575</v>
       </c>
       <c r="P21" t="n">
-        <v>91.90326139519466</v>
+        <v>101.1666466265887</v>
       </c>
       <c r="Q21" t="n">
-        <v>111.8583271261032</v>
+        <v>118.050654834645</v>
       </c>
       <c r="R21" t="n">
-        <v>132.0004387095452</v>
+        <v>135.0123474176993</v>
       </c>
       <c r="S21" t="n">
-        <v>167.5908539695864</v>
+        <v>168.4919159488907</v>
       </c>
       <c r="T21" t="n">
-        <v>199.2766910451458</v>
+        <v>199.4722225584824</v>
       </c>
       <c r="U21" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="V21" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="W21" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="X21" t="n">
-        <v>199.6367755672901</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>199.6367755672901</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -28973,61 +28973,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.8062718361123</v>
+        <v>167.8469414421614</v>
       </c>
       <c r="H22" t="n">
-        <v>160.5849547178502</v>
+        <v>160.9465444879956</v>
       </c>
       <c r="I22" t="n">
-        <v>149.8958159825121</v>
+        <v>151.1188619535154</v>
       </c>
       <c r="J22" t="n">
-        <v>113.9365996095017</v>
+        <v>116.8119407571716</v>
       </c>
       <c r="K22" t="n">
-        <v>107.5536023924653</v>
+        <v>112.2786711679856</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>109.972040240151</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>99.42025606834319</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>112.3489697478182</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>115.3884688009908</v>
+        <v>120.3072727907813</v>
       </c>
       <c r="Q22" t="n">
-        <v>136.0382653718712</v>
+        <v>74.10083191519314</v>
       </c>
       <c r="R22" t="n">
-        <v>168.9882695087552</v>
+        <v>170.8169228861983</v>
       </c>
       <c r="S22" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="T22" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="U22" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="V22" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="W22" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="X22" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="Y22" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -29037,76 +29037,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="C23" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="D23" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="E23" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="F23" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="G23" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="H23" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="I23" t="n">
-        <v>194.6009825965926</v>
+        <v>198.0963801011932</v>
       </c>
       <c r="J23" t="n">
-        <v>146.0971233641498</v>
+        <v>153.7922791635428</v>
       </c>
       <c r="K23" t="n">
-        <v>167.710687619257</v>
+        <v>157.8974517037357</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>185.0931916884159</v>
       </c>
       <c r="M23" t="n">
-        <v>158.0423681299224</v>
+        <v>173.9625086416845</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>172.1169913998387</v>
       </c>
       <c r="O23" t="n">
-        <v>160.7189692873481</v>
+        <v>175.9951551716172</v>
       </c>
       <c r="P23" t="n">
-        <v>172.0194177391078</v>
+        <v>185.0572889642801</v>
       </c>
       <c r="Q23" t="n">
-        <v>177.8387587942761</v>
+        <v>187.6296571089105</v>
       </c>
       <c r="R23" t="n">
-        <v>189.7194558429551</v>
+        <v>195.4147483271875</v>
       </c>
       <c r="S23" t="n">
-        <v>199.6367755672901</v>
+        <v>201.7028249969273</v>
       </c>
       <c r="T23" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="U23" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="V23" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="W23" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="X23" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="Y23" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="24">
@@ -29131,61 +29131,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.1231987909298</v>
+        <v>137.1717093296031</v>
       </c>
       <c r="H24" t="n">
-        <v>110.1076325884158</v>
+        <v>110.57614226455</v>
       </c>
       <c r="I24" t="n">
-        <v>91.93685709471693</v>
+        <v>93.60706643061759</v>
       </c>
       <c r="J24" t="n">
-        <v>106.0223720293797</v>
+        <v>110.6055541064034</v>
       </c>
       <c r="K24" t="n">
-        <v>56.06020590385964</v>
+        <v>110.0982415623906</v>
       </c>
       <c r="L24" t="n">
-        <v>90.7172700440731</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>86.31038319103706</v>
+        <v>98.60184731014294</v>
       </c>
       <c r="N24" t="n">
-        <v>74.04057542595996</v>
+        <v>86.65735802590561</v>
       </c>
       <c r="O24" t="n">
-        <v>90.17689908866218</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>91.90326139519466</v>
+        <v>101.1666466265887</v>
       </c>
       <c r="Q24" t="n">
-        <v>111.8583271261032</v>
+        <v>118.050654834645</v>
       </c>
       <c r="R24" t="n">
-        <v>132.0004387095452</v>
+        <v>135.0123474176993</v>
       </c>
       <c r="S24" t="n">
-        <v>167.5908539695864</v>
+        <v>168.4919159488907</v>
       </c>
       <c r="T24" t="n">
-        <v>199.2766910451458</v>
+        <v>199.4722225584824</v>
       </c>
       <c r="U24" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="V24" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="W24" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="X24" t="n">
-        <v>199.6367755672901</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>199.6367755672901</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -29210,61 +29210,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.8062718361123</v>
+        <v>167.8469414421614</v>
       </c>
       <c r="H25" t="n">
-        <v>160.5849547178502</v>
+        <v>160.9465444879956</v>
       </c>
       <c r="I25" t="n">
-        <v>149.8958159825121</v>
+        <v>151.1188619535154</v>
       </c>
       <c r="J25" t="n">
-        <v>113.9365996095017</v>
+        <v>83.17569943444823</v>
       </c>
       <c r="K25" t="n">
-        <v>107.5536023924653</v>
+        <v>112.2786711679856</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>113.4701664346265</v>
       </c>
       <c r="M25" t="n">
-        <v>109.972040240151</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>99.42025606834319</v>
+        <v>105.6438149649264</v>
       </c>
       <c r="O25" t="n">
-        <v>112.3489697478182</v>
+        <v>118.0974337010099</v>
       </c>
       <c r="P25" t="n">
-        <v>115.3884688009908</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>136.0382653718712</v>
+        <v>139.4437902929446</v>
       </c>
       <c r="R25" t="n">
-        <v>168.9882695087552</v>
+        <v>170.8169228861983</v>
       </c>
       <c r="S25" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="T25" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="U25" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="V25" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="W25" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="X25" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
       <c r="Y25" t="n">
-        <v>199.6367755672901</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -29274,40 +29274,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370598</v>
       </c>
       <c r="C26" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370598</v>
       </c>
       <c r="D26" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370598</v>
       </c>
       <c r="E26" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370598</v>
       </c>
       <c r="F26" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370598</v>
       </c>
       <c r="G26" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370598</v>
       </c>
       <c r="H26" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370598</v>
       </c>
       <c r="I26" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370598</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>148.0627966370598</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>148.0627966370598</v>
       </c>
       <c r="L26" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>121.1698727011709</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -29316,34 +29316,34 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>145.4210480229312</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="S26" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370598</v>
       </c>
       <c r="T26" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370598</v>
       </c>
       <c r="U26" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370598</v>
       </c>
       <c r="V26" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370598</v>
       </c>
       <c r="W26" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370598</v>
       </c>
       <c r="X26" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370598</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370598</v>
       </c>
     </row>
     <row r="27">
@@ -29353,76 +29353,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370598</v>
       </c>
       <c r="C27" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370598</v>
       </c>
       <c r="D27" t="n">
-        <v>145.4210480229312</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370598</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.1231987909298</v>
+        <v>137.1717093296031</v>
       </c>
       <c r="H27" t="n">
-        <v>110.1076325884158</v>
+        <v>110.57614226455</v>
       </c>
       <c r="I27" t="n">
-        <v>91.93685709471693</v>
+        <v>93.60706643061759</v>
       </c>
       <c r="J27" t="n">
-        <v>106.0223720293797</v>
+        <v>110.6055541064034</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2648533942562</v>
+        <v>81.66952099310039</v>
       </c>
       <c r="L27" t="n">
-        <v>90.7172700440731</v>
+        <v>101.2502271362721</v>
       </c>
       <c r="M27" t="n">
-        <v>86.31038319103706</v>
+        <v>98.60184731014294</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>86.65735802590561</v>
       </c>
       <c r="O27" t="n">
-        <v>90.17689908866218</v>
+        <v>101.7187902790575</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>101.1666466265887</v>
       </c>
       <c r="Q27" t="n">
-        <v>111.8583271261032</v>
+        <v>118.050654834645</v>
       </c>
       <c r="R27" t="n">
-        <v>132.0004387095452</v>
+        <v>135.0123474176993</v>
       </c>
       <c r="S27" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370598</v>
       </c>
       <c r="T27" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370598</v>
       </c>
       <c r="U27" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370598</v>
       </c>
       <c r="V27" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370598</v>
       </c>
       <c r="W27" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370598</v>
       </c>
       <c r="X27" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370598</v>
       </c>
       <c r="Y27" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370598</v>
       </c>
     </row>
     <row r="28">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370598</v>
       </c>
       <c r="C28" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370598</v>
       </c>
       <c r="D28" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370598</v>
       </c>
       <c r="E28" t="n">
-        <v>145.4210480229312</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370598</v>
       </c>
       <c r="H28" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370598</v>
       </c>
       <c r="I28" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370598</v>
       </c>
       <c r="J28" t="n">
-        <v>113.9365996095017</v>
+        <v>116.8119407571716</v>
       </c>
       <c r="K28" t="n">
-        <v>0.8098360478127553</v>
+        <v>112.2786711679856</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>109.972040240151</v>
+        <v>116.3471858501899</v>
       </c>
       <c r="N28" t="n">
-        <v>99.42025606834319</v>
+        <v>105.6438149649264</v>
       </c>
       <c r="O28" t="n">
-        <v>112.3489697478182</v>
+        <v>118.0974337010099</v>
       </c>
       <c r="P28" t="n">
-        <v>115.3884688009908</v>
+        <v>120.3072727907813</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.69530699411976</v>
+        <v>74.10083191519314</v>
       </c>
       <c r="R28" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370598</v>
       </c>
       <c r="S28" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370598</v>
       </c>
       <c r="T28" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370598</v>
       </c>
       <c r="U28" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370598</v>
       </c>
       <c r="V28" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370598</v>
       </c>
       <c r="W28" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370598</v>
       </c>
       <c r="X28" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370598</v>
       </c>
       <c r="Y28" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370598</v>
       </c>
     </row>
     <row r="29">
@@ -29511,37 +29511,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370595</v>
       </c>
       <c r="C29" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370595</v>
       </c>
       <c r="D29" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370595</v>
       </c>
       <c r="E29" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370595</v>
       </c>
       <c r="F29" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370595</v>
       </c>
       <c r="G29" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370595</v>
       </c>
       <c r="H29" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370595</v>
       </c>
       <c r="I29" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370595</v>
       </c>
       <c r="J29" t="n">
-        <v>145.4210480229312</v>
+        <v>128.1015598655989</v>
       </c>
       <c r="K29" t="n">
-        <v>40.68030705964274</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -29556,31 +29556,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370595</v>
       </c>
       <c r="R29" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370595</v>
       </c>
       <c r="S29" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370595</v>
       </c>
       <c r="T29" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370595</v>
       </c>
       <c r="U29" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370595</v>
       </c>
       <c r="V29" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370595</v>
       </c>
       <c r="W29" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370595</v>
       </c>
       <c r="X29" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370595</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370595</v>
       </c>
     </row>
     <row r="30">
@@ -29590,76 +29590,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370595</v>
       </c>
       <c r="C30" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370595</v>
       </c>
       <c r="D30" t="n">
-        <v>145.4210480229312</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370595</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.1231987909298</v>
+        <v>137.1717093296031</v>
       </c>
       <c r="H30" t="n">
-        <v>110.1076325884158</v>
+        <v>110.57614226455</v>
       </c>
       <c r="I30" t="n">
-        <v>81.81110994613201</v>
+        <v>93.60706643061759</v>
       </c>
       <c r="J30" t="n">
-        <v>106.0223720293797</v>
+        <v>110.6055541064034</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2648533942562</v>
+        <v>110.0982415623906</v>
       </c>
       <c r="L30" t="n">
-        <v>90.7172700440731</v>
+        <v>101.2502271362721</v>
       </c>
       <c r="M30" t="n">
-        <v>86.31038319103706</v>
+        <v>98.60184731014294</v>
       </c>
       <c r="N30" t="n">
-        <v>74.04057542595996</v>
+        <v>86.65735802590561</v>
       </c>
       <c r="O30" t="n">
-        <v>90.17689908866218</v>
+        <v>101.7187902790575</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>101.1666466265887</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>118.050654834645</v>
       </c>
       <c r="R30" t="n">
-        <v>86.47876889822439</v>
+        <v>135.0123474176993</v>
       </c>
       <c r="S30" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370595</v>
       </c>
       <c r="T30" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370595</v>
       </c>
       <c r="U30" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370595</v>
       </c>
       <c r="V30" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370595</v>
       </c>
       <c r="W30" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370595</v>
       </c>
       <c r="X30" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370595</v>
       </c>
       <c r="Y30" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370595</v>
       </c>
     </row>
     <row r="31">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370595</v>
       </c>
       <c r="C31" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370595</v>
       </c>
       <c r="D31" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370595</v>
       </c>
       <c r="E31" t="n">
-        <v>145.4210480229312</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370595</v>
       </c>
       <c r="H31" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370595</v>
       </c>
       <c r="I31" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370595</v>
       </c>
       <c r="J31" t="n">
-        <v>113.9365996095017</v>
+        <v>116.8119407571716</v>
       </c>
       <c r="K31" t="n">
-        <v>107.5536023924653</v>
+        <v>112.2786711679856</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>113.4701664346265</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>116.3471858501899</v>
       </c>
       <c r="N31" t="n">
-        <v>99.42025606834319</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>115.3884688009908</v>
+        <v>120.3072727907813</v>
       </c>
       <c r="Q31" t="n">
-        <v>136.0382653718712</v>
+        <v>139.4437902929446</v>
       </c>
       <c r="R31" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370595</v>
       </c>
       <c r="S31" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370595</v>
       </c>
       <c r="T31" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370595</v>
       </c>
       <c r="U31" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370595</v>
       </c>
       <c r="V31" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370595</v>
       </c>
       <c r="W31" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370595</v>
       </c>
       <c r="X31" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370595</v>
       </c>
       <c r="Y31" t="n">
-        <v>145.4210480229312</v>
+        <v>148.0627966370595</v>
       </c>
     </row>
     <row r="32">
@@ -29748,76 +29748,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="C32" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="D32" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="E32" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="F32" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="G32" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="H32" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="I32" t="n">
-        <v>194.6009825965926</v>
+        <v>198.0963801011932</v>
       </c>
       <c r="J32" t="n">
-        <v>146.0971233641498</v>
+        <v>153.7922791635428</v>
       </c>
       <c r="K32" t="n">
-        <v>167.710687619257</v>
+        <v>107.5898693723378</v>
       </c>
       <c r="L32" t="n">
-        <v>170.7854310579181</v>
+        <v>185.0931916884159</v>
       </c>
       <c r="M32" t="n">
-        <v>158.0423681299224</v>
+        <v>173.9625086416845</v>
       </c>
       <c r="N32" t="n">
-        <v>105.0500847675056</v>
+        <v>172.1169913998387</v>
       </c>
       <c r="O32" t="n">
-        <v>160.7189692873481</v>
+        <v>175.9951551716172</v>
       </c>
       <c r="P32" t="n">
-        <v>172.0194177391078</v>
+        <v>185.0572889642801</v>
       </c>
       <c r="Q32" t="n">
-        <v>177.8387587942761</v>
+        <v>187.6296571089105</v>
       </c>
       <c r="R32" t="n">
-        <v>189.7194558429551</v>
+        <v>195.4147483271875</v>
       </c>
       <c r="S32" t="n">
-        <v>199.6367755672901</v>
+        <v>201.7028249969273</v>
       </c>
       <c r="T32" t="n">
-        <v>213.5369854994578</v>
+        <v>221.6902000549821</v>
       </c>
       <c r="U32" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="V32" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="W32" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="X32" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y32" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
     </row>
     <row r="33">
@@ -29842,55 +29842,55 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.1231987909298</v>
+        <v>137.1717093296031</v>
       </c>
       <c r="H33" t="n">
-        <v>110.1076325884158</v>
+        <v>110.57614226455</v>
       </c>
       <c r="I33" t="n">
-        <v>91.93685709471693</v>
+        <v>93.60706643061759</v>
       </c>
       <c r="J33" t="n">
-        <v>106.0223720293797</v>
+        <v>110.6055541064034</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2648533942562</v>
+        <v>110.0982415623906</v>
       </c>
       <c r="L33" t="n">
-        <v>90.7172700440731</v>
+        <v>101.2502271362721</v>
       </c>
       <c r="M33" t="n">
-        <v>86.31038319103706</v>
+        <v>98.60184731014294</v>
       </c>
       <c r="N33" t="n">
-        <v>74.04057542595996</v>
+        <v>86.65735802590561</v>
       </c>
       <c r="O33" t="n">
-        <v>90.17689908866218</v>
+        <v>101.7187902790575</v>
       </c>
       <c r="P33" t="n">
-        <v>91.90326139519466</v>
+        <v>101.1666466265887</v>
       </c>
       <c r="Q33" t="n">
-        <v>111.8583271261032</v>
+        <v>118.050654834645</v>
       </c>
       <c r="R33" t="n">
-        <v>132.0004387095452</v>
+        <v>135.0123474176993</v>
       </c>
       <c r="S33" t="n">
-        <v>167.5908539695864</v>
+        <v>168.4919159488907</v>
       </c>
       <c r="T33" t="n">
-        <v>199.2766910451458</v>
+        <v>199.4722225584824</v>
       </c>
       <c r="U33" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="V33" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="W33" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -29921,61 +29921,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.8062718361123</v>
+        <v>167.8469414421614</v>
       </c>
       <c r="H34" t="n">
-        <v>160.5849547178502</v>
+        <v>160.9465444879956</v>
       </c>
       <c r="I34" t="n">
-        <v>149.8958159825121</v>
+        <v>151.1188619535154</v>
       </c>
       <c r="J34" t="n">
-        <v>113.9365996095017</v>
+        <v>116.8119407571716</v>
       </c>
       <c r="K34" t="n">
-        <v>107.5536023924653</v>
+        <v>112.2786711679856</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>113.4701664346265</v>
       </c>
       <c r="M34" t="n">
-        <v>109.972040240151</v>
+        <v>116.3471858501899</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>105.6438149649264</v>
       </c>
       <c r="O34" t="n">
-        <v>112.3489697478182</v>
+        <v>118.0974337010099</v>
       </c>
       <c r="P34" t="n">
-        <v>115.3884688009908</v>
+        <v>120.3072727907813</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.69530699411976</v>
+        <v>139.4437902929446</v>
       </c>
       <c r="R34" t="n">
-        <v>168.9882695087552</v>
+        <v>170.8169228861983</v>
       </c>
       <c r="S34" t="n">
-        <v>213.5369854994578</v>
+        <v>221.5064099865898</v>
       </c>
       <c r="T34" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="U34" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="V34" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="W34" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="X34" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>213.5369854994578</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -29985,76 +29985,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="C35" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="D35" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="E35" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="F35" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="G35" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="H35" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="I35" t="n">
-        <v>194.6009825965926</v>
+        <v>198.0963801011932</v>
       </c>
       <c r="J35" t="n">
-        <v>32.84294831747247</v>
+        <v>153.7922791635428</v>
       </c>
       <c r="K35" t="n">
-        <v>167.710687619257</v>
+        <v>179.2437313991894</v>
       </c>
       <c r="L35" t="n">
-        <v>170.7854310579181</v>
+        <v>185.0931916884159</v>
       </c>
       <c r="M35" t="n">
-        <v>158.0423681299224</v>
+        <v>173.9625086416845</v>
       </c>
       <c r="N35" t="n">
-        <v>155.9392463706018</v>
+        <v>172.1169913998387</v>
       </c>
       <c r="O35" t="n">
-        <v>160.7189692873481</v>
+        <v>175.9951551716172</v>
       </c>
       <c r="P35" t="n">
-        <v>172.0194177391078</v>
+        <v>185.0572889642801</v>
       </c>
       <c r="Q35" t="n">
-        <v>177.8387587942761</v>
+        <v>187.6296571089105</v>
       </c>
       <c r="R35" t="n">
-        <v>189.7194558429551</v>
+        <v>195.4147483271875</v>
       </c>
       <c r="S35" t="n">
-        <v>199.6367755672901</v>
+        <v>201.7028249969273</v>
       </c>
       <c r="T35" t="n">
-        <v>213.5369854994578</v>
+        <v>221.6902000549821</v>
       </c>
       <c r="U35" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="V35" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="W35" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="X35" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y35" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
     </row>
     <row r="36">
@@ -30079,55 +30079,55 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.1231987909298</v>
+        <v>137.1717093296031</v>
       </c>
       <c r="H36" t="n">
-        <v>110.1076325884158</v>
+        <v>110.57614226455</v>
       </c>
       <c r="I36" t="n">
-        <v>91.93685709471693</v>
+        <v>93.60706643061759</v>
       </c>
       <c r="J36" t="n">
-        <v>106.0223720293797</v>
+        <v>110.6055541064034</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2648533942562</v>
+        <v>110.0982415623906</v>
       </c>
       <c r="L36" t="n">
-        <v>90.7172700440731</v>
+        <v>101.2502271362721</v>
       </c>
       <c r="M36" t="n">
-        <v>86.31038319103706</v>
+        <v>98.60184731014294</v>
       </c>
       <c r="N36" t="n">
-        <v>74.04057542595996</v>
+        <v>86.65735802590561</v>
       </c>
       <c r="O36" t="n">
-        <v>90.17689908866218</v>
+        <v>101.7187902790575</v>
       </c>
       <c r="P36" t="n">
-        <v>91.90326139519466</v>
+        <v>101.1666466265887</v>
       </c>
       <c r="Q36" t="n">
-        <v>111.8583271261032</v>
+        <v>118.050654834645</v>
       </c>
       <c r="R36" t="n">
-        <v>132.0004387095452</v>
+        <v>135.0123474176993</v>
       </c>
       <c r="S36" t="n">
-        <v>167.5908539695864</v>
+        <v>168.4919159488907</v>
       </c>
       <c r="T36" t="n">
-        <v>199.2766910451458</v>
+        <v>199.4722225584824</v>
       </c>
       <c r="U36" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="V36" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="W36" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -30158,61 +30158,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.8062718361123</v>
+        <v>167.8469414421614</v>
       </c>
       <c r="H37" t="n">
-        <v>160.5849547178502</v>
+        <v>160.9465444879956</v>
       </c>
       <c r="I37" t="n">
-        <v>149.8958159825121</v>
+        <v>151.1188619535154</v>
       </c>
       <c r="J37" t="n">
-        <v>113.9365996095017</v>
+        <v>116.8119407571716</v>
       </c>
       <c r="K37" t="n">
-        <v>107.5536023924653</v>
+        <v>5.534904823333079</v>
       </c>
       <c r="L37" t="n">
-        <v>107.4237051862024</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>109.972040240151</v>
+        <v>116.3471858501899</v>
       </c>
       <c r="N37" t="n">
-        <v>99.42025606834319</v>
+        <v>105.6438149649264</v>
       </c>
       <c r="O37" t="n">
-        <v>112.3489697478182</v>
+        <v>118.0974337010099</v>
       </c>
       <c r="P37" t="n">
-        <v>115.3884688009908</v>
+        <v>102.8692298476691</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.69530699411976</v>
+        <v>139.4437902929446</v>
       </c>
       <c r="R37" t="n">
-        <v>168.9882695087552</v>
+        <v>170.8169228861983</v>
       </c>
       <c r="S37" t="n">
-        <v>213.5369854994578</v>
+        <v>221.5064099865898</v>
       </c>
       <c r="T37" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="U37" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="V37" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="W37" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="X37" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>213.5369854994578</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -30222,76 +30222,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="C38" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="D38" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="E38" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="F38" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="G38" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="H38" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="I38" t="n">
-        <v>194.6009825965926</v>
+        <v>198.0963801011932</v>
       </c>
       <c r="J38" t="n">
-        <v>146.0971233641498</v>
+        <v>153.7922791635428</v>
       </c>
       <c r="K38" t="n">
-        <v>167.710687619257</v>
+        <v>179.2437313991894</v>
       </c>
       <c r="L38" t="n">
-        <v>170.7854310579181</v>
+        <v>185.0931916884159</v>
       </c>
       <c r="M38" t="n">
-        <v>44.78819308324528</v>
+        <v>173.9625086416845</v>
       </c>
       <c r="N38" t="n">
-        <v>155.9392463706018</v>
+        <v>172.1169913998387</v>
       </c>
       <c r="O38" t="n">
-        <v>160.7189692873481</v>
+        <v>175.9951551716172</v>
       </c>
       <c r="P38" t="n">
-        <v>172.0194177391078</v>
+        <v>185.0572889642801</v>
       </c>
       <c r="Q38" t="n">
-        <v>177.8387587942761</v>
+        <v>187.6296571089105</v>
       </c>
       <c r="R38" t="n">
-        <v>189.7194558429551</v>
+        <v>195.4147483271875</v>
       </c>
       <c r="S38" t="n">
-        <v>199.6367755672901</v>
+        <v>201.7028249969273</v>
       </c>
       <c r="T38" t="n">
-        <v>213.5369854994578</v>
+        <v>221.6902000549821</v>
       </c>
       <c r="U38" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="V38" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="W38" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="X38" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y38" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
     </row>
     <row r="39">
@@ -30316,55 +30316,55 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.1231987909298</v>
+        <v>137.1717093296031</v>
       </c>
       <c r="H39" t="n">
-        <v>110.1076325884158</v>
+        <v>110.57614226455</v>
       </c>
       <c r="I39" t="n">
-        <v>91.93685709471693</v>
+        <v>93.60706643061759</v>
       </c>
       <c r="J39" t="n">
-        <v>106.0223720293797</v>
+        <v>110.6055541064034</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2648533942562</v>
+        <v>110.0982415623906</v>
       </c>
       <c r="L39" t="n">
-        <v>90.7172700440731</v>
+        <v>101.2502271362721</v>
       </c>
       <c r="M39" t="n">
-        <v>86.31038319103706</v>
+        <v>98.60184731014294</v>
       </c>
       <c r="N39" t="n">
-        <v>74.04057542595996</v>
+        <v>86.65735802590561</v>
       </c>
       <c r="O39" t="n">
-        <v>90.17689908866218</v>
+        <v>101.7187902790575</v>
       </c>
       <c r="P39" t="n">
-        <v>91.90326139519466</v>
+        <v>101.1666466265887</v>
       </c>
       <c r="Q39" t="n">
-        <v>111.8583271261032</v>
+        <v>118.050654834645</v>
       </c>
       <c r="R39" t="n">
-        <v>132.0004387095452</v>
+        <v>135.0123474176993</v>
       </c>
       <c r="S39" t="n">
-        <v>167.5908539695864</v>
+        <v>168.4919159488907</v>
       </c>
       <c r="T39" t="n">
-        <v>199.2766910451458</v>
+        <v>199.4722225584824</v>
       </c>
       <c r="U39" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="V39" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="W39" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -30395,61 +30395,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.8062718361123</v>
+        <v>167.8469414421614</v>
       </c>
       <c r="H40" t="n">
-        <v>160.5849547178502</v>
+        <v>160.9465444879956</v>
       </c>
       <c r="I40" t="n">
-        <v>149.8958159825121</v>
+        <v>151.1188619535154</v>
       </c>
       <c r="J40" t="n">
-        <v>113.9365996095017</v>
+        <v>116.8119407571716</v>
       </c>
       <c r="K40" t="n">
-        <v>107.5536023924653</v>
+        <v>112.2786711679856</v>
       </c>
       <c r="L40" t="n">
-        <v>107.4237051862024</v>
+        <v>113.4701664346265</v>
       </c>
       <c r="M40" t="n">
-        <v>109.972040240151</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>99.42025606834319</v>
+        <v>102.4364587937375</v>
       </c>
       <c r="O40" t="n">
-        <v>112.3489697478182</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>115.3884688009908</v>
+        <v>120.3072727907813</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.69530699411976</v>
+        <v>139.4437902929446</v>
       </c>
       <c r="R40" t="n">
-        <v>168.9882695087552</v>
+        <v>170.8169228861983</v>
       </c>
       <c r="S40" t="n">
-        <v>213.5369854994578</v>
+        <v>221.5064099865898</v>
       </c>
       <c r="T40" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="U40" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="V40" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="W40" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="X40" t="n">
-        <v>213.5369854994578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>213.5369854994578</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -30459,34 +30459,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
       <c r="C41" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
       <c r="D41" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
       <c r="E41" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
       <c r="F41" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
       <c r="G41" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
       <c r="H41" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
       <c r="I41" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>110.1076325884158</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -30495,40 +30495,40 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>110.1076325884158</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>110.1076325884158</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>129.6983284542048</v>
       </c>
       <c r="Q41" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
       <c r="R41" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
       <c r="S41" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
       <c r="T41" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
       <c r="U41" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
       <c r="V41" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
       <c r="W41" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
       <c r="X41" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
       <c r="Y41" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
     </row>
     <row r="42">
@@ -30538,76 +30538,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
       <c r="C42" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
       <c r="D42" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
       <c r="E42" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
       <c r="F42" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
       <c r="G42" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
       <c r="H42" t="n">
-        <v>110.1076325884158</v>
+        <v>110.57614226455</v>
       </c>
       <c r="I42" t="n">
-        <v>91.93685709471693</v>
+        <v>93.60706643061759</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>110.6055541064034</v>
       </c>
       <c r="K42" t="n">
-        <v>102.2648533942562</v>
+        <v>110.0982415623906</v>
       </c>
       <c r="L42" t="n">
-        <v>2.378608346136784</v>
+        <v>101.2502271362721</v>
       </c>
       <c r="M42" t="n">
-        <v>86.31038319103706</v>
+        <v>98.60184731014294</v>
       </c>
       <c r="N42" t="n">
-        <v>74.04057542595996</v>
+        <v>86.65735802590561</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>101.7187902790575</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>101.1666466265887</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>118.050654834645</v>
       </c>
       <c r="R42" t="n">
-        <v>86.47876889822439</v>
+        <v>95.822612323551</v>
       </c>
       <c r="S42" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
       <c r="T42" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
       <c r="U42" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
       <c r="V42" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
       <c r="W42" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
       <c r="X42" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
       <c r="Y42" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
     </row>
     <row r="43">
@@ -30617,34 +30617,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
       <c r="C43" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
       <c r="D43" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
       <c r="E43" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
       <c r="F43" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
       <c r="G43" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
       <c r="H43" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
       <c r="I43" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
       <c r="J43" t="n">
-        <v>110.1076325884158</v>
+        <v>116.8119407571716</v>
       </c>
       <c r="K43" t="n">
-        <v>107.5536023924653</v>
+        <v>112.2786711679856</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30662,31 +30662,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.69530699411976</v>
+        <v>129.6983284542048</v>
       </c>
       <c r="R43" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
       <c r="S43" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
       <c r="T43" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
       <c r="U43" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
       <c r="V43" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
       <c r="W43" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
       <c r="X43" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
       <c r="Y43" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542048</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="C44" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="D44" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="E44" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="F44" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="G44" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="H44" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="I44" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30726,46 +30726,46 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="M44" t="n">
-        <v>110.1076325884158</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>110.1076325884158</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>4.082608699327849</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="R44" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="S44" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="T44" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="U44" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="V44" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="W44" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="X44" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="Y44" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
     </row>
     <row r="45">
@@ -30775,76 +30775,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="C45" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="D45" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="E45" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="F45" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="G45" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="H45" t="n">
-        <v>110.1076325884158</v>
+        <v>110.57614226455</v>
       </c>
       <c r="I45" t="n">
-        <v>91.93685709471693</v>
+        <v>93.60706643061759</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>110.6055541064034</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>110.0982415623906</v>
       </c>
       <c r="L45" t="n">
-        <v>90.7172700440731</v>
+        <v>101.2502271362721</v>
       </c>
       <c r="M45" t="n">
-        <v>86.31038319103706</v>
+        <v>98.60184731014294</v>
       </c>
       <c r="N45" t="n">
-        <v>74.04057542595996</v>
+        <v>86.65735802590561</v>
       </c>
       <c r="O45" t="n">
-        <v>90.17689908866218</v>
+        <v>101.7187902790575</v>
       </c>
       <c r="P45" t="n">
-        <v>91.90326139519466</v>
+        <v>101.1666466265887</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>118.050654834645</v>
       </c>
       <c r="R45" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="S45" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="T45" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="U45" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="V45" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="W45" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="X45" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="Y45" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
     </row>
     <row r="46">
@@ -30854,40 +30854,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="C46" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="D46" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="E46" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="F46" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="G46" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="H46" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="I46" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="J46" t="n">
-        <v>80.30035828677832</v>
+        <v>116.8119407571716</v>
       </c>
       <c r="K46" t="n">
-        <v>0.8098360478127553</v>
+        <v>52.43157267048905</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>109.972040240151</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30899,31 +30899,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="R46" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="S46" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="T46" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="U46" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="V46" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="W46" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="X46" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
       <c r="Y46" t="n">
-        <v>110.1076325884158</v>
+        <v>129.6983284542051</v>
       </c>
     </row>
   </sheetData>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4117737364324833</v>
+        <v>0.3211078261905885</v>
       </c>
       <c r="H11" t="n">
-        <v>4.217077778239171</v>
+        <v>3.288545524974365</v>
       </c>
       <c r="I11" t="n">
-        <v>15.87490697381333</v>
+        <v>12.37950946921268</v>
       </c>
       <c r="J11" t="n">
-        <v>34.94878116253651</v>
+        <v>27.25362536314349</v>
       </c>
       <c r="K11" t="n">
-        <v>52.37916342572354</v>
+        <v>40.84611964579111</v>
       </c>
       <c r="L11" t="n">
-        <v>64.98098391206916</v>
+        <v>50.67322328157134</v>
       </c>
       <c r="M11" t="n">
-        <v>72.30386509735034</v>
+        <v>56.38372458558822</v>
       </c>
       <c r="N11" t="n">
-        <v>73.47381722598914</v>
+        <v>57.29607219675223</v>
       </c>
       <c r="O11" t="n">
-        <v>69.37924213433863</v>
+        <v>54.10305625006956</v>
       </c>
       <c r="P11" t="n">
-        <v>59.21357801616169</v>
+        <v>46.1757067909894</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.46693108017337</v>
+        <v>34.67603276553894</v>
       </c>
       <c r="R11" t="n">
-        <v>25.866081971177</v>
+        <v>20.17078948694457</v>
       </c>
       <c r="S11" t="n">
-        <v>9.383294018955223</v>
+        <v>7.317244589318043</v>
       </c>
       <c r="T11" t="n">
-        <v>1.802539531233197</v>
+        <v>1.405649509149302</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03294189891459866</v>
+        <v>0.02568862609524708</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2203183722808331</v>
+        <v>0.17180783360754</v>
       </c>
       <c r="H12" t="n">
-        <v>2.127811648080678</v>
+        <v>1.659301971946505</v>
       </c>
       <c r="I12" t="n">
-        <v>7.585522905283071</v>
+        <v>5.915313569382409</v>
       </c>
       <c r="J12" t="n">
-        <v>20.81525463728696</v>
+        <v>16.23207256026325</v>
       </c>
       <c r="K12" t="n">
-        <v>35.57658558010278</v>
+        <v>27.74319741196843</v>
       </c>
       <c r="L12" t="n">
-        <v>47.83710973580107</v>
+        <v>37.30415264360206</v>
       </c>
       <c r="M12" t="n">
-        <v>55.82365073098126</v>
+        <v>43.53218661187537</v>
       </c>
       <c r="N12" t="n">
-        <v>57.30113665737335</v>
+        <v>44.6843540574277</v>
       </c>
       <c r="O12" t="n">
-        <v>52.41934535578226</v>
+        <v>40.87745416538694</v>
       </c>
       <c r="P12" t="n">
-        <v>42.07114601913558</v>
+        <v>32.80776078774157</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.12344695991828</v>
+        <v>21.93111925137651</v>
       </c>
       <c r="R12" t="n">
-        <v>13.67906525441875</v>
+        <v>10.66715654626464</v>
       </c>
       <c r="S12" t="n">
-        <v>4.092317134251437</v>
+        <v>3.191255154947068</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8880376496758139</v>
+        <v>0.6925061363391632</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01449462975531797</v>
+        <v>0.01130314694786448</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1847075223464563</v>
+        <v>0.1440379162973768</v>
       </c>
       <c r="H13" t="n">
-        <v>1.642217789589403</v>
+        <v>1.280628019443951</v>
       </c>
       <c r="I13" t="n">
-        <v>5.554658944746159</v>
+        <v>4.331612973742932</v>
       </c>
       <c r="J13" t="n">
-        <v>13.05882182989446</v>
+        <v>10.18348068222454</v>
       </c>
       <c r="K13" t="n">
-        <v>21.4596557780701</v>
+        <v>16.73458700254977</v>
       </c>
       <c r="L13" t="n">
-        <v>27.46097109503588</v>
+        <v>21.41450984661182</v>
       </c>
       <c r="M13" t="n">
-        <v>28.95374370745404</v>
+        <v>22.57859809741516</v>
       </c>
       <c r="N13" t="n">
-        <v>28.26528839689</v>
+        <v>22.04172950030678</v>
       </c>
       <c r="O13" t="n">
-        <v>26.10756870402457</v>
+        <v>20.35910475083287</v>
       </c>
       <c r="P13" t="n">
-        <v>22.33953524815685</v>
+        <v>17.42073125836636</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.46673625757463</v>
+        <v>12.06121133650125</v>
       </c>
       <c r="R13" t="n">
-        <v>8.305121868414295</v>
+        <v>6.47646849097114</v>
       </c>
       <c r="S13" t="n">
-        <v>3.218948366710514</v>
+        <v>2.510188050382466</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7892048682075856</v>
+        <v>0.6154347332706097</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01007495576435217</v>
+        <v>0.007856613616220561</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4117737364324833</v>
+        <v>0.3211078261905885</v>
       </c>
       <c r="H14" t="n">
-        <v>4.217077778239171</v>
+        <v>3.288545524974365</v>
       </c>
       <c r="I14" t="n">
-        <v>15.87490697381333</v>
+        <v>12.37950946921268</v>
       </c>
       <c r="J14" t="n">
-        <v>34.94878116253651</v>
+        <v>27.25362536314349</v>
       </c>
       <c r="K14" t="n">
-        <v>52.37916342572354</v>
+        <v>40.84611964579111</v>
       </c>
       <c r="L14" t="n">
-        <v>64.98098391206916</v>
+        <v>50.67322328157134</v>
       </c>
       <c r="M14" t="n">
-        <v>72.30386509735034</v>
+        <v>56.38372458558822</v>
       </c>
       <c r="N14" t="n">
-        <v>73.47381722598914</v>
+        <v>57.29607219675223</v>
       </c>
       <c r="O14" t="n">
-        <v>69.37924213433863</v>
+        <v>54.10305625006956</v>
       </c>
       <c r="P14" t="n">
-        <v>59.21357801616169</v>
+        <v>46.1757067909894</v>
       </c>
       <c r="Q14" t="n">
-        <v>44.46693108017337</v>
+        <v>34.67603276553894</v>
       </c>
       <c r="R14" t="n">
-        <v>25.866081971177</v>
+        <v>20.17078948694457</v>
       </c>
       <c r="S14" t="n">
-        <v>9.383294018955223</v>
+        <v>7.317244589318043</v>
       </c>
       <c r="T14" t="n">
-        <v>1.802539531233197</v>
+        <v>1.405649509149302</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03294189891459866</v>
+        <v>0.02568862609524708</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2203183722808331</v>
+        <v>0.17180783360754</v>
       </c>
       <c r="H15" t="n">
-        <v>2.127811648080678</v>
+        <v>1.659301971946505</v>
       </c>
       <c r="I15" t="n">
-        <v>7.585522905283071</v>
+        <v>5.915313569382409</v>
       </c>
       <c r="J15" t="n">
-        <v>20.81525463728696</v>
+        <v>16.23207256026325</v>
       </c>
       <c r="K15" t="n">
-        <v>35.57658558010278</v>
+        <v>27.74319741196843</v>
       </c>
       <c r="L15" t="n">
-        <v>47.83710973580107</v>
+        <v>37.30415264360206</v>
       </c>
       <c r="M15" t="n">
-        <v>55.82365073098126</v>
+        <v>43.53218661187537</v>
       </c>
       <c r="N15" t="n">
-        <v>57.30113665737335</v>
+        <v>44.6843540574277</v>
       </c>
       <c r="O15" t="n">
-        <v>52.41934535578226</v>
+        <v>40.87745416538694</v>
       </c>
       <c r="P15" t="n">
-        <v>42.07114601913558</v>
+        <v>32.80776078774157</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.12344695991828</v>
+        <v>21.93111925137651</v>
       </c>
       <c r="R15" t="n">
-        <v>13.67906525441875</v>
+        <v>10.66715654626464</v>
       </c>
       <c r="S15" t="n">
-        <v>4.092317134251437</v>
+        <v>3.191255154947068</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8880376496758139</v>
+        <v>0.6925061363391632</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01449462975531797</v>
+        <v>0.01130314694786448</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1847075223464563</v>
+        <v>0.1440379162973768</v>
       </c>
       <c r="H16" t="n">
-        <v>1.642217789589403</v>
+        <v>1.280628019443951</v>
       </c>
       <c r="I16" t="n">
-        <v>5.554658944746159</v>
+        <v>4.331612973742932</v>
       </c>
       <c r="J16" t="n">
-        <v>13.05882182989446</v>
+        <v>10.18348068222454</v>
       </c>
       <c r="K16" t="n">
-        <v>21.4596557780701</v>
+        <v>16.73458700254977</v>
       </c>
       <c r="L16" t="n">
-        <v>27.46097109503588</v>
+        <v>21.41450984661182</v>
       </c>
       <c r="M16" t="n">
-        <v>28.95374370745404</v>
+        <v>22.57859809741516</v>
       </c>
       <c r="N16" t="n">
-        <v>28.26528839689</v>
+        <v>22.04172950030678</v>
       </c>
       <c r="O16" t="n">
-        <v>26.10756870402457</v>
+        <v>20.35910475083287</v>
       </c>
       <c r="P16" t="n">
-        <v>22.33953524815685</v>
+        <v>17.42073125836636</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.46673625757463</v>
+        <v>12.06121133650125</v>
       </c>
       <c r="R16" t="n">
-        <v>8.305121868414295</v>
+        <v>6.47646849097114</v>
       </c>
       <c r="S16" t="n">
-        <v>3.218948366710514</v>
+        <v>2.510188050382466</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7892048682075856</v>
+        <v>0.6154347332706097</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01007495576435217</v>
+        <v>0.007856613616220561</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4117737364324833</v>
+        <v>0.3211078261905885</v>
       </c>
       <c r="H17" t="n">
-        <v>4.217077778239171</v>
+        <v>3.288545524974365</v>
       </c>
       <c r="I17" t="n">
-        <v>15.87490697381333</v>
+        <v>12.37950946921268</v>
       </c>
       <c r="J17" t="n">
-        <v>34.94878116253651</v>
+        <v>27.25362536314349</v>
       </c>
       <c r="K17" t="n">
-        <v>52.37916342572354</v>
+        <v>40.84611964579111</v>
       </c>
       <c r="L17" t="n">
-        <v>64.98098391206916</v>
+        <v>50.67322328157134</v>
       </c>
       <c r="M17" t="n">
-        <v>72.30386509735034</v>
+        <v>56.38372458558822</v>
       </c>
       <c r="N17" t="n">
-        <v>73.47381722598914</v>
+        <v>57.29607219675223</v>
       </c>
       <c r="O17" t="n">
-        <v>69.37924213433863</v>
+        <v>54.10305625006956</v>
       </c>
       <c r="P17" t="n">
-        <v>59.21357801616169</v>
+        <v>46.1757067909894</v>
       </c>
       <c r="Q17" t="n">
-        <v>44.46693108017337</v>
+        <v>34.67603276553894</v>
       </c>
       <c r="R17" t="n">
-        <v>25.866081971177</v>
+        <v>20.17078948694457</v>
       </c>
       <c r="S17" t="n">
-        <v>9.383294018955223</v>
+        <v>7.317244589318043</v>
       </c>
       <c r="T17" t="n">
-        <v>1.802539531233197</v>
+        <v>1.405649509149302</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03294189891459866</v>
+        <v>0.02568862609524708</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2203183722808331</v>
+        <v>0.17180783360754</v>
       </c>
       <c r="H18" t="n">
-        <v>2.127811648080678</v>
+        <v>1.659301971946505</v>
       </c>
       <c r="I18" t="n">
-        <v>7.585522905283071</v>
+        <v>5.915313569382409</v>
       </c>
       <c r="J18" t="n">
-        <v>20.81525463728696</v>
+        <v>16.23207256026325</v>
       </c>
       <c r="K18" t="n">
-        <v>35.57658558010278</v>
+        <v>27.74319741196843</v>
       </c>
       <c r="L18" t="n">
-        <v>47.83710973580107</v>
+        <v>37.30415264360206</v>
       </c>
       <c r="M18" t="n">
-        <v>55.82365073098126</v>
+        <v>43.53218661187537</v>
       </c>
       <c r="N18" t="n">
-        <v>57.30113665737335</v>
+        <v>44.6843540574277</v>
       </c>
       <c r="O18" t="n">
-        <v>52.41934535578226</v>
+        <v>40.87745416538694</v>
       </c>
       <c r="P18" t="n">
-        <v>42.07114601913558</v>
+        <v>32.80776078774157</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.12344695991828</v>
+        <v>21.93111925137651</v>
       </c>
       <c r="R18" t="n">
-        <v>13.67906525441875</v>
+        <v>10.66715654626464</v>
       </c>
       <c r="S18" t="n">
-        <v>4.092317134251437</v>
+        <v>3.191255154947068</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8880376496758139</v>
+        <v>0.6925061363391632</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01449462975531797</v>
+        <v>0.01130314694786448</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1847075223464563</v>
+        <v>0.1440379162973768</v>
       </c>
       <c r="H19" t="n">
-        <v>1.642217789589403</v>
+        <v>1.280628019443951</v>
       </c>
       <c r="I19" t="n">
-        <v>5.554658944746159</v>
+        <v>4.331612973742932</v>
       </c>
       <c r="J19" t="n">
-        <v>13.05882182989446</v>
+        <v>10.18348068222454</v>
       </c>
       <c r="K19" t="n">
-        <v>21.4596557780701</v>
+        <v>16.73458700254977</v>
       </c>
       <c r="L19" t="n">
-        <v>27.46097109503588</v>
+        <v>21.41450984661182</v>
       </c>
       <c r="M19" t="n">
-        <v>28.95374370745404</v>
+        <v>22.57859809741516</v>
       </c>
       <c r="N19" t="n">
-        <v>28.26528839689</v>
+        <v>22.04172950030678</v>
       </c>
       <c r="O19" t="n">
-        <v>26.10756870402457</v>
+        <v>20.35910475083287</v>
       </c>
       <c r="P19" t="n">
-        <v>22.33953524815685</v>
+        <v>17.42073125836636</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.46673625757463</v>
+        <v>12.06121133650125</v>
       </c>
       <c r="R19" t="n">
-        <v>8.305121868414295</v>
+        <v>6.47646849097114</v>
       </c>
       <c r="S19" t="n">
-        <v>3.218948366710514</v>
+        <v>2.510188050382466</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7892048682075856</v>
+        <v>0.6154347332706097</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01007495576435217</v>
+        <v>0.007856613616220561</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4117737364324833</v>
+        <v>0.3211078261905885</v>
       </c>
       <c r="H20" t="n">
-        <v>4.217077778239171</v>
+        <v>3.288545524974365</v>
       </c>
       <c r="I20" t="n">
-        <v>15.87490697381333</v>
+        <v>12.37950946921268</v>
       </c>
       <c r="J20" t="n">
-        <v>34.94878116253651</v>
+        <v>27.25362536314349</v>
       </c>
       <c r="K20" t="n">
-        <v>52.37916342572354</v>
+        <v>40.84611964579111</v>
       </c>
       <c r="L20" t="n">
-        <v>64.98098391206916</v>
+        <v>50.67322328157134</v>
       </c>
       <c r="M20" t="n">
-        <v>72.30386509735034</v>
+        <v>56.38372458558822</v>
       </c>
       <c r="N20" t="n">
-        <v>73.47381722598914</v>
+        <v>57.29607219675223</v>
       </c>
       <c r="O20" t="n">
-        <v>69.37924213433863</v>
+        <v>54.10305625006956</v>
       </c>
       <c r="P20" t="n">
-        <v>59.21357801616169</v>
+        <v>46.1757067909894</v>
       </c>
       <c r="Q20" t="n">
-        <v>44.46693108017337</v>
+        <v>34.67603276553894</v>
       </c>
       <c r="R20" t="n">
-        <v>25.866081971177</v>
+        <v>20.17078948694457</v>
       </c>
       <c r="S20" t="n">
-        <v>9.383294018955223</v>
+        <v>7.317244589318043</v>
       </c>
       <c r="T20" t="n">
-        <v>1.802539531233197</v>
+        <v>1.405649509149302</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03294189891459866</v>
+        <v>0.02568862609524708</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2203183722808331</v>
+        <v>0.17180783360754</v>
       </c>
       <c r="H21" t="n">
-        <v>2.127811648080678</v>
+        <v>1.659301971946505</v>
       </c>
       <c r="I21" t="n">
-        <v>7.585522905283071</v>
+        <v>5.915313569382409</v>
       </c>
       <c r="J21" t="n">
-        <v>20.81525463728696</v>
+        <v>16.23207256026325</v>
       </c>
       <c r="K21" t="n">
-        <v>35.57658558010278</v>
+        <v>27.74319741196843</v>
       </c>
       <c r="L21" t="n">
-        <v>47.83710973580107</v>
+        <v>37.30415264360206</v>
       </c>
       <c r="M21" t="n">
-        <v>55.82365073098126</v>
+        <v>43.53218661187537</v>
       </c>
       <c r="N21" t="n">
-        <v>57.30113665737335</v>
+        <v>44.6843540574277</v>
       </c>
       <c r="O21" t="n">
-        <v>52.41934535578226</v>
+        <v>40.87745416538694</v>
       </c>
       <c r="P21" t="n">
-        <v>42.07114601913558</v>
+        <v>32.80776078774157</v>
       </c>
       <c r="Q21" t="n">
-        <v>28.12344695991828</v>
+        <v>21.93111925137651</v>
       </c>
       <c r="R21" t="n">
-        <v>13.67906525441875</v>
+        <v>10.66715654626464</v>
       </c>
       <c r="S21" t="n">
-        <v>4.092317134251437</v>
+        <v>3.191255154947068</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8880376496758139</v>
+        <v>0.6925061363391632</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01449462975531797</v>
+        <v>0.01130314694786448</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1847075223464563</v>
+        <v>0.1440379162973768</v>
       </c>
       <c r="H22" t="n">
-        <v>1.642217789589403</v>
+        <v>1.280628019443951</v>
       </c>
       <c r="I22" t="n">
-        <v>5.554658944746159</v>
+        <v>4.331612973742932</v>
       </c>
       <c r="J22" t="n">
-        <v>13.05882182989446</v>
+        <v>10.18348068222454</v>
       </c>
       <c r="K22" t="n">
-        <v>21.4596557780701</v>
+        <v>16.73458700254977</v>
       </c>
       <c r="L22" t="n">
-        <v>27.46097109503588</v>
+        <v>21.41450984661182</v>
       </c>
       <c r="M22" t="n">
-        <v>28.95374370745404</v>
+        <v>22.57859809741516</v>
       </c>
       <c r="N22" t="n">
-        <v>28.26528839689</v>
+        <v>22.04172950030678</v>
       </c>
       <c r="O22" t="n">
-        <v>26.10756870402457</v>
+        <v>20.35910475083287</v>
       </c>
       <c r="P22" t="n">
-        <v>22.33953524815685</v>
+        <v>17.42073125836636</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.46673625757463</v>
+        <v>12.06121133650125</v>
       </c>
       <c r="R22" t="n">
-        <v>8.305121868414295</v>
+        <v>6.47646849097114</v>
       </c>
       <c r="S22" t="n">
-        <v>3.218948366710514</v>
+        <v>2.510188050382466</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7892048682075856</v>
+        <v>0.6154347332706097</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01007495576435217</v>
+        <v>0.007856613616220561</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4117737364324833</v>
+        <v>0.3211078261905885</v>
       </c>
       <c r="H23" t="n">
-        <v>4.217077778239171</v>
+        <v>3.288545524974365</v>
       </c>
       <c r="I23" t="n">
-        <v>15.87490697381333</v>
+        <v>12.37950946921268</v>
       </c>
       <c r="J23" t="n">
-        <v>34.94878116253651</v>
+        <v>27.25362536314349</v>
       </c>
       <c r="K23" t="n">
-        <v>52.37916342572354</v>
+        <v>40.84611964579111</v>
       </c>
       <c r="L23" t="n">
-        <v>64.98098391206916</v>
+        <v>50.67322328157134</v>
       </c>
       <c r="M23" t="n">
-        <v>72.30386509735034</v>
+        <v>56.38372458558822</v>
       </c>
       <c r="N23" t="n">
-        <v>73.47381722598914</v>
+        <v>57.29607219675223</v>
       </c>
       <c r="O23" t="n">
-        <v>69.37924213433863</v>
+        <v>54.10305625006956</v>
       </c>
       <c r="P23" t="n">
-        <v>59.21357801616169</v>
+        <v>46.1757067909894</v>
       </c>
       <c r="Q23" t="n">
-        <v>44.46693108017337</v>
+        <v>34.67603276553894</v>
       </c>
       <c r="R23" t="n">
-        <v>25.866081971177</v>
+        <v>20.17078948694457</v>
       </c>
       <c r="S23" t="n">
-        <v>9.383294018955223</v>
+        <v>7.317244589318043</v>
       </c>
       <c r="T23" t="n">
-        <v>1.802539531233197</v>
+        <v>1.405649509149302</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03294189891459866</v>
+        <v>0.02568862609524708</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2203183722808331</v>
+        <v>0.17180783360754</v>
       </c>
       <c r="H24" t="n">
-        <v>2.127811648080678</v>
+        <v>1.659301971946505</v>
       </c>
       <c r="I24" t="n">
-        <v>7.585522905283071</v>
+        <v>5.915313569382409</v>
       </c>
       <c r="J24" t="n">
-        <v>20.81525463728696</v>
+        <v>16.23207256026325</v>
       </c>
       <c r="K24" t="n">
-        <v>35.57658558010278</v>
+        <v>27.74319741196843</v>
       </c>
       <c r="L24" t="n">
-        <v>47.83710973580107</v>
+        <v>37.30415264360206</v>
       </c>
       <c r="M24" t="n">
-        <v>55.82365073098126</v>
+        <v>43.53218661187537</v>
       </c>
       <c r="N24" t="n">
-        <v>57.30113665737335</v>
+        <v>44.6843540574277</v>
       </c>
       <c r="O24" t="n">
-        <v>52.41934535578226</v>
+        <v>40.87745416538694</v>
       </c>
       <c r="P24" t="n">
-        <v>42.07114601913558</v>
+        <v>32.80776078774157</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.12344695991828</v>
+        <v>21.93111925137651</v>
       </c>
       <c r="R24" t="n">
-        <v>13.67906525441875</v>
+        <v>10.66715654626464</v>
       </c>
       <c r="S24" t="n">
-        <v>4.092317134251437</v>
+        <v>3.191255154947068</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8880376496758139</v>
+        <v>0.6925061363391632</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01449462975531797</v>
+        <v>0.01130314694786448</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1847075223464563</v>
+        <v>0.1440379162973768</v>
       </c>
       <c r="H25" t="n">
-        <v>1.642217789589403</v>
+        <v>1.280628019443951</v>
       </c>
       <c r="I25" t="n">
-        <v>5.554658944746159</v>
+        <v>4.331612973742932</v>
       </c>
       <c r="J25" t="n">
-        <v>13.05882182989446</v>
+        <v>10.18348068222454</v>
       </c>
       <c r="K25" t="n">
-        <v>21.4596557780701</v>
+        <v>16.73458700254977</v>
       </c>
       <c r="L25" t="n">
-        <v>27.46097109503588</v>
+        <v>21.41450984661182</v>
       </c>
       <c r="M25" t="n">
-        <v>28.95374370745404</v>
+        <v>22.57859809741516</v>
       </c>
       <c r="N25" t="n">
-        <v>28.26528839689</v>
+        <v>22.04172950030678</v>
       </c>
       <c r="O25" t="n">
-        <v>26.10756870402457</v>
+        <v>20.35910475083287</v>
       </c>
       <c r="P25" t="n">
-        <v>22.33953524815685</v>
+        <v>17.42073125836636</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.46673625757463</v>
+        <v>12.06121133650125</v>
       </c>
       <c r="R25" t="n">
-        <v>8.305121868414295</v>
+        <v>6.47646849097114</v>
       </c>
       <c r="S25" t="n">
-        <v>3.218948366710514</v>
+        <v>2.510188050382466</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7892048682075856</v>
+        <v>0.6154347332706097</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01007495576435217</v>
+        <v>0.007856613616220561</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4117737364324833</v>
+        <v>0.3211078261905885</v>
       </c>
       <c r="H26" t="n">
-        <v>4.217077778239171</v>
+        <v>3.288545524974365</v>
       </c>
       <c r="I26" t="n">
-        <v>15.87490697381333</v>
+        <v>12.37950946921268</v>
       </c>
       <c r="J26" t="n">
-        <v>34.94878116253651</v>
+        <v>27.25362536314349</v>
       </c>
       <c r="K26" t="n">
-        <v>52.37916342572354</v>
+        <v>40.84611964579111</v>
       </c>
       <c r="L26" t="n">
-        <v>64.98098391206916</v>
+        <v>50.67322328157134</v>
       </c>
       <c r="M26" t="n">
-        <v>72.30386509735034</v>
+        <v>56.38372458558822</v>
       </c>
       <c r="N26" t="n">
-        <v>73.47381722598914</v>
+        <v>57.29607219675223</v>
       </c>
       <c r="O26" t="n">
-        <v>69.37924213433863</v>
+        <v>54.10305625006956</v>
       </c>
       <c r="P26" t="n">
-        <v>59.21357801616169</v>
+        <v>46.1757067909894</v>
       </c>
       <c r="Q26" t="n">
-        <v>44.46693108017337</v>
+        <v>34.67603276553894</v>
       </c>
       <c r="R26" t="n">
-        <v>25.866081971177</v>
+        <v>20.17078948694457</v>
       </c>
       <c r="S26" t="n">
-        <v>9.383294018955223</v>
+        <v>7.317244589318043</v>
       </c>
       <c r="T26" t="n">
-        <v>1.802539531233197</v>
+        <v>1.405649509149302</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03294189891459866</v>
+        <v>0.02568862609524708</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2203183722808331</v>
+        <v>0.17180783360754</v>
       </c>
       <c r="H27" t="n">
-        <v>2.127811648080678</v>
+        <v>1.659301971946505</v>
       </c>
       <c r="I27" t="n">
-        <v>7.585522905283071</v>
+        <v>5.915313569382409</v>
       </c>
       <c r="J27" t="n">
-        <v>20.81525463728696</v>
+        <v>16.23207256026325</v>
       </c>
       <c r="K27" t="n">
-        <v>35.57658558010278</v>
+        <v>27.74319741196843</v>
       </c>
       <c r="L27" t="n">
-        <v>47.83710973580107</v>
+        <v>37.30415264360206</v>
       </c>
       <c r="M27" t="n">
-        <v>55.82365073098126</v>
+        <v>43.53218661187537</v>
       </c>
       <c r="N27" t="n">
-        <v>57.30113665737335</v>
+        <v>44.6843540574277</v>
       </c>
       <c r="O27" t="n">
-        <v>52.41934535578226</v>
+        <v>40.87745416538694</v>
       </c>
       <c r="P27" t="n">
-        <v>42.07114601913558</v>
+        <v>32.80776078774157</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.12344695991828</v>
+        <v>21.93111925137651</v>
       </c>
       <c r="R27" t="n">
-        <v>13.67906525441875</v>
+        <v>10.66715654626464</v>
       </c>
       <c r="S27" t="n">
-        <v>4.092317134251437</v>
+        <v>3.191255154947068</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8880376496758139</v>
+        <v>0.6925061363391632</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01449462975531797</v>
+        <v>0.01130314694786448</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1847075223464563</v>
+        <v>0.1440379162973768</v>
       </c>
       <c r="H28" t="n">
-        <v>1.642217789589403</v>
+        <v>1.280628019443951</v>
       </c>
       <c r="I28" t="n">
-        <v>5.554658944746159</v>
+        <v>4.331612973742932</v>
       </c>
       <c r="J28" t="n">
-        <v>13.05882182989446</v>
+        <v>10.18348068222454</v>
       </c>
       <c r="K28" t="n">
-        <v>21.4596557780701</v>
+        <v>16.73458700254977</v>
       </c>
       <c r="L28" t="n">
-        <v>27.46097109503588</v>
+        <v>21.41450984661182</v>
       </c>
       <c r="M28" t="n">
-        <v>28.95374370745404</v>
+        <v>22.57859809741516</v>
       </c>
       <c r="N28" t="n">
-        <v>28.26528839689</v>
+        <v>22.04172950030678</v>
       </c>
       <c r="O28" t="n">
-        <v>26.10756870402457</v>
+        <v>20.35910475083287</v>
       </c>
       <c r="P28" t="n">
-        <v>22.33953524815685</v>
+        <v>17.42073125836636</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.46673625757463</v>
+        <v>12.06121133650125</v>
       </c>
       <c r="R28" t="n">
-        <v>8.305121868414295</v>
+        <v>6.47646849097114</v>
       </c>
       <c r="S28" t="n">
-        <v>3.218948366710514</v>
+        <v>2.510188050382466</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7892048682075856</v>
+        <v>0.6154347332706097</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01007495576435217</v>
+        <v>0.007856613616220561</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4117737364324833</v>
+        <v>0.3211078261905885</v>
       </c>
       <c r="H29" t="n">
-        <v>4.217077778239171</v>
+        <v>3.288545524974365</v>
       </c>
       <c r="I29" t="n">
-        <v>15.87490697381333</v>
+        <v>12.37950946921268</v>
       </c>
       <c r="J29" t="n">
-        <v>34.94878116253651</v>
+        <v>27.25362536314349</v>
       </c>
       <c r="K29" t="n">
-        <v>52.37916342572354</v>
+        <v>40.84611964579111</v>
       </c>
       <c r="L29" t="n">
-        <v>64.98098391206916</v>
+        <v>50.67322328157134</v>
       </c>
       <c r="M29" t="n">
-        <v>72.30386509735034</v>
+        <v>56.38372458558822</v>
       </c>
       <c r="N29" t="n">
-        <v>73.47381722598914</v>
+        <v>57.29607219675223</v>
       </c>
       <c r="O29" t="n">
-        <v>69.37924213433863</v>
+        <v>54.10305625006956</v>
       </c>
       <c r="P29" t="n">
-        <v>59.21357801616169</v>
+        <v>46.1757067909894</v>
       </c>
       <c r="Q29" t="n">
-        <v>44.46693108017337</v>
+        <v>34.67603276553894</v>
       </c>
       <c r="R29" t="n">
-        <v>25.866081971177</v>
+        <v>20.17078948694457</v>
       </c>
       <c r="S29" t="n">
-        <v>9.383294018955223</v>
+        <v>7.317244589318043</v>
       </c>
       <c r="T29" t="n">
-        <v>1.802539531233197</v>
+        <v>1.405649509149302</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03294189891459866</v>
+        <v>0.02568862609524708</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2203183722808331</v>
+        <v>0.17180783360754</v>
       </c>
       <c r="H30" t="n">
-        <v>2.127811648080678</v>
+        <v>1.659301971946505</v>
       </c>
       <c r="I30" t="n">
-        <v>7.585522905283071</v>
+        <v>5.915313569382409</v>
       </c>
       <c r="J30" t="n">
-        <v>20.81525463728696</v>
+        <v>16.23207256026325</v>
       </c>
       <c r="K30" t="n">
-        <v>35.57658558010278</v>
+        <v>27.74319741196843</v>
       </c>
       <c r="L30" t="n">
-        <v>47.83710973580107</v>
+        <v>37.30415264360206</v>
       </c>
       <c r="M30" t="n">
-        <v>55.82365073098126</v>
+        <v>43.53218661187537</v>
       </c>
       <c r="N30" t="n">
-        <v>57.30113665737335</v>
+        <v>44.6843540574277</v>
       </c>
       <c r="O30" t="n">
-        <v>52.41934535578226</v>
+        <v>40.87745416538694</v>
       </c>
       <c r="P30" t="n">
-        <v>42.07114601913558</v>
+        <v>32.80776078774157</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.12344695991828</v>
+        <v>21.93111925137651</v>
       </c>
       <c r="R30" t="n">
-        <v>13.67906525441875</v>
+        <v>10.66715654626464</v>
       </c>
       <c r="S30" t="n">
-        <v>4.092317134251437</v>
+        <v>3.191255154947068</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8880376496758139</v>
+        <v>0.6925061363391632</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01449462975531797</v>
+        <v>0.01130314694786448</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1847075223464563</v>
+        <v>0.1440379162973768</v>
       </c>
       <c r="H31" t="n">
-        <v>1.642217789589403</v>
+        <v>1.280628019443951</v>
       </c>
       <c r="I31" t="n">
-        <v>5.554658944746159</v>
+        <v>4.331612973742932</v>
       </c>
       <c r="J31" t="n">
-        <v>13.05882182989446</v>
+        <v>10.18348068222454</v>
       </c>
       <c r="K31" t="n">
-        <v>21.4596557780701</v>
+        <v>16.73458700254977</v>
       </c>
       <c r="L31" t="n">
-        <v>27.46097109503588</v>
+        <v>21.41450984661182</v>
       </c>
       <c r="M31" t="n">
-        <v>28.95374370745404</v>
+        <v>22.57859809741516</v>
       </c>
       <c r="N31" t="n">
-        <v>28.26528839689</v>
+        <v>22.04172950030678</v>
       </c>
       <c r="O31" t="n">
-        <v>26.10756870402457</v>
+        <v>20.35910475083287</v>
       </c>
       <c r="P31" t="n">
-        <v>22.33953524815685</v>
+        <v>17.42073125836636</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.46673625757463</v>
+        <v>12.06121133650125</v>
       </c>
       <c r="R31" t="n">
-        <v>8.305121868414295</v>
+        <v>6.47646849097114</v>
       </c>
       <c r="S31" t="n">
-        <v>3.218948366710514</v>
+        <v>2.510188050382466</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7892048682075856</v>
+        <v>0.6154347332706097</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01007495576435217</v>
+        <v>0.007856613616220561</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4117737364324833</v>
+        <v>0.3211078261905885</v>
       </c>
       <c r="H32" t="n">
-        <v>4.217077778239171</v>
+        <v>3.288545524974365</v>
       </c>
       <c r="I32" t="n">
-        <v>15.87490697381333</v>
+        <v>12.37950946921268</v>
       </c>
       <c r="J32" t="n">
-        <v>34.94878116253651</v>
+        <v>27.25362536314349</v>
       </c>
       <c r="K32" t="n">
-        <v>52.37916342572354</v>
+        <v>40.84611964579111</v>
       </c>
       <c r="L32" t="n">
-        <v>64.98098391206916</v>
+        <v>50.67322328157134</v>
       </c>
       <c r="M32" t="n">
-        <v>72.30386509735034</v>
+        <v>56.38372458558822</v>
       </c>
       <c r="N32" t="n">
-        <v>73.47381722598914</v>
+        <v>57.29607219675223</v>
       </c>
       <c r="O32" t="n">
-        <v>69.37924213433863</v>
+        <v>54.10305625006956</v>
       </c>
       <c r="P32" t="n">
-        <v>59.21357801616169</v>
+        <v>46.1757067909894</v>
       </c>
       <c r="Q32" t="n">
-        <v>44.46693108017337</v>
+        <v>34.67603276553894</v>
       </c>
       <c r="R32" t="n">
-        <v>25.866081971177</v>
+        <v>20.17078948694457</v>
       </c>
       <c r="S32" t="n">
-        <v>9.383294018955223</v>
+        <v>7.317244589318043</v>
       </c>
       <c r="T32" t="n">
-        <v>1.802539531233197</v>
+        <v>1.405649509149302</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03294189891459866</v>
+        <v>0.02568862609524708</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2203183722808331</v>
+        <v>0.17180783360754</v>
       </c>
       <c r="H33" t="n">
-        <v>2.127811648080678</v>
+        <v>1.659301971946505</v>
       </c>
       <c r="I33" t="n">
-        <v>7.585522905283071</v>
+        <v>5.915313569382409</v>
       </c>
       <c r="J33" t="n">
-        <v>20.81525463728696</v>
+        <v>16.23207256026325</v>
       </c>
       <c r="K33" t="n">
-        <v>35.57658558010278</v>
+        <v>27.74319741196843</v>
       </c>
       <c r="L33" t="n">
-        <v>47.83710973580107</v>
+        <v>37.30415264360206</v>
       </c>
       <c r="M33" t="n">
-        <v>55.82365073098126</v>
+        <v>43.53218661187537</v>
       </c>
       <c r="N33" t="n">
-        <v>57.30113665737335</v>
+        <v>44.6843540574277</v>
       </c>
       <c r="O33" t="n">
-        <v>52.41934535578226</v>
+        <v>40.87745416538694</v>
       </c>
       <c r="P33" t="n">
-        <v>42.07114601913558</v>
+        <v>32.80776078774157</v>
       </c>
       <c r="Q33" t="n">
-        <v>28.12344695991828</v>
+        <v>21.93111925137651</v>
       </c>
       <c r="R33" t="n">
-        <v>13.67906525441875</v>
+        <v>10.66715654626464</v>
       </c>
       <c r="S33" t="n">
-        <v>4.092317134251437</v>
+        <v>3.191255154947068</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8880376496758139</v>
+        <v>0.6925061363391632</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01449462975531797</v>
+        <v>0.01130314694786448</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1847075223464563</v>
+        <v>0.1440379162973768</v>
       </c>
       <c r="H34" t="n">
-        <v>1.642217789589403</v>
+        <v>1.280628019443951</v>
       </c>
       <c r="I34" t="n">
-        <v>5.554658944746159</v>
+        <v>4.331612973742932</v>
       </c>
       <c r="J34" t="n">
-        <v>13.05882182989446</v>
+        <v>10.18348068222454</v>
       </c>
       <c r="K34" t="n">
-        <v>21.4596557780701</v>
+        <v>16.73458700254977</v>
       </c>
       <c r="L34" t="n">
-        <v>27.46097109503588</v>
+        <v>21.41450984661182</v>
       </c>
       <c r="M34" t="n">
-        <v>28.95374370745404</v>
+        <v>22.57859809741516</v>
       </c>
       <c r="N34" t="n">
-        <v>28.26528839689</v>
+        <v>22.04172950030678</v>
       </c>
       <c r="O34" t="n">
-        <v>26.10756870402457</v>
+        <v>20.35910475083287</v>
       </c>
       <c r="P34" t="n">
-        <v>22.33953524815685</v>
+        <v>17.42073125836636</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.46673625757463</v>
+        <v>12.06121133650125</v>
       </c>
       <c r="R34" t="n">
-        <v>8.305121868414295</v>
+        <v>6.47646849097114</v>
       </c>
       <c r="S34" t="n">
-        <v>3.218948366710514</v>
+        <v>2.510188050382466</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7892048682075856</v>
+        <v>0.6154347332706097</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01007495576435217</v>
+        <v>0.007856613616220561</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4117737364324833</v>
+        <v>0.3211078261905885</v>
       </c>
       <c r="H35" t="n">
-        <v>4.217077778239171</v>
+        <v>3.288545524974365</v>
       </c>
       <c r="I35" t="n">
-        <v>15.87490697381333</v>
+        <v>12.37950946921268</v>
       </c>
       <c r="J35" t="n">
-        <v>34.94878116253651</v>
+        <v>27.25362536314349</v>
       </c>
       <c r="K35" t="n">
-        <v>52.37916342572354</v>
+        <v>40.84611964579111</v>
       </c>
       <c r="L35" t="n">
-        <v>64.98098391206916</v>
+        <v>50.67322328157134</v>
       </c>
       <c r="M35" t="n">
-        <v>72.30386509735034</v>
+        <v>56.38372458558822</v>
       </c>
       <c r="N35" t="n">
-        <v>73.47381722598914</v>
+        <v>57.29607219675223</v>
       </c>
       <c r="O35" t="n">
-        <v>69.37924213433863</v>
+        <v>54.10305625006956</v>
       </c>
       <c r="P35" t="n">
-        <v>59.21357801616169</v>
+        <v>46.1757067909894</v>
       </c>
       <c r="Q35" t="n">
-        <v>44.46693108017337</v>
+        <v>34.67603276553894</v>
       </c>
       <c r="R35" t="n">
-        <v>25.866081971177</v>
+        <v>20.17078948694457</v>
       </c>
       <c r="S35" t="n">
-        <v>9.383294018955223</v>
+        <v>7.317244589318043</v>
       </c>
       <c r="T35" t="n">
-        <v>1.802539531233197</v>
+        <v>1.405649509149302</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03294189891459866</v>
+        <v>0.02568862609524708</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2203183722808331</v>
+        <v>0.17180783360754</v>
       </c>
       <c r="H36" t="n">
-        <v>2.127811648080678</v>
+        <v>1.659301971946505</v>
       </c>
       <c r="I36" t="n">
-        <v>7.585522905283071</v>
+        <v>5.915313569382409</v>
       </c>
       <c r="J36" t="n">
-        <v>20.81525463728696</v>
+        <v>16.23207256026325</v>
       </c>
       <c r="K36" t="n">
-        <v>35.57658558010278</v>
+        <v>27.74319741196843</v>
       </c>
       <c r="L36" t="n">
-        <v>47.83710973580107</v>
+        <v>37.30415264360206</v>
       </c>
       <c r="M36" t="n">
-        <v>55.82365073098126</v>
+        <v>43.53218661187537</v>
       </c>
       <c r="N36" t="n">
-        <v>57.30113665737335</v>
+        <v>44.6843540574277</v>
       </c>
       <c r="O36" t="n">
-        <v>52.41934535578226</v>
+        <v>40.87745416538694</v>
       </c>
       <c r="P36" t="n">
-        <v>42.07114601913558</v>
+        <v>32.80776078774157</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.12344695991828</v>
+        <v>21.93111925137651</v>
       </c>
       <c r="R36" t="n">
-        <v>13.67906525441875</v>
+        <v>10.66715654626464</v>
       </c>
       <c r="S36" t="n">
-        <v>4.092317134251437</v>
+        <v>3.191255154947068</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8880376496758139</v>
+        <v>0.6925061363391632</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01449462975531797</v>
+        <v>0.01130314694786448</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1847075223464563</v>
+        <v>0.1440379162973768</v>
       </c>
       <c r="H37" t="n">
-        <v>1.642217789589403</v>
+        <v>1.280628019443951</v>
       </c>
       <c r="I37" t="n">
-        <v>5.554658944746159</v>
+        <v>4.331612973742932</v>
       </c>
       <c r="J37" t="n">
-        <v>13.05882182989446</v>
+        <v>10.18348068222454</v>
       </c>
       <c r="K37" t="n">
-        <v>21.4596557780701</v>
+        <v>16.73458700254977</v>
       </c>
       <c r="L37" t="n">
-        <v>27.46097109503588</v>
+        <v>21.41450984661182</v>
       </c>
       <c r="M37" t="n">
-        <v>28.95374370745404</v>
+        <v>22.57859809741516</v>
       </c>
       <c r="N37" t="n">
-        <v>28.26528839689</v>
+        <v>22.04172950030678</v>
       </c>
       <c r="O37" t="n">
-        <v>26.10756870402457</v>
+        <v>20.35910475083287</v>
       </c>
       <c r="P37" t="n">
-        <v>22.33953524815685</v>
+        <v>17.42073125836636</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.46673625757463</v>
+        <v>12.06121133650125</v>
       </c>
       <c r="R37" t="n">
-        <v>8.305121868414295</v>
+        <v>6.47646849097114</v>
       </c>
       <c r="S37" t="n">
-        <v>3.218948366710514</v>
+        <v>2.510188050382466</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7892048682075856</v>
+        <v>0.6154347332706097</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01007495576435217</v>
+        <v>0.007856613616220561</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4117737364324833</v>
+        <v>0.3211078261905885</v>
       </c>
       <c r="H38" t="n">
-        <v>4.217077778239171</v>
+        <v>3.288545524974365</v>
       </c>
       <c r="I38" t="n">
-        <v>15.87490697381333</v>
+        <v>12.37950946921268</v>
       </c>
       <c r="J38" t="n">
-        <v>34.94878116253651</v>
+        <v>27.25362536314349</v>
       </c>
       <c r="K38" t="n">
-        <v>52.37916342572354</v>
+        <v>40.84611964579111</v>
       </c>
       <c r="L38" t="n">
-        <v>64.98098391206916</v>
+        <v>50.67322328157134</v>
       </c>
       <c r="M38" t="n">
-        <v>72.30386509735034</v>
+        <v>56.38372458558822</v>
       </c>
       <c r="N38" t="n">
-        <v>73.47381722598914</v>
+        <v>57.29607219675223</v>
       </c>
       <c r="O38" t="n">
-        <v>69.37924213433863</v>
+        <v>54.10305625006956</v>
       </c>
       <c r="P38" t="n">
-        <v>59.21357801616169</v>
+        <v>46.1757067909894</v>
       </c>
       <c r="Q38" t="n">
-        <v>44.46693108017337</v>
+        <v>34.67603276553894</v>
       </c>
       <c r="R38" t="n">
-        <v>25.866081971177</v>
+        <v>20.17078948694457</v>
       </c>
       <c r="S38" t="n">
-        <v>9.383294018955223</v>
+        <v>7.317244589318043</v>
       </c>
       <c r="T38" t="n">
-        <v>1.802539531233197</v>
+        <v>1.405649509149302</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03294189891459866</v>
+        <v>0.02568862609524708</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2203183722808331</v>
+        <v>0.17180783360754</v>
       </c>
       <c r="H39" t="n">
-        <v>2.127811648080678</v>
+        <v>1.659301971946505</v>
       </c>
       <c r="I39" t="n">
-        <v>7.585522905283071</v>
+        <v>5.915313569382409</v>
       </c>
       <c r="J39" t="n">
-        <v>20.81525463728696</v>
+        <v>16.23207256026325</v>
       </c>
       <c r="K39" t="n">
-        <v>35.57658558010278</v>
+        <v>27.74319741196843</v>
       </c>
       <c r="L39" t="n">
-        <v>47.83710973580107</v>
+        <v>37.30415264360206</v>
       </c>
       <c r="M39" t="n">
-        <v>55.82365073098126</v>
+        <v>43.53218661187537</v>
       </c>
       <c r="N39" t="n">
-        <v>57.30113665737335</v>
+        <v>44.6843540574277</v>
       </c>
       <c r="O39" t="n">
-        <v>52.41934535578226</v>
+        <v>40.87745416538694</v>
       </c>
       <c r="P39" t="n">
-        <v>42.07114601913558</v>
+        <v>32.80776078774157</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.12344695991828</v>
+        <v>21.93111925137651</v>
       </c>
       <c r="R39" t="n">
-        <v>13.67906525441875</v>
+        <v>10.66715654626464</v>
       </c>
       <c r="S39" t="n">
-        <v>4.092317134251437</v>
+        <v>3.191255154947068</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8880376496758139</v>
+        <v>0.6925061363391632</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01449462975531797</v>
+        <v>0.01130314694786448</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1847075223464563</v>
+        <v>0.1440379162973768</v>
       </c>
       <c r="H40" t="n">
-        <v>1.642217789589403</v>
+        <v>1.280628019443951</v>
       </c>
       <c r="I40" t="n">
-        <v>5.554658944746159</v>
+        <v>4.331612973742932</v>
       </c>
       <c r="J40" t="n">
-        <v>13.05882182989446</v>
+        <v>10.18348068222454</v>
       </c>
       <c r="K40" t="n">
-        <v>21.4596557780701</v>
+        <v>16.73458700254977</v>
       </c>
       <c r="L40" t="n">
-        <v>27.46097109503588</v>
+        <v>21.41450984661182</v>
       </c>
       <c r="M40" t="n">
-        <v>28.95374370745404</v>
+        <v>22.57859809741516</v>
       </c>
       <c r="N40" t="n">
-        <v>28.26528839689</v>
+        <v>22.04172950030678</v>
       </c>
       <c r="O40" t="n">
-        <v>26.10756870402457</v>
+        <v>20.35910475083287</v>
       </c>
       <c r="P40" t="n">
-        <v>22.33953524815685</v>
+        <v>17.42073125836636</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.46673625757463</v>
+        <v>12.06121133650125</v>
       </c>
       <c r="R40" t="n">
-        <v>8.305121868414295</v>
+        <v>6.47646849097114</v>
       </c>
       <c r="S40" t="n">
-        <v>3.218948366710514</v>
+        <v>2.510188050382466</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7892048682075856</v>
+        <v>0.6154347332706097</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01007495576435217</v>
+        <v>0.007856613616220561</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4117737364324833</v>
+        <v>0.3211078261905885</v>
       </c>
       <c r="H41" t="n">
-        <v>4.217077778239171</v>
+        <v>3.288545524974365</v>
       </c>
       <c r="I41" t="n">
-        <v>15.87490697381333</v>
+        <v>12.37950946921268</v>
       </c>
       <c r="J41" t="n">
-        <v>34.94878116253651</v>
+        <v>27.25362536314349</v>
       </c>
       <c r="K41" t="n">
-        <v>52.37916342572354</v>
+        <v>40.84611964579111</v>
       </c>
       <c r="L41" t="n">
-        <v>64.98098391206916</v>
+        <v>50.67322328157134</v>
       </c>
       <c r="M41" t="n">
-        <v>72.30386509735034</v>
+        <v>56.38372458558822</v>
       </c>
       <c r="N41" t="n">
-        <v>73.47381722598914</v>
+        <v>57.29607219675223</v>
       </c>
       <c r="O41" t="n">
-        <v>69.37924213433863</v>
+        <v>54.10305625006956</v>
       </c>
       <c r="P41" t="n">
-        <v>59.21357801616169</v>
+        <v>46.1757067909894</v>
       </c>
       <c r="Q41" t="n">
-        <v>44.46693108017337</v>
+        <v>34.67603276553894</v>
       </c>
       <c r="R41" t="n">
-        <v>25.866081971177</v>
+        <v>20.17078948694457</v>
       </c>
       <c r="S41" t="n">
-        <v>9.383294018955223</v>
+        <v>7.317244589318043</v>
       </c>
       <c r="T41" t="n">
-        <v>1.802539531233197</v>
+        <v>1.405649509149302</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03294189891459866</v>
+        <v>0.02568862609524708</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2203183722808331</v>
+        <v>0.17180783360754</v>
       </c>
       <c r="H42" t="n">
-        <v>2.127811648080678</v>
+        <v>1.659301971946505</v>
       </c>
       <c r="I42" t="n">
-        <v>7.585522905283071</v>
+        <v>5.915313569382409</v>
       </c>
       <c r="J42" t="n">
-        <v>20.81525463728696</v>
+        <v>16.23207256026325</v>
       </c>
       <c r="K42" t="n">
-        <v>35.57658558010278</v>
+        <v>27.74319741196843</v>
       </c>
       <c r="L42" t="n">
-        <v>47.83710973580107</v>
+        <v>37.30415264360206</v>
       </c>
       <c r="M42" t="n">
-        <v>55.82365073098126</v>
+        <v>43.53218661187537</v>
       </c>
       <c r="N42" t="n">
-        <v>57.30113665737335</v>
+        <v>44.6843540574277</v>
       </c>
       <c r="O42" t="n">
-        <v>52.41934535578226</v>
+        <v>40.87745416538694</v>
       </c>
       <c r="P42" t="n">
-        <v>42.07114601913558</v>
+        <v>32.80776078774157</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.12344695991828</v>
+        <v>21.93111925137651</v>
       </c>
       <c r="R42" t="n">
-        <v>13.67906525441875</v>
+        <v>10.66715654626464</v>
       </c>
       <c r="S42" t="n">
-        <v>4.092317134251437</v>
+        <v>3.191255154947068</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8880376496758139</v>
+        <v>0.6925061363391632</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01449462975531797</v>
+        <v>0.01130314694786448</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1847075223464563</v>
+        <v>0.1440379162973768</v>
       </c>
       <c r="H43" t="n">
-        <v>1.642217789589403</v>
+        <v>1.280628019443951</v>
       </c>
       <c r="I43" t="n">
-        <v>5.554658944746159</v>
+        <v>4.331612973742932</v>
       </c>
       <c r="J43" t="n">
-        <v>13.05882182989446</v>
+        <v>10.18348068222454</v>
       </c>
       <c r="K43" t="n">
-        <v>21.4596557780701</v>
+        <v>16.73458700254977</v>
       </c>
       <c r="L43" t="n">
-        <v>27.46097109503588</v>
+        <v>21.41450984661182</v>
       </c>
       <c r="M43" t="n">
-        <v>28.95374370745404</v>
+        <v>22.57859809741516</v>
       </c>
       <c r="N43" t="n">
-        <v>28.26528839689</v>
+        <v>22.04172950030678</v>
       </c>
       <c r="O43" t="n">
-        <v>26.10756870402457</v>
+        <v>20.35910475083287</v>
       </c>
       <c r="P43" t="n">
-        <v>22.33953524815685</v>
+        <v>17.42073125836636</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.46673625757463</v>
+        <v>12.06121133650125</v>
       </c>
       <c r="R43" t="n">
-        <v>8.305121868414295</v>
+        <v>6.47646849097114</v>
       </c>
       <c r="S43" t="n">
-        <v>3.218948366710514</v>
+        <v>2.510188050382466</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7892048682075856</v>
+        <v>0.6154347332706097</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01007495576435217</v>
+        <v>0.007856613616220561</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4117737364324833</v>
+        <v>0.3211078261905885</v>
       </c>
       <c r="H44" t="n">
-        <v>4.217077778239171</v>
+        <v>3.288545524974365</v>
       </c>
       <c r="I44" t="n">
-        <v>15.87490697381333</v>
+        <v>12.37950946921268</v>
       </c>
       <c r="J44" t="n">
-        <v>34.94878116253651</v>
+        <v>27.25362536314349</v>
       </c>
       <c r="K44" t="n">
-        <v>52.37916342572354</v>
+        <v>40.84611964579111</v>
       </c>
       <c r="L44" t="n">
-        <v>64.98098391206916</v>
+        <v>50.67322328157134</v>
       </c>
       <c r="M44" t="n">
-        <v>72.30386509735034</v>
+        <v>56.38372458558822</v>
       </c>
       <c r="N44" t="n">
-        <v>73.47381722598914</v>
+        <v>57.29607219675223</v>
       </c>
       <c r="O44" t="n">
-        <v>69.37924213433863</v>
+        <v>54.10305625006956</v>
       </c>
       <c r="P44" t="n">
-        <v>59.21357801616169</v>
+        <v>46.1757067909894</v>
       </c>
       <c r="Q44" t="n">
-        <v>44.46693108017337</v>
+        <v>34.67603276553894</v>
       </c>
       <c r="R44" t="n">
-        <v>25.866081971177</v>
+        <v>20.17078948694457</v>
       </c>
       <c r="S44" t="n">
-        <v>9.383294018955223</v>
+        <v>7.317244589318043</v>
       </c>
       <c r="T44" t="n">
-        <v>1.802539531233197</v>
+        <v>1.405649509149302</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03294189891459866</v>
+        <v>0.02568862609524708</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2203183722808331</v>
+        <v>0.17180783360754</v>
       </c>
       <c r="H45" t="n">
-        <v>2.127811648080678</v>
+        <v>1.659301971946505</v>
       </c>
       <c r="I45" t="n">
-        <v>7.585522905283071</v>
+        <v>5.915313569382409</v>
       </c>
       <c r="J45" t="n">
-        <v>20.81525463728696</v>
+        <v>16.23207256026325</v>
       </c>
       <c r="K45" t="n">
-        <v>35.57658558010278</v>
+        <v>27.74319741196843</v>
       </c>
       <c r="L45" t="n">
-        <v>47.83710973580107</v>
+        <v>37.30415264360206</v>
       </c>
       <c r="M45" t="n">
-        <v>55.82365073098126</v>
+        <v>43.53218661187537</v>
       </c>
       <c r="N45" t="n">
-        <v>57.30113665737335</v>
+        <v>44.6843540574277</v>
       </c>
       <c r="O45" t="n">
-        <v>52.41934535578226</v>
+        <v>40.87745416538694</v>
       </c>
       <c r="P45" t="n">
-        <v>42.07114601913558</v>
+        <v>32.80776078774157</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.12344695991828</v>
+        <v>21.93111925137651</v>
       </c>
       <c r="R45" t="n">
-        <v>13.67906525441875</v>
+        <v>10.66715654626464</v>
       </c>
       <c r="S45" t="n">
-        <v>4.092317134251437</v>
+        <v>3.191255154947068</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8880376496758139</v>
+        <v>0.6925061363391632</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01449462975531797</v>
+        <v>0.01130314694786448</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1847075223464563</v>
+        <v>0.1440379162973768</v>
       </c>
       <c r="H46" t="n">
-        <v>1.642217789589403</v>
+        <v>1.280628019443951</v>
       </c>
       <c r="I46" t="n">
-        <v>5.554658944746159</v>
+        <v>4.331612973742932</v>
       </c>
       <c r="J46" t="n">
-        <v>13.05882182989446</v>
+        <v>10.18348068222454</v>
       </c>
       <c r="K46" t="n">
-        <v>21.4596557780701</v>
+        <v>16.73458700254977</v>
       </c>
       <c r="L46" t="n">
-        <v>27.46097109503588</v>
+        <v>21.41450984661182</v>
       </c>
       <c r="M46" t="n">
-        <v>28.95374370745404</v>
+        <v>22.57859809741516</v>
       </c>
       <c r="N46" t="n">
-        <v>28.26528839689</v>
+        <v>22.04172950030678</v>
       </c>
       <c r="O46" t="n">
-        <v>26.10756870402457</v>
+        <v>20.35910475083287</v>
       </c>
       <c r="P46" t="n">
-        <v>22.33953524815685</v>
+        <v>17.42073125836636</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.46673625757463</v>
+        <v>12.06121133650125</v>
       </c>
       <c r="R46" t="n">
-        <v>8.305121868414295</v>
+        <v>6.47646849097114</v>
       </c>
       <c r="S46" t="n">
-        <v>3.218948366710514</v>
+        <v>2.510188050382466</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7892048682075856</v>
+        <v>0.6154347332706097</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01007495576435217</v>
+        <v>0.007856613616220561</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_25_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_25_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2155110.610794324</v>
+        <v>2181226.293592781</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11833217.78583944</v>
+        <v>11788633.54157668</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5968786.176029423</v>
+        <v>6490971.947159993</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6131343.701225479</v>
+        <v>6030874.520252422</v>
       </c>
     </row>
     <row r="11">
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>153.7922791635428</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>12.7105477493221</v>
+        <v>8.975431446849676</v>
       </c>
       <c r="L11" t="n">
-        <v>18.56000803854856</v>
+        <v>144.2112893253689</v>
       </c>
       <c r="M11" t="n">
-        <v>7.429324991817175</v>
+        <v>0.03349962705864584</v>
       </c>
       <c r="N11" t="n">
-        <v>172.1169913998387</v>
+        <v>158.6178548510117</v>
       </c>
       <c r="O11" t="n">
-        <v>9.461971521749824</v>
+        <v>163.2483033190052</v>
       </c>
       <c r="P11" t="n">
-        <v>185.0572889642801</v>
+        <v>13.53332135683743</v>
       </c>
       <c r="Q11" t="n">
-        <v>187.6296571089105</v>
+        <v>179.4598736782735</v>
       </c>
       <c r="R11" t="n">
-        <v>28.88156467732021</v>
+        <v>30.01762181319337</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,25 +8771,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>103.5618561557404</v>
       </c>
       <c r="L12" t="n">
-        <v>101.2502271362721</v>
+        <v>92.4612503169708</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>88.3455259112734</v>
       </c>
       <c r="N12" t="n">
-        <v>86.65735802590561</v>
+        <v>76.12958231824479</v>
       </c>
       <c r="O12" t="n">
-        <v>101.7187902790575</v>
+        <v>92.0879322744794</v>
       </c>
       <c r="P12" t="n">
-        <v>101.1666466265887</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>101.7909243526756</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8853,7 +8853,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>108.4248399146351</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>153.7922791635428</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>12.7105477493221</v>
+        <v>169.6202559069285</v>
       </c>
       <c r="L14" t="n">
-        <v>18.56000803854856</v>
+        <v>173.1544193743531</v>
       </c>
       <c r="M14" t="n">
-        <v>7.429324991817175</v>
+        <v>160.6783240871375</v>
       </c>
       <c r="N14" t="n">
-        <v>172.1169913998387</v>
+        <v>96.89737542468254</v>
       </c>
       <c r="O14" t="n">
-        <v>175.9951551716172</v>
+        <v>2.603478858926437</v>
       </c>
       <c r="P14" t="n">
-        <v>18.5241053144128</v>
+        <v>13.53332135683743</v>
       </c>
       <c r="Q14" t="n">
-        <v>21.0964734590432</v>
+        <v>18.81504921819471</v>
       </c>
       <c r="R14" t="n">
-        <v>28.88156467732021</v>
+        <v>30.01762181319337</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>106.781226267507</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>92.4612503169708</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>88.3455259112734</v>
       </c>
       <c r="N15" t="n">
-        <v>86.65735802590561</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>101.7187902790575</v>
+        <v>92.0879322744794</v>
       </c>
       <c r="P15" t="n">
-        <v>12.00125798960946</v>
+        <v>93.43703400647473</v>
       </c>
       <c r="Q15" t="n">
-        <v>118.050654834645</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>113.4701664346265</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>116.3471858501899</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>105.6438149649264</v>
+        <v>100.4507135028367</v>
       </c>
       <c r="O16" t="n">
-        <v>118.0974337010099</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>120.3072727907813</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>153.7922791635428</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>57.16283391807548</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>179.4598736782735</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>35.11657714471765</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9321,25 +9321,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>108.4248399146351</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>111.0275964418365</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>100.4507135028367</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>113.3007639729418</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>116.2028931881174</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9406,10 +9406,10 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>8.343185893396523</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>160.6783240871375</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>130.3696101562664</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9491,13 +9491,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>86.65735802590561</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>93.43703400647473</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9564,22 +9564,22 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>113.4701664346265</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>116.3471858501899</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>105.6438149649264</v>
+        <v>100.4507135028367</v>
       </c>
       <c r="O22" t="n">
-        <v>118.0974337010099</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>116.2028931881174</v>
       </c>
       <c r="Q22" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9640,13 +9640,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>21.34627969545377</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>173.1544193743531</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>142.6647745460531</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9722,19 +9722,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>101.2502271362721</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>76.12958231824479</v>
       </c>
       <c r="O24" t="n">
-        <v>101.7187902790575</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>93.43703400647473</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -9804,7 +9804,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>116.3471858501899</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -9813,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>120.3072727907813</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>5.729482526483036</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>31.18093476212968</v>
+        <v>169.6202559069285</v>
       </c>
       <c r="L26" t="n">
-        <v>185.0931916884159</v>
+        <v>31.36391709765746</v>
       </c>
       <c r="M26" t="n">
-        <v>173.9625086416845</v>
+        <v>13.2332585224987</v>
       </c>
       <c r="N26" t="n">
-        <v>172.1169913998387</v>
+        <v>158.6178548510117</v>
       </c>
       <c r="O26" t="n">
-        <v>175.9951551716172</v>
+        <v>163.2483033190052</v>
       </c>
       <c r="P26" t="n">
-        <v>185.0572889642801</v>
+        <v>174.1781458169162</v>
       </c>
       <c r="Q26" t="n">
-        <v>187.6296571089105</v>
+        <v>179.4598736782735</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9956,7 +9956,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>28.42872056929017</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -10038,22 +10038,22 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>113.4701664346265</v>
+        <v>108.4248399146351</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>111.0275964418365</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>100.4507135028367</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>113.3007639729418</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>116.2028931881174</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>25.69071929794391</v>
+        <v>147.3712384861942</v>
       </c>
       <c r="K29" t="n">
-        <v>179.2437313991894</v>
+        <v>124.3145353553903</v>
       </c>
       <c r="L29" t="n">
-        <v>185.0931916884159</v>
+        <v>173.1544193743531</v>
       </c>
       <c r="M29" t="n">
-        <v>173.9625086416845</v>
+        <v>13.2332585224987</v>
       </c>
       <c r="N29" t="n">
-        <v>172.1169913998387</v>
+        <v>11.17278928637293</v>
       </c>
       <c r="O29" t="n">
-        <v>175.9951551716172</v>
+        <v>163.2483033190052</v>
       </c>
       <c r="P29" t="n">
-        <v>185.0572889642801</v>
+        <v>26.73308025227749</v>
       </c>
       <c r="Q29" t="n">
-        <v>39.56686047185104</v>
+        <v>32.01480811363476</v>
       </c>
       <c r="R29" t="n">
-        <v>47.35195169012805</v>
+        <v>43.21738070863343</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>106.781226267507</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10199,19 +10199,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>88.3455259112734</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>76.12958231824479</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>92.0879322744794</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>112.8836134984376</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10278,16 +10278,16 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>111.0275964418365</v>
       </c>
       <c r="N31" t="n">
-        <v>105.6438149649264</v>
+        <v>100.4507135028367</v>
       </c>
       <c r="O31" t="n">
-        <v>118.0974337010099</v>
+        <v>113.3007639729418</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>116.2028931881174</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>71.65386202685161</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10512,7 +10512,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>13.46239780766773</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -10521,10 +10521,10 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>113.3007639729418</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>116.2028931881174</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10746,22 +10746,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>113.4701664346265</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>26.31244827777541</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>100.4507135028367</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>17.43804294311219</v>
+        <v>116.2028931881174</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>5.61940539315016</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10989,13 +10989,13 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>116.3471858501899</v>
+        <v>111.0275964418365</v>
       </c>
       <c r="N40" t="n">
-        <v>3.207356171188945</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>118.0974337010099</v>
+        <v>113.3007639729418</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>153.7922791635428</v>
+        <v>147.3712384861942</v>
       </c>
       <c r="K41" t="n">
-        <v>179.2437313991894</v>
+        <v>169.6202559069285</v>
       </c>
       <c r="L41" t="n">
-        <v>185.0931916884159</v>
+        <v>173.1544193743531</v>
       </c>
       <c r="M41" t="n">
-        <v>173.9625086416845</v>
+        <v>160.6783240871375</v>
       </c>
       <c r="N41" t="n">
-        <v>172.1169913998387</v>
+        <v>158.6178548510117</v>
       </c>
       <c r="O41" t="n">
-        <v>175.9951551716172</v>
+        <v>163.2483033190052</v>
       </c>
       <c r="P41" t="n">
-        <v>55.3589605100753</v>
+        <v>174.1781458169162</v>
       </c>
       <c r="Q41" t="n">
-        <v>57.9313286547057</v>
+        <v>150.7869272054845</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>76.12958231824479</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>2.698408047464127</v>
       </c>
       <c r="R42" t="n">
-        <v>39.18973509414832</v>
+        <v>22.31392601169036</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>4.227474920605987</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>113.4701664346265</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>116.3471858501899</v>
+        <v>0.8423909908630201</v>
       </c>
       <c r="N43" t="n">
-        <v>105.6438149649264</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>118.0974337010099</v>
+        <v>3.115558521968318</v>
       </c>
       <c r="P43" t="n">
-        <v>120.3072727907813</v>
+        <v>6.017687737143866</v>
       </c>
       <c r="Q43" t="n">
-        <v>9.74546183873975</v>
+        <v>26.41692515164208</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>153.7922791635428</v>
+        <v>37.18603303522067</v>
       </c>
       <c r="K44" t="n">
-        <v>179.2437313991894</v>
+        <v>169.6202559069285</v>
       </c>
       <c r="L44" t="n">
-        <v>55.3948632342108</v>
+        <v>173.1544193743531</v>
       </c>
       <c r="M44" t="n">
-        <v>173.9625086416845</v>
+        <v>160.6783240871375</v>
       </c>
       <c r="N44" t="n">
-        <v>172.1169913998387</v>
+        <v>48.43264940003817</v>
       </c>
       <c r="O44" t="n">
-        <v>175.9951551716172</v>
+        <v>163.2483033190052</v>
       </c>
       <c r="P44" t="n">
-        <v>185.0572889642801</v>
+        <v>174.1781458169162</v>
       </c>
       <c r="Q44" t="n">
-        <v>57.93132865470545</v>
+        <v>69.2746682273</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>106.781226267507</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>103.5618561557404</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>76.12958231824479</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>92.0879322744794</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>19.26205772185972</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>112.8836134984376</v>
       </c>
       <c r="R45" t="n">
-        <v>5.314018963494219</v>
+        <v>22.31392601169036</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>4.227474920605987</v>
       </c>
       <c r="K46" t="n">
-        <v>59.84709849749656</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>113.4701664346265</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>116.3471858501899</v>
+        <v>111.0275964418365</v>
       </c>
       <c r="N46" t="n">
-        <v>105.6438149649264</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>118.0974337010099</v>
+        <v>3.115558521968318</v>
       </c>
       <c r="P46" t="n">
-        <v>120.3072727907813</v>
+        <v>116.2028931881174</v>
       </c>
       <c r="Q46" t="n">
-        <v>9.745461838739494</v>
+        <v>26.41692515164208</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>216.2006580136132</v>
+        <v>222.0890172034018</v>
       </c>
       <c r="C11" t="n">
-        <v>198.7397081211402</v>
+        <v>204.6280673109287</v>
       </c>
       <c r="D11" t="n">
-        <v>188.1498579708156</v>
+        <v>194.0382171606041</v>
       </c>
       <c r="E11" t="n">
-        <v>215.3971864223944</v>
+        <v>221.285545612183</v>
       </c>
       <c r="F11" t="n">
-        <v>240.3428620918441</v>
+        <v>246.2312212816326</v>
       </c>
       <c r="G11" t="n">
-        <v>248.4484460390771</v>
+        <v>254.2611512053619</v>
       </c>
       <c r="H11" t="n">
-        <v>169.6530729409254</v>
+        <v>174.7666403625065</v>
       </c>
       <c r="I11" t="n">
-        <v>31.56319645132589</v>
+        <v>34.53490389998737</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>35.16964134705995</v>
+        <v>39.33403447625753</v>
       </c>
       <c r="T11" t="n">
-        <v>55.15701640511472</v>
+        <v>60.71420010701573</v>
       </c>
       <c r="U11" t="n">
-        <v>84.78678063187391</v>
+        <v>90.66908749978214</v>
       </c>
       <c r="V11" t="n">
-        <v>161.2190748202676</v>
+        <v>167.1074340100561</v>
       </c>
       <c r="W11" t="n">
-        <v>182.7077850675457</v>
+        <v>188.5961442573342</v>
       </c>
       <c r="X11" t="n">
-        <v>203.1979170286017</v>
+        <v>209.0862762183902</v>
       </c>
       <c r="Y11" t="n">
-        <v>219.7047550061862</v>
+        <v>225.5931141959748</v>
       </c>
     </row>
     <row r="12">
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>5.888359189788531</v>
       </c>
       <c r="C12" t="n">
-        <v>6.175315338448399</v>
+        <v>12.06367452823693</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23387,25 +23387,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>1.95873229902341</v>
+        <v>7.095221640721036</v>
       </c>
       <c r="T12" t="n">
-        <v>32.93903890861509</v>
+        <v>38.66424145368214</v>
       </c>
       <c r="U12" t="n">
-        <v>59.39689528415963</v>
+        <v>65.28259141663494</v>
       </c>
       <c r="V12" t="n">
-        <v>66.26740349955793</v>
+        <v>72.15576268934646</v>
       </c>
       <c r="W12" t="n">
-        <v>85.16179951105227</v>
+        <v>91.0501587008408</v>
       </c>
       <c r="X12" t="n">
-        <v>39.23980155361014</v>
+        <v>45.12816074339867</v>
       </c>
       <c r="Y12" t="n">
-        <v>39.14951212743702</v>
+        <v>45.03787131722555</v>
       </c>
     </row>
     <row r="13">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13.29879653206996</v>
+        <v>19.18715572185849</v>
       </c>
       <c r="C13" t="n">
-        <v>0.713637448760494</v>
+        <v>6.601996638549025</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.313757792294041</v>
+        <v>7.168181191621585</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>4.283739236331002</v>
+        <v>8.646221884118972</v>
       </c>
       <c r="S13" t="n">
-        <v>54.97322633672246</v>
+        <v>60.27017725093171</v>
       </c>
       <c r="T13" t="n">
-        <v>60.79697104514355</v>
+        <v>66.54033185750785</v>
       </c>
       <c r="U13" t="n">
-        <v>119.7779890930073</v>
+        <v>125.6644972396798</v>
       </c>
       <c r="V13" t="n">
-        <v>85.60445967396066</v>
+        <v>91.49281886374919</v>
       </c>
       <c r="W13" t="n">
-        <v>119.9898146867237</v>
+        <v>125.8781738765122</v>
       </c>
       <c r="X13" t="n">
-        <v>59.17647173916981</v>
+        <v>65.06483092895834</v>
       </c>
       <c r="Y13" t="n">
-        <v>52.05146970222745</v>
+        <v>57.93982889201598</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>216.2006580136132</v>
+        <v>222.0890172034018</v>
       </c>
       <c r="C14" t="n">
-        <v>198.7397081211402</v>
+        <v>204.6280673109287</v>
       </c>
       <c r="D14" t="n">
-        <v>188.1498579708156</v>
+        <v>194.0382171606041</v>
       </c>
       <c r="E14" t="n">
-        <v>215.3971864223944</v>
+        <v>221.285545612183</v>
       </c>
       <c r="F14" t="n">
-        <v>240.3428620918441</v>
+        <v>246.2312212816326</v>
       </c>
       <c r="G14" t="n">
-        <v>248.4484460390771</v>
+        <v>254.2611512053619</v>
       </c>
       <c r="H14" t="n">
-        <v>169.6530729409254</v>
+        <v>174.7666403625065</v>
       </c>
       <c r="I14" t="n">
-        <v>31.56319645132589</v>
+        <v>34.53490389998737</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>35.16964134705995</v>
+        <v>39.33403447625753</v>
       </c>
       <c r="T14" t="n">
-        <v>55.15701640511472</v>
+        <v>60.71420010701573</v>
       </c>
       <c r="U14" t="n">
-        <v>84.78678063187391</v>
+        <v>90.66908749978214</v>
       </c>
       <c r="V14" t="n">
-        <v>161.2190748202676</v>
+        <v>167.1074340100561</v>
       </c>
       <c r="W14" t="n">
-        <v>182.7077850675457</v>
+        <v>188.5961442573342</v>
       </c>
       <c r="X14" t="n">
-        <v>203.1979170286017</v>
+        <v>209.0862762183902</v>
       </c>
       <c r="Y14" t="n">
-        <v>219.7047550061862</v>
+        <v>225.5931141959748</v>
       </c>
     </row>
     <row r="15">
@@ -23573,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>5.888359189788531</v>
       </c>
       <c r="C15" t="n">
-        <v>6.175315338448399</v>
+        <v>12.06367452823693</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23624,25 +23624,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>1.95873229902341</v>
+        <v>7.095221640721036</v>
       </c>
       <c r="T15" t="n">
-        <v>32.93903890861509</v>
+        <v>38.66424145368214</v>
       </c>
       <c r="U15" t="n">
-        <v>59.39689528415963</v>
+        <v>65.28259141663494</v>
       </c>
       <c r="V15" t="n">
-        <v>66.26740349955793</v>
+        <v>72.15576268934646</v>
       </c>
       <c r="W15" t="n">
-        <v>85.16179951105227</v>
+        <v>91.0501587008408</v>
       </c>
       <c r="X15" t="n">
-        <v>39.23980155361014</v>
+        <v>45.12816074339867</v>
       </c>
       <c r="Y15" t="n">
-        <v>39.14951212743702</v>
+        <v>45.03787131722555</v>
       </c>
     </row>
     <row r="16">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13.29879653206996</v>
+        <v>19.18715572185849</v>
       </c>
       <c r="C16" t="n">
-        <v>0.713637448760494</v>
+        <v>6.601996638549025</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.313757792294041</v>
+        <v>7.168181191621585</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>4.283739236331002</v>
+        <v>8.646221884118972</v>
       </c>
       <c r="S16" t="n">
-        <v>54.97322633672246</v>
+        <v>60.27017725093171</v>
       </c>
       <c r="T16" t="n">
-        <v>60.79697104514355</v>
+        <v>66.54033185750785</v>
       </c>
       <c r="U16" t="n">
-        <v>119.7779890930073</v>
+        <v>125.6644972396798</v>
       </c>
       <c r="V16" t="n">
-        <v>85.60445967396066</v>
+        <v>91.49281886374919</v>
       </c>
       <c r="W16" t="n">
-        <v>119.9898146867237</v>
+        <v>125.8781738765122</v>
       </c>
       <c r="X16" t="n">
-        <v>59.17647173916981</v>
+        <v>65.06483092895834</v>
       </c>
       <c r="Y16" t="n">
-        <v>52.05146970222745</v>
+        <v>57.93982889201598</v>
       </c>
     </row>
     <row r="17">
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>164.1491883113858</v>
+        <v>182.7549827271442</v>
       </c>
       <c r="C17" t="n">
-        <v>146.6882384189128</v>
+        <v>165.2940328346712</v>
       </c>
       <c r="D17" t="n">
-        <v>136.0983882685882</v>
+        <v>154.7041826843466</v>
       </c>
       <c r="E17" t="n">
-        <v>163.345716720167</v>
+        <v>181.9515111359254</v>
       </c>
       <c r="F17" t="n">
-        <v>188.2913923896166</v>
+        <v>206.8971868053751</v>
       </c>
       <c r="G17" t="n">
-        <v>196.3969763368497</v>
+        <v>214.9271167291044</v>
       </c>
       <c r="H17" t="n">
-        <v>117.601603238698</v>
+        <v>135.432605886249</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>3.105546702887267</v>
+        <v>21.3801656307582</v>
       </c>
       <c r="U17" t="n">
-        <v>32.73531092964646</v>
+        <v>51.33505302352461</v>
       </c>
       <c r="V17" t="n">
-        <v>109.1676051180401</v>
+        <v>127.7733995337986</v>
       </c>
       <c r="W17" t="n">
-        <v>130.6563153653182</v>
+        <v>149.2621097810767</v>
       </c>
       <c r="X17" t="n">
-        <v>151.1464473263742</v>
+        <v>169.7522417421327</v>
       </c>
       <c r="Y17" t="n">
-        <v>167.6532853039588</v>
+        <v>186.2590797197172</v>
       </c>
     </row>
     <row r="18">
@@ -23867,19 +23867,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>7.345425581932176</v>
+        <v>25.94855694037742</v>
       </c>
       <c r="V18" t="n">
-        <v>14.21593379733048</v>
+        <v>32.82172821308893</v>
       </c>
       <c r="W18" t="n">
-        <v>33.11032980882482</v>
+        <v>51.71612422458327</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>5.794126267141138</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>5.703836840968023</v>
       </c>
     </row>
     <row r="19">
@@ -23940,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>2.921756634495011</v>
+        <v>20.93614277467418</v>
       </c>
       <c r="T19" t="n">
-        <v>8.7455013429161</v>
+        <v>27.20629738125032</v>
       </c>
       <c r="U19" t="n">
-        <v>67.72651939077986</v>
+        <v>86.33046276342225</v>
       </c>
       <c r="V19" t="n">
-        <v>33.55298997173321</v>
+        <v>52.15878438749166</v>
       </c>
       <c r="W19" t="n">
-        <v>67.93834498449621</v>
+        <v>86.54413940025466</v>
       </c>
       <c r="X19" t="n">
-        <v>7.125002036942362</v>
+        <v>25.73079645270082</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>18.60579441575845</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>164.1491883113858</v>
+        <v>182.7549827271442</v>
       </c>
       <c r="C20" t="n">
-        <v>146.6882384189128</v>
+        <v>165.2940328346712</v>
       </c>
       <c r="D20" t="n">
-        <v>136.0983882685882</v>
+        <v>154.7041826843466</v>
       </c>
       <c r="E20" t="n">
-        <v>163.345716720167</v>
+        <v>181.9515111359254</v>
       </c>
       <c r="F20" t="n">
-        <v>188.2913923896166</v>
+        <v>206.8971868053751</v>
       </c>
       <c r="G20" t="n">
-        <v>196.3969763368497</v>
+        <v>214.9271167291044</v>
       </c>
       <c r="H20" t="n">
-        <v>117.601603238698</v>
+        <v>135.432605886249</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>3.105546702887267</v>
+        <v>21.3801656307582</v>
       </c>
       <c r="U20" t="n">
-        <v>32.73531092964646</v>
+        <v>51.33505302352461</v>
       </c>
       <c r="V20" t="n">
-        <v>109.1676051180401</v>
+        <v>127.7733995337986</v>
       </c>
       <c r="W20" t="n">
-        <v>130.6563153653182</v>
+        <v>149.2621097810767</v>
       </c>
       <c r="X20" t="n">
-        <v>151.1464473263742</v>
+        <v>169.7522417421327</v>
       </c>
       <c r="Y20" t="n">
-        <v>167.6532853039588</v>
+        <v>186.2590797197172</v>
       </c>
     </row>
     <row r="21">
@@ -24104,19 +24104,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>7.345425581932176</v>
+        <v>25.94855694037742</v>
       </c>
       <c r="V21" t="n">
-        <v>14.21593379733048</v>
+        <v>32.82172821308893</v>
       </c>
       <c r="W21" t="n">
-        <v>33.11032980882482</v>
+        <v>51.71612422458327</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>5.794126267141138</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>5.703836840968023</v>
       </c>
     </row>
     <row r="22">
@@ -24177,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>2.921756634495011</v>
+        <v>20.93614277467418</v>
       </c>
       <c r="T22" t="n">
-        <v>8.7455013429161</v>
+        <v>27.20629738125032</v>
       </c>
       <c r="U22" t="n">
-        <v>67.72651939077986</v>
+        <v>86.33046276342225</v>
       </c>
       <c r="V22" t="n">
-        <v>33.55298997173321</v>
+        <v>52.15878438749166</v>
       </c>
       <c r="W22" t="n">
-        <v>67.93834498449621</v>
+        <v>86.54413940025466</v>
       </c>
       <c r="X22" t="n">
-        <v>7.125002036942362</v>
+        <v>25.73079645270082</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>18.60579441575845</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>164.1491883113858</v>
+        <v>182.7549827271442</v>
       </c>
       <c r="C23" t="n">
-        <v>146.6882384189128</v>
+        <v>165.2940328346712</v>
       </c>
       <c r="D23" t="n">
-        <v>136.0983882685882</v>
+        <v>154.7041826843466</v>
       </c>
       <c r="E23" t="n">
-        <v>163.345716720167</v>
+        <v>181.9515111359254</v>
       </c>
       <c r="F23" t="n">
-        <v>188.2913923896166</v>
+        <v>206.8971868053751</v>
       </c>
       <c r="G23" t="n">
-        <v>196.3969763368497</v>
+        <v>214.9271167291044</v>
       </c>
       <c r="H23" t="n">
-        <v>117.601603238698</v>
+        <v>135.432605886249</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>3.105546702887267</v>
+        <v>21.3801656307582</v>
       </c>
       <c r="U23" t="n">
-        <v>32.73531092964646</v>
+        <v>51.33505302352461</v>
       </c>
       <c r="V23" t="n">
-        <v>109.1676051180401</v>
+        <v>127.7733995337986</v>
       </c>
       <c r="W23" t="n">
-        <v>130.6563153653182</v>
+        <v>149.2621097810767</v>
       </c>
       <c r="X23" t="n">
-        <v>151.1464473263742</v>
+        <v>169.7522417421327</v>
       </c>
       <c r="Y23" t="n">
-        <v>167.6532853039588</v>
+        <v>186.2590797197172</v>
       </c>
     </row>
     <row r="24">
@@ -24341,19 +24341,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>7.345425581932176</v>
+        <v>25.94855694037742</v>
       </c>
       <c r="V24" t="n">
-        <v>14.21593379733048</v>
+        <v>32.82172821308893</v>
       </c>
       <c r="W24" t="n">
-        <v>33.11032980882482</v>
+        <v>51.71612422458327</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>5.794126267141138</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>5.703836840968023</v>
       </c>
     </row>
     <row r="25">
@@ -24414,25 +24414,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>2.921756634495011</v>
+        <v>20.93614277467418</v>
       </c>
       <c r="T25" t="n">
-        <v>8.7455013429161</v>
+        <v>27.20629738125032</v>
       </c>
       <c r="U25" t="n">
-        <v>67.72651939077986</v>
+        <v>86.33046276342225</v>
       </c>
       <c r="V25" t="n">
-        <v>33.55298997173321</v>
+        <v>52.15878438749166</v>
       </c>
       <c r="W25" t="n">
-        <v>67.93834498449621</v>
+        <v>86.54413940025466</v>
       </c>
       <c r="X25" t="n">
-        <v>7.125002036942362</v>
+        <v>25.73079645270082</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>18.60579441575845</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>234.6710450264208</v>
+        <v>235.2887760988418</v>
       </c>
       <c r="C26" t="n">
-        <v>217.2100951339478</v>
+        <v>217.8278262063688</v>
       </c>
       <c r="D26" t="n">
-        <v>206.6202449836232</v>
+        <v>207.2379760560442</v>
       </c>
       <c r="E26" t="n">
-        <v>233.867573435202</v>
+        <v>234.485304507623</v>
       </c>
       <c r="F26" t="n">
-        <v>258.8132491046517</v>
+        <v>259.4309801770727</v>
       </c>
       <c r="G26" t="n">
-        <v>266.9188330518847</v>
+        <v>267.460910100802</v>
       </c>
       <c r="H26" t="n">
-        <v>188.123459953733</v>
+        <v>187.9663992579466</v>
       </c>
       <c r="I26" t="n">
-        <v>50.03358346413347</v>
+        <v>47.73466279542743</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>53.64002835986753</v>
+        <v>52.53379337169758</v>
       </c>
       <c r="T26" t="n">
-        <v>73.6274034179223</v>
+        <v>73.91395900245578</v>
       </c>
       <c r="U26" t="n">
-        <v>103.2571676446815</v>
+        <v>103.8688463952222</v>
       </c>
       <c r="V26" t="n">
-        <v>179.6894618330751</v>
+        <v>180.3071929054962</v>
       </c>
       <c r="W26" t="n">
-        <v>201.1781720803532</v>
+        <v>201.7959031527743</v>
       </c>
       <c r="X26" t="n">
-        <v>221.6683040414093</v>
+        <v>222.2860351138303</v>
       </c>
       <c r="Y26" t="n">
-        <v>238.1751420189938</v>
+        <v>238.7928730914148</v>
       </c>
     </row>
     <row r="27">
@@ -24521,16 +24521,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>18.47038701280758</v>
+        <v>19.08811808522859</v>
       </c>
       <c r="C27" t="n">
-        <v>24.64570235125598</v>
+        <v>25.26343342367699</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>9.582283818341182</v>
+        <v>10.20001489076219</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -24572,25 +24572,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>20.42911931183099</v>
+        <v>20.29498053616109</v>
       </c>
       <c r="T27" t="n">
-        <v>51.40942592142267</v>
+        <v>51.86400034912219</v>
       </c>
       <c r="U27" t="n">
-        <v>77.8672822969672</v>
+        <v>78.482350312075</v>
       </c>
       <c r="V27" t="n">
-        <v>84.73779051236551</v>
+        <v>85.35552158478652</v>
       </c>
       <c r="W27" t="n">
-        <v>103.6321865238598</v>
+        <v>104.2499175962809</v>
       </c>
       <c r="X27" t="n">
-        <v>57.71018856641771</v>
+        <v>58.32791963883872</v>
       </c>
       <c r="Y27" t="n">
-        <v>57.6198991402446</v>
+        <v>58.23763021266561</v>
       </c>
     </row>
     <row r="28">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.76918354487754</v>
+        <v>32.38691461729854</v>
       </c>
       <c r="C28" t="n">
-        <v>19.18402446156807</v>
+        <v>19.80175553398908</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5526763811525939</v>
+        <v>1.170407453573603</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>19.78414480510162</v>
+        <v>20.36794008706164</v>
       </c>
       <c r="H28" t="n">
-        <v>12.88374785093586</v>
+        <v>13.19975889544006</v>
       </c>
       <c r="I28" t="n">
-        <v>3.056065316455602</v>
+        <v>2.653254617558787</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>22.75412624913858</v>
+        <v>21.84598077955903</v>
       </c>
       <c r="S28" t="n">
-        <v>73.44361334953004</v>
+        <v>73.46993614637177</v>
       </c>
       <c r="T28" t="n">
-        <v>79.26735805795113</v>
+        <v>79.74009075294791</v>
       </c>
       <c r="U28" t="n">
-        <v>138.2483761058149</v>
+        <v>138.8642561351198</v>
       </c>
       <c r="V28" t="n">
-        <v>104.0748466867682</v>
+        <v>104.6925777591892</v>
       </c>
       <c r="W28" t="n">
-        <v>138.4602016995312</v>
+        <v>139.0779327719522</v>
       </c>
       <c r="X28" t="n">
-        <v>77.64685875197739</v>
+        <v>78.2645898243984</v>
       </c>
       <c r="Y28" t="n">
-        <v>70.52185671503503</v>
+        <v>71.13958778745604</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>234.6710450264211</v>
+        <v>235.2887760988418</v>
       </c>
       <c r="C29" t="n">
-        <v>217.210095133948</v>
+        <v>217.8278262063688</v>
       </c>
       <c r="D29" t="n">
-        <v>206.6202449836235</v>
+        <v>207.2379760560442</v>
       </c>
       <c r="E29" t="n">
-        <v>233.8675734352023</v>
+        <v>234.485304507623</v>
       </c>
       <c r="F29" t="n">
-        <v>258.813249104652</v>
+        <v>259.4309801770727</v>
       </c>
       <c r="G29" t="n">
-        <v>266.9188330518849</v>
+        <v>267.460910100802</v>
       </c>
       <c r="H29" t="n">
-        <v>188.1234599537333</v>
+        <v>187.9663992579466</v>
       </c>
       <c r="I29" t="n">
-        <v>50.03358346413373</v>
+        <v>47.73466279542743</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>53.64002835986778</v>
+        <v>52.53379337169758</v>
       </c>
       <c r="T29" t="n">
-        <v>73.62740341792255</v>
+        <v>73.91395900245578</v>
       </c>
       <c r="U29" t="n">
-        <v>103.2571676446817</v>
+        <v>103.8688463952222</v>
       </c>
       <c r="V29" t="n">
-        <v>179.6894618330754</v>
+        <v>180.3071929054962</v>
       </c>
       <c r="W29" t="n">
-        <v>201.1781720803535</v>
+        <v>201.7959031527743</v>
       </c>
       <c r="X29" t="n">
-        <v>221.6683040414095</v>
+        <v>222.2860351138303</v>
       </c>
       <c r="Y29" t="n">
-        <v>238.1751420189941</v>
+        <v>238.7928730914148</v>
       </c>
     </row>
     <row r="30">
@@ -24758,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>18.47038701280783</v>
+        <v>19.08811808522859</v>
       </c>
       <c r="C30" t="n">
-        <v>24.64570235125623</v>
+        <v>25.26343342367699</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>9.582283818341438</v>
+        <v>10.20001489076219</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -24809,25 +24809,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>20.42911931183124</v>
+        <v>20.29498053616109</v>
       </c>
       <c r="T30" t="n">
-        <v>51.40942592142292</v>
+        <v>51.86400034912219</v>
       </c>
       <c r="U30" t="n">
-        <v>77.86728229696746</v>
+        <v>78.482350312075</v>
       </c>
       <c r="V30" t="n">
-        <v>84.73779051236576</v>
+        <v>85.35552158478652</v>
       </c>
       <c r="W30" t="n">
-        <v>103.6321865238601</v>
+        <v>104.2499175962809</v>
       </c>
       <c r="X30" t="n">
-        <v>57.71018856641797</v>
+        <v>58.32791963883872</v>
       </c>
       <c r="Y30" t="n">
-        <v>57.61989914024485</v>
+        <v>58.23763021266561</v>
       </c>
     </row>
     <row r="31">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.76918354487779</v>
+        <v>32.38691461729854</v>
       </c>
       <c r="C31" t="n">
-        <v>19.18402446156833</v>
+        <v>19.80175553398908</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5526763811528497</v>
+        <v>1.170407453573603</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>19.78414480510187</v>
+        <v>20.36794008706164</v>
       </c>
       <c r="H31" t="n">
-        <v>12.88374785093612</v>
+        <v>13.19975889544006</v>
       </c>
       <c r="I31" t="n">
-        <v>3.056065316455857</v>
+        <v>2.653254617558787</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>22.75412624913884</v>
+        <v>21.84598077955903</v>
       </c>
       <c r="S31" t="n">
-        <v>73.4436133495303</v>
+        <v>73.46993614637177</v>
       </c>
       <c r="T31" t="n">
-        <v>79.26735805795138</v>
+        <v>79.74009075294791</v>
       </c>
       <c r="U31" t="n">
-        <v>138.2483761058151</v>
+        <v>138.8642561351198</v>
       </c>
       <c r="V31" t="n">
-        <v>104.0748466867685</v>
+        <v>104.6925777591892</v>
       </c>
       <c r="W31" t="n">
-        <v>138.4602016995315</v>
+        <v>139.0779327719522</v>
       </c>
       <c r="X31" t="n">
-        <v>77.64685875197765</v>
+        <v>78.2645898243984</v>
       </c>
       <c r="Y31" t="n">
-        <v>70.52185671503528</v>
+        <v>71.13958778745604</v>
       </c>
     </row>
     <row r="32">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>157.0241862744434</v>
+        <v>164.4376051241258</v>
       </c>
       <c r="C32" t="n">
-        <v>139.5632363819704</v>
+        <v>146.9766552316528</v>
       </c>
       <c r="D32" t="n">
-        <v>128.9733862316458</v>
+        <v>136.3868050813282</v>
       </c>
       <c r="E32" t="n">
-        <v>156.2207146832246</v>
+        <v>163.634133532907</v>
       </c>
       <c r="F32" t="n">
-        <v>181.1663903526743</v>
+        <v>188.5798092023567</v>
       </c>
       <c r="G32" t="n">
-        <v>189.2719742999073</v>
+        <v>196.609739126086</v>
       </c>
       <c r="H32" t="n">
-        <v>110.4766012017556</v>
+        <v>117.1152282832306</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>3.062788027739799</v>
       </c>
       <c r="U32" t="n">
-        <v>25.6103088927041</v>
+        <v>33.01767542050621</v>
       </c>
       <c r="V32" t="n">
-        <v>102.0426030810978</v>
+        <v>109.4560219307802</v>
       </c>
       <c r="W32" t="n">
-        <v>123.5313133283759</v>
+        <v>130.9447321780583</v>
       </c>
       <c r="X32" t="n">
-        <v>144.0214452894319</v>
+        <v>151.4348641391143</v>
       </c>
       <c r="Y32" t="n">
-        <v>160.5282832670164</v>
+        <v>167.9417021166988</v>
       </c>
     </row>
     <row r="33">
@@ -25052,13 +25052,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0.2204235449898135</v>
+        <v>7.631179337359015</v>
       </c>
       <c r="V33" t="n">
-        <v>7.090931760388116</v>
+        <v>14.50435061007053</v>
       </c>
       <c r="W33" t="n">
-        <v>25.98532777188245</v>
+        <v>33.39874662156487</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>2.618765171655781</v>
       </c>
       <c r="T34" t="n">
-        <v>1.620499305973738</v>
+        <v>8.888919778231923</v>
       </c>
       <c r="U34" t="n">
-        <v>60.60151735383749</v>
+        <v>68.01308516040385</v>
       </c>
       <c r="V34" t="n">
-        <v>26.42798793479085</v>
+        <v>33.84140678447326</v>
       </c>
       <c r="W34" t="n">
-        <v>60.81334294755385</v>
+        <v>68.22676179723626</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>7.413418849682415</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>0.2884168127400528</v>
       </c>
     </row>
     <row r="35">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>157.0241862744434</v>
+        <v>164.4376051241258</v>
       </c>
       <c r="C35" t="n">
-        <v>139.5632363819704</v>
+        <v>146.9766552316528</v>
       </c>
       <c r="D35" t="n">
-        <v>128.9733862316458</v>
+        <v>136.3868050813282</v>
       </c>
       <c r="E35" t="n">
-        <v>156.2207146832246</v>
+        <v>163.634133532907</v>
       </c>
       <c r="F35" t="n">
-        <v>181.1663903526743</v>
+        <v>188.5798092023567</v>
       </c>
       <c r="G35" t="n">
-        <v>189.2719742999073</v>
+        <v>196.609739126086</v>
       </c>
       <c r="H35" t="n">
-        <v>110.4766012017556</v>
+        <v>117.1152282832306</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>3.062788027739799</v>
       </c>
       <c r="U35" t="n">
-        <v>25.6103088927041</v>
+        <v>33.01767542050621</v>
       </c>
       <c r="V35" t="n">
-        <v>102.0426030810978</v>
+        <v>109.4560219307802</v>
       </c>
       <c r="W35" t="n">
-        <v>123.5313133283759</v>
+        <v>130.9447321780583</v>
       </c>
       <c r="X35" t="n">
-        <v>144.0214452894319</v>
+        <v>151.4348641391143</v>
       </c>
       <c r="Y35" t="n">
-        <v>160.5282832670164</v>
+        <v>167.9417021166988</v>
       </c>
     </row>
     <row r="36">
@@ -25289,13 +25289,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0.2204235449898135</v>
+        <v>7.631179337359015</v>
       </c>
       <c r="V36" t="n">
-        <v>7.090931760388116</v>
+        <v>14.50435061007053</v>
       </c>
       <c r="W36" t="n">
-        <v>25.98532777188245</v>
+        <v>33.39874662156487</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>2.618765171655781</v>
       </c>
       <c r="T37" t="n">
-        <v>1.620499305973738</v>
+        <v>8.888919778231923</v>
       </c>
       <c r="U37" t="n">
-        <v>60.60151735383749</v>
+        <v>68.01308516040385</v>
       </c>
       <c r="V37" t="n">
-        <v>26.42798793479085</v>
+        <v>33.84140678447326</v>
       </c>
       <c r="W37" t="n">
-        <v>60.81334294755385</v>
+        <v>68.22676179723626</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>7.413418849682415</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>0.2884168127400528</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>157.0241862744434</v>
+        <v>164.4376051241258</v>
       </c>
       <c r="C38" t="n">
-        <v>139.5632363819704</v>
+        <v>146.9766552316528</v>
       </c>
       <c r="D38" t="n">
-        <v>128.9733862316458</v>
+        <v>136.3868050813282</v>
       </c>
       <c r="E38" t="n">
-        <v>156.2207146832246</v>
+        <v>163.634133532907</v>
       </c>
       <c r="F38" t="n">
-        <v>181.1663903526743</v>
+        <v>188.5798092023567</v>
       </c>
       <c r="G38" t="n">
-        <v>189.2719742999073</v>
+        <v>196.609739126086</v>
       </c>
       <c r="H38" t="n">
-        <v>110.4766012017556</v>
+        <v>117.1152282832306</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>3.062788027739799</v>
       </c>
       <c r="U38" t="n">
-        <v>25.6103088927041</v>
+        <v>33.01767542050621</v>
       </c>
       <c r="V38" t="n">
-        <v>102.0426030810978</v>
+        <v>109.4560219307802</v>
       </c>
       <c r="W38" t="n">
-        <v>123.5313133283759</v>
+        <v>130.9447321780583</v>
       </c>
       <c r="X38" t="n">
-        <v>144.0214452894319</v>
+        <v>151.4348641391143</v>
       </c>
       <c r="Y38" t="n">
-        <v>160.5282832670164</v>
+        <v>167.9417021166988</v>
       </c>
     </row>
     <row r="39">
@@ -25526,13 +25526,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0.2204235449898135</v>
+        <v>7.631179337359015</v>
       </c>
       <c r="V39" t="n">
-        <v>7.090931760388116</v>
+        <v>14.50435061007053</v>
       </c>
       <c r="W39" t="n">
-        <v>25.98532777188245</v>
+        <v>33.39874662156487</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>2.618765171655781</v>
       </c>
       <c r="T40" t="n">
-        <v>1.620499305973738</v>
+        <v>8.888919778231923</v>
       </c>
       <c r="U40" t="n">
-        <v>60.60151735383749</v>
+        <v>68.01308516040385</v>
       </c>
       <c r="V40" t="n">
-        <v>26.42798793479085</v>
+        <v>33.84140678447326</v>
       </c>
       <c r="W40" t="n">
-        <v>60.81334294755385</v>
+        <v>68.22676179723626</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>7.413418849682415</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>0.2884168127400528</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>253.0355132092757</v>
+        <v>272.5486362125071</v>
       </c>
       <c r="C41" t="n">
-        <v>235.5745633168027</v>
+        <v>255.087686320034</v>
       </c>
       <c r="D41" t="n">
-        <v>224.9847131664781</v>
+        <v>244.4978361697094</v>
       </c>
       <c r="E41" t="n">
-        <v>252.2320416180569</v>
+        <v>271.7451646212883</v>
       </c>
       <c r="F41" t="n">
-        <v>277.1777172875066</v>
+        <v>296.6908402907379</v>
       </c>
       <c r="G41" t="n">
-        <v>285.2833012347396</v>
+        <v>304.7207702144672</v>
       </c>
       <c r="H41" t="n">
-        <v>206.4879281365879</v>
+        <v>225.2262593716118</v>
       </c>
       <c r="I41" t="n">
-        <v>68.39805164698839</v>
+        <v>84.99452290909267</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>14.76082094931623</v>
       </c>
       <c r="S41" t="n">
-        <v>72.00449654272245</v>
+        <v>89.79365348536282</v>
       </c>
       <c r="T41" t="n">
-        <v>91.99187160077722</v>
+        <v>111.173819116121</v>
       </c>
       <c r="U41" t="n">
-        <v>121.6216358275364</v>
+        <v>141.1287065088874</v>
       </c>
       <c r="V41" t="n">
-        <v>198.0539300159301</v>
+        <v>217.5670530191614</v>
       </c>
       <c r="W41" t="n">
-        <v>219.5426402632082</v>
+        <v>239.0557632664395</v>
       </c>
       <c r="X41" t="n">
-        <v>240.0327722242642</v>
+        <v>259.5458952274955</v>
       </c>
       <c r="Y41" t="n">
-        <v>256.5396102018487</v>
+        <v>276.0527332050801</v>
       </c>
     </row>
     <row r="42">
@@ -25706,22 +25706,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>36.8348551956625</v>
+        <v>56.34797819889383</v>
       </c>
       <c r="C42" t="n">
-        <v>43.0101705341109</v>
+        <v>62.52329353734223</v>
       </c>
       <c r="D42" t="n">
-        <v>17.74673711043391</v>
+        <v>37.25986011366524</v>
       </c>
       <c r="E42" t="n">
-        <v>27.9467520011961</v>
+        <v>47.45987500442743</v>
       </c>
       <c r="F42" t="n">
-        <v>15.37088393917904</v>
+        <v>34.88400694241037</v>
       </c>
       <c r="G42" t="n">
-        <v>7.473380875398249</v>
+        <v>26.94602540746908</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25757,25 +25757,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>38.79358749468591</v>
+        <v>57.55484064982633</v>
       </c>
       <c r="T42" t="n">
-        <v>69.77389410427759</v>
+        <v>89.12386046278743</v>
       </c>
       <c r="U42" t="n">
-        <v>96.23175047982213</v>
+        <v>115.7422104257402</v>
       </c>
       <c r="V42" t="n">
-        <v>103.1022586952204</v>
+        <v>122.6153816984518</v>
       </c>
       <c r="W42" t="n">
-        <v>121.9966547067148</v>
+        <v>141.5097777099461</v>
       </c>
       <c r="X42" t="n">
-        <v>76.07465674927263</v>
+        <v>95.58777975250396</v>
       </c>
       <c r="Y42" t="n">
-        <v>75.98436732309952</v>
+        <v>95.49749032633085</v>
       </c>
     </row>
     <row r="43">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>50.13365172773246</v>
+        <v>69.64677473096378</v>
       </c>
       <c r="C43" t="n">
-        <v>37.54849264442299</v>
+        <v>57.06161564765432</v>
       </c>
       <c r="D43" t="n">
-        <v>18.91714456400751</v>
+        <v>38.43026756723884</v>
       </c>
       <c r="E43" t="n">
-        <v>16.73563419236433</v>
+        <v>36.24875719559566</v>
       </c>
       <c r="F43" t="n">
-        <v>15.7227195687264</v>
+        <v>35.23584257195773</v>
       </c>
       <c r="G43" t="n">
-        <v>38.14861298795654</v>
+        <v>57.62780020072688</v>
       </c>
       <c r="H43" t="n">
-        <v>31.24821603379078</v>
+        <v>50.4596190091053</v>
       </c>
       <c r="I43" t="n">
-        <v>21.42053349931052</v>
+        <v>39.91311473122403</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.1185944319935</v>
+        <v>59.10584089322427</v>
       </c>
       <c r="S43" t="n">
-        <v>91.80808153238496</v>
+        <v>110.729796260037</v>
       </c>
       <c r="T43" t="n">
-        <v>97.63182624080605</v>
+        <v>116.9999508666131</v>
       </c>
       <c r="U43" t="n">
-        <v>156.6128442886698</v>
+        <v>176.1241162487851</v>
       </c>
       <c r="V43" t="n">
-        <v>122.4393148696232</v>
+        <v>141.9524378728545</v>
       </c>
       <c r="W43" t="n">
-        <v>156.8246698823862</v>
+        <v>176.3377928856175</v>
       </c>
       <c r="X43" t="n">
-        <v>96.01132693483231</v>
+        <v>115.5244499380636</v>
       </c>
       <c r="Y43" t="n">
-        <v>88.88632489788995</v>
+        <v>108.3994479011213</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>253.0355132092755</v>
+        <v>272.5486362125071</v>
       </c>
       <c r="C44" t="n">
-        <v>235.5745633168025</v>
+        <v>255.087686320034</v>
       </c>
       <c r="D44" t="n">
-        <v>224.9847131664779</v>
+        <v>244.4978361697094</v>
       </c>
       <c r="E44" t="n">
-        <v>252.2320416180567</v>
+        <v>271.7451646212883</v>
       </c>
       <c r="F44" t="n">
-        <v>277.1777172875063</v>
+        <v>296.6908402907379</v>
       </c>
       <c r="G44" t="n">
-        <v>285.2833012347394</v>
+        <v>304.7207702144672</v>
       </c>
       <c r="H44" t="n">
-        <v>206.4879281365877</v>
+        <v>225.2262593716118</v>
       </c>
       <c r="I44" t="n">
-        <v>68.39805164698814</v>
+        <v>84.99452290909267</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>14.76082094931623</v>
       </c>
       <c r="S44" t="n">
-        <v>72.00449654272219</v>
+        <v>89.79365348536282</v>
       </c>
       <c r="T44" t="n">
-        <v>91.99187160077696</v>
+        <v>111.173819116121</v>
       </c>
       <c r="U44" t="n">
-        <v>121.6216358275362</v>
+        <v>141.1287065088874</v>
       </c>
       <c r="V44" t="n">
-        <v>198.0539300159298</v>
+        <v>217.5670530191614</v>
       </c>
       <c r="W44" t="n">
-        <v>219.5426402632079</v>
+        <v>239.0557632664395</v>
       </c>
       <c r="X44" t="n">
-        <v>240.0327722242639</v>
+        <v>259.5458952274955</v>
       </c>
       <c r="Y44" t="n">
-        <v>256.5396102018485</v>
+        <v>276.0527332050801</v>
       </c>
     </row>
     <row r="45">
@@ -25943,22 +25943,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>36.83485519566224</v>
+        <v>56.34797819889383</v>
       </c>
       <c r="C45" t="n">
-        <v>43.01017053411064</v>
+        <v>62.52329353734223</v>
       </c>
       <c r="D45" t="n">
-        <v>17.74673711043366</v>
+        <v>37.25986011366524</v>
       </c>
       <c r="E45" t="n">
-        <v>27.94675200119585</v>
+        <v>47.45987500442743</v>
       </c>
       <c r="F45" t="n">
-        <v>15.37088393917878</v>
+        <v>34.88400694241037</v>
       </c>
       <c r="G45" t="n">
-        <v>7.473380875397993</v>
+        <v>26.94602540746908</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -25994,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>38.79358749468565</v>
+        <v>57.55484064982633</v>
       </c>
       <c r="T45" t="n">
-        <v>69.77389410427733</v>
+        <v>89.12386046278743</v>
       </c>
       <c r="U45" t="n">
-        <v>96.23175047982187</v>
+        <v>115.7422104257402</v>
       </c>
       <c r="V45" t="n">
-        <v>103.1022586952202</v>
+        <v>122.6153816984518</v>
       </c>
       <c r="W45" t="n">
-        <v>121.9966547067145</v>
+        <v>141.5097777099461</v>
       </c>
       <c r="X45" t="n">
-        <v>76.07465674927238</v>
+        <v>95.58777975250396</v>
       </c>
       <c r="Y45" t="n">
-        <v>75.98436732309926</v>
+        <v>95.49749032633085</v>
       </c>
     </row>
     <row r="46">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>50.1336517277322</v>
+        <v>69.64677473096378</v>
       </c>
       <c r="C46" t="n">
-        <v>37.54849264442274</v>
+        <v>57.06161564765432</v>
       </c>
       <c r="D46" t="n">
-        <v>18.91714456400726</v>
+        <v>38.43026756723884</v>
       </c>
       <c r="E46" t="n">
-        <v>16.73563419236407</v>
+        <v>36.24875719559566</v>
       </c>
       <c r="F46" t="n">
-        <v>15.72271956872615</v>
+        <v>35.23584257195773</v>
       </c>
       <c r="G46" t="n">
-        <v>38.14861298795628</v>
+        <v>57.62780020072688</v>
       </c>
       <c r="H46" t="n">
-        <v>31.24821603379053</v>
+        <v>50.4596190091053</v>
       </c>
       <c r="I46" t="n">
-        <v>21.42053349931027</v>
+        <v>39.91311473122403</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.11859443199324</v>
+        <v>59.10584089322427</v>
       </c>
       <c r="S46" t="n">
-        <v>91.8080815323847</v>
+        <v>110.729796260037</v>
       </c>
       <c r="T46" t="n">
-        <v>97.63182624080579</v>
+        <v>116.9999508666131</v>
       </c>
       <c r="U46" t="n">
-        <v>156.6128442886695</v>
+        <v>176.1241162487851</v>
       </c>
       <c r="V46" t="n">
-        <v>122.4393148696229</v>
+        <v>141.9524378728545</v>
       </c>
       <c r="W46" t="n">
-        <v>156.8246698823859</v>
+        <v>176.3377928856175</v>
       </c>
       <c r="X46" t="n">
-        <v>96.01132693483206</v>
+        <v>115.5244499380636</v>
       </c>
       <c r="Y46" t="n">
-        <v>88.88632489788969</v>
+        <v>108.3994479011213</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>500332.9073846068</v>
+        <v>489335.929608557</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>500332.9073846068</v>
+        <v>489335.929608557</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>519243.5524378399</v>
+        <v>510113.4180733787</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>519243.5524378399</v>
+        <v>510113.4180733787</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>519243.5524378399</v>
+        <v>510113.4180733787</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>484870.2056997883</v>
+        <v>477917.3432952687</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>484870.2056997883</v>
+        <v>477917.3432952687</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>518976.6347923632</v>
+        <v>512189.6080536132</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>518976.6347923632</v>
+        <v>512189.6080536132</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>518976.6347923632</v>
+        <v>512189.6080536132</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>464266.4379795204</v>
+        <v>433337.1846781636</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>464266.4379795209</v>
+        <v>433337.1846781636</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>819276.3387170382</v>
+        <v>819276.3387170383</v>
       </c>
       <c r="C2" t="n">
-        <v>819276.3387170384</v>
+        <v>819276.3387170385</v>
       </c>
       <c r="D2" t="n">
         <v>819276.3387170384</v>
       </c>
       <c r="E2" t="n">
-        <v>598255.1480428008</v>
+        <v>587980.9181905718</v>
       </c>
       <c r="F2" t="n">
-        <v>598255.1480428007</v>
+        <v>587980.9181905721</v>
       </c>
       <c r="G2" t="n">
-        <v>678331.3807493724</v>
+        <v>653210.5304576445</v>
       </c>
       <c r="H2" t="n">
-        <v>678331.3807493728</v>
+        <v>653210.5304576447</v>
       </c>
       <c r="I2" t="n">
-        <v>678331.3807493724</v>
+        <v>653210.5304576446</v>
       </c>
       <c r="J2" t="n">
-        <v>563474.9155109781</v>
+        <v>562857.5989919541</v>
       </c>
       <c r="K2" t="n">
-        <v>563474.9155109774</v>
+        <v>562857.598991954</v>
       </c>
       <c r="L2" t="n">
-        <v>687215.8068753701</v>
+        <v>678060.1563054433</v>
       </c>
       <c r="M2" t="n">
-        <v>687215.8068753702</v>
+        <v>678060.1563054431</v>
       </c>
       <c r="N2" t="n">
-        <v>687215.8068753701</v>
+        <v>678060.1563054431</v>
       </c>
       <c r="O2" t="n">
-        <v>525090.6857097923</v>
+        <v>482959.8291474105</v>
       </c>
       <c r="P2" t="n">
-        <v>525090.6857097927</v>
+        <v>482959.8291474106</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>197398.820902537</v>
+        <v>207807.3250751392</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>41641.17576178196</v>
+        <v>31467.22758100602</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76809.06154786584</v>
+        <v>86488.82487070498</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>103758.6627633641</v>
+        <v>88148.16436077881</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>318090.3546661024</v>
+        <v>305377.8261052279</v>
       </c>
       <c r="F4" t="n">
-        <v>318090.3546661024</v>
+        <v>305377.8261052279</v>
       </c>
       <c r="G4" t="n">
-        <v>360224.8372325635</v>
+        <v>340166.5483188682</v>
       </c>
       <c r="H4" t="n">
-        <v>360224.8372325635</v>
+        <v>340166.5483188682</v>
       </c>
       <c r="I4" t="n">
-        <v>360224.8372325635</v>
+        <v>340166.5483188682</v>
       </c>
       <c r="J4" t="n">
-        <v>299160.6834723003</v>
+        <v>291682.4546377222</v>
       </c>
       <c r="K4" t="n">
-        <v>299160.6834723</v>
+        <v>291682.4546377222</v>
       </c>
       <c r="L4" t="n">
-        <v>364694.4198985522</v>
+        <v>352912.851702951</v>
       </c>
       <c r="M4" t="n">
-        <v>364694.4198985523</v>
+        <v>352912.851702951</v>
       </c>
       <c r="N4" t="n">
-        <v>364694.4198985523</v>
+        <v>352912.851702951</v>
       </c>
       <c r="O4" t="n">
-        <v>277962.4115973038</v>
+        <v>247410.8060587288</v>
       </c>
       <c r="P4" t="n">
-        <v>277962.4115973042</v>
+        <v>247410.8060587288</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>15741.56568073571</v>
+        <v>15656.79006796416</v>
       </c>
       <c r="F5" t="n">
-        <v>15741.56568073571</v>
+        <v>15656.79006796416</v>
       </c>
       <c r="G5" t="n">
-        <v>20117.48068713227</v>
+        <v>18963.56301234866</v>
       </c>
       <c r="H5" t="n">
-        <v>20117.48068713227</v>
+        <v>18963.56301234866</v>
       </c>
       <c r="I5" t="n">
-        <v>20117.48068713227</v>
+        <v>18963.56301234866</v>
       </c>
       <c r="J5" t="n">
-        <v>14188.77871495599</v>
+        <v>14547.09953738341</v>
       </c>
       <c r="K5" t="n">
-        <v>14188.77871495597</v>
+        <v>14547.09953738341</v>
       </c>
       <c r="L5" t="n">
-        <v>20716.47248337598</v>
+        <v>20503.48663005681</v>
       </c>
       <c r="M5" t="n">
-        <v>20716.47248337598</v>
+        <v>20503.48663005681</v>
       </c>
       <c r="N5" t="n">
-        <v>20716.47248337598</v>
+        <v>20503.48663005681</v>
       </c>
       <c r="O5" t="n">
-        <v>12644.89623929156</v>
+        <v>11414.70035748769</v>
       </c>
       <c r="P5" t="n">
-        <v>12644.89623929158</v>
+        <v>11414.70035748769</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>317988.6430066258</v>
+        <v>318028.3652074389</v>
       </c>
       <c r="C6" t="n">
-        <v>317988.6430066261</v>
+        <v>318028.3652074392</v>
       </c>
       <c r="D6" t="n">
-        <v>317988.6430066261</v>
+        <v>318028.3652074391</v>
       </c>
       <c r="E6" t="n">
-        <v>61454.74124788859</v>
+        <v>58556.32481305623</v>
       </c>
       <c r="F6" t="n">
-        <v>258853.5621504255</v>
+        <v>266363.6498881957</v>
       </c>
       <c r="G6" t="n">
-        <v>252780.1273400219</v>
+        <v>262193.613446905</v>
       </c>
       <c r="H6" t="n">
-        <v>294421.3031018042</v>
+        <v>293660.8410279113</v>
       </c>
       <c r="I6" t="n">
-        <v>294421.3031018038</v>
+        <v>293660.8410279112</v>
       </c>
       <c r="J6" t="n">
-        <v>166877.2204170233</v>
+        <v>169493.7595189627</v>
       </c>
       <c r="K6" t="n">
-        <v>243686.281964889</v>
+        <v>255982.5843896675</v>
       </c>
       <c r="L6" t="n">
-        <v>194700.602655355</v>
+        <v>216138.1995777595</v>
       </c>
       <c r="M6" t="n">
-        <v>298459.2654187191</v>
+        <v>304286.3639385382</v>
       </c>
       <c r="N6" t="n">
-        <v>298459.265418719</v>
+        <v>304286.3639385382</v>
       </c>
       <c r="O6" t="n">
-        <v>227084.6007693346</v>
+        <v>223289.1178794018</v>
       </c>
       <c r="P6" t="n">
-        <v>227084.6007693346</v>
+        <v>223289.1178794019</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="F2" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="G2" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="H2" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="I2" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="J2" t="n">
-        <v>148.0627966370598</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="K2" t="n">
-        <v>148.0627966370595</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="L2" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="M2" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="N2" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="O2" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="P2" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
     </row>
     <row r="3">
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>79.87557176490895</v>
+        <v>98.69451011145858</v>
       </c>
       <c r="F3" t="n">
-        <v>79.87557176490895</v>
+        <v>98.69451011145858</v>
       </c>
       <c r="G3" t="n">
-        <v>79.87557176490895</v>
+        <v>98.69451011145858</v>
       </c>
       <c r="H3" t="n">
-        <v>79.87557176490895</v>
+        <v>98.69451011145858</v>
       </c>
       <c r="I3" t="n">
-        <v>79.87557176490895</v>
+        <v>98.69451011145858</v>
       </c>
       <c r="J3" t="n">
-        <v>79.87557176490895</v>
+        <v>98.69451011145858</v>
       </c>
       <c r="K3" t="n">
-        <v>79.87557176490895</v>
+        <v>98.69451011145858</v>
       </c>
       <c r="L3" t="n">
-        <v>79.87557176490895</v>
+        <v>98.69451011145858</v>
       </c>
       <c r="M3" t="n">
-        <v>79.87557176490895</v>
+        <v>98.69451011145858</v>
       </c>
       <c r="N3" t="n">
-        <v>79.87557176490895</v>
+        <v>98.69451011145858</v>
       </c>
       <c r="O3" t="n">
-        <v>79.87557176490895</v>
+        <v>98.69451011145858</v>
       </c>
       <c r="P3" t="n">
-        <v>79.87557176490895</v>
+        <v>98.69451011145858</v>
       </c>
     </row>
     <row r="4">
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>52.05146970222745</v>
+        <v>39.33403447625753</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>96.01132693483231</v>
+        <v>108.1110310883812</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>79.87557176490895</v>
+        <v>98.69451011145858</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>52.05146970222745</v>
+        <v>39.33403447625753</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>96.01132693483231</v>
+        <v>108.1110310883812</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28089,76 +28089,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="C11" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="D11" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="E11" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="F11" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="G11" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="H11" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="I11" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>147.3712384861942</v>
       </c>
       <c r="K11" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="L11" t="n">
-        <v>166.5331836498673</v>
+        <v>28.94313004898416</v>
       </c>
       <c r="M11" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="S11" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="T11" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="U11" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="V11" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="W11" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="X11" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="Y11" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
     </row>
     <row r="12">
@@ -28168,10 +28168,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="C12" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -28183,25 +28183,25 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.1717093296031</v>
+        <v>137.1312308584426</v>
       </c>
       <c r="H12" t="n">
-        <v>110.57614226455</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="I12" t="n">
-        <v>93.60706643061759</v>
+        <v>92.21339977004764</v>
       </c>
       <c r="J12" t="n">
-        <v>110.6055541064034</v>
+        <v>106.781226267507</v>
       </c>
       <c r="K12" t="n">
-        <v>110.0982415623906</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>98.60184731014294</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -28210,34 +28210,34 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>93.43703400647473</v>
       </c>
       <c r="Q12" t="n">
-        <v>16.25973048196939</v>
+        <v>112.8836134984376</v>
       </c>
       <c r="R12" t="n">
-        <v>135.0123474176993</v>
+        <v>132.4991314626639</v>
       </c>
       <c r="S12" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="T12" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="U12" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="V12" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="W12" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="X12" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="Y12" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
     </row>
     <row r="13">
@@ -28247,10 +28247,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="C13" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -28262,61 +28262,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="H13" t="n">
-        <v>160.9465444879956</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="I13" t="n">
-        <v>151.1188619535154</v>
+        <v>150.0983201821975</v>
       </c>
       <c r="J13" t="n">
-        <v>116.8119407571716</v>
+        <v>114.4126803715795</v>
       </c>
       <c r="K13" t="n">
-        <v>112.2786711679856</v>
+        <v>108.3359493307905</v>
       </c>
       <c r="L13" t="n">
-        <v>113.4701664346265</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>116.3471858501899</v>
+        <v>111.0275964418365</v>
       </c>
       <c r="N13" t="n">
-        <v>105.6438149649264</v>
+        <v>100.4507135028367</v>
       </c>
       <c r="O13" t="n">
-        <v>118.0974337010099</v>
+        <v>113.3007639729418</v>
       </c>
       <c r="P13" t="n">
-        <v>120.3072727907813</v>
+        <v>116.2028931881174</v>
       </c>
       <c r="Q13" t="n">
-        <v>139.4437902929446</v>
+        <v>136.6021306026156</v>
       </c>
       <c r="R13" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="S13" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="T13" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="U13" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="V13" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="W13" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="X13" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="Y13" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
     </row>
     <row r="14">
@@ -28326,76 +28326,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="C14" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="D14" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="E14" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="F14" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="G14" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="H14" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="I14" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>147.3712384861942</v>
       </c>
       <c r="K14" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>61.72047942632915</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="P14" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="Q14" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="R14" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="S14" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="T14" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="U14" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="V14" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="W14" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="X14" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="Y14" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
     </row>
     <row r="15">
@@ -28405,10 +28405,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="C15" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -28420,61 +28420,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.1717093296031</v>
+        <v>137.1312308584426</v>
       </c>
       <c r="H15" t="n">
-        <v>110.57614226455</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="I15" t="n">
-        <v>93.60706643061759</v>
+        <v>92.21339977004764</v>
       </c>
       <c r="J15" t="n">
-        <v>110.6055541064034</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>110.0982415623906</v>
+        <v>103.5618561557404</v>
       </c>
       <c r="L15" t="n">
-        <v>101.2502271362721</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>98.60184731014294</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>76.12958231824479</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>89.16538863697922</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>112.8836134984376</v>
       </c>
       <c r="R15" t="n">
-        <v>89.4906776063785</v>
+        <v>86.97746165134305</v>
       </c>
       <c r="S15" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="T15" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="U15" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="V15" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="W15" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="X15" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="Y15" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
     </row>
     <row r="16">
@@ -28484,10 +28484,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="C16" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -28499,61 +28499,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="H16" t="n">
-        <v>160.9465444879956</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="I16" t="n">
-        <v>151.1188619535154</v>
+        <v>150.0983201821975</v>
       </c>
       <c r="J16" t="n">
-        <v>83.17569943444823</v>
+        <v>114.4126803715795</v>
       </c>
       <c r="K16" t="n">
-        <v>5.534904823333079</v>
+        <v>108.3359493307905</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>108.4248399146351</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>111.0275964418365</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>113.3007639729418</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>116.2028931881174</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.10083191519314</v>
+        <v>136.6021306026156</v>
       </c>
       <c r="R16" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="S16" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="T16" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="U16" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="V16" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="W16" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="X16" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="Y16" t="n">
-        <v>166.5331836498673</v>
+        <v>160.6448244600788</v>
       </c>
     </row>
     <row r="17">
@@ -28563,76 +28563,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="C17" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="D17" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="E17" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="F17" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="G17" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="H17" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="I17" t="n">
-        <v>198.0963801011932</v>
+        <v>195.1797283600662</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>147.3712384861942</v>
       </c>
       <c r="K17" t="n">
-        <v>122.080897481114</v>
+        <v>169.6202559069285</v>
       </c>
       <c r="L17" t="n">
-        <v>185.0931916884159</v>
+        <v>173.1544193743531</v>
       </c>
       <c r="M17" t="n">
-        <v>173.9625086416845</v>
+        <v>160.6783240871375</v>
       </c>
       <c r="N17" t="n">
-        <v>172.1169913998387</v>
+        <v>158.6178548510117</v>
       </c>
       <c r="O17" t="n">
-        <v>175.9951551716172</v>
+        <v>163.2483033190052</v>
       </c>
       <c r="P17" t="n">
-        <v>185.0572889642801</v>
+        <v>174.1781458169162</v>
       </c>
       <c r="Q17" t="n">
-        <v>187.6296571089105</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>195.4147483271875</v>
+        <v>190.6624462732722</v>
       </c>
       <c r="S17" t="n">
-        <v>201.7028249969273</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="T17" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="U17" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="V17" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="W17" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="X17" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="Y17" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
     </row>
     <row r="18">
@@ -28657,61 +28657,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.1717093296031</v>
+        <v>137.1312308584426</v>
       </c>
       <c r="H18" t="n">
-        <v>110.57614226455</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="I18" t="n">
-        <v>93.60706643061759</v>
+        <v>92.21339977004764</v>
       </c>
       <c r="J18" t="n">
-        <v>110.6055541064034</v>
+        <v>106.781226267507</v>
       </c>
       <c r="K18" t="n">
-        <v>110.0982415623906</v>
+        <v>103.5618561557404</v>
       </c>
       <c r="L18" t="n">
-        <v>101.2502271362721</v>
+        <v>57.34467317225316</v>
       </c>
       <c r="M18" t="n">
-        <v>98.60184731014294</v>
+        <v>88.3455259112734</v>
       </c>
       <c r="N18" t="n">
-        <v>86.65735802590561</v>
+        <v>76.12958231824479</v>
       </c>
       <c r="O18" t="n">
-        <v>101.7187902790575</v>
+        <v>92.0879322744794</v>
       </c>
       <c r="P18" t="n">
-        <v>101.1666466265887</v>
+        <v>93.43703400647473</v>
       </c>
       <c r="Q18" t="n">
-        <v>118.050654834645</v>
+        <v>112.8836134984376</v>
       </c>
       <c r="R18" t="n">
-        <v>135.0123474176993</v>
+        <v>132.4991314626639</v>
       </c>
       <c r="S18" t="n">
-        <v>168.4919159488907</v>
+        <v>167.7400461007998</v>
       </c>
       <c r="T18" t="n">
-        <v>199.4722225584824</v>
+        <v>199.3090659137609</v>
       </c>
       <c r="U18" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="V18" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="W18" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>199.9788589363363</v>
       </c>
     </row>
     <row r="19">
@@ -28736,61 +28736,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.8469414421614</v>
+        <v>167.8130056517004</v>
       </c>
       <c r="H19" t="n">
-        <v>160.9465444879956</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="I19" t="n">
-        <v>151.1188619535154</v>
+        <v>150.0983201821975</v>
       </c>
       <c r="J19" t="n">
-        <v>116.8119407571716</v>
+        <v>80.77643904885616</v>
       </c>
       <c r="K19" t="n">
-        <v>112.2786711679856</v>
+        <v>1.592182986137928</v>
       </c>
       <c r="L19" t="n">
-        <v>113.4701664346265</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>116.3471858501899</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>105.6438149649264</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>118.0974337010099</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>120.3072727907813</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>139.4437902929446</v>
+        <v>136.6021306026156</v>
       </c>
       <c r="R19" t="n">
-        <v>170.8169228861983</v>
+        <v>169.2910463441978</v>
       </c>
       <c r="S19" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="T19" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="U19" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="V19" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="W19" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="X19" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
     </row>
     <row r="20">
@@ -28800,76 +28800,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="C20" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="D20" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="E20" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="F20" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="G20" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="H20" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="I20" t="n">
-        <v>198.0963801011932</v>
+        <v>195.1797283600662</v>
       </c>
       <c r="J20" t="n">
-        <v>153.7922791635428</v>
+        <v>147.3712384861942</v>
       </c>
       <c r="K20" t="n">
-        <v>179.2437313991894</v>
+        <v>169.6202559069285</v>
       </c>
       <c r="L20" t="n">
-        <v>176.7500057950194</v>
+        <v>173.1544193743531</v>
       </c>
       <c r="M20" t="n">
-        <v>173.9625086416845</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>172.1169913998387</v>
+        <v>158.6178548510117</v>
       </c>
       <c r="O20" t="n">
-        <v>175.9951551716172</v>
+        <v>163.2483033190052</v>
       </c>
       <c r="P20" t="n">
-        <v>185.0572889642801</v>
+        <v>43.80853566064985</v>
       </c>
       <c r="Q20" t="n">
-        <v>187.6296571089105</v>
+        <v>179.4598736782735</v>
       </c>
       <c r="R20" t="n">
-        <v>195.4147483271875</v>
+        <v>190.6624462732722</v>
       </c>
       <c r="S20" t="n">
-        <v>201.7028249969273</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="T20" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="U20" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="V20" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="W20" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="X20" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="Y20" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
     </row>
     <row r="21">
@@ -28894,61 +28894,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.1717093296031</v>
+        <v>137.1312308584426</v>
       </c>
       <c r="H21" t="n">
-        <v>110.57614226455</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="I21" t="n">
-        <v>93.60706643061759</v>
+        <v>92.21339977004764</v>
       </c>
       <c r="J21" t="n">
-        <v>110.6055541064034</v>
+        <v>106.781226267507</v>
       </c>
       <c r="K21" t="n">
-        <v>110.0982415623906</v>
+        <v>103.5618561557404</v>
       </c>
       <c r="L21" t="n">
-        <v>101.2502271362721</v>
+        <v>92.4612503169708</v>
       </c>
       <c r="M21" t="n">
-        <v>98.60184731014294</v>
+        <v>88.3455259112734</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>76.12958231824479</v>
       </c>
       <c r="O21" t="n">
-        <v>101.7187902790575</v>
+        <v>92.0879322744794</v>
       </c>
       <c r="P21" t="n">
-        <v>101.1666466265887</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>118.050654834645</v>
+        <v>112.8836134984376</v>
       </c>
       <c r="R21" t="n">
-        <v>135.0123474176993</v>
+        <v>132.4991314626639</v>
       </c>
       <c r="S21" t="n">
-        <v>168.4919159488907</v>
+        <v>167.7400461007998</v>
       </c>
       <c r="T21" t="n">
-        <v>199.4722225584824</v>
+        <v>199.3090659137609</v>
       </c>
       <c r="U21" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="V21" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="W21" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>199.9788589363363</v>
       </c>
     </row>
     <row r="22">
@@ -28973,61 +28973,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.8469414421614</v>
+        <v>167.8130056517004</v>
       </c>
       <c r="H22" t="n">
-        <v>160.9465444879956</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="I22" t="n">
-        <v>151.1188619535154</v>
+        <v>150.0983201821975</v>
       </c>
       <c r="J22" t="n">
-        <v>116.8119407571716</v>
+        <v>114.4126803715795</v>
       </c>
       <c r="K22" t="n">
-        <v>112.2786711679856</v>
+        <v>108.3359493307905</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>108.4248399146351</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>111.0275964418365</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>113.3007639729418</v>
       </c>
       <c r="P22" t="n">
-        <v>120.3072727907813</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.10083191519314</v>
+        <v>136.6021306026156</v>
       </c>
       <c r="R22" t="n">
-        <v>170.8169228861983</v>
+        <v>169.2910463441978</v>
       </c>
       <c r="S22" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="T22" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="U22" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="V22" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="W22" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="X22" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
     </row>
     <row r="23">
@@ -29037,76 +29037,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="C23" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="D23" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="E23" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="F23" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="G23" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="H23" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="I23" t="n">
-        <v>198.0963801011932</v>
+        <v>195.1797283600662</v>
       </c>
       <c r="J23" t="n">
-        <v>153.7922791635428</v>
+        <v>147.3712384861942</v>
       </c>
       <c r="K23" t="n">
-        <v>157.8974517037357</v>
+        <v>169.6202559069285</v>
       </c>
       <c r="L23" t="n">
-        <v>185.0931916884159</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>173.9625086416845</v>
+        <v>18.01354954108438</v>
       </c>
       <c r="N23" t="n">
-        <v>172.1169913998387</v>
+        <v>158.6178548510117</v>
       </c>
       <c r="O23" t="n">
-        <v>175.9951551716172</v>
+        <v>163.2483033190052</v>
       </c>
       <c r="P23" t="n">
-        <v>185.0572889642801</v>
+        <v>174.1781458169162</v>
       </c>
       <c r="Q23" t="n">
-        <v>187.6296571089105</v>
+        <v>179.4598736782735</v>
       </c>
       <c r="R23" t="n">
-        <v>195.4147483271875</v>
+        <v>190.6624462732722</v>
       </c>
       <c r="S23" t="n">
-        <v>201.7028249969273</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="T23" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="U23" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="V23" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="W23" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="X23" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="Y23" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
     </row>
     <row r="24">
@@ -29131,61 +29131,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.1717093296031</v>
+        <v>137.1312308584426</v>
       </c>
       <c r="H24" t="n">
-        <v>110.57614226455</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="I24" t="n">
-        <v>93.60706643061759</v>
+        <v>92.21339977004764</v>
       </c>
       <c r="J24" t="n">
-        <v>110.6055541064034</v>
+        <v>106.781226267507</v>
       </c>
       <c r="K24" t="n">
-        <v>110.0982415623906</v>
+        <v>103.5618561557404</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>92.4612503169708</v>
       </c>
       <c r="M24" t="n">
-        <v>98.60184731014294</v>
+        <v>88.3455259112734</v>
       </c>
       <c r="N24" t="n">
-        <v>86.65735802590561</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>92.0879322744794</v>
       </c>
       <c r="P24" t="n">
-        <v>101.1666466265887</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>118.050654834645</v>
+        <v>112.8836134984376</v>
       </c>
       <c r="R24" t="n">
-        <v>135.0123474176993</v>
+        <v>132.4991314626639</v>
       </c>
       <c r="S24" t="n">
-        <v>168.4919159488907</v>
+        <v>167.7400461007998</v>
       </c>
       <c r="T24" t="n">
-        <v>199.4722225584824</v>
+        <v>199.3090659137609</v>
       </c>
       <c r="U24" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="V24" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="W24" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>199.9788589363363</v>
       </c>
     </row>
     <row r="25">
@@ -29210,61 +29210,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.8469414421614</v>
+        <v>167.8130056517004</v>
       </c>
       <c r="H25" t="n">
-        <v>160.9465444879956</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="I25" t="n">
-        <v>151.1188619535154</v>
+        <v>150.0983201821975</v>
       </c>
       <c r="J25" t="n">
-        <v>83.17569943444823</v>
+        <v>114.4126803715795</v>
       </c>
       <c r="K25" t="n">
-        <v>112.2786711679856</v>
+        <v>108.3359493307905</v>
       </c>
       <c r="L25" t="n">
-        <v>113.4701664346265</v>
+        <v>108.4248399146351</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>111.0275964418365</v>
       </c>
       <c r="N25" t="n">
-        <v>105.6438149649264</v>
+        <v>100.4507135028367</v>
       </c>
       <c r="O25" t="n">
-        <v>118.0974337010099</v>
+        <v>113.3007639729418</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>116.2028931881174</v>
       </c>
       <c r="Q25" t="n">
-        <v>139.4437902929446</v>
+        <v>136.6021306026156</v>
       </c>
       <c r="R25" t="n">
-        <v>170.8169228861983</v>
+        <v>169.2910463441978</v>
       </c>
       <c r="S25" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="T25" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="U25" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="V25" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="W25" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="X25" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>199.9788589363363</v>
       </c>
     </row>
     <row r="26">
@@ -29274,40 +29274,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>148.0627966370598</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C26" t="n">
-        <v>148.0627966370598</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D26" t="n">
-        <v>148.0627966370598</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E26" t="n">
-        <v>148.0627966370598</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="F26" t="n">
-        <v>148.0627966370598</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="G26" t="n">
-        <v>148.0627966370598</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="H26" t="n">
-        <v>148.0627966370598</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="I26" t="n">
-        <v>148.0627966370598</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="J26" t="n">
-        <v>148.0627966370598</v>
+        <v>147.3712384861942</v>
       </c>
       <c r="K26" t="n">
-        <v>148.0627966370598</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>141.7905022766956</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -29322,28 +29322,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>129.6983284542051</v>
+        <v>124.9460264002897</v>
       </c>
       <c r="S26" t="n">
-        <v>148.0627966370598</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T26" t="n">
-        <v>148.0627966370598</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U26" t="n">
-        <v>148.0627966370598</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V26" t="n">
-        <v>148.0627966370598</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W26" t="n">
-        <v>148.0627966370598</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X26" t="n">
-        <v>148.0627966370598</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y26" t="n">
-        <v>148.0627966370598</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="27">
@@ -29353,76 +29353,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>148.0627966370598</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C27" t="n">
-        <v>148.0627966370598</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>148.0627966370598</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.1717093296031</v>
+        <v>137.1312308584426</v>
       </c>
       <c r="H27" t="n">
-        <v>110.57614226455</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="I27" t="n">
-        <v>93.60706643061759</v>
+        <v>92.21339977004764</v>
       </c>
       <c r="J27" t="n">
-        <v>110.6055541064034</v>
+        <v>106.781226267507</v>
       </c>
       <c r="K27" t="n">
-        <v>81.66952099310039</v>
+        <v>103.5618561557404</v>
       </c>
       <c r="L27" t="n">
-        <v>101.2502271362721</v>
+        <v>92.4612503169708</v>
       </c>
       <c r="M27" t="n">
-        <v>98.60184731014294</v>
+        <v>88.3455259112734</v>
       </c>
       <c r="N27" t="n">
-        <v>86.65735802590561</v>
+        <v>76.12958231824479</v>
       </c>
       <c r="O27" t="n">
-        <v>101.7187902790575</v>
+        <v>92.0879322744794</v>
       </c>
       <c r="P27" t="n">
-        <v>101.1666466265887</v>
+        <v>93.43703400647473</v>
       </c>
       <c r="Q27" t="n">
-        <v>118.050654834645</v>
+        <v>112.8836134984376</v>
       </c>
       <c r="R27" t="n">
-        <v>135.0123474176993</v>
+        <v>132.4991314626639</v>
       </c>
       <c r="S27" t="n">
-        <v>148.0627966370598</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T27" t="n">
-        <v>148.0627966370598</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U27" t="n">
-        <v>148.0627966370598</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V27" t="n">
-        <v>148.0627966370598</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W27" t="n">
-        <v>148.0627966370598</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X27" t="n">
-        <v>148.0627966370598</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y27" t="n">
-        <v>148.0627966370598</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="28">
@@ -29432,13 +29432,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>148.0627966370598</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C28" t="n">
-        <v>148.0627966370598</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D28" t="n">
-        <v>148.0627966370598</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -29447,61 +29447,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>148.0627966370598</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="H28" t="n">
-        <v>148.0627966370598</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="I28" t="n">
-        <v>148.0627966370598</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="J28" t="n">
-        <v>116.8119407571716</v>
+        <v>114.4126803715795</v>
       </c>
       <c r="K28" t="n">
-        <v>112.2786711679856</v>
+        <v>108.3359493307905</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>116.3471858501899</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>105.6438149649264</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>118.0974337010099</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>120.3072727907813</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.10083191519314</v>
+        <v>136.6021306026156</v>
       </c>
       <c r="R28" t="n">
-        <v>148.0627966370598</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="S28" t="n">
-        <v>148.0627966370598</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T28" t="n">
-        <v>148.0627966370598</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U28" t="n">
-        <v>148.0627966370598</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V28" t="n">
-        <v>148.0627966370598</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W28" t="n">
-        <v>148.0627966370598</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X28" t="n">
-        <v>148.0627966370598</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y28" t="n">
-        <v>148.0627966370598</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="29">
@@ -29511,76 +29511,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>148.0627966370595</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C29" t="n">
-        <v>148.0627966370595</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D29" t="n">
-        <v>148.0627966370595</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E29" t="n">
-        <v>148.0627966370595</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="F29" t="n">
-        <v>148.0627966370595</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="G29" t="n">
-        <v>148.0627966370595</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="H29" t="n">
-        <v>148.0627966370595</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="I29" t="n">
-        <v>148.0627966370595</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="J29" t="n">
-        <v>128.1015598655989</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>45.30572055153821</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Q29" t="n">
-        <v>148.0627966370595</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="R29" t="n">
-        <v>148.0627966370595</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="S29" t="n">
-        <v>148.0627966370595</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T29" t="n">
-        <v>148.0627966370595</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U29" t="n">
-        <v>148.0627966370595</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V29" t="n">
-        <v>148.0627966370595</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W29" t="n">
-        <v>148.0627966370595</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X29" t="n">
-        <v>148.0627966370595</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y29" t="n">
-        <v>148.0627966370595</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="30">
@@ -29590,76 +29590,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>148.0627966370595</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C30" t="n">
-        <v>148.0627966370595</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>148.0627966370595</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.1717093296031</v>
+        <v>137.1312308584426</v>
       </c>
       <c r="H30" t="n">
-        <v>110.57614226455</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="I30" t="n">
-        <v>93.60706643061759</v>
+        <v>92.21339977004764</v>
       </c>
       <c r="J30" t="n">
-        <v>110.6055541064034</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>110.0982415623906</v>
+        <v>103.5618561557404</v>
       </c>
       <c r="L30" t="n">
-        <v>101.2502271362721</v>
+        <v>92.4612503169708</v>
       </c>
       <c r="M30" t="n">
-        <v>98.60184731014294</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>86.65735802590561</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>101.7187902790575</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>101.1666466265887</v>
+        <v>93.43703400647473</v>
       </c>
       <c r="Q30" t="n">
-        <v>118.050654834645</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>135.0123474176993</v>
+        <v>132.4991314626639</v>
       </c>
       <c r="S30" t="n">
-        <v>148.0627966370595</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T30" t="n">
-        <v>148.0627966370595</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U30" t="n">
-        <v>148.0627966370595</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V30" t="n">
-        <v>148.0627966370595</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W30" t="n">
-        <v>148.0627966370595</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X30" t="n">
-        <v>148.0627966370595</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y30" t="n">
-        <v>148.0627966370595</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="31">
@@ -29669,13 +29669,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.0627966370595</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C31" t="n">
-        <v>148.0627966370595</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D31" t="n">
-        <v>148.0627966370595</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -29684,25 +29684,25 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>148.0627966370595</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="H31" t="n">
-        <v>148.0627966370595</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="I31" t="n">
-        <v>148.0627966370595</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="J31" t="n">
-        <v>116.8119407571716</v>
+        <v>114.4126803715795</v>
       </c>
       <c r="K31" t="n">
-        <v>112.2786711679856</v>
+        <v>108.3359493307905</v>
       </c>
       <c r="L31" t="n">
-        <v>113.4701664346265</v>
+        <v>108.4248399146351</v>
       </c>
       <c r="M31" t="n">
-        <v>116.3471858501899</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -29711,34 +29711,34 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>120.3072727907813</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>139.4437902929446</v>
+        <v>136.6021306026156</v>
       </c>
       <c r="R31" t="n">
-        <v>148.0627966370595</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="S31" t="n">
-        <v>148.0627966370595</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T31" t="n">
-        <v>148.0627966370595</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U31" t="n">
-        <v>148.0627966370595</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V31" t="n">
-        <v>148.0627966370595</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W31" t="n">
-        <v>148.0627966370595</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X31" t="n">
-        <v>148.0627966370595</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y31" t="n">
-        <v>148.0627966370595</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="32">
@@ -29748,76 +29748,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="C32" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="D32" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="E32" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="F32" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="G32" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="H32" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="I32" t="n">
-        <v>198.0963801011932</v>
+        <v>195.1797283600662</v>
       </c>
       <c r="J32" t="n">
-        <v>153.7922791635428</v>
+        <v>147.3712384861942</v>
       </c>
       <c r="K32" t="n">
-        <v>107.5898693723378</v>
+        <v>169.6202559069285</v>
       </c>
       <c r="L32" t="n">
-        <v>185.0931916884159</v>
+        <v>173.1544193743531</v>
       </c>
       <c r="M32" t="n">
-        <v>173.9625086416845</v>
+        <v>160.6783240871375</v>
       </c>
       <c r="N32" t="n">
-        <v>172.1169913998387</v>
+        <v>158.6178548510117</v>
       </c>
       <c r="O32" t="n">
-        <v>175.9951551716172</v>
+        <v>163.2483033190052</v>
       </c>
       <c r="P32" t="n">
-        <v>185.0572889642801</v>
+        <v>174.1781458169162</v>
       </c>
       <c r="Q32" t="n">
-        <v>187.6296571089105</v>
+        <v>179.4598736782735</v>
       </c>
       <c r="R32" t="n">
-        <v>195.4147483271875</v>
+        <v>190.6624462732722</v>
       </c>
       <c r="S32" t="n">
-        <v>201.7028249969273</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="T32" t="n">
-        <v>221.6902000549821</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="U32" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="V32" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="W32" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="X32" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="Y32" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
     </row>
     <row r="33">
@@ -29842,55 +29842,55 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.1717093296031</v>
+        <v>137.1312308584426</v>
       </c>
       <c r="H33" t="n">
-        <v>110.57614226455</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="I33" t="n">
-        <v>93.60706643061759</v>
+        <v>92.21339977004764</v>
       </c>
       <c r="J33" t="n">
-        <v>110.6055541064034</v>
+        <v>106.781226267507</v>
       </c>
       <c r="K33" t="n">
-        <v>110.0982415623906</v>
+        <v>103.5618561557404</v>
       </c>
       <c r="L33" t="n">
-        <v>101.2502271362721</v>
+        <v>92.4612503169708</v>
       </c>
       <c r="M33" t="n">
-        <v>98.60184731014294</v>
+        <v>88.3455259112734</v>
       </c>
       <c r="N33" t="n">
-        <v>86.65735802590561</v>
+        <v>76.12958231824479</v>
       </c>
       <c r="O33" t="n">
-        <v>101.7187902790575</v>
+        <v>92.0879322744794</v>
       </c>
       <c r="P33" t="n">
-        <v>101.1666466265887</v>
+        <v>93.43703400647473</v>
       </c>
       <c r="Q33" t="n">
-        <v>118.050654834645</v>
+        <v>112.8836134984376</v>
       </c>
       <c r="R33" t="n">
-        <v>135.0123474176993</v>
+        <v>132.4991314626639</v>
       </c>
       <c r="S33" t="n">
-        <v>168.4919159488907</v>
+        <v>167.7400461007998</v>
       </c>
       <c r="T33" t="n">
-        <v>199.4722225584824</v>
+        <v>199.3090659137609</v>
       </c>
       <c r="U33" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="V33" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="W33" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -29921,61 +29921,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.8469414421614</v>
+        <v>167.8130056517004</v>
       </c>
       <c r="H34" t="n">
-        <v>160.9465444879956</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="I34" t="n">
-        <v>151.1188619535154</v>
+        <v>150.0983201821975</v>
       </c>
       <c r="J34" t="n">
-        <v>116.8119407571716</v>
+        <v>114.4126803715795</v>
       </c>
       <c r="K34" t="n">
-        <v>112.2786711679856</v>
+        <v>108.3359493307905</v>
       </c>
       <c r="L34" t="n">
-        <v>113.4701664346265</v>
+        <v>94.96244210696737</v>
       </c>
       <c r="M34" t="n">
-        <v>116.3471858501899</v>
+        <v>111.0275964418365</v>
       </c>
       <c r="N34" t="n">
-        <v>105.6438149649264</v>
+        <v>100.4507135028367</v>
       </c>
       <c r="O34" t="n">
-        <v>118.0974337010099</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>120.3072727907813</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>139.4437902929446</v>
+        <v>136.6021306026156</v>
       </c>
       <c r="R34" t="n">
-        <v>170.8169228861983</v>
+        <v>169.2910463441978</v>
       </c>
       <c r="S34" t="n">
-        <v>221.5064099865898</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="T34" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="U34" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="V34" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="W34" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>218.2962365393547</v>
       </c>
     </row>
     <row r="35">
@@ -29985,76 +29985,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="C35" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="D35" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="E35" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="F35" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="G35" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="H35" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="I35" t="n">
-        <v>198.0963801011932</v>
+        <v>195.1797283600662</v>
       </c>
       <c r="J35" t="n">
-        <v>153.7922791635428</v>
+        <v>147.3712384861942</v>
       </c>
       <c r="K35" t="n">
-        <v>179.2437313991894</v>
+        <v>169.6202559069285</v>
       </c>
       <c r="L35" t="n">
-        <v>185.0931916884159</v>
+        <v>173.1544193743531</v>
       </c>
       <c r="M35" t="n">
-        <v>173.9625086416845</v>
+        <v>160.6783240871375</v>
       </c>
       <c r="N35" t="n">
-        <v>172.1169913998387</v>
+        <v>158.6178548510117</v>
       </c>
       <c r="O35" t="n">
-        <v>175.9951551716172</v>
+        <v>163.2483033190052</v>
       </c>
       <c r="P35" t="n">
-        <v>185.0572889642801</v>
+        <v>174.1781458169162</v>
       </c>
       <c r="Q35" t="n">
-        <v>187.6296571089105</v>
+        <v>179.4598736782735</v>
       </c>
       <c r="R35" t="n">
-        <v>195.4147483271875</v>
+        <v>190.6624462732722</v>
       </c>
       <c r="S35" t="n">
-        <v>201.7028249969273</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="T35" t="n">
-        <v>221.6902000549821</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="U35" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="V35" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="W35" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="X35" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="Y35" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
     </row>
     <row r="36">
@@ -30079,55 +30079,55 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.1717093296031</v>
+        <v>137.1312308584426</v>
       </c>
       <c r="H36" t="n">
-        <v>110.57614226455</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="I36" t="n">
-        <v>93.60706643061759</v>
+        <v>92.21339977004764</v>
       </c>
       <c r="J36" t="n">
-        <v>110.6055541064034</v>
+        <v>106.781226267507</v>
       </c>
       <c r="K36" t="n">
-        <v>110.0982415623906</v>
+        <v>103.5618561557404</v>
       </c>
       <c r="L36" t="n">
-        <v>101.2502271362721</v>
+        <v>92.4612503169708</v>
       </c>
       <c r="M36" t="n">
-        <v>98.60184731014294</v>
+        <v>88.3455259112734</v>
       </c>
       <c r="N36" t="n">
-        <v>86.65735802590561</v>
+        <v>76.12958231824479</v>
       </c>
       <c r="O36" t="n">
-        <v>101.7187902790575</v>
+        <v>92.0879322744794</v>
       </c>
       <c r="P36" t="n">
-        <v>101.1666466265887</v>
+        <v>93.43703400647473</v>
       </c>
       <c r="Q36" t="n">
-        <v>118.050654834645</v>
+        <v>112.8836134984376</v>
       </c>
       <c r="R36" t="n">
-        <v>135.0123474176993</v>
+        <v>132.4991314626639</v>
       </c>
       <c r="S36" t="n">
-        <v>168.4919159488907</v>
+        <v>167.7400461007998</v>
       </c>
       <c r="T36" t="n">
-        <v>199.4722225584824</v>
+        <v>199.3090659137609</v>
       </c>
       <c r="U36" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="V36" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="W36" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -30158,61 +30158,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.8469414421614</v>
+        <v>167.8130056517004</v>
       </c>
       <c r="H37" t="n">
-        <v>160.9465444879956</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="I37" t="n">
-        <v>151.1188619535154</v>
+        <v>150.0983201821975</v>
       </c>
       <c r="J37" t="n">
-        <v>116.8119407571716</v>
+        <v>114.4126803715795</v>
       </c>
       <c r="K37" t="n">
-        <v>5.534904823333079</v>
+        <v>108.3359493307905</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>108.4248399146351</v>
       </c>
       <c r="M37" t="n">
-        <v>116.3471858501899</v>
+        <v>84.71514816406112</v>
       </c>
       <c r="N37" t="n">
-        <v>105.6438149649264</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>118.0974337010099</v>
+        <v>113.3007639729418</v>
       </c>
       <c r="P37" t="n">
-        <v>102.8692298476691</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>139.4437902929446</v>
+        <v>136.6021306026156</v>
       </c>
       <c r="R37" t="n">
-        <v>170.8169228861983</v>
+        <v>169.2910463441978</v>
       </c>
       <c r="S37" t="n">
-        <v>221.5064099865898</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="T37" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="U37" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="V37" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="W37" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>218.2962365393547</v>
       </c>
     </row>
     <row r="38">
@@ -30222,76 +30222,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="C38" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="D38" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="E38" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="F38" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="G38" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="H38" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="I38" t="n">
-        <v>198.0963801011932</v>
+        <v>195.1797283600662</v>
       </c>
       <c r="J38" t="n">
-        <v>153.7922791635428</v>
+        <v>147.3712384861942</v>
       </c>
       <c r="K38" t="n">
-        <v>179.2437313991894</v>
+        <v>169.6202559069285</v>
       </c>
       <c r="L38" t="n">
-        <v>185.0931916884159</v>
+        <v>173.1544193743531</v>
       </c>
       <c r="M38" t="n">
-        <v>173.9625086416845</v>
+        <v>160.6783240871375</v>
       </c>
       <c r="N38" t="n">
-        <v>172.1169913998387</v>
+        <v>158.6178548510117</v>
       </c>
       <c r="O38" t="n">
-        <v>175.9951551716172</v>
+        <v>157.6288979258551</v>
       </c>
       <c r="P38" t="n">
-        <v>185.0572889642801</v>
+        <v>174.1781458169162</v>
       </c>
       <c r="Q38" t="n">
-        <v>187.6296571089105</v>
+        <v>179.4598736782735</v>
       </c>
       <c r="R38" t="n">
-        <v>195.4147483271875</v>
+        <v>190.6624462732722</v>
       </c>
       <c r="S38" t="n">
-        <v>201.7028249969273</v>
+        <v>199.9788589363363</v>
       </c>
       <c r="T38" t="n">
-        <v>221.6902000549821</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="U38" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="V38" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="W38" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="X38" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="Y38" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
     </row>
     <row r="39">
@@ -30316,55 +30316,55 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.1717093296031</v>
+        <v>137.1312308584426</v>
       </c>
       <c r="H39" t="n">
-        <v>110.57614226455</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="I39" t="n">
-        <v>93.60706643061759</v>
+        <v>92.21339977004764</v>
       </c>
       <c r="J39" t="n">
-        <v>110.6055541064034</v>
+        <v>106.781226267507</v>
       </c>
       <c r="K39" t="n">
-        <v>110.0982415623906</v>
+        <v>103.5618561557404</v>
       </c>
       <c r="L39" t="n">
-        <v>101.2502271362721</v>
+        <v>92.4612503169708</v>
       </c>
       <c r="M39" t="n">
-        <v>98.60184731014294</v>
+        <v>88.3455259112734</v>
       </c>
       <c r="N39" t="n">
-        <v>86.65735802590561</v>
+        <v>76.12958231824479</v>
       </c>
       <c r="O39" t="n">
-        <v>101.7187902790575</v>
+        <v>92.0879322744794</v>
       </c>
       <c r="P39" t="n">
-        <v>101.1666466265887</v>
+        <v>93.43703400647473</v>
       </c>
       <c r="Q39" t="n">
-        <v>118.050654834645</v>
+        <v>112.8836134984376</v>
       </c>
       <c r="R39" t="n">
-        <v>135.0123474176993</v>
+        <v>132.4991314626639</v>
       </c>
       <c r="S39" t="n">
-        <v>168.4919159488907</v>
+        <v>167.7400461007998</v>
       </c>
       <c r="T39" t="n">
-        <v>199.4722225584824</v>
+        <v>199.3090659137609</v>
       </c>
       <c r="U39" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="V39" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="W39" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -30395,61 +30395,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.8469414421614</v>
+        <v>167.8130056517004</v>
       </c>
       <c r="H40" t="n">
-        <v>160.9465444879956</v>
+        <v>160.6448244600788</v>
       </c>
       <c r="I40" t="n">
-        <v>151.1188619535154</v>
+        <v>150.0983201821975</v>
       </c>
       <c r="J40" t="n">
-        <v>116.8119407571716</v>
+        <v>114.4126803715795</v>
       </c>
       <c r="K40" t="n">
-        <v>112.2786711679856</v>
+        <v>108.3359493307905</v>
       </c>
       <c r="L40" t="n">
-        <v>113.4701664346265</v>
+        <v>108.4248399146351</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>102.4364587937375</v>
+        <v>100.4507135028367</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>120.3072727907813</v>
+        <v>116.2028931881174</v>
       </c>
       <c r="Q40" t="n">
-        <v>139.4437902929446</v>
+        <v>136.6021306026156</v>
       </c>
       <c r="R40" t="n">
-        <v>170.8169228861983</v>
+        <v>169.2910463441978</v>
       </c>
       <c r="S40" t="n">
-        <v>221.5064099865898</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="T40" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="U40" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="V40" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="W40" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>218.2962365393547</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>218.2962365393547</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="C41" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="D41" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="E41" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="F41" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="G41" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="H41" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="I41" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30501,34 +30501,34 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>129.6983284542048</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>129.6983284542048</v>
+        <v>28.67294647278898</v>
       </c>
       <c r="R41" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="S41" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="T41" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="U41" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="V41" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="W41" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="X41" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="Y41" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
     </row>
     <row r="42">
@@ -30538,76 +30538,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="C42" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="D42" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="E42" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="F42" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="G42" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="H42" t="n">
-        <v>110.57614226455</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="I42" t="n">
-        <v>93.60706643061759</v>
+        <v>92.21339977004764</v>
       </c>
       <c r="J42" t="n">
-        <v>110.6055541064034</v>
+        <v>106.781226267507</v>
       </c>
       <c r="K42" t="n">
-        <v>110.0982415623906</v>
+        <v>103.5618561557404</v>
       </c>
       <c r="L42" t="n">
-        <v>101.2502271362721</v>
+        <v>92.4612503169708</v>
       </c>
       <c r="M42" t="n">
-        <v>98.60184731014294</v>
+        <v>88.3455259112734</v>
       </c>
       <c r="N42" t="n">
-        <v>86.65735802590561</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>101.7187902790575</v>
+        <v>92.0879322744794</v>
       </c>
       <c r="P42" t="n">
-        <v>101.1666466265887</v>
+        <v>93.43703400647473</v>
       </c>
       <c r="Q42" t="n">
-        <v>118.050654834645</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="R42" t="n">
-        <v>95.822612323551</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="S42" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="T42" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="U42" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="V42" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="W42" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="X42" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="Y42" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
     </row>
     <row r="43">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="C43" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="D43" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="E43" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="F43" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="G43" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="H43" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="I43" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="J43" t="n">
-        <v>116.8119407571716</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="K43" t="n">
-        <v>112.2786711679856</v>
+        <v>108.3359493307905</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>108.4248399146351</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>100.4507135028367</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="Q43" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="R43" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="S43" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="T43" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="U43" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="V43" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="W43" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="X43" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="Y43" t="n">
-        <v>129.6983284542048</v>
+        <v>110.1852054509735</v>
       </c>
     </row>
     <row r="44">
@@ -30696,43 +30696,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="C44" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="D44" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="E44" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="F44" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="G44" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="H44" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="I44" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>129.6983284542051</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -30741,31 +30741,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="R44" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="S44" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="T44" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="U44" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="V44" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="W44" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="X44" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="Y44" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
     </row>
     <row r="45">
@@ -30775,76 +30775,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="C45" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="D45" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="E45" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="F45" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="G45" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="H45" t="n">
-        <v>110.57614226455</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="I45" t="n">
-        <v>93.60706643061759</v>
+        <v>82.08765262146272</v>
       </c>
       <c r="J45" t="n">
-        <v>110.6055541064034</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>110.0982415623906</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>101.2502271362721</v>
+        <v>92.4612503169708</v>
       </c>
       <c r="M45" t="n">
-        <v>98.60184731014294</v>
+        <v>88.3455259112734</v>
       </c>
       <c r="N45" t="n">
-        <v>86.65735802590561</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>101.7187902790575</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>101.1666466265887</v>
+        <v>74.17497628461501</v>
       </c>
       <c r="Q45" t="n">
-        <v>118.050654834645</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="S45" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="T45" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="U45" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="V45" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="W45" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="X45" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="Y45" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
     </row>
     <row r="46">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="C46" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="D46" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="E46" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="F46" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="G46" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="H46" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="I46" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="J46" t="n">
-        <v>116.8119407571716</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="K46" t="n">
-        <v>52.43157267048905</v>
+        <v>108.3359493307905</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>108.4248399146351</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>100.4507135028367</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="R46" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="S46" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="T46" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="U46" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="V46" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="W46" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="X46" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
       <c r="Y46" t="n">
-        <v>129.6983284542051</v>
+        <v>110.1852054509735</v>
       </c>
     </row>
   </sheetData>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3211078261905885</v>
+        <v>0.3967618496943056</v>
       </c>
       <c r="H11" t="n">
-        <v>3.288545524974365</v>
+        <v>4.063337293181807</v>
       </c>
       <c r="I11" t="n">
-        <v>12.37950946921268</v>
+        <v>15.29616121033973</v>
       </c>
       <c r="J11" t="n">
-        <v>27.25362536314349</v>
+        <v>33.6746660404921</v>
       </c>
       <c r="K11" t="n">
-        <v>40.84611964579111</v>
+        <v>50.46959513805206</v>
       </c>
       <c r="L11" t="n">
-        <v>50.67322328157134</v>
+        <v>62.61199559563418</v>
       </c>
       <c r="M11" t="n">
-        <v>56.38372458558822</v>
+        <v>69.66790914013528</v>
       </c>
       <c r="N11" t="n">
-        <v>57.29607219675223</v>
+        <v>70.79520874557923</v>
       </c>
       <c r="O11" t="n">
-        <v>54.10305625006956</v>
+        <v>66.84990810268148</v>
       </c>
       <c r="P11" t="n">
-        <v>46.1757067909894</v>
+        <v>57.0548499383533</v>
       </c>
       <c r="Q11" t="n">
-        <v>34.67603276553894</v>
+        <v>42.84581619617597</v>
       </c>
       <c r="R11" t="n">
-        <v>20.17078948694457</v>
+        <v>24.92309154085994</v>
       </c>
       <c r="S11" t="n">
-        <v>7.317244589318043</v>
+        <v>9.041210649908997</v>
       </c>
       <c r="T11" t="n">
-        <v>1.405649509149302</v>
+        <v>1.736824997036823</v>
       </c>
       <c r="U11" t="n">
-        <v>0.02568862609524708</v>
+        <v>0.03174094797554444</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.17180783360754</v>
+        <v>0.212286304768043</v>
       </c>
       <c r="H12" t="n">
-        <v>1.659301971946505</v>
+        <v>2.050238785522942</v>
       </c>
       <c r="I12" t="n">
-        <v>5.915313569382409</v>
+        <v>7.308980229952359</v>
       </c>
       <c r="J12" t="n">
-        <v>16.23207256026325</v>
+        <v>20.05640039915971</v>
       </c>
       <c r="K12" t="n">
-        <v>27.74319741196843</v>
+        <v>34.27958281861859</v>
       </c>
       <c r="L12" t="n">
-        <v>37.30415264360206</v>
+        <v>46.09312946290338</v>
       </c>
       <c r="M12" t="n">
-        <v>43.53218661187537</v>
+        <v>53.78850801074492</v>
       </c>
       <c r="N12" t="n">
-        <v>44.6843540574277</v>
+        <v>55.21212976508852</v>
       </c>
       <c r="O12" t="n">
-        <v>40.87745416538694</v>
+        <v>50.50831216996504</v>
       </c>
       <c r="P12" t="n">
-        <v>32.80776078774157</v>
+        <v>40.53737340785551</v>
       </c>
       <c r="Q12" t="n">
-        <v>21.93111925137651</v>
+        <v>27.09816058758388</v>
       </c>
       <c r="R12" t="n">
-        <v>10.66715654626464</v>
+        <v>13.18037250130008</v>
       </c>
       <c r="S12" t="n">
-        <v>3.191255154947068</v>
+        <v>3.943125003037989</v>
       </c>
       <c r="T12" t="n">
-        <v>0.6925061363391632</v>
+        <v>0.8556627810606642</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01130314694786448</v>
+        <v>0.01396620426105547</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1440379162973768</v>
+        <v>0.1779737067583679</v>
       </c>
       <c r="H13" t="n">
-        <v>1.280628019443951</v>
+        <v>1.582348047360763</v>
       </c>
       <c r="I13" t="n">
-        <v>4.331612973742932</v>
+        <v>5.352154745060739</v>
       </c>
       <c r="J13" t="n">
-        <v>10.18348068222454</v>
+        <v>12.58274106781661</v>
       </c>
       <c r="K13" t="n">
-        <v>16.73458700254977</v>
+        <v>20.67730883974492</v>
       </c>
       <c r="L13" t="n">
-        <v>21.41450984661182</v>
+        <v>26.45983636660318</v>
       </c>
       <c r="M13" t="n">
-        <v>22.57859809741516</v>
+        <v>27.89818750576852</v>
       </c>
       <c r="N13" t="n">
-        <v>22.04172950030678</v>
+        <v>27.23483096239645</v>
       </c>
       <c r="O13" t="n">
-        <v>20.35910475083287</v>
+        <v>25.15577447890096</v>
       </c>
       <c r="P13" t="n">
-        <v>17.42073125836636</v>
+        <v>21.52511086103024</v>
       </c>
       <c r="Q13" t="n">
-        <v>12.06121133650125</v>
+        <v>14.90287102683025</v>
       </c>
       <c r="R13" t="n">
-        <v>6.47646849097114</v>
+        <v>8.002345032971705</v>
       </c>
       <c r="S13" t="n">
-        <v>2.510188050382466</v>
+        <v>3.101596325961738</v>
       </c>
       <c r="T13" t="n">
-        <v>0.6154347332706097</v>
+        <v>0.7604331106948445</v>
       </c>
       <c r="U13" t="n">
-        <v>0.007856613616220561</v>
+        <v>0.009707656732274625</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3211078261905885</v>
+        <v>0.3967618496943056</v>
       </c>
       <c r="H14" t="n">
-        <v>3.288545524974365</v>
+        <v>4.063337293181807</v>
       </c>
       <c r="I14" t="n">
-        <v>12.37950946921268</v>
+        <v>15.29616121033973</v>
       </c>
       <c r="J14" t="n">
-        <v>27.25362536314349</v>
+        <v>33.6746660404921</v>
       </c>
       <c r="K14" t="n">
-        <v>40.84611964579111</v>
+        <v>50.46959513805206</v>
       </c>
       <c r="L14" t="n">
-        <v>50.67322328157134</v>
+        <v>62.61199559563418</v>
       </c>
       <c r="M14" t="n">
-        <v>56.38372458558822</v>
+        <v>69.66790914013528</v>
       </c>
       <c r="N14" t="n">
-        <v>57.29607219675223</v>
+        <v>70.79520874557923</v>
       </c>
       <c r="O14" t="n">
-        <v>54.10305625006956</v>
+        <v>66.84990810268148</v>
       </c>
       <c r="P14" t="n">
-        <v>46.1757067909894</v>
+        <v>57.0548499383533</v>
       </c>
       <c r="Q14" t="n">
-        <v>34.67603276553894</v>
+        <v>42.84581619617597</v>
       </c>
       <c r="R14" t="n">
-        <v>20.17078948694457</v>
+        <v>24.92309154085994</v>
       </c>
       <c r="S14" t="n">
-        <v>7.317244589318043</v>
+        <v>9.041210649908997</v>
       </c>
       <c r="T14" t="n">
-        <v>1.405649509149302</v>
+        <v>1.736824997036823</v>
       </c>
       <c r="U14" t="n">
-        <v>0.02568862609524708</v>
+        <v>0.03174094797554444</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.17180783360754</v>
+        <v>0.212286304768043</v>
       </c>
       <c r="H15" t="n">
-        <v>1.659301971946505</v>
+        <v>2.050238785522942</v>
       </c>
       <c r="I15" t="n">
-        <v>5.915313569382409</v>
+        <v>7.308980229952359</v>
       </c>
       <c r="J15" t="n">
-        <v>16.23207256026325</v>
+        <v>20.05640039915971</v>
       </c>
       <c r="K15" t="n">
-        <v>27.74319741196843</v>
+        <v>34.27958281861859</v>
       </c>
       <c r="L15" t="n">
-        <v>37.30415264360206</v>
+        <v>46.09312946290338</v>
       </c>
       <c r="M15" t="n">
-        <v>43.53218661187537</v>
+        <v>53.78850801074492</v>
       </c>
       <c r="N15" t="n">
-        <v>44.6843540574277</v>
+        <v>55.21212976508852</v>
       </c>
       <c r="O15" t="n">
-        <v>40.87745416538694</v>
+        <v>50.50831216996504</v>
       </c>
       <c r="P15" t="n">
-        <v>32.80776078774157</v>
+        <v>40.53737340785551</v>
       </c>
       <c r="Q15" t="n">
-        <v>21.93111925137651</v>
+        <v>27.09816058758388</v>
       </c>
       <c r="R15" t="n">
-        <v>10.66715654626464</v>
+        <v>13.18037250130008</v>
       </c>
       <c r="S15" t="n">
-        <v>3.191255154947068</v>
+        <v>3.943125003037989</v>
       </c>
       <c r="T15" t="n">
-        <v>0.6925061363391632</v>
+        <v>0.8556627810606642</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01130314694786448</v>
+        <v>0.01396620426105547</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1440379162973768</v>
+        <v>0.1779737067583679</v>
       </c>
       <c r="H16" t="n">
-        <v>1.280628019443951</v>
+        <v>1.582348047360763</v>
       </c>
       <c r="I16" t="n">
-        <v>4.331612973742932</v>
+        <v>5.352154745060739</v>
       </c>
       <c r="J16" t="n">
-        <v>10.18348068222454</v>
+        <v>12.58274106781661</v>
       </c>
       <c r="K16" t="n">
-        <v>16.73458700254977</v>
+        <v>20.67730883974492</v>
       </c>
       <c r="L16" t="n">
-        <v>21.41450984661182</v>
+        <v>26.45983636660318</v>
       </c>
       <c r="M16" t="n">
-        <v>22.57859809741516</v>
+        <v>27.89818750576852</v>
       </c>
       <c r="N16" t="n">
-        <v>22.04172950030678</v>
+        <v>27.23483096239645</v>
       </c>
       <c r="O16" t="n">
-        <v>20.35910475083287</v>
+        <v>25.15577447890096</v>
       </c>
       <c r="P16" t="n">
-        <v>17.42073125836636</v>
+        <v>21.52511086103024</v>
       </c>
       <c r="Q16" t="n">
-        <v>12.06121133650125</v>
+        <v>14.90287102683025</v>
       </c>
       <c r="R16" t="n">
-        <v>6.47646849097114</v>
+        <v>8.002345032971705</v>
       </c>
       <c r="S16" t="n">
-        <v>2.510188050382466</v>
+        <v>3.101596325961738</v>
       </c>
       <c r="T16" t="n">
-        <v>0.6154347332706097</v>
+        <v>0.7604331106948445</v>
       </c>
       <c r="U16" t="n">
-        <v>0.007856613616220561</v>
+        <v>0.009707656732274625</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3211078261905885</v>
+        <v>0.3967618496943056</v>
       </c>
       <c r="H17" t="n">
-        <v>3.288545524974365</v>
+        <v>4.063337293181807</v>
       </c>
       <c r="I17" t="n">
-        <v>12.37950946921268</v>
+        <v>15.29616121033973</v>
       </c>
       <c r="J17" t="n">
-        <v>27.25362536314349</v>
+        <v>33.6746660404921</v>
       </c>
       <c r="K17" t="n">
-        <v>40.84611964579111</v>
+        <v>50.46959513805206</v>
       </c>
       <c r="L17" t="n">
-        <v>50.67322328157134</v>
+        <v>62.61199559563418</v>
       </c>
       <c r="M17" t="n">
-        <v>56.38372458558822</v>
+        <v>69.66790914013528</v>
       </c>
       <c r="N17" t="n">
-        <v>57.29607219675223</v>
+        <v>70.79520874557923</v>
       </c>
       <c r="O17" t="n">
-        <v>54.10305625006956</v>
+        <v>66.84990810268148</v>
       </c>
       <c r="P17" t="n">
-        <v>46.1757067909894</v>
+        <v>57.0548499383533</v>
       </c>
       <c r="Q17" t="n">
-        <v>34.67603276553894</v>
+        <v>42.84581619617597</v>
       </c>
       <c r="R17" t="n">
-        <v>20.17078948694457</v>
+        <v>24.92309154085994</v>
       </c>
       <c r="S17" t="n">
-        <v>7.317244589318043</v>
+        <v>9.041210649908997</v>
       </c>
       <c r="T17" t="n">
-        <v>1.405649509149302</v>
+        <v>1.736824997036823</v>
       </c>
       <c r="U17" t="n">
-        <v>0.02568862609524708</v>
+        <v>0.03174094797554444</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.17180783360754</v>
+        <v>0.212286304768043</v>
       </c>
       <c r="H18" t="n">
-        <v>1.659301971946505</v>
+        <v>2.050238785522942</v>
       </c>
       <c r="I18" t="n">
-        <v>5.915313569382409</v>
+        <v>7.308980229952359</v>
       </c>
       <c r="J18" t="n">
-        <v>16.23207256026325</v>
+        <v>20.05640039915971</v>
       </c>
       <c r="K18" t="n">
-        <v>27.74319741196843</v>
+        <v>34.27958281861859</v>
       </c>
       <c r="L18" t="n">
-        <v>37.30415264360206</v>
+        <v>46.09312946290338</v>
       </c>
       <c r="M18" t="n">
-        <v>43.53218661187537</v>
+        <v>53.78850801074492</v>
       </c>
       <c r="N18" t="n">
-        <v>44.6843540574277</v>
+        <v>55.21212976508852</v>
       </c>
       <c r="O18" t="n">
-        <v>40.87745416538694</v>
+        <v>50.50831216996504</v>
       </c>
       <c r="P18" t="n">
-        <v>32.80776078774157</v>
+        <v>40.53737340785551</v>
       </c>
       <c r="Q18" t="n">
-        <v>21.93111925137651</v>
+        <v>27.09816058758388</v>
       </c>
       <c r="R18" t="n">
-        <v>10.66715654626464</v>
+        <v>13.18037250130008</v>
       </c>
       <c r="S18" t="n">
-        <v>3.191255154947068</v>
+        <v>3.943125003037989</v>
       </c>
       <c r="T18" t="n">
-        <v>0.6925061363391632</v>
+        <v>0.8556627810606642</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01130314694786448</v>
+        <v>0.01396620426105547</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1440379162973768</v>
+        <v>0.1779737067583679</v>
       </c>
       <c r="H19" t="n">
-        <v>1.280628019443951</v>
+        <v>1.582348047360763</v>
       </c>
       <c r="I19" t="n">
-        <v>4.331612973742932</v>
+        <v>5.352154745060739</v>
       </c>
       <c r="J19" t="n">
-        <v>10.18348068222454</v>
+        <v>12.58274106781661</v>
       </c>
       <c r="K19" t="n">
-        <v>16.73458700254977</v>
+        <v>20.67730883974492</v>
       </c>
       <c r="L19" t="n">
-        <v>21.41450984661182</v>
+        <v>26.45983636660318</v>
       </c>
       <c r="M19" t="n">
-        <v>22.57859809741516</v>
+        <v>27.89818750576852</v>
       </c>
       <c r="N19" t="n">
-        <v>22.04172950030678</v>
+        <v>27.23483096239645</v>
       </c>
       <c r="O19" t="n">
-        <v>20.35910475083287</v>
+        <v>25.15577447890096</v>
       </c>
       <c r="P19" t="n">
-        <v>17.42073125836636</v>
+        <v>21.52511086103024</v>
       </c>
       <c r="Q19" t="n">
-        <v>12.06121133650125</v>
+        <v>14.90287102683025</v>
       </c>
       <c r="R19" t="n">
-        <v>6.47646849097114</v>
+        <v>8.002345032971705</v>
       </c>
       <c r="S19" t="n">
-        <v>2.510188050382466</v>
+        <v>3.101596325961738</v>
       </c>
       <c r="T19" t="n">
-        <v>0.6154347332706097</v>
+        <v>0.7604331106948445</v>
       </c>
       <c r="U19" t="n">
-        <v>0.007856613616220561</v>
+        <v>0.009707656732274625</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3211078261905885</v>
+        <v>0.3967618496943056</v>
       </c>
       <c r="H20" t="n">
-        <v>3.288545524974365</v>
+        <v>4.063337293181807</v>
       </c>
       <c r="I20" t="n">
-        <v>12.37950946921268</v>
+        <v>15.29616121033973</v>
       </c>
       <c r="J20" t="n">
-        <v>27.25362536314349</v>
+        <v>33.6746660404921</v>
       </c>
       <c r="K20" t="n">
-        <v>40.84611964579111</v>
+        <v>50.46959513805206</v>
       </c>
       <c r="L20" t="n">
-        <v>50.67322328157134</v>
+        <v>62.61199559563418</v>
       </c>
       <c r="M20" t="n">
-        <v>56.38372458558822</v>
+        <v>69.66790914013528</v>
       </c>
       <c r="N20" t="n">
-        <v>57.29607219675223</v>
+        <v>70.79520874557923</v>
       </c>
       <c r="O20" t="n">
-        <v>54.10305625006956</v>
+        <v>66.84990810268148</v>
       </c>
       <c r="P20" t="n">
-        <v>46.1757067909894</v>
+        <v>57.0548499383533</v>
       </c>
       <c r="Q20" t="n">
-        <v>34.67603276553894</v>
+        <v>42.84581619617597</v>
       </c>
       <c r="R20" t="n">
-        <v>20.17078948694457</v>
+        <v>24.92309154085994</v>
       </c>
       <c r="S20" t="n">
-        <v>7.317244589318043</v>
+        <v>9.041210649908997</v>
       </c>
       <c r="T20" t="n">
-        <v>1.405649509149302</v>
+        <v>1.736824997036823</v>
       </c>
       <c r="U20" t="n">
-        <v>0.02568862609524708</v>
+        <v>0.03174094797554444</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.17180783360754</v>
+        <v>0.212286304768043</v>
       </c>
       <c r="H21" t="n">
-        <v>1.659301971946505</v>
+        <v>2.050238785522942</v>
       </c>
       <c r="I21" t="n">
-        <v>5.915313569382409</v>
+        <v>7.308980229952359</v>
       </c>
       <c r="J21" t="n">
-        <v>16.23207256026325</v>
+        <v>20.05640039915971</v>
       </c>
       <c r="K21" t="n">
-        <v>27.74319741196843</v>
+        <v>34.27958281861859</v>
       </c>
       <c r="L21" t="n">
-        <v>37.30415264360206</v>
+        <v>46.09312946290338</v>
       </c>
       <c r="M21" t="n">
-        <v>43.53218661187537</v>
+        <v>53.78850801074492</v>
       </c>
       <c r="N21" t="n">
-        <v>44.6843540574277</v>
+        <v>55.21212976508852</v>
       </c>
       <c r="O21" t="n">
-        <v>40.87745416538694</v>
+        <v>50.50831216996504</v>
       </c>
       <c r="P21" t="n">
-        <v>32.80776078774157</v>
+        <v>40.53737340785551</v>
       </c>
       <c r="Q21" t="n">
-        <v>21.93111925137651</v>
+        <v>27.09816058758388</v>
       </c>
       <c r="R21" t="n">
-        <v>10.66715654626464</v>
+        <v>13.18037250130008</v>
       </c>
       <c r="S21" t="n">
-        <v>3.191255154947068</v>
+        <v>3.943125003037989</v>
       </c>
       <c r="T21" t="n">
-        <v>0.6925061363391632</v>
+        <v>0.8556627810606642</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01130314694786448</v>
+        <v>0.01396620426105547</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1440379162973768</v>
+        <v>0.1779737067583679</v>
       </c>
       <c r="H22" t="n">
-        <v>1.280628019443951</v>
+        <v>1.582348047360763</v>
       </c>
       <c r="I22" t="n">
-        <v>4.331612973742932</v>
+        <v>5.352154745060739</v>
       </c>
       <c r="J22" t="n">
-        <v>10.18348068222454</v>
+        <v>12.58274106781661</v>
       </c>
       <c r="K22" t="n">
-        <v>16.73458700254977</v>
+        <v>20.67730883974492</v>
       </c>
       <c r="L22" t="n">
-        <v>21.41450984661182</v>
+        <v>26.45983636660318</v>
       </c>
       <c r="M22" t="n">
-        <v>22.57859809741516</v>
+        <v>27.89818750576852</v>
       </c>
       <c r="N22" t="n">
-        <v>22.04172950030678</v>
+        <v>27.23483096239645</v>
       </c>
       <c r="O22" t="n">
-        <v>20.35910475083287</v>
+        <v>25.15577447890096</v>
       </c>
       <c r="P22" t="n">
-        <v>17.42073125836636</v>
+        <v>21.52511086103024</v>
       </c>
       <c r="Q22" t="n">
-        <v>12.06121133650125</v>
+        <v>14.90287102683025</v>
       </c>
       <c r="R22" t="n">
-        <v>6.47646849097114</v>
+        <v>8.002345032971705</v>
       </c>
       <c r="S22" t="n">
-        <v>2.510188050382466</v>
+        <v>3.101596325961738</v>
       </c>
       <c r="T22" t="n">
-        <v>0.6154347332706097</v>
+        <v>0.7604331106948445</v>
       </c>
       <c r="U22" t="n">
-        <v>0.007856613616220561</v>
+        <v>0.009707656732274625</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3211078261905885</v>
+        <v>0.3967618496943056</v>
       </c>
       <c r="H23" t="n">
-        <v>3.288545524974365</v>
+        <v>4.063337293181807</v>
       </c>
       <c r="I23" t="n">
-        <v>12.37950946921268</v>
+        <v>15.29616121033973</v>
       </c>
       <c r="J23" t="n">
-        <v>27.25362536314349</v>
+        <v>33.6746660404921</v>
       </c>
       <c r="K23" t="n">
-        <v>40.84611964579111</v>
+        <v>50.46959513805206</v>
       </c>
       <c r="L23" t="n">
-        <v>50.67322328157134</v>
+        <v>62.61199559563418</v>
       </c>
       <c r="M23" t="n">
-        <v>56.38372458558822</v>
+        <v>69.66790914013528</v>
       </c>
       <c r="N23" t="n">
-        <v>57.29607219675223</v>
+        <v>70.79520874557923</v>
       </c>
       <c r="O23" t="n">
-        <v>54.10305625006956</v>
+        <v>66.84990810268148</v>
       </c>
       <c r="P23" t="n">
-        <v>46.1757067909894</v>
+        <v>57.0548499383533</v>
       </c>
       <c r="Q23" t="n">
-        <v>34.67603276553894</v>
+        <v>42.84581619617597</v>
       </c>
       <c r="R23" t="n">
-        <v>20.17078948694457</v>
+        <v>24.92309154085994</v>
       </c>
       <c r="S23" t="n">
-        <v>7.317244589318043</v>
+        <v>9.041210649908997</v>
       </c>
       <c r="T23" t="n">
-        <v>1.405649509149302</v>
+        <v>1.736824997036823</v>
       </c>
       <c r="U23" t="n">
-        <v>0.02568862609524708</v>
+        <v>0.03174094797554444</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.17180783360754</v>
+        <v>0.212286304768043</v>
       </c>
       <c r="H24" t="n">
-        <v>1.659301971946505</v>
+        <v>2.050238785522942</v>
       </c>
       <c r="I24" t="n">
-        <v>5.915313569382409</v>
+        <v>7.308980229952359</v>
       </c>
       <c r="J24" t="n">
-        <v>16.23207256026325</v>
+        <v>20.05640039915971</v>
       </c>
       <c r="K24" t="n">
-        <v>27.74319741196843</v>
+        <v>34.27958281861859</v>
       </c>
       <c r="L24" t="n">
-        <v>37.30415264360206</v>
+        <v>46.09312946290338</v>
       </c>
       <c r="M24" t="n">
-        <v>43.53218661187537</v>
+        <v>53.78850801074492</v>
       </c>
       <c r="N24" t="n">
-        <v>44.6843540574277</v>
+        <v>55.21212976508852</v>
       </c>
       <c r="O24" t="n">
-        <v>40.87745416538694</v>
+        <v>50.50831216996504</v>
       </c>
       <c r="P24" t="n">
-        <v>32.80776078774157</v>
+        <v>40.53737340785551</v>
       </c>
       <c r="Q24" t="n">
-        <v>21.93111925137651</v>
+        <v>27.09816058758388</v>
       </c>
       <c r="R24" t="n">
-        <v>10.66715654626464</v>
+        <v>13.18037250130008</v>
       </c>
       <c r="S24" t="n">
-        <v>3.191255154947068</v>
+        <v>3.943125003037989</v>
       </c>
       <c r="T24" t="n">
-        <v>0.6925061363391632</v>
+        <v>0.8556627810606642</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01130314694786448</v>
+        <v>0.01396620426105547</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1440379162973768</v>
+        <v>0.1779737067583679</v>
       </c>
       <c r="H25" t="n">
-        <v>1.280628019443951</v>
+        <v>1.582348047360763</v>
       </c>
       <c r="I25" t="n">
-        <v>4.331612973742932</v>
+        <v>5.352154745060739</v>
       </c>
       <c r="J25" t="n">
-        <v>10.18348068222454</v>
+        <v>12.58274106781661</v>
       </c>
       <c r="K25" t="n">
-        <v>16.73458700254977</v>
+        <v>20.67730883974492</v>
       </c>
       <c r="L25" t="n">
-        <v>21.41450984661182</v>
+        <v>26.45983636660318</v>
       </c>
       <c r="M25" t="n">
-        <v>22.57859809741516</v>
+        <v>27.89818750576852</v>
       </c>
       <c r="N25" t="n">
-        <v>22.04172950030678</v>
+        <v>27.23483096239645</v>
       </c>
       <c r="O25" t="n">
-        <v>20.35910475083287</v>
+        <v>25.15577447890096</v>
       </c>
       <c r="P25" t="n">
-        <v>17.42073125836636</v>
+        <v>21.52511086103024</v>
       </c>
       <c r="Q25" t="n">
-        <v>12.06121133650125</v>
+        <v>14.90287102683025</v>
       </c>
       <c r="R25" t="n">
-        <v>6.47646849097114</v>
+        <v>8.002345032971705</v>
       </c>
       <c r="S25" t="n">
-        <v>2.510188050382466</v>
+        <v>3.101596325961738</v>
       </c>
       <c r="T25" t="n">
-        <v>0.6154347332706097</v>
+        <v>0.7604331106948445</v>
       </c>
       <c r="U25" t="n">
-        <v>0.007856613616220561</v>
+        <v>0.009707656732274625</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3211078261905885</v>
+        <v>0.3967618496943056</v>
       </c>
       <c r="H26" t="n">
-        <v>3.288545524974365</v>
+        <v>4.063337293181807</v>
       </c>
       <c r="I26" t="n">
-        <v>12.37950946921268</v>
+        <v>15.29616121033973</v>
       </c>
       <c r="J26" t="n">
-        <v>27.25362536314349</v>
+        <v>33.6746660404921</v>
       </c>
       <c r="K26" t="n">
-        <v>40.84611964579111</v>
+        <v>50.46959513805206</v>
       </c>
       <c r="L26" t="n">
-        <v>50.67322328157134</v>
+        <v>62.61199559563418</v>
       </c>
       <c r="M26" t="n">
-        <v>56.38372458558822</v>
+        <v>69.66790914013528</v>
       </c>
       <c r="N26" t="n">
-        <v>57.29607219675223</v>
+        <v>70.79520874557923</v>
       </c>
       <c r="O26" t="n">
-        <v>54.10305625006956</v>
+        <v>66.84990810268148</v>
       </c>
       <c r="P26" t="n">
-        <v>46.1757067909894</v>
+        <v>57.0548499383533</v>
       </c>
       <c r="Q26" t="n">
-        <v>34.67603276553894</v>
+        <v>42.84581619617597</v>
       </c>
       <c r="R26" t="n">
-        <v>20.17078948694457</v>
+        <v>24.92309154085994</v>
       </c>
       <c r="S26" t="n">
-        <v>7.317244589318043</v>
+        <v>9.041210649908997</v>
       </c>
       <c r="T26" t="n">
-        <v>1.405649509149302</v>
+        <v>1.736824997036823</v>
       </c>
       <c r="U26" t="n">
-        <v>0.02568862609524708</v>
+        <v>0.03174094797554444</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.17180783360754</v>
+        <v>0.212286304768043</v>
       </c>
       <c r="H27" t="n">
-        <v>1.659301971946505</v>
+        <v>2.050238785522942</v>
       </c>
       <c r="I27" t="n">
-        <v>5.915313569382409</v>
+        <v>7.308980229952359</v>
       </c>
       <c r="J27" t="n">
-        <v>16.23207256026325</v>
+        <v>20.05640039915971</v>
       </c>
       <c r="K27" t="n">
-        <v>27.74319741196843</v>
+        <v>34.27958281861859</v>
       </c>
       <c r="L27" t="n">
-        <v>37.30415264360206</v>
+        <v>46.09312946290338</v>
       </c>
       <c r="M27" t="n">
-        <v>43.53218661187537</v>
+        <v>53.78850801074492</v>
       </c>
       <c r="N27" t="n">
-        <v>44.6843540574277</v>
+        <v>55.21212976508852</v>
       </c>
       <c r="O27" t="n">
-        <v>40.87745416538694</v>
+        <v>50.50831216996504</v>
       </c>
       <c r="P27" t="n">
-        <v>32.80776078774157</v>
+        <v>40.53737340785551</v>
       </c>
       <c r="Q27" t="n">
-        <v>21.93111925137651</v>
+        <v>27.09816058758388</v>
       </c>
       <c r="R27" t="n">
-        <v>10.66715654626464</v>
+        <v>13.18037250130008</v>
       </c>
       <c r="S27" t="n">
-        <v>3.191255154947068</v>
+        <v>3.943125003037989</v>
       </c>
       <c r="T27" t="n">
-        <v>0.6925061363391632</v>
+        <v>0.8556627810606642</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01130314694786448</v>
+        <v>0.01396620426105547</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1440379162973768</v>
+        <v>0.1779737067583679</v>
       </c>
       <c r="H28" t="n">
-        <v>1.280628019443951</v>
+        <v>1.582348047360763</v>
       </c>
       <c r="I28" t="n">
-        <v>4.331612973742932</v>
+        <v>5.352154745060739</v>
       </c>
       <c r="J28" t="n">
-        <v>10.18348068222454</v>
+        <v>12.58274106781661</v>
       </c>
       <c r="K28" t="n">
-        <v>16.73458700254977</v>
+        <v>20.67730883974492</v>
       </c>
       <c r="L28" t="n">
-        <v>21.41450984661182</v>
+        <v>26.45983636660318</v>
       </c>
       <c r="M28" t="n">
-        <v>22.57859809741516</v>
+        <v>27.89818750576852</v>
       </c>
       <c r="N28" t="n">
-        <v>22.04172950030678</v>
+        <v>27.23483096239645</v>
       </c>
       <c r="O28" t="n">
-        <v>20.35910475083287</v>
+        <v>25.15577447890096</v>
       </c>
       <c r="P28" t="n">
-        <v>17.42073125836636</v>
+        <v>21.52511086103024</v>
       </c>
       <c r="Q28" t="n">
-        <v>12.06121133650125</v>
+        <v>14.90287102683025</v>
       </c>
       <c r="R28" t="n">
-        <v>6.47646849097114</v>
+        <v>8.002345032971705</v>
       </c>
       <c r="S28" t="n">
-        <v>2.510188050382466</v>
+        <v>3.101596325961738</v>
       </c>
       <c r="T28" t="n">
-        <v>0.6154347332706097</v>
+        <v>0.7604331106948445</v>
       </c>
       <c r="U28" t="n">
-        <v>0.007856613616220561</v>
+        <v>0.009707656732274625</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3211078261905885</v>
+        <v>0.3967618496943056</v>
       </c>
       <c r="H29" t="n">
-        <v>3.288545524974365</v>
+        <v>4.063337293181807</v>
       </c>
       <c r="I29" t="n">
-        <v>12.37950946921268</v>
+        <v>15.29616121033973</v>
       </c>
       <c r="J29" t="n">
-        <v>27.25362536314349</v>
+        <v>33.6746660404921</v>
       </c>
       <c r="K29" t="n">
-        <v>40.84611964579111</v>
+        <v>50.46959513805206</v>
       </c>
       <c r="L29" t="n">
-        <v>50.67322328157134</v>
+        <v>62.61199559563418</v>
       </c>
       <c r="M29" t="n">
-        <v>56.38372458558822</v>
+        <v>69.66790914013528</v>
       </c>
       <c r="N29" t="n">
-        <v>57.29607219675223</v>
+        <v>70.79520874557923</v>
       </c>
       <c r="O29" t="n">
-        <v>54.10305625006956</v>
+        <v>66.84990810268148</v>
       </c>
       <c r="P29" t="n">
-        <v>46.1757067909894</v>
+        <v>57.0548499383533</v>
       </c>
       <c r="Q29" t="n">
-        <v>34.67603276553894</v>
+        <v>42.84581619617597</v>
       </c>
       <c r="R29" t="n">
-        <v>20.17078948694457</v>
+        <v>24.92309154085994</v>
       </c>
       <c r="S29" t="n">
-        <v>7.317244589318043</v>
+        <v>9.041210649908997</v>
       </c>
       <c r="T29" t="n">
-        <v>1.405649509149302</v>
+        <v>1.736824997036823</v>
       </c>
       <c r="U29" t="n">
-        <v>0.02568862609524708</v>
+        <v>0.03174094797554444</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.17180783360754</v>
+        <v>0.212286304768043</v>
       </c>
       <c r="H30" t="n">
-        <v>1.659301971946505</v>
+        <v>2.050238785522942</v>
       </c>
       <c r="I30" t="n">
-        <v>5.915313569382409</v>
+        <v>7.308980229952359</v>
       </c>
       <c r="J30" t="n">
-        <v>16.23207256026325</v>
+        <v>20.05640039915971</v>
       </c>
       <c r="K30" t="n">
-        <v>27.74319741196843</v>
+        <v>34.27958281861859</v>
       </c>
       <c r="L30" t="n">
-        <v>37.30415264360206</v>
+        <v>46.09312946290338</v>
       </c>
       <c r="M30" t="n">
-        <v>43.53218661187537</v>
+        <v>53.78850801074492</v>
       </c>
       <c r="N30" t="n">
-        <v>44.6843540574277</v>
+        <v>55.21212976508852</v>
       </c>
       <c r="O30" t="n">
-        <v>40.87745416538694</v>
+        <v>50.50831216996504</v>
       </c>
       <c r="P30" t="n">
-        <v>32.80776078774157</v>
+        <v>40.53737340785551</v>
       </c>
       <c r="Q30" t="n">
-        <v>21.93111925137651</v>
+        <v>27.09816058758388</v>
       </c>
       <c r="R30" t="n">
-        <v>10.66715654626464</v>
+        <v>13.18037250130008</v>
       </c>
       <c r="S30" t="n">
-        <v>3.191255154947068</v>
+        <v>3.943125003037989</v>
       </c>
       <c r="T30" t="n">
-        <v>0.6925061363391632</v>
+        <v>0.8556627810606642</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01130314694786448</v>
+        <v>0.01396620426105547</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1440379162973768</v>
+        <v>0.1779737067583679</v>
       </c>
       <c r="H31" t="n">
-        <v>1.280628019443951</v>
+        <v>1.582348047360763</v>
       </c>
       <c r="I31" t="n">
-        <v>4.331612973742932</v>
+        <v>5.352154745060739</v>
       </c>
       <c r="J31" t="n">
-        <v>10.18348068222454</v>
+        <v>12.58274106781661</v>
       </c>
       <c r="K31" t="n">
-        <v>16.73458700254977</v>
+        <v>20.67730883974492</v>
       </c>
       <c r="L31" t="n">
-        <v>21.41450984661182</v>
+        <v>26.45983636660318</v>
       </c>
       <c r="M31" t="n">
-        <v>22.57859809741516</v>
+        <v>27.89818750576852</v>
       </c>
       <c r="N31" t="n">
-        <v>22.04172950030678</v>
+        <v>27.23483096239645</v>
       </c>
       <c r="O31" t="n">
-        <v>20.35910475083287</v>
+        <v>25.15577447890096</v>
       </c>
       <c r="P31" t="n">
-        <v>17.42073125836636</v>
+        <v>21.52511086103024</v>
       </c>
       <c r="Q31" t="n">
-        <v>12.06121133650125</v>
+        <v>14.90287102683025</v>
       </c>
       <c r="R31" t="n">
-        <v>6.47646849097114</v>
+        <v>8.002345032971705</v>
       </c>
       <c r="S31" t="n">
-        <v>2.510188050382466</v>
+        <v>3.101596325961738</v>
       </c>
       <c r="T31" t="n">
-        <v>0.6154347332706097</v>
+        <v>0.7604331106948445</v>
       </c>
       <c r="U31" t="n">
-        <v>0.007856613616220561</v>
+        <v>0.009707656732274625</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.3211078261905885</v>
+        <v>0.3967618496943056</v>
       </c>
       <c r="H32" t="n">
-        <v>3.288545524974365</v>
+        <v>4.063337293181807</v>
       </c>
       <c r="I32" t="n">
-        <v>12.37950946921268</v>
+        <v>15.29616121033973</v>
       </c>
       <c r="J32" t="n">
-        <v>27.25362536314349</v>
+        <v>33.6746660404921</v>
       </c>
       <c r="K32" t="n">
-        <v>40.84611964579111</v>
+        <v>50.46959513805206</v>
       </c>
       <c r="L32" t="n">
-        <v>50.67322328157134</v>
+        <v>62.61199559563418</v>
       </c>
       <c r="M32" t="n">
-        <v>56.38372458558822</v>
+        <v>69.66790914013528</v>
       </c>
       <c r="N32" t="n">
-        <v>57.29607219675223</v>
+        <v>70.79520874557923</v>
       </c>
       <c r="O32" t="n">
-        <v>54.10305625006956</v>
+        <v>66.84990810268148</v>
       </c>
       <c r="P32" t="n">
-        <v>46.1757067909894</v>
+        <v>57.0548499383533</v>
       </c>
       <c r="Q32" t="n">
-        <v>34.67603276553894</v>
+        <v>42.84581619617597</v>
       </c>
       <c r="R32" t="n">
-        <v>20.17078948694457</v>
+        <v>24.92309154085994</v>
       </c>
       <c r="S32" t="n">
-        <v>7.317244589318043</v>
+        <v>9.041210649908997</v>
       </c>
       <c r="T32" t="n">
-        <v>1.405649509149302</v>
+        <v>1.736824997036823</v>
       </c>
       <c r="U32" t="n">
-        <v>0.02568862609524708</v>
+        <v>0.03174094797554444</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.17180783360754</v>
+        <v>0.212286304768043</v>
       </c>
       <c r="H33" t="n">
-        <v>1.659301971946505</v>
+        <v>2.050238785522942</v>
       </c>
       <c r="I33" t="n">
-        <v>5.915313569382409</v>
+        <v>7.308980229952359</v>
       </c>
       <c r="J33" t="n">
-        <v>16.23207256026325</v>
+        <v>20.05640039915971</v>
       </c>
       <c r="K33" t="n">
-        <v>27.74319741196843</v>
+        <v>34.27958281861859</v>
       </c>
       <c r="L33" t="n">
-        <v>37.30415264360206</v>
+        <v>46.09312946290338</v>
       </c>
       <c r="M33" t="n">
-        <v>43.53218661187537</v>
+        <v>53.78850801074492</v>
       </c>
       <c r="N33" t="n">
-        <v>44.6843540574277</v>
+        <v>55.21212976508852</v>
       </c>
       <c r="O33" t="n">
-        <v>40.87745416538694</v>
+        <v>50.50831216996504</v>
       </c>
       <c r="P33" t="n">
-        <v>32.80776078774157</v>
+        <v>40.53737340785551</v>
       </c>
       <c r="Q33" t="n">
-        <v>21.93111925137651</v>
+        <v>27.09816058758388</v>
       </c>
       <c r="R33" t="n">
-        <v>10.66715654626464</v>
+        <v>13.18037250130008</v>
       </c>
       <c r="S33" t="n">
-        <v>3.191255154947068</v>
+        <v>3.943125003037989</v>
       </c>
       <c r="T33" t="n">
-        <v>0.6925061363391632</v>
+        <v>0.8556627810606642</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01130314694786448</v>
+        <v>0.01396620426105547</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1440379162973768</v>
+        <v>0.1779737067583679</v>
       </c>
       <c r="H34" t="n">
-        <v>1.280628019443951</v>
+        <v>1.582348047360763</v>
       </c>
       <c r="I34" t="n">
-        <v>4.331612973742932</v>
+        <v>5.352154745060739</v>
       </c>
       <c r="J34" t="n">
-        <v>10.18348068222454</v>
+        <v>12.58274106781661</v>
       </c>
       <c r="K34" t="n">
-        <v>16.73458700254977</v>
+        <v>20.67730883974492</v>
       </c>
       <c r="L34" t="n">
-        <v>21.41450984661182</v>
+        <v>26.45983636660318</v>
       </c>
       <c r="M34" t="n">
-        <v>22.57859809741516</v>
+        <v>27.89818750576852</v>
       </c>
       <c r="N34" t="n">
-        <v>22.04172950030678</v>
+        <v>27.23483096239645</v>
       </c>
       <c r="O34" t="n">
-        <v>20.35910475083287</v>
+        <v>25.15577447890096</v>
       </c>
       <c r="P34" t="n">
-        <v>17.42073125836636</v>
+        <v>21.52511086103024</v>
       </c>
       <c r="Q34" t="n">
-        <v>12.06121133650125</v>
+        <v>14.90287102683025</v>
       </c>
       <c r="R34" t="n">
-        <v>6.47646849097114</v>
+        <v>8.002345032971705</v>
       </c>
       <c r="S34" t="n">
-        <v>2.510188050382466</v>
+        <v>3.101596325961738</v>
       </c>
       <c r="T34" t="n">
-        <v>0.6154347332706097</v>
+        <v>0.7604331106948445</v>
       </c>
       <c r="U34" t="n">
-        <v>0.007856613616220561</v>
+        <v>0.009707656732274625</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.3211078261905885</v>
+        <v>0.3967618496943056</v>
       </c>
       <c r="H35" t="n">
-        <v>3.288545524974365</v>
+        <v>4.063337293181807</v>
       </c>
       <c r="I35" t="n">
-        <v>12.37950946921268</v>
+        <v>15.29616121033973</v>
       </c>
       <c r="J35" t="n">
-        <v>27.25362536314349</v>
+        <v>33.6746660404921</v>
       </c>
       <c r="K35" t="n">
-        <v>40.84611964579111</v>
+        <v>50.46959513805206</v>
       </c>
       <c r="L35" t="n">
-        <v>50.67322328157134</v>
+        <v>62.61199559563418</v>
       </c>
       <c r="M35" t="n">
-        <v>56.38372458558822</v>
+        <v>69.66790914013528</v>
       </c>
       <c r="N35" t="n">
-        <v>57.29607219675223</v>
+        <v>70.79520874557923</v>
       </c>
       <c r="O35" t="n">
-        <v>54.10305625006956</v>
+        <v>66.84990810268148</v>
       </c>
       <c r="P35" t="n">
-        <v>46.1757067909894</v>
+        <v>57.0548499383533</v>
       </c>
       <c r="Q35" t="n">
-        <v>34.67603276553894</v>
+        <v>42.84581619617597</v>
       </c>
       <c r="R35" t="n">
-        <v>20.17078948694457</v>
+        <v>24.92309154085994</v>
       </c>
       <c r="S35" t="n">
-        <v>7.317244589318043</v>
+        <v>9.041210649908997</v>
       </c>
       <c r="T35" t="n">
-        <v>1.405649509149302</v>
+        <v>1.736824997036823</v>
       </c>
       <c r="U35" t="n">
-        <v>0.02568862609524708</v>
+        <v>0.03174094797554444</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.17180783360754</v>
+        <v>0.212286304768043</v>
       </c>
       <c r="H36" t="n">
-        <v>1.659301971946505</v>
+        <v>2.050238785522942</v>
       </c>
       <c r="I36" t="n">
-        <v>5.915313569382409</v>
+        <v>7.308980229952359</v>
       </c>
       <c r="J36" t="n">
-        <v>16.23207256026325</v>
+        <v>20.05640039915971</v>
       </c>
       <c r="K36" t="n">
-        <v>27.74319741196843</v>
+        <v>34.27958281861859</v>
       </c>
       <c r="L36" t="n">
-        <v>37.30415264360206</v>
+        <v>46.09312946290338</v>
       </c>
       <c r="M36" t="n">
-        <v>43.53218661187537</v>
+        <v>53.78850801074492</v>
       </c>
       <c r="N36" t="n">
-        <v>44.6843540574277</v>
+        <v>55.21212976508852</v>
       </c>
       <c r="O36" t="n">
-        <v>40.87745416538694</v>
+        <v>50.50831216996504</v>
       </c>
       <c r="P36" t="n">
-        <v>32.80776078774157</v>
+        <v>40.53737340785551</v>
       </c>
       <c r="Q36" t="n">
-        <v>21.93111925137651</v>
+        <v>27.09816058758388</v>
       </c>
       <c r="R36" t="n">
-        <v>10.66715654626464</v>
+        <v>13.18037250130008</v>
       </c>
       <c r="S36" t="n">
-        <v>3.191255154947068</v>
+        <v>3.943125003037989</v>
       </c>
       <c r="T36" t="n">
-        <v>0.6925061363391632</v>
+        <v>0.8556627810606642</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01130314694786448</v>
+        <v>0.01396620426105547</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1440379162973768</v>
+        <v>0.1779737067583679</v>
       </c>
       <c r="H37" t="n">
-        <v>1.280628019443951</v>
+        <v>1.582348047360763</v>
       </c>
       <c r="I37" t="n">
-        <v>4.331612973742932</v>
+        <v>5.352154745060739</v>
       </c>
       <c r="J37" t="n">
-        <v>10.18348068222454</v>
+        <v>12.58274106781661</v>
       </c>
       <c r="K37" t="n">
-        <v>16.73458700254977</v>
+        <v>20.67730883974492</v>
       </c>
       <c r="L37" t="n">
-        <v>21.41450984661182</v>
+        <v>26.45983636660318</v>
       </c>
       <c r="M37" t="n">
-        <v>22.57859809741516</v>
+        <v>27.89818750576852</v>
       </c>
       <c r="N37" t="n">
-        <v>22.04172950030678</v>
+        <v>27.23483096239645</v>
       </c>
       <c r="O37" t="n">
-        <v>20.35910475083287</v>
+        <v>25.15577447890096</v>
       </c>
       <c r="P37" t="n">
-        <v>17.42073125836636</v>
+        <v>21.52511086103024</v>
       </c>
       <c r="Q37" t="n">
-        <v>12.06121133650125</v>
+        <v>14.90287102683025</v>
       </c>
       <c r="R37" t="n">
-        <v>6.47646849097114</v>
+        <v>8.002345032971705</v>
       </c>
       <c r="S37" t="n">
-        <v>2.510188050382466</v>
+        <v>3.101596325961738</v>
       </c>
       <c r="T37" t="n">
-        <v>0.6154347332706097</v>
+        <v>0.7604331106948445</v>
       </c>
       <c r="U37" t="n">
-        <v>0.007856613616220561</v>
+        <v>0.009707656732274625</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3211078261905885</v>
+        <v>0.3967618496943056</v>
       </c>
       <c r="H38" t="n">
-        <v>3.288545524974365</v>
+        <v>4.063337293181807</v>
       </c>
       <c r="I38" t="n">
-        <v>12.37950946921268</v>
+        <v>15.29616121033973</v>
       </c>
       <c r="J38" t="n">
-        <v>27.25362536314349</v>
+        <v>33.6746660404921</v>
       </c>
       <c r="K38" t="n">
-        <v>40.84611964579111</v>
+        <v>50.46959513805206</v>
       </c>
       <c r="L38" t="n">
-        <v>50.67322328157134</v>
+        <v>62.61199559563418</v>
       </c>
       <c r="M38" t="n">
-        <v>56.38372458558822</v>
+        <v>69.66790914013528</v>
       </c>
       <c r="N38" t="n">
-        <v>57.29607219675223</v>
+        <v>70.79520874557923</v>
       </c>
       <c r="O38" t="n">
-        <v>54.10305625006956</v>
+        <v>66.84990810268148</v>
       </c>
       <c r="P38" t="n">
-        <v>46.1757067909894</v>
+        <v>57.0548499383533</v>
       </c>
       <c r="Q38" t="n">
-        <v>34.67603276553894</v>
+        <v>42.84581619617597</v>
       </c>
       <c r="R38" t="n">
-        <v>20.17078948694457</v>
+        <v>24.92309154085994</v>
       </c>
       <c r="S38" t="n">
-        <v>7.317244589318043</v>
+        <v>9.041210649908997</v>
       </c>
       <c r="T38" t="n">
-        <v>1.405649509149302</v>
+        <v>1.736824997036823</v>
       </c>
       <c r="U38" t="n">
-        <v>0.02568862609524708</v>
+        <v>0.03174094797554444</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.17180783360754</v>
+        <v>0.212286304768043</v>
       </c>
       <c r="H39" t="n">
-        <v>1.659301971946505</v>
+        <v>2.050238785522942</v>
       </c>
       <c r="I39" t="n">
-        <v>5.915313569382409</v>
+        <v>7.308980229952359</v>
       </c>
       <c r="J39" t="n">
-        <v>16.23207256026325</v>
+        <v>20.05640039915971</v>
       </c>
       <c r="K39" t="n">
-        <v>27.74319741196843</v>
+        <v>34.27958281861859</v>
       </c>
       <c r="L39" t="n">
-        <v>37.30415264360206</v>
+        <v>46.09312946290338</v>
       </c>
       <c r="M39" t="n">
-        <v>43.53218661187537</v>
+        <v>53.78850801074492</v>
       </c>
       <c r="N39" t="n">
-        <v>44.6843540574277</v>
+        <v>55.21212976508852</v>
       </c>
       <c r="O39" t="n">
-        <v>40.87745416538694</v>
+        <v>50.50831216996504</v>
       </c>
       <c r="P39" t="n">
-        <v>32.80776078774157</v>
+        <v>40.53737340785551</v>
       </c>
       <c r="Q39" t="n">
-        <v>21.93111925137651</v>
+        <v>27.09816058758388</v>
       </c>
       <c r="R39" t="n">
-        <v>10.66715654626464</v>
+        <v>13.18037250130008</v>
       </c>
       <c r="S39" t="n">
-        <v>3.191255154947068</v>
+        <v>3.943125003037989</v>
       </c>
       <c r="T39" t="n">
-        <v>0.6925061363391632</v>
+        <v>0.8556627810606642</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01130314694786448</v>
+        <v>0.01396620426105547</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1440379162973768</v>
+        <v>0.1779737067583679</v>
       </c>
       <c r="H40" t="n">
-        <v>1.280628019443951</v>
+        <v>1.582348047360763</v>
       </c>
       <c r="I40" t="n">
-        <v>4.331612973742932</v>
+        <v>5.352154745060739</v>
       </c>
       <c r="J40" t="n">
-        <v>10.18348068222454</v>
+        <v>12.58274106781661</v>
       </c>
       <c r="K40" t="n">
-        <v>16.73458700254977</v>
+        <v>20.67730883974492</v>
       </c>
       <c r="L40" t="n">
-        <v>21.41450984661182</v>
+        <v>26.45983636660318</v>
       </c>
       <c r="M40" t="n">
-        <v>22.57859809741516</v>
+        <v>27.89818750576852</v>
       </c>
       <c r="N40" t="n">
-        <v>22.04172950030678</v>
+        <v>27.23483096239645</v>
       </c>
       <c r="O40" t="n">
-        <v>20.35910475083287</v>
+        <v>25.15577447890096</v>
       </c>
       <c r="P40" t="n">
-        <v>17.42073125836636</v>
+        <v>21.52511086103024</v>
       </c>
       <c r="Q40" t="n">
-        <v>12.06121133650125</v>
+        <v>14.90287102683025</v>
       </c>
       <c r="R40" t="n">
-        <v>6.47646849097114</v>
+        <v>8.002345032971705</v>
       </c>
       <c r="S40" t="n">
-        <v>2.510188050382466</v>
+        <v>3.101596325961738</v>
       </c>
       <c r="T40" t="n">
-        <v>0.6154347332706097</v>
+        <v>0.7604331106948445</v>
       </c>
       <c r="U40" t="n">
-        <v>0.007856613616220561</v>
+        <v>0.009707656732274625</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.3211078261905885</v>
+        <v>0.3967618496943056</v>
       </c>
       <c r="H41" t="n">
-        <v>3.288545524974365</v>
+        <v>4.063337293181807</v>
       </c>
       <c r="I41" t="n">
-        <v>12.37950946921268</v>
+        <v>15.29616121033973</v>
       </c>
       <c r="J41" t="n">
-        <v>27.25362536314349</v>
+        <v>33.6746660404921</v>
       </c>
       <c r="K41" t="n">
-        <v>40.84611964579111</v>
+        <v>50.46959513805206</v>
       </c>
       <c r="L41" t="n">
-        <v>50.67322328157134</v>
+        <v>62.61199559563418</v>
       </c>
       <c r="M41" t="n">
-        <v>56.38372458558822</v>
+        <v>69.66790914013528</v>
       </c>
       <c r="N41" t="n">
-        <v>57.29607219675223</v>
+        <v>70.79520874557923</v>
       </c>
       <c r="O41" t="n">
-        <v>54.10305625006956</v>
+        <v>66.84990810268148</v>
       </c>
       <c r="P41" t="n">
-        <v>46.1757067909894</v>
+        <v>57.0548499383533</v>
       </c>
       <c r="Q41" t="n">
-        <v>34.67603276553894</v>
+        <v>42.84581619617597</v>
       </c>
       <c r="R41" t="n">
-        <v>20.17078948694457</v>
+        <v>24.92309154085994</v>
       </c>
       <c r="S41" t="n">
-        <v>7.317244589318043</v>
+        <v>9.041210649908997</v>
       </c>
       <c r="T41" t="n">
-        <v>1.405649509149302</v>
+        <v>1.736824997036823</v>
       </c>
       <c r="U41" t="n">
-        <v>0.02568862609524708</v>
+        <v>0.03174094797554444</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.17180783360754</v>
+        <v>0.212286304768043</v>
       </c>
       <c r="H42" t="n">
-        <v>1.659301971946505</v>
+        <v>2.050238785522942</v>
       </c>
       <c r="I42" t="n">
-        <v>5.915313569382409</v>
+        <v>7.308980229952359</v>
       </c>
       <c r="J42" t="n">
-        <v>16.23207256026325</v>
+        <v>20.05640039915971</v>
       </c>
       <c r="K42" t="n">
-        <v>27.74319741196843</v>
+        <v>34.27958281861859</v>
       </c>
       <c r="L42" t="n">
-        <v>37.30415264360206</v>
+        <v>46.09312946290338</v>
       </c>
       <c r="M42" t="n">
-        <v>43.53218661187537</v>
+        <v>53.78850801074492</v>
       </c>
       <c r="N42" t="n">
-        <v>44.6843540574277</v>
+        <v>55.21212976508852</v>
       </c>
       <c r="O42" t="n">
-        <v>40.87745416538694</v>
+        <v>50.50831216996504</v>
       </c>
       <c r="P42" t="n">
-        <v>32.80776078774157</v>
+        <v>40.53737340785551</v>
       </c>
       <c r="Q42" t="n">
-        <v>21.93111925137651</v>
+        <v>27.09816058758388</v>
       </c>
       <c r="R42" t="n">
-        <v>10.66715654626464</v>
+        <v>13.18037250130008</v>
       </c>
       <c r="S42" t="n">
-        <v>3.191255154947068</v>
+        <v>3.943125003037989</v>
       </c>
       <c r="T42" t="n">
-        <v>0.6925061363391632</v>
+        <v>0.8556627810606642</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01130314694786448</v>
+        <v>0.01396620426105547</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1440379162973768</v>
+        <v>0.1779737067583679</v>
       </c>
       <c r="H43" t="n">
-        <v>1.280628019443951</v>
+        <v>1.582348047360763</v>
       </c>
       <c r="I43" t="n">
-        <v>4.331612973742932</v>
+        <v>5.352154745060739</v>
       </c>
       <c r="J43" t="n">
-        <v>10.18348068222454</v>
+        <v>12.58274106781661</v>
       </c>
       <c r="K43" t="n">
-        <v>16.73458700254977</v>
+        <v>20.67730883974492</v>
       </c>
       <c r="L43" t="n">
-        <v>21.41450984661182</v>
+        <v>26.45983636660318</v>
       </c>
       <c r="M43" t="n">
-        <v>22.57859809741516</v>
+        <v>27.89818750576852</v>
       </c>
       <c r="N43" t="n">
-        <v>22.04172950030678</v>
+        <v>27.23483096239645</v>
       </c>
       <c r="O43" t="n">
-        <v>20.35910475083287</v>
+        <v>25.15577447890096</v>
       </c>
       <c r="P43" t="n">
-        <v>17.42073125836636</v>
+        <v>21.52511086103024</v>
       </c>
       <c r="Q43" t="n">
-        <v>12.06121133650125</v>
+        <v>14.90287102683025</v>
       </c>
       <c r="R43" t="n">
-        <v>6.47646849097114</v>
+        <v>8.002345032971705</v>
       </c>
       <c r="S43" t="n">
-        <v>2.510188050382466</v>
+        <v>3.101596325961738</v>
       </c>
       <c r="T43" t="n">
-        <v>0.6154347332706097</v>
+        <v>0.7604331106948445</v>
       </c>
       <c r="U43" t="n">
-        <v>0.007856613616220561</v>
+        <v>0.009707656732274625</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3211078261905885</v>
+        <v>0.3967618496943056</v>
       </c>
       <c r="H44" t="n">
-        <v>3.288545524974365</v>
+        <v>4.063337293181807</v>
       </c>
       <c r="I44" t="n">
-        <v>12.37950946921268</v>
+        <v>15.29616121033973</v>
       </c>
       <c r="J44" t="n">
-        <v>27.25362536314349</v>
+        <v>33.6746660404921</v>
       </c>
       <c r="K44" t="n">
-        <v>40.84611964579111</v>
+        <v>50.46959513805206</v>
       </c>
       <c r="L44" t="n">
-        <v>50.67322328157134</v>
+        <v>62.61199559563418</v>
       </c>
       <c r="M44" t="n">
-        <v>56.38372458558822</v>
+        <v>69.66790914013528</v>
       </c>
       <c r="N44" t="n">
-        <v>57.29607219675223</v>
+        <v>70.79520874557923</v>
       </c>
       <c r="O44" t="n">
-        <v>54.10305625006956</v>
+        <v>66.84990810268148</v>
       </c>
       <c r="P44" t="n">
-        <v>46.1757067909894</v>
+        <v>57.0548499383533</v>
       </c>
       <c r="Q44" t="n">
-        <v>34.67603276553894</v>
+        <v>42.84581619617597</v>
       </c>
       <c r="R44" t="n">
-        <v>20.17078948694457</v>
+        <v>24.92309154085994</v>
       </c>
       <c r="S44" t="n">
-        <v>7.317244589318043</v>
+        <v>9.041210649908997</v>
       </c>
       <c r="T44" t="n">
-        <v>1.405649509149302</v>
+        <v>1.736824997036823</v>
       </c>
       <c r="U44" t="n">
-        <v>0.02568862609524708</v>
+        <v>0.03174094797554444</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.17180783360754</v>
+        <v>0.212286304768043</v>
       </c>
       <c r="H45" t="n">
-        <v>1.659301971946505</v>
+        <v>2.050238785522942</v>
       </c>
       <c r="I45" t="n">
-        <v>5.915313569382409</v>
+        <v>7.308980229952359</v>
       </c>
       <c r="J45" t="n">
-        <v>16.23207256026325</v>
+        <v>20.05640039915971</v>
       </c>
       <c r="K45" t="n">
-        <v>27.74319741196843</v>
+        <v>34.27958281861859</v>
       </c>
       <c r="L45" t="n">
-        <v>37.30415264360206</v>
+        <v>46.09312946290338</v>
       </c>
       <c r="M45" t="n">
-        <v>43.53218661187537</v>
+        <v>53.78850801074492</v>
       </c>
       <c r="N45" t="n">
-        <v>44.6843540574277</v>
+        <v>55.21212976508852</v>
       </c>
       <c r="O45" t="n">
-        <v>40.87745416538694</v>
+        <v>50.50831216996504</v>
       </c>
       <c r="P45" t="n">
-        <v>32.80776078774157</v>
+        <v>40.53737340785551</v>
       </c>
       <c r="Q45" t="n">
-        <v>21.93111925137651</v>
+        <v>27.09816058758388</v>
       </c>
       <c r="R45" t="n">
-        <v>10.66715654626464</v>
+        <v>13.18037250130008</v>
       </c>
       <c r="S45" t="n">
-        <v>3.191255154947068</v>
+        <v>3.943125003037989</v>
       </c>
       <c r="T45" t="n">
-        <v>0.6925061363391632</v>
+        <v>0.8556627810606642</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01130314694786448</v>
+        <v>0.01396620426105547</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1440379162973768</v>
+        <v>0.1779737067583679</v>
       </c>
       <c r="H46" t="n">
-        <v>1.280628019443951</v>
+        <v>1.582348047360763</v>
       </c>
       <c r="I46" t="n">
-        <v>4.331612973742932</v>
+        <v>5.352154745060739</v>
       </c>
       <c r="J46" t="n">
-        <v>10.18348068222454</v>
+        <v>12.58274106781661</v>
       </c>
       <c r="K46" t="n">
-        <v>16.73458700254977</v>
+        <v>20.67730883974492</v>
       </c>
       <c r="L46" t="n">
-        <v>21.41450984661182</v>
+        <v>26.45983636660318</v>
       </c>
       <c r="M46" t="n">
-        <v>22.57859809741516</v>
+        <v>27.89818750576852</v>
       </c>
       <c r="N46" t="n">
-        <v>22.04172950030678</v>
+        <v>27.23483096239645</v>
       </c>
       <c r="O46" t="n">
-        <v>20.35910475083287</v>
+        <v>25.15577447890096</v>
       </c>
       <c r="P46" t="n">
-        <v>17.42073125836636</v>
+        <v>21.52511086103024</v>
       </c>
       <c r="Q46" t="n">
-        <v>12.06121133650125</v>
+        <v>14.90287102683025</v>
       </c>
       <c r="R46" t="n">
-        <v>6.47646849097114</v>
+        <v>8.002345032971705</v>
       </c>
       <c r="S46" t="n">
-        <v>2.510188050382466</v>
+        <v>3.101596325961738</v>
       </c>
       <c r="T46" t="n">
-        <v>0.6154347332706097</v>
+        <v>0.7604331106948445</v>
       </c>
       <c r="U46" t="n">
-        <v>0.007856613616220561</v>
+        <v>0.009707656732274625</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
